--- a/SKRIPSI/Analisa_LK_MBTO_MRAT_TCID_UNVR_2014_2018.xlsx
+++ b/SKRIPSI/Analisa_LK_MBTO_MRAT_TCID_UNVR_2014_2018.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LK_2015_2019" sheetId="5" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="87">
   <si>
     <t>Aset Lancar</t>
   </si>
@@ -277,6 +277,18 @@
   </si>
   <si>
     <t>2018 Final</t>
+  </si>
+  <si>
+    <t>Q1 2019</t>
+  </si>
+  <si>
+    <t>Q2 2019</t>
+  </si>
+  <si>
+    <t>Q3 2019</t>
+  </si>
+  <si>
+    <t>2019 Final</t>
   </si>
 </sst>
 </file>
@@ -738,39 +750,6 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -785,6 +764,39 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1007,11 +1019,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="373860608"/>
-        <c:axId val="373865504"/>
+        <c:axId val="-633358480"/>
+        <c:axId val="-633351408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="373860608"/>
+        <c:axId val="-633358480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1054,7 +1066,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="373865504"/>
+        <c:crossAx val="-633351408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1062,7 +1074,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="373865504"/>
+        <c:axId val="-633351408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1113,7 +1125,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="373860608"/>
+        <c:crossAx val="-633358480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1357,11 +1369,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="373855712"/>
-        <c:axId val="372948800"/>
+        <c:axId val="-633348144"/>
+        <c:axId val="-633349776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="373855712"/>
+        <c:axId val="-633348144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1404,7 +1416,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="372948800"/>
+        <c:crossAx val="-633349776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1412,7 +1424,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="372948800"/>
+        <c:axId val="-633349776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1463,7 +1475,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="373855712"/>
+        <c:crossAx val="-633348144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1707,11 +1719,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="372944992"/>
-        <c:axId val="241218480"/>
+        <c:axId val="-633356848"/>
+        <c:axId val="-633361744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="372944992"/>
+        <c:axId val="-633356848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1754,7 +1766,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="241218480"/>
+        <c:crossAx val="-633361744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1762,7 +1774,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="241218480"/>
+        <c:axId val="-633361744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1813,7 +1825,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="372944992"/>
+        <c:crossAx val="-633356848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3925,18 +3937,18 @@
       <c r="E3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="96" t="s">
+      <c r="F3" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96" t="s">
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
       <c r="N3" s="10"/>
       <c r="O3" s="10"/>
       <c r="P3" s="10"/>
@@ -3949,12 +3961,12 @@
       <c r="U3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="V3" s="96" t="s">
+      <c r="V3" s="102" t="s">
         <v>65</v>
       </c>
-      <c r="W3" s="96"/>
-      <c r="X3" s="96"/>
-      <c r="Y3" s="96"/>
+      <c r="W3" s="102"/>
+      <c r="X3" s="102"/>
+      <c r="Y3" s="102"/>
     </row>
     <row r="4" spans="2:25" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8"/>
@@ -4062,10 +4074,10 @@
     </row>
     <row r="6" spans="2:25" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
-      <c r="C6" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="97"/>
+      <c r="C6" s="101" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="101"/>
       <c r="E6" s="3">
         <v>6337170</v>
       </c>
@@ -4102,10 +4114,10 @@
     </row>
     <row r="7" spans="2:25" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
-      <c r="C7" s="97" t="s">
+      <c r="C7" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="97"/>
+      <c r="D7" s="101"/>
       <c r="E7" s="3">
         <v>7943500</v>
       </c>
@@ -4211,10 +4223,10 @@
     </row>
     <row r="10" spans="2:25" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
-      <c r="C10" s="97" t="s">
+      <c r="C10" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="97"/>
+      <c r="D10" s="101"/>
       <c r="E10" s="3">
         <v>8864832</v>
       </c>
@@ -4251,10 +4263,10 @@
     </row>
     <row r="11" spans="2:25" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
-      <c r="C11" s="97" t="s">
+      <c r="C11" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="97"/>
+      <c r="D11" s="101"/>
       <c r="E11" s="3">
         <v>817056</v>
       </c>
@@ -4406,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="6">
-        <f t="shared" ref="G15:Y15" si="3">H12+H14</f>
+        <f t="shared" ref="H15:Y15" si="3">H12+H14</f>
         <v>0</v>
       </c>
       <c r="I15" s="6">
@@ -4655,10 +4667,10 @@
       </c>
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="C21" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" s="97"/>
+      <c r="C21" s="101" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="101"/>
       <c r="E21" s="3">
         <v>376694285634</v>
       </c>
@@ -4676,10 +4688,10 @@
       </c>
     </row>
     <row r="22" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="C22" s="97" t="s">
+      <c r="C22" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="97"/>
+      <c r="D22" s="101"/>
       <c r="E22" s="3">
         <v>122092091111</v>
       </c>
@@ -4724,10 +4736,10 @@
       </c>
     </row>
     <row r="25" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="C25" s="97" t="s">
+      <c r="C25" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="97"/>
+      <c r="D25" s="101"/>
       <c r="E25" s="3">
         <v>104267201912</v>
       </c>
@@ -4745,10 +4757,10 @@
       </c>
     </row>
     <row r="26" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="97" t="s">
+      <c r="C26" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="97"/>
+      <c r="D26" s="101"/>
       <c r="E26" s="3">
         <v>10574595944</v>
       </c>
@@ -4991,10 +5003,10 @@
       </c>
     </row>
     <row r="36" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="C36" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="D36" s="97"/>
+      <c r="C36" s="101" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" s="101"/>
       <c r="E36" s="3">
         <v>441621631299</v>
       </c>
@@ -5012,10 +5024,10 @@
       </c>
     </row>
     <row r="37" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="C37" s="97" t="s">
+      <c r="C37" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="D37" s="97"/>
+      <c r="D37" s="101"/>
       <c r="E37" s="3">
         <v>177761450767</v>
       </c>
@@ -5072,10 +5084,10 @@
       </c>
     </row>
     <row r="40" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="C40" s="97" t="s">
+      <c r="C40" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="D40" s="97"/>
+      <c r="D40" s="101"/>
       <c r="E40" s="3">
         <v>111683722179</v>
       </c>
@@ -5093,10 +5105,10 @@
       </c>
     </row>
     <row r="41" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="C41" s="97" t="s">
+      <c r="C41" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="97"/>
+      <c r="D41" s="101"/>
       <c r="E41" s="3">
         <v>53950225983</v>
       </c>
@@ -5364,10 +5376,10 @@
       </c>
     </row>
     <row r="51" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="C51" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="D51" s="97"/>
+      <c r="C51" s="101" t="s">
+        <v>0</v>
+      </c>
+      <c r="D51" s="101"/>
       <c r="E51" s="3">
         <v>874017297803</v>
       </c>
@@ -5385,10 +5397,10 @@
       </c>
     </row>
     <row r="52" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="C52" s="97" t="s">
+      <c r="C52" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="D52" s="97"/>
+      <c r="D52" s="101"/>
       <c r="E52" s="3">
         <v>979218045833</v>
       </c>
@@ -5445,10 +5457,10 @@
       </c>
     </row>
     <row r="55" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="C55" s="97" t="s">
+      <c r="C55" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="D55" s="97"/>
+      <c r="D55" s="101"/>
       <c r="E55" s="3">
         <v>486053837459</v>
       </c>
@@ -5466,10 +5478,10 @@
       </c>
     </row>
     <row r="56" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="C56" s="97" t="s">
+      <c r="C56" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="D56" s="97"/>
+      <c r="D56" s="101"/>
       <c r="E56" s="3">
         <v>83677063909</v>
       </c>
@@ -5605,11 +5617,6 @@
     <row r="61" spans="2:25" ht="13.5" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="V3:Y3"/>
-    <mergeCell ref="C51:D51"/>
     <mergeCell ref="C52:D52"/>
     <mergeCell ref="C55:D55"/>
     <mergeCell ref="C56:D56"/>
@@ -5624,6 +5631,11 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="V3:Y3"/>
+    <mergeCell ref="C51:D51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5633,7 +5645,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Y61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="Q1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
@@ -5742,36 +5754,36 @@
       <c r="E4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="96" t="s">
+      <c r="F4" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96" t="s">
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
-      <c r="N4" s="96" t="s">
+      <c r="K4" s="102"/>
+      <c r="L4" s="102"/>
+      <c r="M4" s="102"/>
+      <c r="N4" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="96"/>
-      <c r="P4" s="96"/>
-      <c r="Q4" s="96"/>
-      <c r="R4" s="96" t="s">
+      <c r="O4" s="102"/>
+      <c r="P4" s="102"/>
+      <c r="Q4" s="102"/>
+      <c r="R4" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="S4" s="96"/>
-      <c r="T4" s="96"/>
-      <c r="U4" s="96"/>
-      <c r="V4" s="96" t="s">
+      <c r="S4" s="102"/>
+      <c r="T4" s="102"/>
+      <c r="U4" s="102"/>
+      <c r="V4" s="102" t="s">
         <v>65</v>
       </c>
-      <c r="W4" s="96"/>
-      <c r="X4" s="96"/>
-      <c r="Y4" s="96"/>
+      <c r="W4" s="102"/>
+      <c r="X4" s="102"/>
+      <c r="Y4" s="102"/>
     </row>
     <row r="5" spans="2:25" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
@@ -5846,10 +5858,10 @@
     </row>
     <row r="6" spans="2:25" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
-      <c r="C6" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="97"/>
+      <c r="C6" s="101" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="101"/>
       <c r="E6" s="3">
         <v>6337170</v>
       </c>
@@ -5910,10 +5922,10 @@
     </row>
     <row r="7" spans="2:25" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
-      <c r="C7" s="97" t="s">
+      <c r="C7" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="97"/>
+      <c r="D7" s="101"/>
       <c r="E7" s="3">
         <v>7943500</v>
       </c>
@@ -5979,51 +5991,51 @@
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="4">
-        <f>E6+E7</f>
+        <f t="shared" ref="E8:L8" si="0">E6+E7</f>
         <v>14280670</v>
       </c>
       <c r="F8" s="4">
-        <f>F6+F7</f>
+        <f t="shared" si="0"/>
         <v>14772554</v>
       </c>
       <c r="G8" s="4">
-        <f>G6+G7</f>
+        <f t="shared" si="0"/>
         <v>16486178</v>
       </c>
       <c r="H8" s="4">
-        <f>H6+H7</f>
+        <f t="shared" si="0"/>
         <v>15984771</v>
       </c>
       <c r="I8" s="4">
-        <f>I6+I7</f>
+        <f t="shared" si="0"/>
         <v>15729945</v>
       </c>
       <c r="J8" s="4">
-        <f>J6+J7</f>
+        <f t="shared" si="0"/>
         <v>16653300</v>
       </c>
       <c r="K8" s="4">
-        <f>K6+K7</f>
+        <f t="shared" si="0"/>
         <v>18920136</v>
       </c>
       <c r="L8" s="4">
-        <f>L6+L7</f>
+        <f t="shared" si="0"/>
         <v>16748673</v>
       </c>
       <c r="M8" s="4">
-        <f t="shared" ref="M8:P8" si="0">M6+M7</f>
+        <f t="shared" ref="M8:P8" si="1">M6+M7</f>
         <v>16745695</v>
       </c>
       <c r="N8" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18586404</v>
       </c>
       <c r="O8" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19286387</v>
       </c>
       <c r="P8" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18815224</v>
       </c>
       <c r="Q8" s="4">
@@ -6031,15 +6043,15 @@
         <v>16745695</v>
       </c>
       <c r="R8" s="4">
-        <f t="shared" ref="R8:T8" si="1">R6+R7</f>
+        <f t="shared" ref="R8:T8" si="2">R6+R7</f>
         <v>20241813</v>
       </c>
       <c r="S8" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20526125</v>
       </c>
       <c r="T8" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19998136</v>
       </c>
       <c r="U8" s="4">
@@ -6047,15 +6059,15 @@
         <v>18906413</v>
       </c>
       <c r="V8" s="4">
-        <f t="shared" ref="V8" si="2">V6+V7</f>
+        <f t="shared" ref="V8" si="3">V6+V7</f>
         <v>0</v>
       </c>
       <c r="W8" s="4">
-        <f t="shared" ref="W8" si="3">W6+W7</f>
+        <f t="shared" ref="W8" si="4">W6+W7</f>
         <v>0</v>
       </c>
       <c r="X8" s="4">
-        <f t="shared" ref="X8" si="4">X6+X7</f>
+        <f t="shared" ref="X8" si="5">X6+X7</f>
         <v>0</v>
       </c>
       <c r="Y8" s="4">
@@ -6091,10 +6103,10 @@
     </row>
     <row r="10" spans="2:25" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
-      <c r="C10" s="97" t="s">
+      <c r="C10" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="97"/>
+      <c r="D10" s="101"/>
       <c r="E10" s="3">
         <v>8864832</v>
       </c>
@@ -6155,10 +6167,10 @@
     </row>
     <row r="11" spans="2:25" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
-      <c r="C11" s="97" t="s">
+      <c r="C11" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="97"/>
+      <c r="D11" s="101"/>
       <c r="E11" s="3">
         <v>817056</v>
       </c>
@@ -6240,51 +6252,51 @@
         <v>10229164</v>
       </c>
       <c r="I12" s="4">
-        <f t="shared" ref="I12:J12" si="5">I10+I11</f>
+        <f t="shared" ref="I12:J12" si="6">I10+I11</f>
         <v>10902585</v>
       </c>
       <c r="J12" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10255900</v>
       </c>
       <c r="K12" s="4">
-        <f t="shared" ref="K12:L12" si="6">K10+K11</f>
+        <f t="shared" ref="K12:L12" si="7">K10+K11</f>
         <v>14029689</v>
       </c>
       <c r="L12" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10405882</v>
       </c>
       <c r="M12" s="4">
-        <f t="shared" ref="M12:P12" si="7">M10+M11</f>
+        <f t="shared" ref="M12:P12" si="8">M10+M11</f>
         <v>12041437</v>
       </c>
       <c r="N12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>11921305</v>
       </c>
       <c r="O12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>14380273</v>
       </c>
       <c r="P12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>12391366</v>
       </c>
       <c r="Q12" s="4">
-        <f t="shared" ref="Q12:T12" si="8">Q10+Q11</f>
+        <f t="shared" ref="Q12:T12" si="9">Q10+Q11</f>
         <v>12041437</v>
       </c>
       <c r="R12" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>13229294</v>
       </c>
       <c r="S12" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>15514356</v>
       </c>
       <c r="T12" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>11027987</v>
       </c>
       <c r="U12" s="4">
@@ -6292,15 +6304,15 @@
         <v>13733025</v>
       </c>
       <c r="V12" s="4">
-        <f t="shared" ref="V12:Y12" si="9">V10+V11</f>
+        <f t="shared" ref="V12:X12" si="10">V10+V11</f>
         <v>0</v>
       </c>
       <c r="W12" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="X12" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y12" s="4">
@@ -6406,83 +6418,83 @@
         <v>14280670</v>
       </c>
       <c r="F15" s="6">
-        <f t="shared" ref="F15:H15" si="10">F12+F14</f>
+        <f t="shared" ref="F15:H15" si="11">F12+F14</f>
         <v>14772554</v>
       </c>
       <c r="G15" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>16486178</v>
       </c>
       <c r="H15" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>15984771</v>
       </c>
       <c r="I15" s="6">
-        <f t="shared" ref="I15:J15" si="11">I12+I14</f>
+        <f t="shared" ref="I15:J15" si="12">I12+I14</f>
         <v>15729945</v>
       </c>
       <c r="J15" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>16653300</v>
       </c>
       <c r="K15" s="6">
-        <f t="shared" ref="K15:P15" si="12">K12+K14</f>
+        <f t="shared" ref="K15:P15" si="13">K12+K14</f>
         <v>18920136</v>
       </c>
       <c r="L15" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>16748673</v>
       </c>
       <c r="M15" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>16745695</v>
       </c>
       <c r="N15" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>18586404</v>
       </c>
       <c r="O15" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>19286387</v>
       </c>
       <c r="P15" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>18815224</v>
       </c>
       <c r="Q15" s="6">
-        <f t="shared" ref="Q15:T15" si="13">Q12+Q14</f>
+        <f t="shared" ref="Q15:T15" si="14">Q12+Q14</f>
         <v>16745695</v>
       </c>
       <c r="R15" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>20241813</v>
       </c>
       <c r="S15" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>20526125</v>
       </c>
       <c r="T15" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>19998136</v>
       </c>
       <c r="U15" s="6">
-        <f t="shared" ref="U15:X15" si="14">U12+U14</f>
+        <f t="shared" ref="U15:X15" si="15">U12+U14</f>
         <v>18906413</v>
       </c>
       <c r="V15" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="W15" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="X15" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Y15" s="6">
-        <f t="shared" ref="Y15" si="15">Y12+Y14</f>
+        <f t="shared" ref="Y15" si="16">Y12+Y14</f>
         <v>0</v>
       </c>
     </row>
@@ -6495,83 +6507,83 @@
         <v>0</v>
       </c>
       <c r="F16" s="7">
-        <f t="shared" ref="F16:U16" si="16">F8-F15</f>
+        <f t="shared" ref="F16:M16" si="17">F8-F15</f>
         <v>0</v>
       </c>
       <c r="G16" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H16" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I16" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J16" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K16" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L16" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M16" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N16" s="7">
-        <f t="shared" ref="N16" si="17">N8-N15</f>
+        <f t="shared" ref="N16" si="18">N8-N15</f>
         <v>0</v>
       </c>
       <c r="O16" s="7">
-        <f t="shared" ref="O16" si="18">O8-O15</f>
+        <f t="shared" ref="O16" si="19">O8-O15</f>
         <v>0</v>
       </c>
       <c r="P16" s="7">
-        <f t="shared" ref="P16" si="19">P8-P15</f>
+        <f t="shared" ref="P16" si="20">P8-P15</f>
         <v>0</v>
       </c>
       <c r="Q16" s="7">
-        <f t="shared" ref="Q16" si="20">Q8-Q15</f>
+        <f t="shared" ref="Q16" si="21">Q8-Q15</f>
         <v>0</v>
       </c>
       <c r="R16" s="7">
-        <f t="shared" ref="R16" si="21">R8-R15</f>
+        <f t="shared" ref="R16" si="22">R8-R15</f>
         <v>0</v>
       </c>
       <c r="S16" s="7">
-        <f t="shared" ref="S16" si="22">S8-S15</f>
+        <f t="shared" ref="S16" si="23">S8-S15</f>
         <v>0</v>
       </c>
       <c r="T16" s="7">
-        <f t="shared" ref="T16" si="23">T8-T15</f>
+        <f t="shared" ref="T16" si="24">T8-T15</f>
         <v>0</v>
       </c>
       <c r="U16" s="7">
-        <f t="shared" ref="U16" si="24">U8-U15</f>
+        <f t="shared" ref="U16" si="25">U8-U15</f>
         <v>0</v>
       </c>
       <c r="V16" s="7">
-        <f t="shared" ref="V16" si="25">V8-V15</f>
+        <f t="shared" ref="V16" si="26">V8-V15</f>
         <v>0</v>
       </c>
       <c r="W16" s="7">
-        <f t="shared" ref="W16" si="26">W8-W15</f>
+        <f t="shared" ref="W16" si="27">W8-W15</f>
         <v>0</v>
       </c>
       <c r="X16" s="7">
-        <f t="shared" ref="X16" si="27">X8-X15</f>
+        <f t="shared" ref="X16" si="28">X8-X15</f>
         <v>0</v>
       </c>
       <c r="Y16" s="7">
-        <f t="shared" ref="Y16" si="28">Y8-Y15</f>
+        <f t="shared" ref="Y16" si="29">Y8-Y15</f>
         <v>0</v>
       </c>
     </row>
@@ -6584,83 +6596,83 @@
         <v/>
       </c>
       <c r="F17" s="7" t="str">
-        <f t="shared" ref="F17:U17" si="29">IF(F16=0,"","TIDAK SAMA")</f>
+        <f t="shared" ref="F17:M17" si="30">IF(F16=0,"","TIDAK SAMA")</f>
         <v/>
       </c>
       <c r="G17" s="7" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="H17" s="7" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="I17" s="7" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="J17" s="7" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="K17" s="7" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="L17" s="7" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="M17" s="7" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="N17" s="7" t="str">
-        <f t="shared" ref="N17" si="30">IF(N16=0,"","TIDAK SAMA")</f>
+        <f t="shared" ref="N17" si="31">IF(N16=0,"","TIDAK SAMA")</f>
         <v/>
       </c>
       <c r="O17" s="7" t="str">
-        <f t="shared" ref="O17" si="31">IF(O16=0,"","TIDAK SAMA")</f>
+        <f t="shared" ref="O17" si="32">IF(O16=0,"","TIDAK SAMA")</f>
         <v/>
       </c>
       <c r="P17" s="7" t="str">
-        <f t="shared" ref="P17" si="32">IF(P16=0,"","TIDAK SAMA")</f>
+        <f t="shared" ref="P17" si="33">IF(P16=0,"","TIDAK SAMA")</f>
         <v/>
       </c>
       <c r="Q17" s="7" t="str">
-        <f t="shared" ref="Q17" si="33">IF(Q16=0,"","TIDAK SAMA")</f>
+        <f t="shared" ref="Q17" si="34">IF(Q16=0,"","TIDAK SAMA")</f>
         <v/>
       </c>
       <c r="R17" s="7" t="str">
-        <f t="shared" ref="R17" si="34">IF(R16=0,"","TIDAK SAMA")</f>
+        <f t="shared" ref="R17" si="35">IF(R16=0,"","TIDAK SAMA")</f>
         <v/>
       </c>
       <c r="S17" s="7" t="str">
-        <f t="shared" ref="S17" si="35">IF(S16=0,"","TIDAK SAMA")</f>
+        <f t="shared" ref="S17" si="36">IF(S16=0,"","TIDAK SAMA")</f>
         <v/>
       </c>
       <c r="T17" s="7" t="str">
-        <f t="shared" ref="T17" si="36">IF(T16=0,"","TIDAK SAMA")</f>
+        <f t="shared" ref="T17" si="37">IF(T16=0,"","TIDAK SAMA")</f>
         <v/>
       </c>
       <c r="U17" s="7" t="str">
-        <f t="shared" ref="U17" si="37">IF(U16=0,"","TIDAK SAMA")</f>
+        <f t="shared" ref="U17" si="38">IF(U16=0,"","TIDAK SAMA")</f>
         <v/>
       </c>
       <c r="V17" s="7" t="str">
-        <f t="shared" ref="V17" si="38">IF(V16=0,"","TIDAK SAMA")</f>
+        <f t="shared" ref="V17" si="39">IF(V16=0,"","TIDAK SAMA")</f>
         <v/>
       </c>
       <c r="W17" s="7" t="str">
-        <f t="shared" ref="W17" si="39">IF(W16=0,"","TIDAK SAMA")</f>
+        <f t="shared" ref="W17" si="40">IF(W16=0,"","TIDAK SAMA")</f>
         <v/>
       </c>
       <c r="X17" s="7" t="str">
-        <f t="shared" ref="X17" si="40">IF(X16=0,"","TIDAK SAMA")</f>
+        <f t="shared" ref="X17" si="41">IF(X16=0,"","TIDAK SAMA")</f>
         <v/>
       </c>
       <c r="Y17" s="7" t="str">
-        <f t="shared" ref="Y17" si="41">IF(Y16=0,"","TIDAK SAMA")</f>
+        <f t="shared" ref="Y17" si="42">IF(Y16=0,"","TIDAK SAMA")</f>
         <v/>
       </c>
     </row>
@@ -6773,10 +6785,10 @@
       </c>
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="C21" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" s="97"/>
+      <c r="C21" s="101" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="101"/>
       <c r="E21" s="3">
         <v>376694285634</v>
       </c>
@@ -6797,10 +6809,10 @@
       </c>
     </row>
     <row r="22" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="C22" s="97" t="s">
+      <c r="C22" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="97"/>
+      <c r="D22" s="101"/>
       <c r="E22" s="3">
         <v>122092091111</v>
       </c>
@@ -6831,31 +6843,31 @@
         <v>498786376745</v>
       </c>
       <c r="I23" s="4">
-        <f t="shared" ref="I23:U23" si="42">I21+I22</f>
+        <f t="shared" ref="I23:U23" si="43">I21+I22</f>
         <v>497090038108</v>
       </c>
       <c r="M23" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>483037173864</v>
       </c>
       <c r="Q23" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>497354419089</v>
       </c>
       <c r="U23" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>511887783867</v>
       </c>
       <c r="Y23" s="4">
-        <f t="shared" ref="Y23" si="43">Y21+Y22</f>
+        <f t="shared" ref="Y23" si="44">Y21+Y22</f>
         <v>511887783867</v>
       </c>
     </row>
     <row r="25" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="C25" s="97" t="s">
+      <c r="C25" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="97"/>
+      <c r="D25" s="101"/>
       <c r="E25" s="3">
         <v>104267201912</v>
       </c>
@@ -6876,10 +6888,10 @@
       </c>
     </row>
     <row r="26" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="97" t="s">
+      <c r="C26" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="97"/>
+      <c r="D26" s="101"/>
       <c r="E26" s="3">
         <v>10574595944</v>
       </c>
@@ -6910,23 +6922,23 @@
         <v>114841797856</v>
       </c>
       <c r="I27" s="4">
-        <f t="shared" ref="I27" si="44">I25+I26</f>
+        <f t="shared" ref="I27" si="45">I25+I26</f>
         <v>120064018299</v>
       </c>
       <c r="M27" s="4">
-        <f t="shared" ref="M27" si="45">M25+M26</f>
+        <f t="shared" ref="M27" si="46">M25+M26</f>
         <v>113947973889</v>
       </c>
       <c r="Q27" s="4">
-        <f t="shared" ref="Q27" si="46">Q25+Q26</f>
+        <f t="shared" ref="Q27" si="47">Q25+Q26</f>
         <v>130623005085</v>
       </c>
       <c r="U27" s="4">
-        <f t="shared" ref="U27" si="47">U25+U26</f>
+        <f t="shared" ref="U27" si="48">U25+U26</f>
         <v>143913787087</v>
       </c>
       <c r="Y27" s="4">
-        <f t="shared" ref="Y27" si="48">Y25+Y26</f>
+        <f t="shared" ref="Y27" si="49">Y25+Y26</f>
         <v>143913787087</v>
       </c>
     </row>
@@ -6969,35 +6981,35 @@
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6">
-        <f t="shared" ref="I30:U30" si="49">I27+I29</f>
+        <f t="shared" ref="I30:U30" si="50">I27+I29</f>
         <v>497090038108</v>
       </c>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
       <c r="M30" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>483037173864</v>
       </c>
       <c r="N30" s="6"/>
       <c r="O30" s="6"/>
       <c r="P30" s="6"/>
       <c r="Q30" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>497354419089</v>
       </c>
       <c r="R30" s="6"/>
       <c r="S30" s="6"/>
       <c r="T30" s="6"/>
       <c r="U30" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>511887783867</v>
       </c>
       <c r="V30" s="6"/>
       <c r="W30" s="6"/>
       <c r="X30" s="6"/>
       <c r="Y30" s="6">
-        <f t="shared" ref="Y30" si="50">Y27+Y29</f>
+        <f t="shared" ref="Y30" si="51">Y27+Y29</f>
         <v>511887783867</v>
       </c>
     </row>
@@ -7086,10 +7098,10 @@
       </c>
     </row>
     <row r="36" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="C36" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="D36" s="97"/>
+      <c r="C36" s="101" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" s="101"/>
       <c r="E36" s="3">
         <v>441621631299</v>
       </c>
@@ -7110,10 +7122,10 @@
       </c>
     </row>
     <row r="37" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="C37" s="97" t="s">
+      <c r="C37" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="D37" s="97"/>
+      <c r="D37" s="101"/>
       <c r="E37" s="3">
         <v>177761450767</v>
       </c>
@@ -7147,43 +7159,43 @@
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4">
-        <f t="shared" ref="I38" si="51">I36+I37</f>
+        <f t="shared" ref="I38" si="52">I36+I37</f>
         <v>648899377240</v>
       </c>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
       <c r="M38" s="4">
-        <f t="shared" ref="M38" si="52">M36+M37</f>
+        <f t="shared" ref="M38" si="53">M36+M37</f>
         <v>709959168088</v>
       </c>
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
       <c r="P38" s="4"/>
       <c r="Q38" s="4">
-        <f t="shared" ref="Q38" si="53">Q36+Q37</f>
+        <f t="shared" ref="Q38" si="54">Q36+Q37</f>
         <v>780669761787</v>
       </c>
       <c r="R38" s="4"/>
       <c r="S38" s="4"/>
       <c r="T38" s="4"/>
       <c r="U38" s="4">
-        <f t="shared" ref="U38" si="54">U36+U37</f>
+        <f t="shared" ref="U38" si="55">U36+U37</f>
         <v>648016880325</v>
       </c>
       <c r="V38" s="4"/>
       <c r="W38" s="4"/>
       <c r="X38" s="4"/>
       <c r="Y38" s="4">
-        <f t="shared" ref="Y38" si="55">Y36+Y37</f>
+        <f t="shared" ref="Y38" si="56">Y36+Y37</f>
         <v>648016880325</v>
       </c>
     </row>
     <row r="40" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="C40" s="97" t="s">
+      <c r="C40" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="D40" s="97"/>
+      <c r="D40" s="101"/>
       <c r="E40" s="3">
         <v>111683722179</v>
       </c>
@@ -7204,10 +7216,10 @@
       </c>
     </row>
     <row r="41" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="C41" s="97" t="s">
+      <c r="C41" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="97"/>
+      <c r="D41" s="101"/>
       <c r="E41" s="3">
         <v>53950225983</v>
       </c>
@@ -7241,35 +7253,35 @@
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4">
-        <f t="shared" ref="I42" si="56">I40+I41</f>
+        <f t="shared" ref="I42" si="57">I40+I41</f>
         <v>214685781274</v>
       </c>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
       <c r="M42" s="4">
-        <f t="shared" ref="M42" si="57">M40+M41</f>
+        <f t="shared" ref="M42" si="58">M40+M41</f>
         <v>269032270377</v>
       </c>
       <c r="N42" s="4"/>
       <c r="O42" s="4"/>
       <c r="P42" s="4"/>
       <c r="Q42" s="4">
-        <f t="shared" ref="Q42" si="58">Q40+Q41</f>
+        <f t="shared" ref="Q42" si="59">Q40+Q41</f>
         <v>367927139244</v>
       </c>
       <c r="R42" s="4"/>
       <c r="S42" s="4"/>
       <c r="T42" s="4"/>
       <c r="U42" s="4">
-        <f t="shared" ref="U42" si="59">U40+U41</f>
+        <f t="shared" ref="U42" si="60">U40+U41</f>
         <v>347517123452</v>
       </c>
       <c r="V42" s="4"/>
       <c r="W42" s="4"/>
       <c r="X42" s="4"/>
       <c r="Y42" s="4">
-        <f t="shared" ref="Y42" si="60">Y40+Y41</f>
+        <f t="shared" ref="Y42" si="61">Y40+Y41</f>
         <v>347517123452</v>
       </c>
     </row>
@@ -7327,35 +7339,35 @@
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
       <c r="I45" s="6">
-        <f t="shared" ref="I45" si="61">I42+I44</f>
+        <f t="shared" ref="I45" si="62">I42+I44</f>
         <v>648899377240</v>
       </c>
       <c r="J45" s="6"/>
       <c r="K45" s="6"/>
       <c r="L45" s="6"/>
       <c r="M45" s="6">
-        <f t="shared" ref="M45" si="62">M42+M44</f>
+        <f t="shared" ref="M45" si="63">M42+M44</f>
         <v>709959168088</v>
       </c>
       <c r="N45" s="6"/>
       <c r="O45" s="6"/>
       <c r="P45" s="6"/>
       <c r="Q45" s="6">
-        <f t="shared" ref="Q45" si="63">Q42+Q44</f>
+        <f t="shared" ref="Q45" si="64">Q42+Q44</f>
         <v>780669761787</v>
       </c>
       <c r="R45" s="6"/>
       <c r="S45" s="6"/>
       <c r="T45" s="6"/>
       <c r="U45" s="6">
-        <f t="shared" ref="U45" si="64">U42+U44</f>
+        <f t="shared" ref="U45" si="65">U42+U44</f>
         <v>648016880325</v>
       </c>
       <c r="V45" s="6"/>
       <c r="W45" s="6"/>
       <c r="X45" s="6"/>
       <c r="Y45" s="6">
-        <f t="shared" ref="Y45" si="65">Y42+Y44</f>
+        <f t="shared" ref="Y45" si="66">Y42+Y44</f>
         <v>648016880325</v>
       </c>
     </row>
@@ -7445,10 +7457,10 @@
       </c>
     </row>
     <row r="51" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="C51" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="D51" s="97"/>
+      <c r="C51" s="101" t="s">
+        <v>0</v>
+      </c>
+      <c r="D51" s="101"/>
       <c r="E51" s="3">
         <v>874017297803</v>
       </c>
@@ -7469,10 +7481,10 @@
       </c>
     </row>
     <row r="52" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="C52" s="97" t="s">
+      <c r="C52" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="D52" s="97"/>
+      <c r="D52" s="101"/>
       <c r="E52" s="3">
         <v>979218045833</v>
       </c>
@@ -7506,43 +7518,43 @@
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
       <c r="I53" s="4">
-        <f t="shared" ref="I53" si="66">I51+I52</f>
+        <f t="shared" ref="I53" si="67">I51+I52</f>
         <v>2082096848703</v>
       </c>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
       <c r="M53" s="4">
-        <f t="shared" ref="M53" si="67">M51+M52</f>
+        <f t="shared" ref="M53" si="68">M51+M52</f>
         <v>2185101038101</v>
       </c>
       <c r="N53" s="4"/>
       <c r="O53" s="4"/>
       <c r="P53" s="4"/>
       <c r="Q53" s="4">
-        <f t="shared" ref="Q53" si="68">Q51+Q52</f>
+        <f t="shared" ref="Q53" si="69">Q51+Q52</f>
         <v>2361807189430</v>
       </c>
       <c r="R53" s="4"/>
       <c r="S53" s="4"/>
       <c r="T53" s="4"/>
       <c r="U53" s="4">
-        <f t="shared" ref="U53" si="69">U51+U52</f>
+        <f t="shared" ref="U53" si="70">U51+U52</f>
         <v>2445143511801</v>
       </c>
       <c r="V53" s="4"/>
       <c r="W53" s="4"/>
       <c r="X53" s="4"/>
       <c r="Y53" s="4">
-        <f t="shared" ref="Y53" si="70">Y51+Y52</f>
+        <f t="shared" ref="Y53" si="71">Y51+Y52</f>
         <v>2445143511801</v>
       </c>
     </row>
     <row r="55" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="C55" s="97" t="s">
+      <c r="C55" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="D55" s="97"/>
+      <c r="D55" s="101"/>
       <c r="E55" s="3">
         <v>486053837459</v>
       </c>
@@ -7563,10 +7575,10 @@
       </c>
     </row>
     <row r="56" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="C56" s="97" t="s">
+      <c r="C56" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="D56" s="97"/>
+      <c r="D56" s="101"/>
       <c r="E56" s="3">
         <v>83677063909</v>
       </c>
@@ -7600,35 +7612,35 @@
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
       <c r="I57" s="4">
-        <f t="shared" ref="I57" si="71">I55+I56</f>
+        <f t="shared" ref="I57" si="72">I55+I56</f>
         <v>367225370670</v>
       </c>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
       <c r="M57" s="4">
-        <f t="shared" ref="M57" si="72">M55+M56</f>
+        <f t="shared" ref="M57" si="73">M55+M56</f>
         <v>401942530776</v>
       </c>
       <c r="N57" s="4"/>
       <c r="O57" s="4"/>
       <c r="P57" s="4"/>
       <c r="Q57" s="4">
-        <f t="shared" ref="Q57" si="73">Q55+Q56</f>
+        <f t="shared" ref="Q57" si="74">Q55+Q56</f>
         <v>503480853006</v>
       </c>
       <c r="R57" s="4"/>
       <c r="S57" s="4"/>
       <c r="T57" s="4"/>
       <c r="U57" s="4">
-        <f t="shared" ref="U57" si="74">U55+U56</f>
+        <f t="shared" ref="U57" si="75">U55+U56</f>
         <v>472680346662</v>
       </c>
       <c r="V57" s="4"/>
       <c r="W57" s="4"/>
       <c r="X57" s="4"/>
       <c r="Y57" s="4">
-        <f t="shared" ref="Y57" si="75">Y55+Y56</f>
+        <f t="shared" ref="Y57" si="76">Y55+Y56</f>
         <v>472680346662</v>
       </c>
     </row>
@@ -7686,46 +7698,41 @@
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
       <c r="I60" s="6">
-        <f t="shared" ref="I60" si="76">I57+I59</f>
+        <f t="shared" ref="I60" si="77">I57+I59</f>
         <v>2082096848703</v>
       </c>
       <c r="J60" s="6"/>
       <c r="K60" s="6"/>
       <c r="L60" s="6"/>
       <c r="M60" s="6">
-        <f t="shared" ref="M60" si="77">M57+M59</f>
+        <f t="shared" ref="M60" si="78">M57+M59</f>
         <v>2185101038101</v>
       </c>
       <c r="N60" s="6"/>
       <c r="O60" s="6"/>
       <c r="P60" s="6"/>
       <c r="Q60" s="6">
-        <f t="shared" ref="Q60" si="78">Q57+Q59</f>
+        <f t="shared" ref="Q60" si="79">Q57+Q59</f>
         <v>2361807189430</v>
       </c>
       <c r="R60" s="6"/>
       <c r="S60" s="6"/>
       <c r="T60" s="6"/>
       <c r="U60" s="6">
-        <f t="shared" ref="U60" si="79">U57+U59</f>
+        <f t="shared" ref="U60" si="80">U57+U59</f>
         <v>2445143511801</v>
       </c>
       <c r="V60" s="6"/>
       <c r="W60" s="6"/>
       <c r="X60" s="6"/>
       <c r="Y60" s="6">
-        <f t="shared" ref="Y60" si="80">Y57+Y59</f>
+        <f t="shared" ref="Y60" si="81">Y57+Y59</f>
         <v>2445143511801</v>
       </c>
     </row>
     <row r="61" spans="2:25" ht="13.5" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="R4:U4"/>
-    <mergeCell ref="V4:Y4"/>
     <mergeCell ref="C55:D55"/>
     <mergeCell ref="C56:D56"/>
     <mergeCell ref="C6:D6"/>
@@ -7742,6 +7749,11 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C36:D36"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="R4:U4"/>
+    <mergeCell ref="V4:Y4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7750,10 +7762,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S105"/>
+  <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView topLeftCell="G4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" topLeftCell="M2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7769,137 +7781,151 @@
     <col min="15" max="15" width="19.28515625" style="23" bestFit="1" customWidth="1"/>
     <col min="16" max="18" width="19.28515625" style="23" customWidth="1"/>
     <col min="19" max="19" width="19.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="23"/>
+    <col min="20" max="22" width="19.28515625" style="23" customWidth="1"/>
+    <col min="23" max="23" width="19.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="92"/>
       <c r="B1" s="91"/>
-      <c r="D1" s="106" t="s">
+      <c r="D1" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="106" t="s">
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
       <c r="L1" s="27"/>
       <c r="M1" s="27"/>
       <c r="N1" s="27"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="92"/>
       <c r="B2" s="91"/>
-      <c r="D2" s="107" t="s">
+      <c r="D2" s="96" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="107" t="s">
+      <c r="E2" s="96" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="107" t="s">
+      <c r="F2" s="96" t="s">
         <v>64</v>
       </c>
-      <c r="G2" s="107" t="s">
+      <c r="G2" s="96" t="s">
         <v>74</v>
       </c>
-      <c r="H2" s="107" t="s">
+      <c r="H2" s="96" t="s">
         <v>62</v>
       </c>
-      <c r="I2" s="107" t="s">
+      <c r="I2" s="96" t="s">
         <v>63</v>
       </c>
-      <c r="J2" s="107" t="s">
+      <c r="J2" s="96" t="s">
         <v>64</v>
       </c>
-      <c r="K2" s="107" t="s">
+      <c r="K2" s="96" t="s">
         <v>74</v>
       </c>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="107"/>
-    </row>
-    <row r="3" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="96"/>
+    </row>
+    <row r="3" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
         <v>30</v>
       </c>
       <c r="B3" s="18"/>
     </row>
-    <row r="4" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="18"/>
     </row>
-    <row r="5" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
         <v>32</v>
       </c>
       <c r="B5" s="21"/>
     </row>
-    <row r="6" spans="1:19" s="111" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="108"/>
-      <c r="B6" s="109"/>
-      <c r="C6" s="110" t="s">
+    <row r="6" spans="1:23" s="100" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="97"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="110" t="s">
+      <c r="D6" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="110" t="s">
+      <c r="E6" s="99" t="s">
         <v>67</v>
       </c>
-      <c r="F6" s="110" t="s">
+      <c r="F6" s="99" t="s">
         <v>68</v>
       </c>
-      <c r="G6" s="110" t="s">
+      <c r="G6" s="99" t="s">
         <v>69</v>
       </c>
-      <c r="H6" s="110" t="s">
+      <c r="H6" s="99" t="s">
         <v>70</v>
       </c>
-      <c r="I6" s="110" t="s">
+      <c r="I6" s="99" t="s">
         <v>72</v>
       </c>
-      <c r="J6" s="110" t="s">
+      <c r="J6" s="99" t="s">
         <v>73</v>
       </c>
-      <c r="K6" s="110" t="s">
+      <c r="K6" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="L6" s="110" t="s">
+      <c r="L6" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="M6" s="110" t="s">
+      <c r="M6" s="99" t="s">
         <v>76</v>
       </c>
-      <c r="N6" s="110" t="s">
+      <c r="N6" s="99" t="s">
         <v>77</v>
       </c>
-      <c r="O6" s="110" t="s">
+      <c r="O6" s="99" t="s">
         <v>78</v>
       </c>
-      <c r="P6" s="110" t="s">
+      <c r="P6" s="99" t="s">
         <v>79</v>
       </c>
-      <c r="Q6" s="110" t="s">
+      <c r="Q6" s="99" t="s">
         <v>80</v>
       </c>
-      <c r="R6" s="110" t="s">
+      <c r="R6" s="99" t="s">
         <v>81</v>
       </c>
-      <c r="S6" s="110" t="s">
+      <c r="S6" s="99" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="98" t="s">
+      <c r="T6" s="99" t="s">
+        <v>83</v>
+      </c>
+      <c r="U6" s="99" t="s">
+        <v>84</v>
+      </c>
+      <c r="V6" s="99" t="s">
+        <v>85</v>
+      </c>
+      <c r="W6" s="99" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A7" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="98"/>
+      <c r="B7" s="107"/>
       <c r="C7" s="23">
         <v>34511534</v>
       </c>
@@ -7927,18 +7953,39 @@
       <c r="K7" s="23">
         <v>40053732</v>
       </c>
+      <c r="L7" s="23">
+        <v>10845687</v>
+      </c>
+      <c r="M7" s="23">
+        <v>21263708</v>
+      </c>
+      <c r="N7" s="23">
+        <v>31213506</v>
+      </c>
       <c r="O7" s="23">
         <v>41204510</v>
       </c>
+      <c r="P7" s="23">
+        <v>10746621</v>
+      </c>
+      <c r="Q7" s="23">
+        <v>21183734</v>
+      </c>
+      <c r="R7" s="23">
+        <v>31531499</v>
+      </c>
       <c r="S7" s="23">
         <v>41802073</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="98" t="s">
+      <c r="W7" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A8" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="98"/>
+      <c r="B8" s="107"/>
       <c r="C8" s="23">
         <v>-17412413</v>
       </c>
@@ -7966,14 +8013,35 @@
       <c r="K8" s="23">
         <v>-19594636</v>
       </c>
+      <c r="L8" s="23">
+        <v>-5219437</v>
+      </c>
+      <c r="M8" s="23">
+        <v>-10350543</v>
+      </c>
+      <c r="N8" s="23">
+        <v>-15160205</v>
+      </c>
       <c r="O8" s="23">
         <v>-19984776</v>
       </c>
+      <c r="P8" s="23">
+        <v>-5256880</v>
+      </c>
+      <c r="Q8" s="23">
+        <v>-10416314</v>
+      </c>
+      <c r="R8" s="23">
+        <v>-15719903</v>
+      </c>
       <c r="S8" s="23">
         <v>-20709800</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W8" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="28"/>
       <c r="B9" s="21" t="s">
         <v>11</v>
@@ -8016,15 +8084,15 @@
       </c>
       <c r="L9" s="22">
         <f t="shared" ref="L9:S9" si="2">L7+L8</f>
-        <v>0</v>
+        <v>5626250</v>
       </c>
       <c r="M9" s="22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10913165</v>
       </c>
       <c r="N9" s="22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>16053301</v>
       </c>
       <c r="O9" s="22">
         <f t="shared" si="2"/>
@@ -8032,26 +8100,42 @@
       </c>
       <c r="P9" s="22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5489741</v>
       </c>
       <c r="Q9" s="22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10767420</v>
       </c>
       <c r="R9" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" ref="R9" si="3">R7+R8</f>
+        <v>15811596</v>
       </c>
       <c r="S9" s="22">
         <f t="shared" si="2"/>
         <v>21092273</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="98" t="s">
+      <c r="T9" s="22">
+        <f t="shared" ref="T9:W9" si="4">T7+T8</f>
+        <v>0</v>
+      </c>
+      <c r="U9" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V9" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W9" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A10" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="98"/>
+      <c r="B10" s="107"/>
       <c r="C10" s="23">
         <v>-6613992</v>
       </c>
@@ -8079,18 +8163,39 @@
       <c r="K10" s="23">
         <v>-7791556</v>
       </c>
+      <c r="L10" s="23">
+        <v>-1919273</v>
+      </c>
+      <c r="M10" s="23">
+        <v>-3985012</v>
+      </c>
+      <c r="N10" s="23">
+        <v>-6056107</v>
+      </c>
       <c r="O10" s="23">
         <v>-7839387</v>
       </c>
+      <c r="P10" s="23">
+        <v>-2052627</v>
+      </c>
+      <c r="Q10" s="23">
+        <v>-4041102</v>
+      </c>
+      <c r="R10" s="23">
+        <v>-5951675</v>
+      </c>
       <c r="S10" s="23">
         <v>-7719088</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="98" t="s">
+      <c r="W10" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A11" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="98"/>
+      <c r="B11" s="107"/>
       <c r="C11" s="23">
         <v>-2705822</v>
       </c>
@@ -8118,18 +8223,39 @@
       <c r="K11" s="23">
         <v>-3960830</v>
       </c>
+      <c r="L11" s="23">
+        <v>-1044898</v>
+      </c>
+      <c r="M11" s="23">
+        <v>-2025195</v>
+      </c>
+      <c r="N11" s="23">
+        <v>-2905252</v>
+      </c>
       <c r="O11" s="23">
         <v>-3875371</v>
       </c>
+      <c r="P11" s="23">
+        <v>-926409</v>
+      </c>
+      <c r="Q11" s="23">
+        <v>-1929312</v>
+      </c>
+      <c r="R11" s="23">
+        <v>-2847263</v>
+      </c>
       <c r="S11" s="23">
         <v>-3917171</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="98" t="s">
+      <c r="W11" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A12" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="98"/>
+      <c r="B12" s="107"/>
       <c r="C12" s="23">
         <v>-16979</v>
       </c>
@@ -8157,14 +8283,35 @@
       <c r="K12" s="23">
         <v>951</v>
       </c>
+      <c r="L12" s="23">
+        <v>-1349</v>
+      </c>
+      <c r="M12" s="23">
+        <v>-3778</v>
+      </c>
+      <c r="N12" s="23">
+        <v>-6191</v>
+      </c>
       <c r="O12" s="23">
         <v>-9212</v>
       </c>
+      <c r="P12" s="23">
+        <v>-1141</v>
+      </c>
+      <c r="Q12" s="23">
+        <v>-1166</v>
+      </c>
+      <c r="R12" s="23">
+        <v>2844522</v>
+      </c>
       <c r="S12" s="23">
         <v>2822616</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W12" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="28"/>
       <c r="B13" s="21" t="s">
         <v>14</v>
@@ -8174,15 +8321,15 @@
         <v>7762328</v>
       </c>
       <c r="D13" s="22">
-        <f t="shared" ref="D13:F13" si="3">D9+SUM(D10:D12)</f>
+        <f t="shared" ref="D13:F13" si="5">D9+SUM(D10:D12)</f>
         <v>2093540</v>
       </c>
       <c r="E13" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3948782</v>
       </c>
       <c r="F13" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5651750</v>
       </c>
       <c r="G13" s="22">
@@ -8190,15 +8337,15 @@
         <v>7939401</v>
       </c>
       <c r="H13" s="22">
-        <f t="shared" ref="H13:J13" si="4">H9+SUM(H10:H12)</f>
+        <f t="shared" ref="H13:J13" si="6">H9+SUM(H10:H12)</f>
         <v>2146832</v>
       </c>
       <c r="I13" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4478124</v>
       </c>
       <c r="J13" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6476006</v>
       </c>
       <c r="K13" s="22">
@@ -8206,43 +8353,59 @@
         <v>8707661</v>
       </c>
       <c r="L13" s="22">
-        <f t="shared" ref="L13:S13" si="5">L9+SUM(L10:L12)</f>
-        <v>0</v>
+        <f t="shared" ref="L13:S13" si="7">L9+SUM(L10:L12)</f>
+        <v>2660730</v>
       </c>
       <c r="M13" s="22">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>4899180</v>
       </c>
       <c r="N13" s="22">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>7085751</v>
       </c>
       <c r="O13" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>9495764</v>
       </c>
       <c r="P13" s="22">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>2509564</v>
       </c>
       <c r="Q13" s="22">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>4795840</v>
       </c>
       <c r="R13" s="22">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" ref="R13" si="8">R9+SUM(R10:R12)</f>
+        <v>9857180</v>
       </c>
       <c r="S13" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>12278630</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="98" t="s">
+      <c r="T13" s="22">
+        <f t="shared" ref="T13:W13" si="9">T9+SUM(T10:T12)</f>
+        <v>0</v>
+      </c>
+      <c r="U13" s="22">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V13" s="22">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W13" s="22">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A14" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="98"/>
+      <c r="B14" s="107"/>
       <c r="C14" s="23">
         <v>10458</v>
       </c>
@@ -8270,18 +8433,39 @@
       <c r="K14" s="23">
         <v>7468</v>
       </c>
+      <c r="L14" s="23">
+        <v>700</v>
+      </c>
+      <c r="M14" s="23">
+        <v>1563</v>
+      </c>
+      <c r="N14" s="23">
+        <v>2839</v>
+      </c>
       <c r="O14" s="23">
         <v>3579</v>
       </c>
+      <c r="P14" s="23">
+        <v>579</v>
+      </c>
+      <c r="Q14" s="23">
+        <v>4132</v>
+      </c>
+      <c r="R14" s="23">
+        <v>5992</v>
+      </c>
       <c r="S14" s="23">
         <v>15776</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="98" t="s">
+      <c r="W14" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A15" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="98"/>
+      <c r="B15" s="107"/>
       <c r="C15" s="23">
         <v>-96064</v>
       </c>
@@ -8309,14 +8493,35 @@
       <c r="K15" s="23">
         <v>-143244</v>
       </c>
+      <c r="L15" s="23">
+        <v>-41261</v>
+      </c>
+      <c r="M15" s="23">
+        <v>-57373</v>
+      </c>
+      <c r="N15" s="23">
+        <v>-95709</v>
+      </c>
       <c r="O15" s="23">
         <v>-127682</v>
       </c>
+      <c r="P15" s="23">
+        <v>-42272</v>
+      </c>
+      <c r="Q15" s="23">
+        <v>-79071</v>
+      </c>
+      <c r="R15" s="23">
+        <v>-94822</v>
+      </c>
       <c r="S15" s="23">
         <v>-108642</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W15" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="28"/>
       <c r="B16" s="21" t="s">
         <v>17</v>
@@ -8326,15 +8531,15 @@
         <v>7676722</v>
       </c>
       <c r="D16" s="22">
-        <f t="shared" ref="D16:F16" si="6">D13+SUM(D14:D15)</f>
+        <f t="shared" ref="D16:F16" si="10">D13+SUM(D14:D15)</f>
         <v>2062208</v>
       </c>
       <c r="E16" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>3920766</v>
       </c>
       <c r="F16" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5598534</v>
       </c>
       <c r="G16" s="22">
@@ -8342,15 +8547,15 @@
         <v>7829490</v>
       </c>
       <c r="H16" s="22">
-        <f t="shared" ref="H16:J16" si="7">H13+SUM(H14:H15)</f>
+        <f t="shared" ref="H16:J16" si="11">H13+SUM(H14:H15)</f>
         <v>2106168</v>
       </c>
       <c r="I16" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>4415325</v>
       </c>
       <c r="J16" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>6364301</v>
       </c>
       <c r="K16" s="22">
@@ -8358,43 +8563,59 @@
         <v>8571885</v>
       </c>
       <c r="L16" s="22">
-        <f t="shared" ref="L16:S16" si="8">L13+SUM(L14:L15)</f>
-        <v>0</v>
+        <f t="shared" ref="L16:S16" si="12">L13+SUM(L14:L15)</f>
+        <v>2620169</v>
       </c>
       <c r="M16" s="22">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>4843370</v>
       </c>
       <c r="N16" s="22">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>6992881</v>
       </c>
       <c r="O16" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>9371661</v>
       </c>
       <c r="P16" s="22">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>2467871</v>
       </c>
       <c r="Q16" s="22">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>4720901</v>
       </c>
       <c r="R16" s="22">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" ref="R16" si="13">R13+SUM(R14:R15)</f>
+        <v>9768350</v>
       </c>
       <c r="S16" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>12185764</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A17" s="98" t="s">
+      <c r="T16" s="22">
+        <f t="shared" ref="T16:W16" si="14">T13+SUM(T14:T15)</f>
+        <v>0</v>
+      </c>
+      <c r="U16" s="22">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V16" s="22">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W16" s="22">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A17" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="98"/>
+      <c r="B17" s="107"/>
       <c r="C17" s="23">
         <v>-1938199</v>
       </c>
@@ -8422,14 +8643,35 @@
       <c r="K17" s="23">
         <v>-2181213</v>
       </c>
+      <c r="L17" s="23">
+        <v>-659328</v>
+      </c>
+      <c r="M17" s="23">
+        <v>-1219412</v>
+      </c>
+      <c r="N17" s="23">
+        <v>-1763481</v>
+      </c>
       <c r="O17" s="23">
         <v>-2367099</v>
       </c>
+      <c r="P17" s="23">
+        <v>-628740</v>
+      </c>
+      <c r="Q17" s="23">
+        <v>-1191032</v>
+      </c>
+      <c r="R17" s="23">
+        <v>-2464857</v>
+      </c>
       <c r="S17" s="23">
         <v>-3076319</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W17" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="29"/>
       <c r="B18" s="30" t="s">
         <v>19</v>
@@ -8439,15 +8681,15 @@
         <v>5738523</v>
       </c>
       <c r="D18" s="31">
-        <f t="shared" ref="D18:F18" si="9">D16+D17</f>
+        <f t="shared" ref="D18:F18" si="15">D16+D17</f>
         <v>1591699</v>
       </c>
       <c r="E18" s="31">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>2930640</v>
       </c>
       <c r="F18" s="31">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>4183173</v>
       </c>
       <c r="G18" s="31">
@@ -8455,15 +8697,15 @@
         <v>5851805</v>
       </c>
       <c r="H18" s="31">
-        <f t="shared" ref="H18:J18" si="10">H16+H17</f>
+        <f t="shared" ref="H18:J18" si="16">H16+H17</f>
         <v>1570040</v>
       </c>
       <c r="I18" s="31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>3298307</v>
       </c>
       <c r="J18" s="31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>4750551</v>
       </c>
       <c r="K18" s="31">
@@ -8471,51 +8713,67 @@
         <v>6390672</v>
       </c>
       <c r="L18" s="31">
-        <f t="shared" ref="L18:S18" si="11">L16+L17</f>
-        <v>0</v>
+        <f t="shared" ref="L18:S18" si="17">L16+L17</f>
+        <v>1960841</v>
       </c>
       <c r="M18" s="31">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>3623958</v>
       </c>
       <c r="N18" s="31">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>5229400</v>
       </c>
       <c r="O18" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>7004562</v>
       </c>
       <c r="P18" s="31">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>1839131</v>
       </c>
       <c r="Q18" s="31">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>3529869</v>
       </c>
       <c r="R18" s="31">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" ref="R18" si="18">R16+R17</f>
+        <v>7303493</v>
       </c>
       <c r="S18" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>9109445</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="99" t="s">
+      <c r="T18" s="31">
+        <f t="shared" ref="T18:W18" si="19">T16+T17</f>
+        <v>0</v>
+      </c>
+      <c r="U18" s="31">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="V18" s="31">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="W18" s="31">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="99"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A20" s="98" t="s">
+      <c r="B19" s="106"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A20" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="98"/>
-    </row>
-    <row r="21" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B20" s="107"/>
+    </row>
+    <row r="21" spans="1:23" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B21" s="33" t="s">
         <v>23</v>
       </c>
@@ -8528,14 +8786,20 @@
       <c r="K21" s="23">
         <v>-577554</v>
       </c>
+      <c r="M21" s="23">
+        <v>116931</v>
+      </c>
       <c r="O21" s="23">
         <v>136981</v>
       </c>
       <c r="S21" s="23">
         <v>369000</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="W21" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B22" s="33" t="s">
         <v>24</v>
       </c>
@@ -8548,32 +8812,38 @@
       <c r="K22" s="23">
         <v>144389</v>
       </c>
+      <c r="M22" s="23">
+        <v>-29233</v>
+      </c>
       <c r="O22" s="23">
         <v>-34223</v>
       </c>
       <c r="S22" s="23">
         <v>-92250</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="99" t="s">
+      <c r="W22" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="99"/>
+      <c r="B23" s="106"/>
       <c r="C23" s="22">
-        <f t="shared" ref="C23:F23" si="12">C21+C22</f>
+        <f t="shared" ref="C23:F23" si="20">C21+C22</f>
         <v>0</v>
       </c>
       <c r="D23" s="22">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E23" s="22">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F23" s="22">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="G23" s="22">
@@ -8581,59 +8851,75 @@
         <v>12581</v>
       </c>
       <c r="H23" s="22">
-        <f t="shared" ref="H23:L23" si="13">H21+H22</f>
+        <f t="shared" ref="H23:L23" si="21">H21+H22</f>
         <v>0</v>
       </c>
       <c r="I23" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J23" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K23" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>-433165</v>
       </c>
       <c r="L23" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M23" s="22">
-        <f t="shared" ref="M23" si="14">M21+M22</f>
-        <v>0</v>
+        <f t="shared" ref="M23" si="22">M21+M22</f>
+        <v>87698</v>
       </c>
       <c r="N23" s="22">
-        <f t="shared" ref="N23" si="15">N21+N22</f>
+        <f t="shared" ref="N23" si="23">N21+N22</f>
         <v>0</v>
       </c>
       <c r="O23" s="22">
-        <f t="shared" ref="O23" si="16">O21+O22</f>
+        <f t="shared" ref="O23" si="24">O21+O22</f>
         <v>102758</v>
       </c>
       <c r="P23" s="22">
-        <f t="shared" ref="P23:Q23" si="17">P21+P22</f>
+        <f t="shared" ref="P23:Q23" si="25">P21+P22</f>
         <v>0</v>
       </c>
       <c r="Q23" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="R23" s="22">
-        <f t="shared" ref="R23" si="18">R21+R22</f>
+        <f t="shared" ref="R23" si="26">R21+R22</f>
         <v>0</v>
       </c>
       <c r="S23" s="22">
-        <f t="shared" ref="S23" si="19">S21+S22</f>
+        <f t="shared" ref="S23:V23" si="27">S21+S22</f>
         <v>276750</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="99" t="s">
+      <c r="T23" s="22">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="U23" s="22">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="V23" s="22">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="W23" s="22">
+        <f t="shared" ref="W23" si="28">W21+W22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="106" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="99"/>
+      <c r="B24" s="106"/>
       <c r="C24" s="22">
         <f>C18+C23</f>
         <v>5738523</v>
@@ -8655,59 +8941,75 @@
         <v>5864386</v>
       </c>
       <c r="H24" s="22">
-        <f t="shared" ref="H24:S24" si="20">H18+H23</f>
+        <f t="shared" ref="H24:S24" si="29">H18+H23</f>
         <v>1570040</v>
       </c>
       <c r="I24" s="22">
-        <f t="shared" si="20"/>
+        <f>I18+I23</f>
         <v>3298307</v>
       </c>
       <c r="J24" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>4750551</v>
       </c>
       <c r="K24" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>5957507</v>
       </c>
       <c r="L24" s="22">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="29"/>
+        <v>1960841</v>
       </c>
       <c r="M24" s="22">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="29"/>
+        <v>3711656</v>
       </c>
       <c r="N24" s="22">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="29"/>
+        <v>5229400</v>
       </c>
       <c r="O24" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>7107320</v>
       </c>
       <c r="P24" s="22">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="29"/>
+        <v>1839131</v>
       </c>
       <c r="Q24" s="22">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="29"/>
+        <v>3529869</v>
       </c>
       <c r="R24" s="22">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="29"/>
+        <v>7303493</v>
       </c>
       <c r="S24" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>9386195</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="100" t="s">
+      <c r="T24" s="22">
+        <f t="shared" ref="T24:W24" si="30">T18+T23</f>
+        <v>0</v>
+      </c>
+      <c r="U24" s="22">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="V24" s="22">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="W24" s="22">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="100"/>
+      <c r="B25" s="105"/>
       <c r="C25" s="23">
         <v>0</v>
       </c>
@@ -8726,14 +9028,17 @@
       <c r="S25" s="23">
         <v>13055881</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="99" t="s">
+      <c r="W25" s="23">
+        <v>13055881</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="106" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="99"/>
-    </row>
-    <row r="27" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B26" s="106"/>
+    </row>
+    <row r="27" spans="1:23" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B27" s="33" t="s">
         <v>28</v>
       </c>
@@ -8764,9 +9069,15 @@
       <c r="K27" s="22">
         <v>838</v>
       </c>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
+      <c r="L27" s="22">
+        <v>257</v>
+      </c>
+      <c r="M27" s="22">
+        <v>475</v>
+      </c>
+      <c r="N27" s="22">
+        <v>685</v>
+      </c>
       <c r="O27" s="22">
         <v>918</v>
       </c>
@@ -8776,8 +9087,14 @@
       <c r="S27" s="22">
         <v>1194</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T27" s="22"/>
+      <c r="U27" s="22"/>
+      <c r="V27" s="22"/>
+      <c r="W27" s="22">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="17" t="s">
         <v>41</v>
       </c>
@@ -8799,8 +9116,12 @@
       <c r="Q30" s="19"/>
       <c r="R30" s="19"/>
       <c r="S30" s="19"/>
-    </row>
-    <row r="31" spans="1:19" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T30" s="19"/>
+      <c r="U30" s="19"/>
+      <c r="V30" s="19"/>
+      <c r="W30" s="19"/>
+    </row>
+    <row r="31" spans="1:23" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="17" t="s">
         <v>31</v>
       </c>
@@ -8822,8 +9143,12 @@
       <c r="Q31" s="19"/>
       <c r="R31" s="19"/>
       <c r="S31" s="19"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="19"/>
+      <c r="U31" s="19"/>
+      <c r="V31" s="19"/>
+      <c r="W31" s="19"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
         <v>43</v>
       </c>
@@ -8845,8 +9170,12 @@
       <c r="Q32" s="22"/>
       <c r="R32" s="22"/>
       <c r="S32" s="22"/>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="22"/>
+      <c r="U32" s="22"/>
+      <c r="V32" s="22"/>
+      <c r="W32" s="22"/>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="24"/>
       <c r="B33" s="25"/>
       <c r="C33" s="26" t="s">
@@ -8876,12 +9205,18 @@
       <c r="S33" s="26" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A34" s="98" t="s">
+      <c r="T33" s="26"/>
+      <c r="U33" s="26"/>
+      <c r="V33" s="26"/>
+      <c r="W33" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A34" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="98"/>
+      <c r="B34" s="107"/>
       <c r="C34" s="23">
         <v>434747101600</v>
       </c>
@@ -8897,12 +9232,15 @@
       <c r="S34" s="23">
         <v>300572751733</v>
       </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A35" s="98" t="s">
+      <c r="W34" s="23">
+        <v>300572751733</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A35" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="98"/>
+      <c r="B35" s="107"/>
       <c r="C35" s="23">
         <v>-187750245429</v>
       </c>
@@ -8918,8 +9256,11 @@
       <c r="S35" s="23">
         <v>-126237236215</v>
       </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="W35" s="23">
+        <v>-126237236215</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" s="28"/>
       <c r="B36" s="21" t="s">
         <v>11</v>
@@ -8956,12 +9297,19 @@
         <f>S34+S35</f>
         <v>174335515518</v>
       </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A37" s="98" t="s">
+      <c r="T36" s="22"/>
+      <c r="U36" s="22"/>
+      <c r="V36" s="22"/>
+      <c r="W36" s="22">
+        <f>W34+W35</f>
+        <v>174335515518</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A37" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="B37" s="98"/>
+      <c r="B37" s="107"/>
       <c r="C37" s="23">
         <v>-187666642049</v>
       </c>
@@ -8977,12 +9325,15 @@
       <c r="S37" s="23">
         <v>-121854966846</v>
       </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A38" s="98" t="s">
+      <c r="W37" s="23">
+        <v>-121854966846</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A38" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="B38" s="98"/>
+      <c r="B38" s="107"/>
       <c r="C38" s="23">
         <v>-41469242951</v>
       </c>
@@ -8998,12 +9349,15 @@
       <c r="S38" s="23">
         <v>-43793006242</v>
       </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A39" s="98" t="s">
+      <c r="W38" s="23">
+        <v>-43793006242</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A39" s="107" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="98"/>
+      <c r="B39" s="107"/>
       <c r="C39" s="23">
         <f>-648323373-5475379430</f>
         <v>-6123702803</v>
@@ -9024,8 +9378,12 @@
         <f>2293299533-3391029312</f>
         <v>-1097729779</v>
       </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="W39" s="23">
+        <f>2293299533-3391029312</f>
+        <v>-1097729779</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" s="28"/>
       <c r="B40" s="21" t="s">
         <v>14</v>
@@ -9062,12 +9420,19 @@
         <f>S36+S37+S38+S39</f>
         <v>7589812651</v>
       </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A41" s="98" t="s">
+      <c r="T40" s="22"/>
+      <c r="U40" s="22"/>
+      <c r="V40" s="22"/>
+      <c r="W40" s="22">
+        <f>W36+W37+W38+W39</f>
+        <v>7589812651</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A41" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="98"/>
+      <c r="B41" s="107"/>
       <c r="C41" s="23">
         <v>991753907</v>
       </c>
@@ -9083,12 +9448,15 @@
       <c r="S41" s="23">
         <v>-6507057142</v>
       </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A42" s="98" t="s">
+      <c r="W41" s="23">
+        <v>-6507057142</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A42" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="B42" s="98"/>
+      <c r="B42" s="107"/>
       <c r="C42" s="23">
         <v>-2688038171</v>
       </c>
@@ -9104,8 +9472,11 @@
       <c r="S42" s="23">
         <v>794345026</v>
       </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="W42" s="23">
+        <v>794345026</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" s="28"/>
       <c r="B43" s="21" t="s">
         <v>17</v>
@@ -9142,12 +9513,19 @@
         <f>S40+S41+S42</f>
         <v>1877100535</v>
       </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A44" s="98" t="s">
+      <c r="T43" s="22"/>
+      <c r="U43" s="22"/>
+      <c r="V43" s="22"/>
+      <c r="W43" s="22">
+        <f>W40+W41+W42</f>
+        <v>1877100535</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A44" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="B44" s="98"/>
+      <c r="B44" s="107"/>
       <c r="C44" s="23">
         <v>-2669010262</v>
       </c>
@@ -9163,8 +9541,11 @@
       <c r="S44" s="23">
         <v>-4133577032</v>
       </c>
-    </row>
-    <row r="45" spans="1:19" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W44" s="23">
+        <v>-4133577032</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="29"/>
       <c r="B45" s="30" t="s">
         <v>19</v>
@@ -9201,12 +9582,19 @@
         <f>S43+S44</f>
         <v>-2256476497</v>
       </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A46" s="99" t="s">
+      <c r="T45" s="31"/>
+      <c r="U45" s="31"/>
+      <c r="V45" s="31"/>
+      <c r="W45" s="31">
+        <f>W43+W44</f>
+        <v>-2256476497</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A46" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="B46" s="99"/>
+      <c r="B46" s="106"/>
       <c r="C46" s="22"/>
       <c r="D46" s="22"/>
       <c r="E46" s="22"/>
@@ -9224,14 +9612,18 @@
       <c r="Q46" s="22"/>
       <c r="R46" s="22"/>
       <c r="S46" s="22"/>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A47" s="98" t="s">
+      <c r="T46" s="22"/>
+      <c r="U46" s="22"/>
+      <c r="V46" s="22"/>
+      <c r="W46" s="22"/>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A47" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="B47" s="98"/>
-    </row>
-    <row r="48" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B47" s="107"/>
+    </row>
+    <row r="48" spans="1:23" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B48" s="33" t="s">
         <v>23</v>
       </c>
@@ -9250,8 +9642,11 @@
       <c r="S48" s="23">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="W48" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B49" s="33" t="s">
         <v>24</v>
       </c>
@@ -9270,12 +9665,15 @@
       <c r="S49" s="23">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A50" s="99" t="s">
+      <c r="W49" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A50" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="B50" s="99"/>
+      <c r="B50" s="106"/>
       <c r="C50" s="22">
         <f>C48+C49</f>
         <v>0</v>
@@ -9291,29 +9689,36 @@
       <c r="I50" s="22"/>
       <c r="J50" s="22"/>
       <c r="K50" s="22">
-        <f t="shared" ref="K50:S50" si="21">K48+K49</f>
+        <f t="shared" ref="K50:S50" si="31">K48+K49</f>
         <v>0</v>
       </c>
       <c r="L50" s="22"/>
       <c r="M50" s="22"/>
       <c r="N50" s="22"/>
       <c r="O50" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="P50" s="22"/>
       <c r="Q50" s="22"/>
       <c r="R50" s="22"/>
       <c r="S50" s="22">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A51" s="99" t="s">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="T50" s="22"/>
+      <c r="U50" s="22"/>
+      <c r="V50" s="22"/>
+      <c r="W50" s="22">
+        <f t="shared" ref="W50" si="32">W48+W49</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A51" s="106" t="s">
         <v>26</v>
       </c>
-      <c r="B51" s="99"/>
+      <c r="B51" s="106"/>
       <c r="C51" s="22">
         <f>C45+C50</f>
         <v>7371973842</v>
@@ -9329,29 +9734,36 @@
       <c r="I51" s="22"/>
       <c r="J51" s="22"/>
       <c r="K51" s="22">
-        <f t="shared" ref="K51:S51" si="22">K45+K50</f>
+        <f t="shared" ref="K51:S51" si="33">K45+K50</f>
         <v>-5549465678</v>
       </c>
       <c r="L51" s="22"/>
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
       <c r="O51" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>-1283332109</v>
       </c>
       <c r="P51" s="22"/>
       <c r="Q51" s="22"/>
       <c r="R51" s="22"/>
       <c r="S51" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>-2256476497</v>
       </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A52" s="100" t="s">
+      <c r="T51" s="22"/>
+      <c r="U51" s="22"/>
+      <c r="V51" s="22"/>
+      <c r="W51" s="22">
+        <f t="shared" ref="W51" si="34">W45+W50</f>
+        <v>-2256476497</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A52" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="B52" s="100"/>
+      <c r="B52" s="105"/>
       <c r="C52" s="23">
         <v>0</v>
       </c>
@@ -9367,12 +9779,15 @@
       <c r="S52" s="23">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A53" s="99" t="s">
+      <c r="W52" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A53" s="106" t="s">
         <v>27</v>
       </c>
-      <c r="B53" s="99"/>
+      <c r="B53" s="106"/>
       <c r="C53" s="22">
         <v>17</v>
       </c>
@@ -9400,8 +9815,14 @@
       <c r="S53" s="22">
         <v>-527</v>
       </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="22"/>
+      <c r="U53" s="22"/>
+      <c r="V53" s="22"/>
+      <c r="W53" s="22">
+        <v>-527</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A56" s="17" t="s">
         <v>40</v>
       </c>
@@ -9423,8 +9844,12 @@
       <c r="Q56" s="19"/>
       <c r="R56" s="19"/>
       <c r="S56" s="19"/>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="19"/>
+      <c r="U56" s="19"/>
+      <c r="V56" s="19"/>
+      <c r="W56" s="19"/>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A57" s="17" t="s">
         <v>31</v>
       </c>
@@ -9446,8 +9871,12 @@
       <c r="Q57" s="19"/>
       <c r="R57" s="19"/>
       <c r="S57" s="19"/>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="19"/>
+      <c r="U57" s="19"/>
+      <c r="V57" s="19"/>
+      <c r="W57" s="19"/>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A58" s="20" t="s">
         <v>43</v>
       </c>
@@ -9469,8 +9898,12 @@
       <c r="Q58" s="22"/>
       <c r="R58" s="22"/>
       <c r="S58" s="22"/>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="22"/>
+      <c r="U58" s="22"/>
+      <c r="V58" s="22"/>
+      <c r="W58" s="22"/>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A59" s="24"/>
       <c r="B59" s="25"/>
       <c r="C59" s="26" t="s">
@@ -9500,12 +9933,18 @@
       <c r="S59" s="26" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A60" s="98" t="s">
+      <c r="T59" s="26"/>
+      <c r="U59" s="26"/>
+      <c r="V59" s="26"/>
+      <c r="W59" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A60" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="B60" s="98"/>
+      <c r="B60" s="107"/>
       <c r="C60" s="23">
         <v>434747101600</v>
       </c>
@@ -9521,12 +9960,15 @@
       <c r="S60" s="23">
         <v>300572751733</v>
       </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A61" s="98" t="s">
+      <c r="W60" s="23">
+        <v>300572751733</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A61" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="B61" s="98"/>
+      <c r="B61" s="107"/>
       <c r="C61" s="23">
         <v>-187750245429</v>
       </c>
@@ -9542,8 +9984,11 @@
       <c r="S61" s="23">
         <v>-126237236215</v>
       </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="W61" s="23">
+        <v>-126237236215</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A62" s="28"/>
       <c r="B62" s="21" t="s">
         <v>11</v>
@@ -9580,12 +10025,19 @@
         <f>S60+S61</f>
         <v>174335515518</v>
       </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A63" s="98" t="s">
+      <c r="T62" s="22"/>
+      <c r="U62" s="22"/>
+      <c r="V62" s="22"/>
+      <c r="W62" s="22">
+        <f>W60+W61</f>
+        <v>174335515518</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A63" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="B63" s="98"/>
+      <c r="B63" s="107"/>
       <c r="C63" s="23">
         <v>-187666642049</v>
       </c>
@@ -9601,12 +10053,15 @@
       <c r="S63" s="23">
         <v>-121854966846</v>
       </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A64" s="98" t="s">
+      <c r="W63" s="23">
+        <v>-121854966846</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A64" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="B64" s="98"/>
+      <c r="B64" s="107"/>
       <c r="C64" s="23">
         <v>-41469242951</v>
       </c>
@@ -9622,12 +10077,15 @@
       <c r="S64" s="23">
         <v>-43793006242</v>
       </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A65" s="98" t="s">
+      <c r="W64" s="23">
+        <v>-43793006242</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A65" s="107" t="s">
         <v>42</v>
       </c>
-      <c r="B65" s="98"/>
+      <c r="B65" s="107"/>
       <c r="C65" s="23">
         <f>-648323373-5475379430</f>
         <v>-6123702803</v>
@@ -9648,8 +10106,12 @@
         <f>2293299533-3391029312</f>
         <v>-1097729779</v>
       </c>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="W65" s="23">
+        <f>2293299533-3391029312</f>
+        <v>-1097729779</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A66" s="28"/>
       <c r="B66" s="21" t="s">
         <v>14</v>
@@ -9686,12 +10148,19 @@
         <f>S62+S63+S64+S65</f>
         <v>7589812651</v>
       </c>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A67" s="98" t="s">
+      <c r="T66" s="22"/>
+      <c r="U66" s="22"/>
+      <c r="V66" s="22"/>
+      <c r="W66" s="22">
+        <f>W62+W63+W64+W65</f>
+        <v>7589812651</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A67" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="B67" s="98"/>
+      <c r="B67" s="107"/>
       <c r="C67" s="23">
         <v>991753907</v>
       </c>
@@ -9707,12 +10176,15 @@
       <c r="S67" s="23">
         <v>-6507057142</v>
       </c>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A68" s="98" t="s">
+      <c r="W67" s="23">
+        <v>-6507057142</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A68" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="B68" s="98"/>
+      <c r="B68" s="107"/>
       <c r="C68" s="23">
         <v>-2688038171</v>
       </c>
@@ -9728,8 +10200,11 @@
       <c r="S68" s="23">
         <v>794345026</v>
       </c>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="W68" s="23">
+        <v>794345026</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A69" s="28"/>
       <c r="B69" s="21" t="s">
         <v>17</v>
@@ -9766,12 +10241,19 @@
         <f>S66+S67+S68</f>
         <v>1877100535</v>
       </c>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A70" s="98" t="s">
+      <c r="T69" s="22"/>
+      <c r="U69" s="22"/>
+      <c r="V69" s="22"/>
+      <c r="W69" s="22">
+        <f>W66+W67+W68</f>
+        <v>1877100535</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A70" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="B70" s="98"/>
+      <c r="B70" s="107"/>
       <c r="C70" s="23">
         <v>-2669010262</v>
       </c>
@@ -9787,8 +10269,11 @@
       <c r="S70" s="23">
         <v>-4133577032</v>
       </c>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="W70" s="23">
+        <v>-4133577032</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A71" s="29"/>
       <c r="B71" s="30" t="s">
         <v>19</v>
@@ -9825,12 +10310,19 @@
         <f>S69+S70</f>
         <v>-2256476497</v>
       </c>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A72" s="99" t="s">
+      <c r="T71" s="31"/>
+      <c r="U71" s="31"/>
+      <c r="V71" s="31"/>
+      <c r="W71" s="31">
+        <f>W69+W70</f>
+        <v>-2256476497</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A72" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="B72" s="99"/>
+      <c r="B72" s="106"/>
       <c r="C72" s="22"/>
       <c r="D72" s="22"/>
       <c r="E72" s="22"/>
@@ -9848,14 +10340,18 @@
       <c r="Q72" s="22"/>
       <c r="R72" s="22"/>
       <c r="S72" s="22"/>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A73" s="98" t="s">
+      <c r="T72" s="22"/>
+      <c r="U72" s="22"/>
+      <c r="V72" s="22"/>
+      <c r="W72" s="22"/>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A73" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="B73" s="98"/>
-    </row>
-    <row r="74" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B73" s="107"/>
+    </row>
+    <row r="74" spans="1:23" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B74" s="33" t="s">
         <v>23</v>
       </c>
@@ -9874,8 +10370,11 @@
       <c r="S74" s="23">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="W74" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B75" s="33" t="s">
         <v>24</v>
       </c>
@@ -9894,12 +10393,15 @@
       <c r="S75" s="23">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A76" s="99" t="s">
+      <c r="W75" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A76" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="B76" s="99"/>
+      <c r="B76" s="106"/>
       <c r="C76" s="22">
         <f>C74+C75</f>
         <v>0</v>
@@ -9915,29 +10417,36 @@
       <c r="I76" s="22"/>
       <c r="J76" s="22"/>
       <c r="K76" s="22">
-        <f t="shared" ref="K76:S76" si="23">K74+K75</f>
+        <f t="shared" ref="K76:S76" si="35">K74+K75</f>
         <v>0</v>
       </c>
       <c r="L76" s="22"/>
       <c r="M76" s="22"/>
       <c r="N76" s="22"/>
       <c r="O76" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="P76" s="22"/>
       <c r="Q76" s="22"/>
       <c r="R76" s="22"/>
       <c r="S76" s="22">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A77" s="99" t="s">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="T76" s="22"/>
+      <c r="U76" s="22"/>
+      <c r="V76" s="22"/>
+      <c r="W76" s="22">
+        <f t="shared" ref="W76" si="36">W74+W75</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A77" s="106" t="s">
         <v>26</v>
       </c>
-      <c r="B77" s="99"/>
+      <c r="B77" s="106"/>
       <c r="C77" s="22">
         <f>C71+C76</f>
         <v>7371973842</v>
@@ -9953,29 +10462,36 @@
       <c r="I77" s="22"/>
       <c r="J77" s="22"/>
       <c r="K77" s="22">
-        <f t="shared" ref="K77:S77" si="24">K71+K76</f>
+        <f t="shared" ref="K77:S77" si="37">K71+K76</f>
         <v>-5549465678</v>
       </c>
       <c r="L77" s="22"/>
       <c r="M77" s="22"/>
       <c r="N77" s="22"/>
       <c r="O77" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>-1283332109</v>
       </c>
       <c r="P77" s="22"/>
       <c r="Q77" s="22"/>
       <c r="R77" s="22"/>
       <c r="S77" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>-2256476497</v>
       </c>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A78" s="100" t="s">
+      <c r="T77" s="22"/>
+      <c r="U77" s="22"/>
+      <c r="V77" s="22"/>
+      <c r="W77" s="22">
+        <f t="shared" ref="W77" si="38">W71+W76</f>
+        <v>-2256476497</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A78" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="B78" s="100"/>
+      <c r="B78" s="105"/>
       <c r="C78" s="23">
         <v>0</v>
       </c>
@@ -9991,12 +10507,15 @@
       <c r="S78" s="23">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A79" s="99" t="s">
+      <c r="W78" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A79" s="106" t="s">
         <v>27</v>
       </c>
-      <c r="B79" s="99"/>
+      <c r="B79" s="106"/>
       <c r="C79" s="22">
         <v>17</v>
       </c>
@@ -10024,8 +10543,14 @@
       <c r="S79" s="22">
         <v>-527</v>
       </c>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T79" s="22"/>
+      <c r="U79" s="22"/>
+      <c r="V79" s="22"/>
+      <c r="W79" s="22">
+        <v>-527</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A82" s="17" t="s">
         <v>44</v>
       </c>
@@ -10047,8 +10572,12 @@
       <c r="Q82" s="19"/>
       <c r="R82" s="19"/>
       <c r="S82" s="19"/>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="19"/>
+      <c r="U82" s="19"/>
+      <c r="V82" s="19"/>
+      <c r="W82" s="19"/>
+    </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A83" s="17" t="s">
         <v>31</v>
       </c>
@@ -10070,8 +10599,12 @@
       <c r="Q83" s="19"/>
       <c r="R83" s="19"/>
       <c r="S83" s="19"/>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="19"/>
+      <c r="U83" s="19"/>
+      <c r="V83" s="19"/>
+      <c r="W83" s="19"/>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A84" s="20" t="s">
         <v>43</v>
       </c>
@@ -10093,8 +10626,12 @@
       <c r="Q84" s="22"/>
       <c r="R84" s="22"/>
       <c r="S84" s="22"/>
-    </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="22"/>
+      <c r="U84" s="22"/>
+      <c r="V84" s="22"/>
+      <c r="W84" s="22"/>
+    </row>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A85" s="24"/>
       <c r="B85" s="25"/>
       <c r="C85" s="26" t="s">
@@ -10124,12 +10661,18 @@
       <c r="S85" s="26" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A86" s="98" t="s">
+      <c r="T85" s="26"/>
+      <c r="U85" s="26"/>
+      <c r="V85" s="26"/>
+      <c r="W85" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A86" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="B86" s="98"/>
+      <c r="B86" s="107"/>
       <c r="C86" s="23">
         <v>2308203551971</v>
       </c>
@@ -10145,12 +10688,15 @@
       <c r="S86" s="23">
         <v>2648754344347</v>
       </c>
-    </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A87" s="98" t="s">
+      <c r="W86" s="23">
+        <v>2648754344347</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A87" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="B87" s="98"/>
+      <c r="B87" s="107"/>
       <c r="C87" s="23">
         <v>-1411934917918</v>
       </c>
@@ -10166,8 +10712,11 @@
       <c r="S87" s="23">
         <v>-1685791739001</v>
       </c>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="W87" s="23">
+        <v>-1685791739001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A88" s="28"/>
       <c r="B88" s="21" t="s">
         <v>11</v>
@@ -10204,12 +10753,19 @@
         <f>S86+S87</f>
         <v>962962605346</v>
       </c>
-    </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A89" s="98" t="s">
+      <c r="T88" s="22"/>
+      <c r="U88" s="22"/>
+      <c r="V88" s="22"/>
+      <c r="W88" s="22">
+        <f>W86+W87</f>
+        <v>962962605346</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A89" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="B89" s="98"/>
+      <c r="B89" s="107"/>
       <c r="C89" s="23">
         <v>-488014707377</v>
       </c>
@@ -10225,12 +10781,15 @@
       <c r="S89" s="23">
         <v>-548089824378</v>
       </c>
-    </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A90" s="98" t="s">
+      <c r="W89" s="23">
+        <v>-548089824378</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A90" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="B90" s="98"/>
+      <c r="B90" s="107"/>
       <c r="C90" s="23">
         <v>-153757471107</v>
       </c>
@@ -10246,12 +10805,15 @@
       <c r="S90" s="23">
         <v>-229749812470</v>
       </c>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A91" s="98" t="s">
+      <c r="W90" s="23">
+        <v>-229749812470</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A91" s="107" t="s">
         <v>42</v>
       </c>
-      <c r="B91" s="98"/>
+      <c r="B91" s="107"/>
       <c r="C91" s="23">
         <v>0</v>
       </c>
@@ -10267,8 +10829,11 @@
       <c r="S91" s="23">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="W91" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A92" s="28"/>
       <c r="B92" s="21" t="s">
         <v>14</v>
@@ -10305,12 +10870,19 @@
         <f>S88+S89+S90+S91</f>
         <v>185122968498</v>
       </c>
-    </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A93" s="98" t="s">
+      <c r="T92" s="22"/>
+      <c r="U92" s="22"/>
+      <c r="V92" s="22"/>
+      <c r="W92" s="22">
+        <f>W88+W89+W90+W91</f>
+        <v>185122968498</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A93" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="B93" s="98"/>
+      <c r="B93" s="107"/>
       <c r="C93" s="23">
         <v>0</v>
       </c>
@@ -10326,12 +10898,15 @@
       <c r="S93" s="23">
         <v>49502986166</v>
       </c>
-    </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A94" s="98" t="s">
+      <c r="W93" s="23">
+        <v>49502986166</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A94" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="B94" s="98"/>
+      <c r="B94" s="107"/>
       <c r="C94" s="23">
         <v>-15067625957</v>
       </c>
@@ -10347,8 +10922,11 @@
       <c r="S94" s="23">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="W94" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A95" s="28"/>
       <c r="B95" s="21" t="s">
         <v>17</v>
@@ -10385,12 +10963,19 @@
         <f>S92+S93+S94</f>
         <v>234625954664</v>
       </c>
-    </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A96" s="98" t="s">
+      <c r="T95" s="22"/>
+      <c r="U95" s="22"/>
+      <c r="V95" s="22"/>
+      <c r="W95" s="22">
+        <f>W92+W93+W94</f>
+        <v>234625954664</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A96" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="B96" s="98"/>
+      <c r="B96" s="107"/>
       <c r="C96" s="23">
         <v>-65114435511</v>
       </c>
@@ -10406,8 +10991,11 @@
       <c r="S96" s="23">
         <v>-61576511908</v>
       </c>
-    </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="W96" s="23">
+        <v>-61576511908</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A97" s="29"/>
       <c r="B97" s="30" t="s">
         <v>19</v>
@@ -10444,12 +11032,19 @@
         <f>S95+S96</f>
         <v>173049442756</v>
       </c>
-    </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A98" s="99" t="s">
+      <c r="T97" s="31"/>
+      <c r="U97" s="31"/>
+      <c r="V97" s="31"/>
+      <c r="W97" s="31">
+        <f>W95+W96</f>
+        <v>173049442756</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A98" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="B98" s="99"/>
+      <c r="B98" s="106"/>
       <c r="C98" s="22"/>
       <c r="D98" s="22"/>
       <c r="E98" s="22"/>
@@ -10467,14 +11062,18 @@
       <c r="Q98" s="22"/>
       <c r="R98" s="22"/>
       <c r="S98" s="22"/>
-    </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A99" s="98" t="s">
+      <c r="T98" s="22"/>
+      <c r="U98" s="22"/>
+      <c r="V98" s="22"/>
+      <c r="W98" s="22"/>
+    </row>
+    <row r="99" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A99" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="B99" s="98"/>
-    </row>
-    <row r="100" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B99" s="107"/>
+    </row>
+    <row r="100" spans="1:23" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B100" s="33" t="s">
         <v>23</v>
       </c>
@@ -10493,8 +11092,11 @@
       <c r="S100" s="23">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="W100" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B101" s="33" t="s">
         <v>24</v>
       </c>
@@ -10513,12 +11115,15 @@
       <c r="S101" s="23">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A102" s="99" t="s">
+      <c r="W101" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A102" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="B102" s="99"/>
+      <c r="B102" s="106"/>
       <c r="C102" s="22">
         <f>C100+C101</f>
         <v>0</v>
@@ -10534,29 +11139,36 @@
       <c r="I102" s="22"/>
       <c r="J102" s="22"/>
       <c r="K102" s="22">
-        <f t="shared" ref="K102:S102" si="25">K100+K101</f>
+        <f t="shared" ref="K102:S102" si="39">K100+K101</f>
         <v>0</v>
       </c>
       <c r="L102" s="22"/>
       <c r="M102" s="22"/>
       <c r="N102" s="22"/>
       <c r="O102" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="P102" s="22"/>
       <c r="Q102" s="22"/>
       <c r="R102" s="22"/>
       <c r="S102" s="22">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A103" s="99" t="s">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="T102" s="22"/>
+      <c r="U102" s="22"/>
+      <c r="V102" s="22"/>
+      <c r="W102" s="22">
+        <f t="shared" ref="W102" si="40">W100+W101</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A103" s="106" t="s">
         <v>26</v>
       </c>
-      <c r="B103" s="99"/>
+      <c r="B103" s="106"/>
       <c r="C103" s="22">
         <f>C97+C102</f>
         <v>174314394101</v>
@@ -10572,29 +11184,36 @@
       <c r="I103" s="22"/>
       <c r="J103" s="22"/>
       <c r="K103" s="22">
-        <f t="shared" ref="K103:S103" si="26">K97+K102</f>
+        <f t="shared" ref="K103:S103" si="41">K97+K102</f>
         <v>162059596347</v>
       </c>
       <c r="L103" s="22"/>
       <c r="M103" s="22"/>
       <c r="N103" s="22"/>
       <c r="O103" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="41"/>
         <v>179126382068</v>
       </c>
       <c r="P103" s="22"/>
       <c r="Q103" s="22"/>
       <c r="R103" s="22"/>
       <c r="S103" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="41"/>
         <v>173049442756</v>
       </c>
-    </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A104" s="100" t="s">
+      <c r="T103" s="22"/>
+      <c r="U103" s="22"/>
+      <c r="V103" s="22"/>
+      <c r="W103" s="22">
+        <f t="shared" ref="W103" si="42">W97+W102</f>
+        <v>173049442756</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A104" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="B104" s="100"/>
+      <c r="B104" s="105"/>
       <c r="C104" s="23">
         <v>0</v>
       </c>
@@ -10610,12 +11229,15 @@
       <c r="S104" s="23">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A105" s="99" t="s">
+      <c r="W104" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A105" s="106" t="s">
         <v>27</v>
       </c>
-      <c r="B105" s="99"/>
+      <c r="B105" s="106"/>
       <c r="C105" s="22">
         <v>17</v>
       </c>
@@ -10643,9 +11265,57 @@
       <c r="S105" s="22">
         <v>-527</v>
       </c>
+      <c r="T105" s="22"/>
+      <c r="U105" s="22"/>
+      <c r="V105" s="22"/>
+      <c r="W105" s="22">
+        <v>-527</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A76:B76"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="A104:B104"/>
@@ -10662,48 +11332,6 @@
     <mergeCell ref="A94:B94"/>
     <mergeCell ref="A77:B77"/>
     <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10768,29 +11396,29 @@
       <c r="A3" s="40"/>
       <c r="B3" s="44"/>
       <c r="C3" s="74"/>
-      <c r="D3" s="102" t="s">
+      <c r="D3" s="111" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="104"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="109"/>
       <c r="I3" s="68"/>
-      <c r="J3" s="103" t="s">
+      <c r="J3" s="108" t="s">
         <v>50</v>
       </c>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="104"/>
+      <c r="K3" s="108"/>
+      <c r="L3" s="108"/>
+      <c r="M3" s="108"/>
+      <c r="N3" s="109"/>
       <c r="O3" s="47"/>
-      <c r="P3" s="103" t="s">
+      <c r="P3" s="108" t="s">
         <v>51</v>
       </c>
-      <c r="Q3" s="103"/>
-      <c r="R3" s="103"/>
-      <c r="S3" s="103"/>
-      <c r="T3" s="103"/>
+      <c r="Q3" s="108"/>
+      <c r="R3" s="108"/>
+      <c r="S3" s="108"/>
+      <c r="T3" s="108"/>
       <c r="U3" s="42"/>
     </row>
     <row r="4" spans="1:21" s="39" customFormat="1" x14ac:dyDescent="0.25">
@@ -11237,29 +11865,29 @@
       <c r="A11" s="88"/>
       <c r="B11" s="43"/>
       <c r="C11" s="74"/>
-      <c r="D11" s="103" t="s">
+      <c r="D11" s="108" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="103"/>
-      <c r="F11" s="103"/>
-      <c r="G11" s="103"/>
-      <c r="H11" s="103"/>
+      <c r="E11" s="108"/>
+      <c r="F11" s="108"/>
+      <c r="G11" s="108"/>
+      <c r="H11" s="108"/>
       <c r="I11" s="67"/>
-      <c r="J11" s="103" t="s">
+      <c r="J11" s="108" t="s">
         <v>50</v>
       </c>
-      <c r="K11" s="103"/>
-      <c r="L11" s="103"/>
-      <c r="M11" s="103"/>
-      <c r="N11" s="103"/>
+      <c r="K11" s="108"/>
+      <c r="L11" s="108"/>
+      <c r="M11" s="108"/>
+      <c r="N11" s="108"/>
       <c r="O11" s="47"/>
-      <c r="P11" s="103" t="s">
+      <c r="P11" s="108" t="s">
         <v>51</v>
       </c>
-      <c r="Q11" s="103"/>
-      <c r="R11" s="103"/>
-      <c r="S11" s="103"/>
-      <c r="T11" s="103"/>
+      <c r="Q11" s="108"/>
+      <c r="R11" s="108"/>
+      <c r="S11" s="108"/>
+      <c r="T11" s="108"/>
     </row>
     <row r="12" spans="1:21" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="88"/>
@@ -11315,7 +11943,7 @@
     </row>
     <row r="13" spans="1:21" s="86" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="81"/>
-      <c r="B13" s="101" t="s">
+      <c r="B13" s="110" t="s">
         <v>46</v>
       </c>
       <c r="C13" s="82" t="s">
@@ -11391,7 +12019,7 @@
     </row>
     <row r="14" spans="1:21" s="86" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="81"/>
-      <c r="B14" s="101"/>
+      <c r="B14" s="110"/>
       <c r="C14" s="82" t="s">
         <v>55</v>
       </c>
@@ -11464,7 +12092,7 @@
       <c r="U14" s="85"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B15" s="101"/>
+      <c r="B15" s="110"/>
       <c r="C15" s="74" t="s">
         <v>56</v>
       </c>
@@ -11536,7 +12164,7 @@
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B16" s="101"/>
+      <c r="B16" s="110"/>
       <c r="C16" s="74"/>
       <c r="D16" s="37" t="str">
         <f>IF(D15=D$30,"S",IF(D15&lt;D$30,"B",IF(D15&gt;D$30,"A")))</f>
@@ -11603,7 +12231,7 @@
     </row>
     <row r="17" spans="1:20" s="86" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="81"/>
-      <c r="B17" s="101" t="s">
+      <c r="B17" s="110" t="s">
         <v>47</v>
       </c>
       <c r="C17" s="82" t="s">
@@ -11678,7 +12306,7 @@
     </row>
     <row r="18" spans="1:20" s="86" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="81"/>
-      <c r="B18" s="101"/>
+      <c r="B18" s="110"/>
       <c r="C18" s="82" t="s">
         <v>55</v>
       </c>
@@ -11750,7 +12378,7 @@
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B19" s="101"/>
+      <c r="B19" s="110"/>
       <c r="C19" s="74" t="s">
         <v>56</v>
       </c>
@@ -11822,7 +12450,7 @@
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B20" s="101"/>
+      <c r="B20" s="110"/>
       <c r="C20" s="74"/>
       <c r="D20" s="37" t="str">
         <f>IF(D19=D$30,"S",IF(D19&lt;D$30,"B",IF(D19&gt;D$30,"A")))</f>
@@ -11889,7 +12517,7 @@
     </row>
     <row r="21" spans="1:20" s="86" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="81"/>
-      <c r="B21" s="101" t="s">
+      <c r="B21" s="110" t="s">
         <v>48</v>
       </c>
       <c r="C21" s="82" t="s">
@@ -11964,7 +12592,7 @@
     </row>
     <row r="22" spans="1:20" s="86" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="81"/>
-      <c r="B22" s="101"/>
+      <c r="B22" s="110"/>
       <c r="C22" s="82" t="s">
         <v>55</v>
       </c>
@@ -12036,7 +12664,7 @@
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B23" s="101"/>
+      <c r="B23" s="110"/>
       <c r="C23" s="74" t="s">
         <v>56</v>
       </c>
@@ -12108,7 +12736,7 @@
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B24" s="101"/>
+      <c r="B24" s="110"/>
       <c r="C24" s="74"/>
       <c r="D24" s="37" t="str">
         <f>IF(D23=D$30,"S",IF(D23&lt;D$30,"B",IF(D23&gt;D$30,"A")))</f>
@@ -12175,7 +12803,7 @@
     </row>
     <row r="25" spans="1:20" s="86" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="81"/>
-      <c r="B25" s="101" t="s">
+      <c r="B25" s="110" t="s">
         <v>52</v>
       </c>
       <c r="C25" s="82" t="s">
@@ -12250,7 +12878,7 @@
     </row>
     <row r="26" spans="1:20" s="86" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="81"/>
-      <c r="B26" s="101"/>
+      <c r="B26" s="110"/>
       <c r="C26" s="82" t="s">
         <v>55</v>
       </c>
@@ -12322,7 +12950,7 @@
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B27" s="101"/>
+      <c r="B27" s="110"/>
       <c r="C27" s="74" t="s">
         <v>56</v>
       </c>
@@ -12394,7 +13022,7 @@
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B28" s="101"/>
+      <c r="B28" s="110"/>
       <c r="C28" s="74"/>
       <c r="D28" s="37" t="str">
         <f>IF(D27=D$30,"S",IF(D27&lt;D$30,"B",IF(D27&gt;D$30,"A")))</f>
@@ -12809,16 +13437,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="D3:H3"/>
     <mergeCell ref="J3:N3"/>
     <mergeCell ref="P3:T3"/>
     <mergeCell ref="D11:H11"/>
     <mergeCell ref="J11:N11"/>
     <mergeCell ref="P11:T11"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="D3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/SKRIPSI/Analisa_LK_MBTO_MRAT_TCID_UNVR_2014_2018.xlsx
+++ b/SKRIPSI/Analisa_LK_MBTO_MRAT_TCID_UNVR_2014_2018.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9735" tabRatio="706" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9735" tabRatio="706" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="LK_2015_2019" sheetId="5" r:id="rId1"/>
@@ -17,11 +17,10 @@
     <sheet name="INCOME_STATEMENT" sheetId="2" r:id="rId3"/>
     <sheet name="RASIO" sheetId="6" r:id="rId4"/>
     <sheet name="TRANSFORMING" sheetId="8" r:id="rId5"/>
-    <sheet name="DER_ROA" sheetId="9" r:id="rId6"/>
-    <sheet name="DATA_READY" sheetId="4" r:id="rId7"/>
+    <sheet name="DATA_READY" sheetId="4" r:id="rId6"/>
+    <sheet name="DATA_DER_ROA" sheetId="10" r:id="rId7"/>
     <sheet name="ANALISA_RASIO" sheetId="3" r:id="rId8"/>
-    <sheet name="Sheet2" sheetId="10" r:id="rId9"/>
-    <sheet name="Transformasi" sheetId="7" r:id="rId10"/>
+    <sheet name="Transformasi" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="148">
   <si>
     <t>Aset Lancar</t>
   </si>
@@ -491,7 +490,7 @@
     <numFmt numFmtId="166" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="168" formatCode="0.000"/>
-    <numFmt numFmtId="172" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="28" x14ac:knownFonts="1">
     <font>
@@ -1311,29 +1310,34 @@
     <xf numFmtId="41" fontId="13" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="23" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1350,11 +1354,32 @@
     <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="167" fontId="8" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="167" fontId="13" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1362,55 +1387,29 @@
     <xf numFmtId="43" fontId="13" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="172" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="23" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="172" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1615,11 +1614,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1427376576"/>
-        <c:axId val="1427373856"/>
+        <c:axId val="-991083200"/>
+        <c:axId val="-346961392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1427376576"/>
+        <c:axId val="-991083200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1662,7 +1661,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1427373856"/>
+        <c:crossAx val="-346961392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1670,7 +1669,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1427373856"/>
+        <c:axId val="-346961392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1721,7 +1720,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1427376576"/>
+        <c:crossAx val="-991083200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1946,11 +1945,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1427374944"/>
-        <c:axId val="1427371136"/>
+        <c:axId val="-346960848"/>
+        <c:axId val="-346959216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1427374944"/>
+        <c:axId val="-346960848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1993,7 +1992,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1427371136"/>
+        <c:crossAx val="-346959216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2001,7 +2000,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1427371136"/>
+        <c:axId val="-346959216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2052,7 +2051,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1427374944"/>
+        <c:crossAx val="-346960848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2277,11 +2276,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1427377120"/>
-        <c:axId val="1427379840"/>
+        <c:axId val="-346958672"/>
+        <c:axId val="-346965200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1427377120"/>
+        <c:axId val="-346958672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2324,7 +2323,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1427379840"/>
+        <c:crossAx val="-346965200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2332,7 +2331,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1427379840"/>
+        <c:axId val="-346965200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2383,7 +2382,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1427377120"/>
+        <c:crossAx val="-346958672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2866,18 +2865,18 @@
       <c r="E3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="193" t="s">
+      <c r="F3" s="204" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="193"/>
-      <c r="H3" s="193"/>
-      <c r="I3" s="193"/>
-      <c r="J3" s="193" t="s">
+      <c r="G3" s="204"/>
+      <c r="H3" s="204"/>
+      <c r="I3" s="204"/>
+      <c r="J3" s="204" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="193"/>
-      <c r="L3" s="193"/>
-      <c r="M3" s="193"/>
+      <c r="K3" s="204"/>
+      <c r="L3" s="204"/>
+      <c r="M3" s="204"/>
       <c r="N3" s="10"/>
       <c r="O3" s="10"/>
       <c r="P3" s="10"/>
@@ -2890,12 +2889,12 @@
       <c r="U3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="V3" s="193" t="s">
+      <c r="V3" s="204" t="s">
         <v>65</v>
       </c>
-      <c r="W3" s="193"/>
-      <c r="X3" s="193"/>
-      <c r="Y3" s="193"/>
+      <c r="W3" s="204"/>
+      <c r="X3" s="204"/>
+      <c r="Y3" s="204"/>
     </row>
     <row r="4" spans="2:25" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8"/>
@@ -3003,10 +3002,10 @@
     </row>
     <row r="6" spans="2:25" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
-      <c r="C6" s="194" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="194"/>
+      <c r="C6" s="203" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="203"/>
       <c r="E6" s="3">
         <v>6337170</v>
       </c>
@@ -3043,10 +3042,10 @@
     </row>
     <row r="7" spans="2:25" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
-      <c r="C7" s="194" t="s">
+      <c r="C7" s="203" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="194"/>
+      <c r="D7" s="203"/>
       <c r="E7" s="3">
         <v>7943500</v>
       </c>
@@ -3152,10 +3151,10 @@
     </row>
     <row r="10" spans="2:25" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
-      <c r="C10" s="194" t="s">
+      <c r="C10" s="203" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="194"/>
+      <c r="D10" s="203"/>
       <c r="E10" s="3">
         <v>8864832</v>
       </c>
@@ -3192,10 +3191,10 @@
     </row>
     <row r="11" spans="2:25" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
-      <c r="C11" s="194" t="s">
+      <c r="C11" s="203" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="194"/>
+      <c r="D11" s="203"/>
       <c r="E11" s="3">
         <v>817056</v>
       </c>
@@ -3596,10 +3595,10 @@
       </c>
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="C21" s="194" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" s="194"/>
+      <c r="C21" s="203" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="203"/>
       <c r="E21" s="3">
         <v>376694285634</v>
       </c>
@@ -3617,10 +3616,10 @@
       </c>
     </row>
     <row r="22" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="C22" s="194" t="s">
+      <c r="C22" s="203" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="194"/>
+      <c r="D22" s="203"/>
       <c r="E22" s="3">
         <v>122092091111</v>
       </c>
@@ -3665,10 +3664,10 @@
       </c>
     </row>
     <row r="25" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="C25" s="194" t="s">
+      <c r="C25" s="203" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="194"/>
+      <c r="D25" s="203"/>
       <c r="E25" s="3">
         <v>104267201912</v>
       </c>
@@ -3686,10 +3685,10 @@
       </c>
     </row>
     <row r="26" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="194" t="s">
+      <c r="C26" s="203" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="194"/>
+      <c r="D26" s="203"/>
       <c r="E26" s="3">
         <v>10574595944</v>
       </c>
@@ -3932,10 +3931,10 @@
       </c>
     </row>
     <row r="36" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="C36" s="194" t="s">
-        <v>0</v>
-      </c>
-      <c r="D36" s="194"/>
+      <c r="C36" s="203" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" s="203"/>
       <c r="E36" s="3">
         <v>441621631299</v>
       </c>
@@ -3953,10 +3952,10 @@
       </c>
     </row>
     <row r="37" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="C37" s="194" t="s">
+      <c r="C37" s="203" t="s">
         <v>1</v>
       </c>
-      <c r="D37" s="194"/>
+      <c r="D37" s="203"/>
       <c r="E37" s="3">
         <v>177761450767</v>
       </c>
@@ -4013,10 +4012,10 @@
       </c>
     </row>
     <row r="40" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="C40" s="194" t="s">
+      <c r="C40" s="203" t="s">
         <v>7</v>
       </c>
-      <c r="D40" s="194"/>
+      <c r="D40" s="203"/>
       <c r="E40" s="3">
         <v>111683722179</v>
       </c>
@@ -4034,10 +4033,10 @@
       </c>
     </row>
     <row r="41" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="C41" s="194" t="s">
+      <c r="C41" s="203" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="194"/>
+      <c r="D41" s="203"/>
       <c r="E41" s="3">
         <v>53950225983</v>
       </c>
@@ -4305,10 +4304,10 @@
       </c>
     </row>
     <row r="51" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="C51" s="194" t="s">
-        <v>0</v>
-      </c>
-      <c r="D51" s="194"/>
+      <c r="C51" s="203" t="s">
+        <v>0</v>
+      </c>
+      <c r="D51" s="203"/>
       <c r="E51" s="3">
         <v>874017297803</v>
       </c>
@@ -4326,10 +4325,10 @@
       </c>
     </row>
     <row r="52" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="C52" s="194" t="s">
+      <c r="C52" s="203" t="s">
         <v>1</v>
       </c>
-      <c r="D52" s="194"/>
+      <c r="D52" s="203"/>
       <c r="E52" s="3">
         <v>979218045833</v>
       </c>
@@ -4386,10 +4385,10 @@
       </c>
     </row>
     <row r="55" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="C55" s="194" t="s">
+      <c r="C55" s="203" t="s">
         <v>7</v>
       </c>
-      <c r="D55" s="194"/>
+      <c r="D55" s="203"/>
       <c r="E55" s="3">
         <v>486053837459</v>
       </c>
@@ -4407,10 +4406,10 @@
       </c>
     </row>
     <row r="56" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="C56" s="194" t="s">
+      <c r="C56" s="203" t="s">
         <v>8</v>
       </c>
-      <c r="D56" s="194"/>
+      <c r="D56" s="203"/>
       <c r="E56" s="3">
         <v>83677063909</v>
       </c>
@@ -4546,11 +4545,6 @@
     <row r="61" spans="2:25" ht="13.5" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="V3:Y3"/>
-    <mergeCell ref="C51:D51"/>
     <mergeCell ref="C52:D52"/>
     <mergeCell ref="C55:D55"/>
     <mergeCell ref="C56:D56"/>
@@ -4565,842 +4559,11 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C10:D10"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G35"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="212" t="s">
-        <v>105</v>
-      </c>
-      <c r="B1" s="212"/>
-      <c r="C1" s="212"/>
-      <c r="D1" s="212"/>
-      <c r="E1" s="212"/>
-      <c r="F1" s="212"/>
-      <c r="G1" s="212"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="157"/>
-      <c r="B2" s="157"/>
-      <c r="C2" s="157"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="157"/>
-      <c r="F2" s="158"/>
-      <c r="G2" s="158"/>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="159" t="s">
-        <v>106</v>
-      </c>
-      <c r="B3" s="159" t="s">
-        <v>107</v>
-      </c>
-      <c r="C3" s="159" t="s">
-        <v>108</v>
-      </c>
-      <c r="D3" s="160" t="s">
-        <v>101</v>
-      </c>
-      <c r="E3" s="161" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" s="159" t="s">
-        <v>109</v>
-      </c>
-      <c r="G3" s="159" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="162">
-        <v>1</v>
-      </c>
-      <c r="B4" s="163" t="s">
-        <v>111</v>
-      </c>
-      <c r="C4" s="162">
-        <v>2019</v>
-      </c>
-      <c r="D4" s="164">
-        <v>0.56236375615469714</v>
-      </c>
-      <c r="E4" s="164">
-        <v>3.5824845393217997</v>
-      </c>
-      <c r="F4" s="165">
-        <v>3403</v>
-      </c>
-      <c r="G4" s="166">
-        <v>8.1300000000000008</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="162">
-        <f>A4+1</f>
-        <v>2</v>
-      </c>
-      <c r="B5" s="163" t="s">
-        <v>112</v>
-      </c>
-      <c r="C5" s="162">
-        <v>2019</v>
-      </c>
-      <c r="D5" s="164">
-        <v>0.50151623074757401</v>
-      </c>
-      <c r="E5" s="164">
-        <v>3.9284559689259466</v>
-      </c>
-      <c r="F5" s="167">
-        <v>3730</v>
-      </c>
-      <c r="G5" s="166">
-        <v>8.2200000000000006</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="162">
-        <f t="shared" ref="A6:A35" si="0">A5+1</f>
-        <v>3</v>
-      </c>
-      <c r="B6" s="163" t="s">
-        <v>113</v>
-      </c>
-      <c r="C6" s="162">
-        <v>2019</v>
-      </c>
-      <c r="D6" s="164">
-        <v>0.37826785737207713</v>
-      </c>
-      <c r="E6" s="164">
-        <v>3.7440864678600678</v>
-      </c>
-      <c r="F6" s="167">
-        <v>2750</v>
-      </c>
-      <c r="G6" s="166">
-        <v>7.92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="162">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B7" s="163" t="s">
-        <v>114</v>
-      </c>
-      <c r="C7" s="162">
-        <v>2019</v>
-      </c>
-      <c r="D7" s="164">
-        <v>0.40982540033609954</v>
-      </c>
-      <c r="E7" s="164">
-        <v>3.6905987868493928</v>
-      </c>
-      <c r="F7" s="167">
-        <v>3467</v>
-      </c>
-      <c r="G7" s="166">
-        <v>8.15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="162">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B8" s="163" t="s">
-        <v>111</v>
-      </c>
-      <c r="C8" s="162">
-        <v>2018</v>
-      </c>
-      <c r="D8" s="164">
-        <v>0.37577888976735907</v>
-      </c>
-      <c r="E8" s="164">
-        <v>3.3785848293957761</v>
-      </c>
-      <c r="F8" s="168">
-        <v>2027</v>
-      </c>
-      <c r="G8" s="166">
-        <v>7.61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="162">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B9" s="163" t="s">
-        <v>112</v>
-      </c>
-      <c r="C9" s="162">
-        <v>2018</v>
-      </c>
-      <c r="D9" s="164">
-        <v>0.49175197547588506</v>
-      </c>
-      <c r="E9" s="164">
-        <v>2.8211224573767049</v>
-      </c>
-      <c r="F9" s="168">
-        <v>3267</v>
-      </c>
-      <c r="G9" s="166">
-        <v>8.09</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="162">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B10" s="163" t="s">
-        <v>113</v>
-      </c>
-      <c r="C10" s="162">
-        <v>2018</v>
-      </c>
-      <c r="D10" s="164">
-        <v>0.47640887736441084</v>
-      </c>
-      <c r="E10" s="164">
-        <v>2.667162462466858</v>
-      </c>
-      <c r="F10" s="168">
-        <v>3420</v>
-      </c>
-      <c r="G10" s="166">
-        <v>8.14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="162">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B11" s="163" t="s">
-        <v>114</v>
-      </c>
-      <c r="C11" s="162">
-        <v>2018</v>
-      </c>
-      <c r="D11" s="164">
-        <v>0.57657207273621747</v>
-      </c>
-      <c r="E11" s="164">
-        <v>2.4006092668988188</v>
-      </c>
-      <c r="F11" s="168">
-        <v>5292</v>
-      </c>
-      <c r="G11" s="166">
-        <v>8.57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="162">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B12" s="163" t="s">
-        <v>111</v>
-      </c>
-      <c r="C12" s="162">
-        <v>2017</v>
-      </c>
-      <c r="D12" s="164">
-        <v>0.58512367891844042</v>
-      </c>
-      <c r="E12" s="164">
-        <v>2.4194542025957348</v>
-      </c>
-      <c r="F12" s="168">
-        <v>5383</v>
-      </c>
-      <c r="G12" s="166">
-        <v>8.59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="162">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B13" s="163" t="s">
-        <v>112</v>
-      </c>
-      <c r="C13" s="162">
-        <v>2017</v>
-      </c>
-      <c r="D13" s="164">
-        <v>0.61406183772263079</v>
-      </c>
-      <c r="E13" s="164">
-        <v>2.1939163997897655</v>
-      </c>
-      <c r="F13" s="168">
-        <v>6400</v>
-      </c>
-      <c r="G13" s="166">
-        <v>8.76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="162">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B14" s="163" t="s">
-        <v>113</v>
-      </c>
-      <c r="C14" s="162">
-        <v>2017</v>
-      </c>
-      <c r="D14" s="164">
-        <v>0.57624492143213768</v>
-      </c>
-      <c r="E14" s="164">
-        <v>2.4119216543529212</v>
-      </c>
-      <c r="F14" s="168">
-        <v>6817</v>
-      </c>
-      <c r="G14" s="166">
-        <v>8.83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="162">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B15" s="163" t="s">
-        <v>114</v>
-      </c>
-      <c r="C15" s="162">
-        <v>2017</v>
-      </c>
-      <c r="D15" s="164">
-        <v>0.47699463760246241</v>
-      </c>
-      <c r="E15" s="164">
-        <v>2.4491289264526634</v>
-      </c>
-      <c r="F15" s="168">
-        <v>6850</v>
-      </c>
-      <c r="G15" s="166">
-        <v>8.83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="162">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B16" s="163" t="s">
-        <v>111</v>
-      </c>
-      <c r="C16" s="162">
-        <v>2016</v>
-      </c>
-      <c r="D16" s="164">
-        <v>0.42299227646297466</v>
-      </c>
-      <c r="E16" s="164">
-        <v>2.5859686301568039</v>
-      </c>
-      <c r="F16" s="168">
-        <v>6483</v>
-      </c>
-      <c r="G16" s="166">
-        <v>8.7799999999999994</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="162">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B17" s="163" t="s">
-        <v>112</v>
-      </c>
-      <c r="C17" s="162">
-        <v>2016</v>
-      </c>
-      <c r="D17" s="164">
-        <v>0.44067908198136363</v>
-      </c>
-      <c r="E17" s="164">
-        <v>2.4419613993570755</v>
-      </c>
-      <c r="F17" s="168">
-        <v>6358</v>
-      </c>
-      <c r="G17" s="166">
-        <v>8.76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="162">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B18" s="163" t="s">
-        <v>113</v>
-      </c>
-      <c r="C18" s="162">
-        <v>2016</v>
-      </c>
-      <c r="D18" s="164">
-        <v>0.38916361811772476</v>
-      </c>
-      <c r="E18" s="164">
-        <v>2.6587155794261541</v>
-      </c>
-      <c r="F18" s="168">
-        <v>6550</v>
-      </c>
-      <c r="G18" s="166">
-        <v>8.7899999999999991</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="162">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B19" s="163" t="s">
-        <v>114</v>
-      </c>
-      <c r="C19" s="162">
-        <v>2016</v>
-      </c>
-      <c r="D19" s="164">
-        <v>0.44100586770137112</v>
-      </c>
-      <c r="E19" s="164">
-        <v>2.8520801689590525</v>
-      </c>
-      <c r="F19" s="168">
-        <v>5608</v>
-      </c>
-      <c r="G19" s="166">
-        <v>8.6300000000000008</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="162">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B20" s="163" t="s">
-        <v>111</v>
-      </c>
-      <c r="C20" s="162">
-        <v>2015</v>
-      </c>
-      <c r="D20" s="164">
-        <v>0.49463296530125767</v>
-      </c>
-      <c r="E20" s="164">
-        <v>3.1759032696486638</v>
-      </c>
-      <c r="F20" s="168">
-        <v>5097</v>
-      </c>
-      <c r="G20" s="166">
-        <v>8.5399999999999991</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="162">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B21" s="163" t="s">
-        <v>112</v>
-      </c>
-      <c r="C21" s="162">
-        <v>2015</v>
-      </c>
-      <c r="D21" s="164">
-        <v>0.58592780791533983</v>
-      </c>
-      <c r="E21" s="164">
-        <v>2.9733963285008977</v>
-      </c>
-      <c r="F21" s="168">
-        <v>4032</v>
-      </c>
-      <c r="G21" s="166">
-        <v>8.3000000000000007</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="162">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B22" s="163" t="s">
-        <v>113</v>
-      </c>
-      <c r="C22" s="162">
-        <v>2015</v>
-      </c>
-      <c r="D22" s="164">
-        <v>0.65789451161662615</v>
-      </c>
-      <c r="E22" s="164">
-        <v>3.3179447651703931</v>
-      </c>
-      <c r="F22" s="168">
-        <v>3913</v>
-      </c>
-      <c r="G22" s="166">
-        <v>8.27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="162">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B23" s="163" t="s">
-        <v>114</v>
-      </c>
-      <c r="C23" s="162">
-        <v>2015</v>
-      </c>
-      <c r="D23" s="164">
-        <v>0.42301844668184579</v>
-      </c>
-      <c r="E23" s="164">
-        <v>2.8085655783373791</v>
-      </c>
-      <c r="F23" s="168">
-        <v>4162</v>
-      </c>
-      <c r="G23" s="166">
-        <v>8.33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="162">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B24" s="163" t="s">
-        <v>111</v>
-      </c>
-      <c r="C24" s="162">
-        <v>2014</v>
-      </c>
-      <c r="D24" s="164">
-        <v>0.40626751212380985</v>
-      </c>
-      <c r="E24" s="164">
-        <v>2.7514071605140731</v>
-      </c>
-      <c r="F24" s="168">
-        <v>4015</v>
-      </c>
-      <c r="G24" s="166">
-        <v>8.3000000000000007</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="162">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B25" s="163" t="s">
-        <v>112</v>
-      </c>
-      <c r="C25" s="162">
-        <v>2014</v>
-      </c>
-      <c r="D25" s="164">
-        <v>0.48252575857425067</v>
-      </c>
-      <c r="E25" s="164">
-        <v>2.4963505515673163</v>
-      </c>
-      <c r="F25" s="168">
-        <v>4103</v>
-      </c>
-      <c r="G25" s="166">
-        <v>8.32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="162">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B26" s="163" t="s">
-        <v>113</v>
-      </c>
-      <c r="C26" s="162">
-        <v>2014</v>
-      </c>
-      <c r="D26" s="164">
-        <v>0.53370088639232971</v>
-      </c>
-      <c r="E26" s="164">
-        <v>2.1953947128922771</v>
-      </c>
-      <c r="F26" s="168">
-        <v>4083</v>
-      </c>
-      <c r="G26" s="166">
-        <v>8.31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="162">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B27" s="163" t="s">
-        <v>114</v>
-      </c>
-      <c r="C27" s="162">
-        <v>2014</v>
-      </c>
-      <c r="D27" s="164">
-        <v>0.61719720364230546</v>
-      </c>
-      <c r="E27" s="164">
-        <v>2.1849121926562849</v>
-      </c>
-      <c r="F27" s="168">
-        <v>4205</v>
-      </c>
-      <c r="G27" s="166">
-        <v>8.34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="162">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B28" s="163" t="s">
-        <v>111</v>
-      </c>
-      <c r="C28" s="162">
-        <v>2013</v>
-      </c>
-      <c r="D28" s="164">
-        <v>0.53125721362069422</v>
-      </c>
-      <c r="E28" s="164">
-        <v>2.3007759966067707</v>
-      </c>
-      <c r="F28" s="168">
-        <v>4408</v>
-      </c>
-      <c r="G28" s="166">
-        <v>8.39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="162">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B29" s="163" t="s">
-        <v>112</v>
-      </c>
-      <c r="C29" s="162">
-        <v>2013</v>
-      </c>
-      <c r="D29" s="164">
-        <v>0.49802604338901746</v>
-      </c>
-      <c r="E29" s="164">
-        <v>2.1021847281782926</v>
-      </c>
-      <c r="F29" s="168">
-        <v>4950</v>
-      </c>
-      <c r="G29" s="166">
-        <v>8.51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="162">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B30" s="163" t="s">
-        <v>113</v>
-      </c>
-      <c r="C30" s="162">
-        <v>2013</v>
-      </c>
-      <c r="D30" s="164">
-        <v>0.52719350647103458</v>
-      </c>
-      <c r="E30" s="164">
-        <v>1.8414044862046106</v>
-      </c>
-      <c r="F30" s="168">
-        <v>6167</v>
-      </c>
-      <c r="G30" s="166">
-        <v>8.73</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="162">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B31" s="163" t="s">
-        <v>114</v>
-      </c>
-      <c r="C31" s="162">
-        <v>2013</v>
-      </c>
-      <c r="D31" s="164">
-        <v>0.70113130772084231</v>
-      </c>
-      <c r="E31" s="164">
-        <v>1.7687476944206253</v>
-      </c>
-      <c r="F31" s="168">
-        <v>7083</v>
-      </c>
-      <c r="G31" s="166">
-        <v>8.8699999999999992</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="162">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B32" s="163" t="s">
-        <v>111</v>
-      </c>
-      <c r="C32" s="162">
-        <v>2012</v>
-      </c>
-      <c r="D32" s="164">
-        <v>0.75426632283173434</v>
-      </c>
-      <c r="E32" s="164">
-        <v>1.8473301173103869</v>
-      </c>
-      <c r="F32" s="168">
-        <v>6767</v>
-      </c>
-      <c r="G32" s="166">
-        <v>8.82</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="162">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B33" s="163" t="s">
-        <v>112</v>
-      </c>
-      <c r="C33" s="162">
-        <v>2012</v>
-      </c>
-      <c r="D33" s="164">
-        <v>0.72355321658651661</v>
-      </c>
-      <c r="E33" s="164">
-        <v>1.5520432874641843</v>
-      </c>
-      <c r="F33" s="168">
-        <v>5683</v>
-      </c>
-      <c r="G33" s="166">
-        <v>8.65</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="162">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B34" s="163" t="s">
-        <v>113</v>
-      </c>
-      <c r="C34" s="162">
-        <v>2012</v>
-      </c>
-      <c r="D34" s="164">
-        <v>0.62523076109725118</v>
-      </c>
-      <c r="E34" s="164">
-        <v>1.947059670544244</v>
-      </c>
-      <c r="F34" s="168">
-        <v>4950</v>
-      </c>
-      <c r="G34" s="166">
-        <v>8.51</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="162">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B35" s="163" t="s">
-        <v>114</v>
-      </c>
-      <c r="C35" s="162">
-        <v>2012</v>
-      </c>
-      <c r="D35" s="164">
-        <v>0.54277080093543162</v>
-      </c>
-      <c r="E35" s="164">
-        <v>1.7393545846003335</v>
-      </c>
-      <c r="F35" s="168">
-        <v>5750</v>
-      </c>
-      <c r="G35" s="166">
-        <v>8.66</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="V3:Y3"/>
+    <mergeCell ref="C51:D51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5550,54 +4713,54 @@
       <c r="B4" s="8"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
-      <c r="E4" s="195" t="s">
+      <c r="E4" s="205" t="s">
         <v>119</v>
       </c>
-      <c r="F4" s="195"/>
-      <c r="G4" s="195"/>
-      <c r="H4" s="195"/>
-      <c r="I4" s="193" t="s">
+      <c r="F4" s="205"/>
+      <c r="G4" s="205"/>
+      <c r="H4" s="205"/>
+      <c r="I4" s="204" t="s">
         <v>118</v>
       </c>
-      <c r="J4" s="193"/>
-      <c r="K4" s="193"/>
-      <c r="L4" s="193"/>
-      <c r="M4" s="193" t="s">
+      <c r="J4" s="204"/>
+      <c r="K4" s="204"/>
+      <c r="L4" s="204"/>
+      <c r="M4" s="204" t="s">
         <v>2</v>
       </c>
-      <c r="N4" s="193"/>
-      <c r="O4" s="193"/>
-      <c r="P4" s="193"/>
-      <c r="Q4" s="193" t="s">
+      <c r="N4" s="204"/>
+      <c r="O4" s="204"/>
+      <c r="P4" s="204"/>
+      <c r="Q4" s="204" t="s">
         <v>3</v>
       </c>
-      <c r="R4" s="193"/>
-      <c r="S4" s="193"/>
-      <c r="T4" s="193"/>
-      <c r="U4" s="193" t="s">
+      <c r="R4" s="204"/>
+      <c r="S4" s="204"/>
+      <c r="T4" s="204"/>
+      <c r="U4" s="204" t="s">
         <v>4</v>
       </c>
-      <c r="V4" s="193"/>
-      <c r="W4" s="193"/>
-      <c r="X4" s="193"/>
-      <c r="Y4" s="193" t="s">
+      <c r="V4" s="204"/>
+      <c r="W4" s="204"/>
+      <c r="X4" s="204"/>
+      <c r="Y4" s="204" t="s">
         <v>5</v>
       </c>
-      <c r="Z4" s="193"/>
-      <c r="AA4" s="193"/>
-      <c r="AB4" s="193"/>
-      <c r="AC4" s="193" t="s">
+      <c r="Z4" s="204"/>
+      <c r="AA4" s="204"/>
+      <c r="AB4" s="204"/>
+      <c r="AC4" s="204" t="s">
         <v>6</v>
       </c>
-      <c r="AD4" s="193"/>
-      <c r="AE4" s="193"/>
-      <c r="AF4" s="193"/>
-      <c r="AG4" s="193" t="s">
+      <c r="AD4" s="204"/>
+      <c r="AE4" s="204"/>
+      <c r="AF4" s="204"/>
+      <c r="AG4" s="204" t="s">
         <v>65</v>
       </c>
-      <c r="AH4" s="193"/>
-      <c r="AI4" s="193"/>
-      <c r="AJ4" s="193"/>
+      <c r="AH4" s="204"/>
+      <c r="AI4" s="204"/>
+      <c r="AJ4" s="204"/>
     </row>
     <row r="5" spans="2:36" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
@@ -5704,10 +4867,10 @@
     </row>
     <row r="6" spans="2:36" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
-      <c r="C6" s="194" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="194"/>
+      <c r="C6" s="203" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="203"/>
       <c r="E6" s="175">
         <v>5698982</v>
       </c>
@@ -5807,10 +4970,10 @@
     </row>
     <row r="7" spans="2:36" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
-      <c r="C7" s="194" t="s">
+      <c r="C7" s="203" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="194"/>
+      <c r="D7" s="203"/>
       <c r="E7" s="175">
         <v>6296454</v>
       </c>
@@ -6082,10 +5245,10 @@
     </row>
     <row r="10" spans="2:36" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
-      <c r="C10" s="194" t="s">
+      <c r="C10" s="203" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="194"/>
+      <c r="D10" s="203"/>
       <c r="E10" s="175">
         <v>6765866</v>
       </c>
@@ -6185,10 +5348,10 @@
     </row>
     <row r="11" spans="2:36" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
-      <c r="C11" s="194" t="s">
+      <c r="C11" s="203" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="194"/>
+      <c r="D11" s="203"/>
       <c r="E11" s="175">
         <v>385947</v>
       </c>
@@ -6979,36 +6142,36 @@
       <c r="P19" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="Q19" s="193" t="s">
+      <c r="Q19" s="204" t="s">
         <v>3</v>
       </c>
-      <c r="R19" s="193"/>
-      <c r="S19" s="193"/>
-      <c r="T19" s="193"/>
-      <c r="U19" s="193" t="s">
+      <c r="R19" s="204"/>
+      <c r="S19" s="204"/>
+      <c r="T19" s="204"/>
+      <c r="U19" s="204" t="s">
         <v>4</v>
       </c>
-      <c r="V19" s="193"/>
-      <c r="W19" s="193"/>
-      <c r="X19" s="193"/>
-      <c r="Y19" s="193" t="s">
+      <c r="V19" s="204"/>
+      <c r="W19" s="204"/>
+      <c r="X19" s="204"/>
+      <c r="Y19" s="204" t="s">
         <v>5</v>
       </c>
-      <c r="Z19" s="193"/>
-      <c r="AA19" s="193"/>
-      <c r="AB19" s="193"/>
-      <c r="AC19" s="193" t="s">
+      <c r="Z19" s="204"/>
+      <c r="AA19" s="204"/>
+      <c r="AB19" s="204"/>
+      <c r="AC19" s="204" t="s">
         <v>6</v>
       </c>
-      <c r="AD19" s="193"/>
-      <c r="AE19" s="193"/>
-      <c r="AF19" s="193"/>
-      <c r="AG19" s="193" t="s">
+      <c r="AD19" s="204"/>
+      <c r="AE19" s="204"/>
+      <c r="AF19" s="204"/>
+      <c r="AG19" s="204" t="s">
         <v>65</v>
       </c>
-      <c r="AH19" s="193"/>
-      <c r="AI19" s="193"/>
-      <c r="AJ19" s="193"/>
+      <c r="AH19" s="204"/>
+      <c r="AI19" s="204"/>
+      <c r="AJ19" s="204"/>
     </row>
     <row r="20" spans="2:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
@@ -7093,10 +6256,10 @@
       </c>
     </row>
     <row r="21" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="C21" s="194" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" s="194"/>
+      <c r="C21" s="203" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="203"/>
       <c r="P21" s="3">
         <v>376694285634</v>
       </c>
@@ -7162,10 +6325,10 @@
       </c>
     </row>
     <row r="22" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="C22" s="194" t="s">
+      <c r="C22" s="203" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="194"/>
+      <c r="D22" s="203"/>
       <c r="P22" s="3">
         <v>122092091111</v>
       </c>
@@ -7333,10 +6496,10 @@
       </c>
     </row>
     <row r="25" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="C25" s="194" t="s">
+      <c r="C25" s="203" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="194"/>
+      <c r="D25" s="203"/>
       <c r="P25" s="3">
         <v>104267201912</v>
       </c>
@@ -7402,10 +6565,10 @@
       </c>
     </row>
     <row r="26" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="194" t="s">
+      <c r="C26" s="203" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="194"/>
+      <c r="D26" s="203"/>
       <c r="P26" s="3">
         <v>10574595944</v>
       </c>
@@ -7957,36 +7120,36 @@
       <c r="P34" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="Q34" s="193" t="s">
+      <c r="Q34" s="204" t="s">
         <v>3</v>
       </c>
-      <c r="R34" s="193"/>
-      <c r="S34" s="193"/>
-      <c r="T34" s="193"/>
-      <c r="U34" s="193" t="s">
+      <c r="R34" s="204"/>
+      <c r="S34" s="204"/>
+      <c r="T34" s="204"/>
+      <c r="U34" s="204" t="s">
         <v>4</v>
       </c>
-      <c r="V34" s="193"/>
-      <c r="W34" s="193"/>
-      <c r="X34" s="193"/>
-      <c r="Y34" s="193" t="s">
+      <c r="V34" s="204"/>
+      <c r="W34" s="204"/>
+      <c r="X34" s="204"/>
+      <c r="Y34" s="204" t="s">
         <v>5</v>
       </c>
-      <c r="Z34" s="193"/>
-      <c r="AA34" s="193"/>
-      <c r="AB34" s="193"/>
-      <c r="AC34" s="193" t="s">
+      <c r="Z34" s="204"/>
+      <c r="AA34" s="204"/>
+      <c r="AB34" s="204"/>
+      <c r="AC34" s="204" t="s">
         <v>6</v>
       </c>
-      <c r="AD34" s="193"/>
-      <c r="AE34" s="193"/>
-      <c r="AF34" s="193"/>
-      <c r="AG34" s="193" t="s">
+      <c r="AD34" s="204"/>
+      <c r="AE34" s="204"/>
+      <c r="AF34" s="204"/>
+      <c r="AG34" s="204" t="s">
         <v>65</v>
       </c>
-      <c r="AH34" s="193"/>
-      <c r="AI34" s="193"/>
-      <c r="AJ34" s="193"/>
+      <c r="AH34" s="204"/>
+      <c r="AI34" s="204"/>
+      <c r="AJ34" s="204"/>
     </row>
     <row r="35" spans="2:36" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="12" t="s">
@@ -8064,10 +7227,10 @@
       </c>
     </row>
     <row r="36" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="C36" s="194" t="s">
-        <v>0</v>
-      </c>
-      <c r="D36" s="194"/>
+      <c r="C36" s="203" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" s="203"/>
       <c r="P36" s="3">
         <v>441621631299</v>
       </c>
@@ -8133,10 +7296,10 @@
       </c>
     </row>
     <row r="37" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="C37" s="194" t="s">
+      <c r="C37" s="203" t="s">
         <v>1</v>
       </c>
-      <c r="D37" s="194"/>
+      <c r="D37" s="203"/>
       <c r="P37" s="3">
         <v>177761450767</v>
       </c>
@@ -8304,10 +7467,10 @@
       </c>
     </row>
     <row r="40" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="C40" s="194" t="s">
+      <c r="C40" s="203" t="s">
         <v>7</v>
       </c>
-      <c r="D40" s="194"/>
+      <c r="D40" s="203"/>
       <c r="P40" s="3">
         <v>111683722179</v>
       </c>
@@ -8373,10 +7536,10 @@
       </c>
     </row>
     <row r="41" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="C41" s="194" t="s">
+      <c r="C41" s="203" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="194"/>
+      <c r="D41" s="203"/>
       <c r="P41" s="3">
         <v>53950225983</v>
       </c>
@@ -8917,36 +8080,36 @@
       <c r="P49" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="Q49" s="193" t="s">
+      <c r="Q49" s="204" t="s">
         <v>3</v>
       </c>
-      <c r="R49" s="193"/>
-      <c r="S49" s="193"/>
-      <c r="T49" s="193"/>
-      <c r="U49" s="193" t="s">
+      <c r="R49" s="204"/>
+      <c r="S49" s="204"/>
+      <c r="T49" s="204"/>
+      <c r="U49" s="204" t="s">
         <v>4</v>
       </c>
-      <c r="V49" s="193"/>
-      <c r="W49" s="193"/>
-      <c r="X49" s="193"/>
-      <c r="Y49" s="193" t="s">
+      <c r="V49" s="204"/>
+      <c r="W49" s="204"/>
+      <c r="X49" s="204"/>
+      <c r="Y49" s="204" t="s">
         <v>5</v>
       </c>
-      <c r="Z49" s="193"/>
-      <c r="AA49" s="193"/>
-      <c r="AB49" s="193"/>
-      <c r="AC49" s="193" t="s">
+      <c r="Z49" s="204"/>
+      <c r="AA49" s="204"/>
+      <c r="AB49" s="204"/>
+      <c r="AC49" s="204" t="s">
         <v>6</v>
       </c>
-      <c r="AD49" s="193"/>
-      <c r="AE49" s="193"/>
-      <c r="AF49" s="193"/>
-      <c r="AG49" s="193" t="s">
+      <c r="AD49" s="204"/>
+      <c r="AE49" s="204"/>
+      <c r="AF49" s="204"/>
+      <c r="AG49" s="204" t="s">
         <v>65</v>
       </c>
-      <c r="AH49" s="193"/>
-      <c r="AI49" s="193"/>
-      <c r="AJ49" s="193"/>
+      <c r="AH49" s="204"/>
+      <c r="AI49" s="204"/>
+      <c r="AJ49" s="204"/>
     </row>
     <row r="50" spans="2:36" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="12" t="s">
@@ -9031,10 +8194,10 @@
       </c>
     </row>
     <row r="51" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="C51" s="194" t="s">
-        <v>0</v>
-      </c>
-      <c r="D51" s="194"/>
+      <c r="C51" s="203" t="s">
+        <v>0</v>
+      </c>
+      <c r="D51" s="203"/>
       <c r="P51" s="3">
         <v>874017297803</v>
       </c>
@@ -9100,10 +8263,10 @@
       </c>
     </row>
     <row r="52" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="C52" s="194" t="s">
+      <c r="C52" s="203" t="s">
         <v>1</v>
       </c>
-      <c r="D52" s="194"/>
+      <c r="D52" s="203"/>
       <c r="P52" s="3">
         <v>979218045833</v>
       </c>
@@ -9271,10 +8434,10 @@
       </c>
     </row>
     <row r="55" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="C55" s="194" t="s">
+      <c r="C55" s="203" t="s">
         <v>7</v>
       </c>
-      <c r="D55" s="194"/>
+      <c r="D55" s="203"/>
       <c r="P55" s="3">
         <v>486053837459</v>
       </c>
@@ -9340,10 +8503,10 @@
       </c>
     </row>
     <row r="56" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="C56" s="194" t="s">
+      <c r="C56" s="203" t="s">
         <v>8</v>
       </c>
-      <c r="D56" s="194"/>
+      <c r="D56" s="203"/>
       <c r="P56" s="3">
         <v>83677063909</v>
       </c>
@@ -9712,36 +8875,36 @@
       <c r="P64" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="Q64" s="193" t="s">
+      <c r="Q64" s="204" t="s">
         <v>3</v>
       </c>
-      <c r="R64" s="193"/>
-      <c r="S64" s="193"/>
-      <c r="T64" s="193"/>
-      <c r="U64" s="193" t="s">
+      <c r="R64" s="204"/>
+      <c r="S64" s="204"/>
+      <c r="T64" s="204"/>
+      <c r="U64" s="204" t="s">
         <v>4</v>
       </c>
-      <c r="V64" s="193"/>
-      <c r="W64" s="193"/>
-      <c r="X64" s="193"/>
-      <c r="Y64" s="193" t="s">
+      <c r="V64" s="204"/>
+      <c r="W64" s="204"/>
+      <c r="X64" s="204"/>
+      <c r="Y64" s="204" t="s">
         <v>5</v>
       </c>
-      <c r="Z64" s="193"/>
-      <c r="AA64" s="193"/>
-      <c r="AB64" s="193"/>
-      <c r="AC64" s="193" t="s">
+      <c r="Z64" s="204"/>
+      <c r="AA64" s="204"/>
+      <c r="AB64" s="204"/>
+      <c r="AC64" s="204" t="s">
         <v>6</v>
       </c>
-      <c r="AD64" s="193"/>
-      <c r="AE64" s="193"/>
-      <c r="AF64" s="193"/>
-      <c r="AG64" s="193" t="s">
+      <c r="AD64" s="204"/>
+      <c r="AE64" s="204"/>
+      <c r="AF64" s="204"/>
+      <c r="AG64" s="204" t="s">
         <v>65</v>
       </c>
-      <c r="AH64" s="193"/>
-      <c r="AI64" s="193"/>
-      <c r="AJ64" s="193"/>
+      <c r="AH64" s="204"/>
+      <c r="AI64" s="204"/>
+      <c r="AJ64" s="204"/>
     </row>
     <row r="65" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B65" s="12" t="s">
@@ -9826,19 +8989,19 @@
       </c>
     </row>
     <row r="66" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="C66" s="194" t="s">
-        <v>0</v>
-      </c>
-      <c r="D66" s="194"/>
+      <c r="C66" s="203" t="s">
+        <v>0</v>
+      </c>
+      <c r="D66" s="203"/>
       <c r="T66" s="3">
         <v>2089896826583</v>
       </c>
     </row>
     <row r="67" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="C67" s="194" t="s">
+      <c r="C67" s="203" t="s">
         <v>1</v>
       </c>
-      <c r="D67" s="194"/>
+      <c r="D67" s="203"/>
       <c r="T67" s="3">
         <v>1121337831987</v>
       </c>
@@ -9866,19 +9029,19 @@
       </c>
     </row>
     <row r="70" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="C70" s="194" t="s">
+      <c r="C70" s="203" t="s">
         <v>7</v>
       </c>
-      <c r="D70" s="194"/>
+      <c r="D70" s="203"/>
       <c r="T70" s="3">
         <v>1291021571370</v>
       </c>
     </row>
     <row r="71" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="C71" s="194" t="s">
+      <c r="C71" s="203" t="s">
         <v>8</v>
       </c>
-      <c r="D71" s="194"/>
+      <c r="D71" s="203"/>
       <c r="T71" s="3">
         <v>143583834900</v>
       </c>
@@ -10071,6 +9234,38 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="Q49:T49"/>
+    <mergeCell ref="Q34:T34"/>
+    <mergeCell ref="U34:X34"/>
+    <mergeCell ref="Y34:AB34"/>
+    <mergeCell ref="Q19:T19"/>
+    <mergeCell ref="U19:X19"/>
+    <mergeCell ref="AC34:AF34"/>
+    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="U4:X4"/>
+    <mergeCell ref="Y4:AB4"/>
+    <mergeCell ref="AC4:AF4"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="Q64:T64"/>
+    <mergeCell ref="AG4:AJ4"/>
+    <mergeCell ref="U64:X64"/>
+    <mergeCell ref="Y64:AB64"/>
+    <mergeCell ref="AC64:AF64"/>
+    <mergeCell ref="AG64:AJ64"/>
+    <mergeCell ref="AG19:AJ19"/>
+    <mergeCell ref="AG34:AJ34"/>
+    <mergeCell ref="AG49:AJ49"/>
+    <mergeCell ref="AC49:AF49"/>
+    <mergeCell ref="Y49:AB49"/>
+    <mergeCell ref="U49:X49"/>
+    <mergeCell ref="AC19:AF19"/>
+    <mergeCell ref="Y19:AB19"/>
     <mergeCell ref="M4:P4"/>
     <mergeCell ref="I4:L4"/>
     <mergeCell ref="E4:H4"/>
@@ -10087,38 +9282,6 @@
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="Q64:T64"/>
-    <mergeCell ref="AG4:AJ4"/>
-    <mergeCell ref="U64:X64"/>
-    <mergeCell ref="Y64:AB64"/>
-    <mergeCell ref="AC64:AF64"/>
-    <mergeCell ref="AG64:AJ64"/>
-    <mergeCell ref="AG19:AJ19"/>
-    <mergeCell ref="AG34:AJ34"/>
-    <mergeCell ref="AG49:AJ49"/>
-    <mergeCell ref="AC49:AF49"/>
-    <mergeCell ref="Y49:AB49"/>
-    <mergeCell ref="U49:X49"/>
-    <mergeCell ref="AC19:AF19"/>
-    <mergeCell ref="Y19:AB19"/>
-    <mergeCell ref="AC34:AF34"/>
-    <mergeCell ref="Q4:T4"/>
-    <mergeCell ref="U4:X4"/>
-    <mergeCell ref="Y4:AB4"/>
-    <mergeCell ref="AC4:AF4"/>
-    <mergeCell ref="Q49:T49"/>
-    <mergeCell ref="Q34:T34"/>
-    <mergeCell ref="U34:X34"/>
-    <mergeCell ref="Y34:AB34"/>
-    <mergeCell ref="Q19:T19"/>
-    <mergeCell ref="U19:X19"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10167,18 +9330,18 @@
       <c r="L1" s="110"/>
       <c r="M1" s="110"/>
       <c r="N1" s="94"/>
-      <c r="O1" s="202" t="s">
+      <c r="O1" s="207" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="203"/>
-      <c r="Q1" s="203"/>
-      <c r="R1" s="203"/>
-      <c r="S1" s="204" t="s">
+      <c r="P1" s="208"/>
+      <c r="Q1" s="208"/>
+      <c r="R1" s="208"/>
+      <c r="S1" s="209" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="205"/>
-      <c r="U1" s="205"/>
-      <c r="V1" s="205"/>
+      <c r="T1" s="210"/>
+      <c r="U1" s="210"/>
+      <c r="V1" s="210"/>
       <c r="W1" s="99"/>
       <c r="X1" s="99"/>
       <c r="Y1" s="99"/>
@@ -10459,10 +9622,10 @@
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A7" s="196" t="s">
+      <c r="A7" s="212" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="196"/>
+      <c r="B7" s="212"/>
       <c r="C7" s="150">
         <v>6604058</v>
       </c>
@@ -10561,10 +9724,10 @@
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A8" s="197" t="s">
+      <c r="A8" s="214" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="197"/>
+      <c r="B8" s="214"/>
       <c r="C8" s="152">
         <v>-3288189</v>
       </c>
@@ -10797,10 +9960,10 @@
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A10" s="197" t="s">
+      <c r="A10" s="214" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="197"/>
+      <c r="B10" s="214"/>
       <c r="C10" s="152">
         <v>-1394600</v>
       </c>
@@ -10899,10 +10062,10 @@
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A11" s="197" t="s">
+      <c r="A11" s="214" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="197"/>
+      <c r="B11" s="214"/>
       <c r="C11" s="152">
         <v>-351614</v>
       </c>
@@ -11001,10 +10164,10 @@
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A12" s="197" t="s">
+      <c r="A12" s="214" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="197"/>
+      <c r="B12" s="214"/>
       <c r="C12" s="152">
         <f>2326+3538</f>
         <v>5864</v>
@@ -11240,10 +10403,10 @@
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A14" s="197" t="s">
+      <c r="A14" s="214" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="197"/>
+      <c r="B14" s="214"/>
       <c r="C14" s="152">
         <v>3930</v>
       </c>
@@ -11342,10 +10505,10 @@
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A15" s="197" t="s">
+      <c r="A15" s="214" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="197"/>
+      <c r="B15" s="214"/>
       <c r="C15" s="152">
         <v>-25454</v>
       </c>
@@ -11578,10 +10741,10 @@
       </c>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A17" s="197" t="s">
+      <c r="A17" s="214" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="197"/>
+      <c r="B17" s="214"/>
       <c r="C17" s="152">
         <v>-391309</v>
       </c>
@@ -11814,10 +10977,10 @@
       </c>
     </row>
     <row r="19" spans="1:34" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="198" t="s">
+      <c r="A19" s="215" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="198"/>
+      <c r="B19" s="215"/>
       <c r="C19" s="153"/>
       <c r="D19" s="153"/>
       <c r="E19" s="153"/>
@@ -11852,10 +11015,10 @@
       <c r="AH19" s="102"/>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A20" s="197" t="s">
+      <c r="A20" s="214" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="197"/>
+      <c r="B20" s="214"/>
       <c r="C20" s="152"/>
       <c r="D20" s="152"/>
       <c r="E20" s="152"/>
@@ -12014,10 +11177,10 @@
       </c>
     </row>
     <row r="23" spans="1:34" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="198" t="s">
+      <c r="A23" s="215" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="198"/>
+      <c r="B23" s="215"/>
       <c r="C23" s="153"/>
       <c r="D23" s="153"/>
       <c r="E23" s="153"/>
@@ -12115,10 +11278,10 @@
       </c>
     </row>
     <row r="24" spans="1:34" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="198" t="s">
+      <c r="A24" s="215" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="198"/>
+      <c r="B24" s="215"/>
       <c r="C24" s="153"/>
       <c r="D24" s="153"/>
       <c r="E24" s="153"/>
@@ -12216,10 +11379,10 @@
       </c>
     </row>
     <row r="25" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="199" t="s">
+      <c r="A25" s="216" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="199"/>
+      <c r="B25" s="216"/>
       <c r="C25" s="154"/>
       <c r="D25" s="154"/>
       <c r="E25" s="154"/>
@@ -12276,10 +11439,10 @@
       </c>
     </row>
     <row r="26" spans="1:34" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="198" t="s">
+      <c r="A26" s="215" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="198"/>
+      <c r="B26" s="215"/>
       <c r="C26" s="153"/>
       <c r="D26" s="153"/>
       <c r="E26" s="153"/>
@@ -12606,10 +11769,10 @@
       </c>
     </row>
     <row r="34" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A34" s="196" t="s">
+      <c r="A34" s="212" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="196"/>
+      <c r="B34" s="212"/>
       <c r="C34" s="150"/>
       <c r="D34" s="150"/>
       <c r="E34" s="150"/>
@@ -12686,10 +11849,10 @@
       </c>
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A35" s="196" t="s">
+      <c r="A35" s="212" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="196"/>
+      <c r="B35" s="212"/>
       <c r="C35" s="150"/>
       <c r="D35" s="150"/>
       <c r="E35" s="150"/>
@@ -12867,10 +12030,10 @@
       </c>
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A37" s="196" t="s">
+      <c r="A37" s="212" t="s">
         <v>12</v>
       </c>
-      <c r="B37" s="196"/>
+      <c r="B37" s="212"/>
       <c r="C37" s="150"/>
       <c r="D37" s="150"/>
       <c r="E37" s="150"/>
@@ -12947,10 +12110,10 @@
       </c>
     </row>
     <row r="38" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A38" s="196" t="s">
+      <c r="A38" s="212" t="s">
         <v>13</v>
       </c>
-      <c r="B38" s="196"/>
+      <c r="B38" s="212"/>
       <c r="C38" s="150"/>
       <c r="D38" s="150"/>
       <c r="E38" s="150"/>
@@ -13027,10 +12190,10 @@
       </c>
     </row>
     <row r="39" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A39" s="196" t="s">
+      <c r="A39" s="212" t="s">
         <v>89</v>
       </c>
-      <c r="B39" s="196"/>
+      <c r="B39" s="212"/>
       <c r="C39" s="150"/>
       <c r="D39" s="150"/>
       <c r="E39" s="150"/>
@@ -13101,10 +12264,10 @@
       </c>
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="212" t="s">
         <v>90</v>
       </c>
-      <c r="B40" s="196"/>
+      <c r="B40" s="212"/>
       <c r="C40" s="150"/>
       <c r="D40" s="150"/>
       <c r="E40" s="150"/>
@@ -13286,10 +12449,10 @@
       </c>
     </row>
     <row r="42" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A42" s="196" t="s">
+      <c r="A42" s="212" t="s">
         <v>15</v>
       </c>
-      <c r="B42" s="196"/>
+      <c r="B42" s="212"/>
       <c r="C42" s="150"/>
       <c r="D42" s="150"/>
       <c r="E42" s="150"/>
@@ -13366,10 +12529,10 @@
       </c>
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A43" s="196" t="s">
+      <c r="A43" s="212" t="s">
         <v>16</v>
       </c>
-      <c r="B43" s="196"/>
+      <c r="B43" s="212"/>
       <c r="C43" s="150"/>
       <c r="D43" s="150"/>
       <c r="E43" s="150"/>
@@ -13548,10 +12711,10 @@
       </c>
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A45" s="196" t="s">
+      <c r="A45" s="212" t="s">
         <v>18</v>
       </c>
-      <c r="B45" s="196"/>
+      <c r="B45" s="212"/>
       <c r="C45" s="150"/>
       <c r="D45" s="150"/>
       <c r="E45" s="150"/>
@@ -13729,10 +12892,10 @@
       </c>
     </row>
     <row r="47" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A47" s="200" t="s">
+      <c r="A47" s="211" t="s">
         <v>21</v>
       </c>
-      <c r="B47" s="200"/>
+      <c r="B47" s="211"/>
       <c r="C47" s="149"/>
       <c r="D47" s="149"/>
       <c r="E47" s="149"/>
@@ -13767,10 +12930,10 @@
       <c r="AH47" s="82"/>
     </row>
     <row r="48" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A48" s="196" t="s">
+      <c r="A48" s="212" t="s">
         <v>22</v>
       </c>
-      <c r="B48" s="196"/>
+      <c r="B48" s="212"/>
       <c r="C48" s="150"/>
       <c r="D48" s="150"/>
       <c r="E48" s="150"/>
@@ -13830,10 +12993,10 @@
       </c>
     </row>
     <row r="51" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A51" s="200" t="s">
+      <c r="A51" s="211" t="s">
         <v>25</v>
       </c>
-      <c r="B51" s="200"/>
+      <c r="B51" s="211"/>
       <c r="C51" s="149"/>
       <c r="D51" s="149"/>
       <c r="E51" s="149"/>
@@ -13886,10 +13049,10 @@
       </c>
     </row>
     <row r="52" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A52" s="200" t="s">
+      <c r="A52" s="211" t="s">
         <v>26</v>
       </c>
-      <c r="B52" s="200"/>
+      <c r="B52" s="211"/>
       <c r="C52" s="149"/>
       <c r="D52" s="149"/>
       <c r="E52" s="149"/>
@@ -13942,10 +13105,10 @@
       </c>
     </row>
     <row r="53" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A53" s="201" t="s">
+      <c r="A53" s="206" t="s">
         <v>29</v>
       </c>
-      <c r="B53" s="201"/>
+      <c r="B53" s="206"/>
       <c r="N53" s="97">
         <v>0</v>
       </c>
@@ -13966,10 +13129,10 @@
       </c>
     </row>
     <row r="54" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A54" s="200" t="s">
+      <c r="A54" s="211" t="s">
         <v>27</v>
       </c>
-      <c r="B54" s="200"/>
+      <c r="B54" s="211"/>
       <c r="C54" s="149"/>
       <c r="D54" s="149"/>
       <c r="E54" s="149"/>
@@ -14236,10 +13399,10 @@
       </c>
     </row>
     <row r="61" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A61" s="196" t="s">
+      <c r="A61" s="212" t="s">
         <v>9</v>
       </c>
-      <c r="B61" s="196"/>
+      <c r="B61" s="212"/>
       <c r="C61" s="150"/>
       <c r="D61" s="150"/>
       <c r="E61" s="150"/>
@@ -14316,10 +13479,10 @@
       </c>
     </row>
     <row r="62" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A62" s="196" t="s">
+      <c r="A62" s="212" t="s">
         <v>10</v>
       </c>
-      <c r="B62" s="196"/>
+      <c r="B62" s="212"/>
       <c r="C62" s="150"/>
       <c r="D62" s="150"/>
       <c r="E62" s="150"/>
@@ -14497,10 +13660,10 @@
       </c>
     </row>
     <row r="64" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A64" s="196" t="s">
+      <c r="A64" s="212" t="s">
         <v>12</v>
       </c>
-      <c r="B64" s="196"/>
+      <c r="B64" s="212"/>
       <c r="C64" s="150"/>
       <c r="D64" s="150"/>
       <c r="E64" s="150"/>
@@ -14577,10 +13740,10 @@
       </c>
     </row>
     <row r="65" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A65" s="196" t="s">
+      <c r="A65" s="212" t="s">
         <v>13</v>
       </c>
-      <c r="B65" s="196"/>
+      <c r="B65" s="212"/>
       <c r="C65" s="150"/>
       <c r="D65" s="150"/>
       <c r="E65" s="150"/>
@@ -14657,10 +13820,10 @@
       </c>
     </row>
     <row r="66" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A66" s="196" t="s">
+      <c r="A66" s="212" t="s">
         <v>91</v>
       </c>
-      <c r="B66" s="196"/>
+      <c r="B66" s="212"/>
       <c r="C66" s="150"/>
       <c r="D66" s="150"/>
       <c r="E66" s="150"/>
@@ -14742,10 +13905,10 @@
       </c>
     </row>
     <row r="67" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A67" s="196" t="s">
+      <c r="A67" s="212" t="s">
         <v>92</v>
       </c>
-      <c r="B67" s="196"/>
+      <c r="B67" s="212"/>
       <c r="C67" s="150"/>
       <c r="D67" s="150"/>
       <c r="E67" s="150"/>
@@ -14912,10 +14075,10 @@
       </c>
     </row>
     <row r="69" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A69" s="196" t="s">
+      <c r="A69" s="212" t="s">
         <v>15</v>
       </c>
-      <c r="B69" s="196"/>
+      <c r="B69" s="212"/>
       <c r="C69" s="150"/>
       <c r="D69" s="150"/>
       <c r="E69" s="150"/>
@@ -14992,10 +14155,10 @@
       </c>
     </row>
     <row r="70" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A70" s="196" t="s">
+      <c r="A70" s="212" t="s">
         <v>16</v>
       </c>
-      <c r="B70" s="196"/>
+      <c r="B70" s="212"/>
       <c r="C70" s="150"/>
       <c r="D70" s="150"/>
       <c r="E70" s="150"/>
@@ -15173,10 +14336,10 @@
       </c>
     </row>
     <row r="72" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A72" s="196" t="s">
+      <c r="A72" s="212" t="s">
         <v>18</v>
       </c>
-      <c r="B72" s="196"/>
+      <c r="B72" s="212"/>
       <c r="C72" s="150"/>
       <c r="D72" s="150"/>
       <c r="E72" s="150"/>
@@ -15354,10 +14517,10 @@
       </c>
     </row>
     <row r="74" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A74" s="200" t="s">
+      <c r="A74" s="211" t="s">
         <v>21</v>
       </c>
-      <c r="B74" s="200"/>
+      <c r="B74" s="211"/>
       <c r="C74" s="149"/>
       <c r="D74" s="149"/>
       <c r="E74" s="149"/>
@@ -15392,10 +14555,10 @@
       <c r="AH74" s="82"/>
     </row>
     <row r="75" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A75" s="196" t="s">
+      <c r="A75" s="212" t="s">
         <v>22</v>
       </c>
-      <c r="B75" s="196"/>
+      <c r="B75" s="212"/>
       <c r="C75" s="150"/>
       <c r="D75" s="150"/>
       <c r="E75" s="150"/>
@@ -15455,10 +14618,10 @@
       </c>
     </row>
     <row r="78" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A78" s="200" t="s">
+      <c r="A78" s="211" t="s">
         <v>25</v>
       </c>
-      <c r="B78" s="200"/>
+      <c r="B78" s="211"/>
       <c r="C78" s="149"/>
       <c r="D78" s="149"/>
       <c r="E78" s="149"/>
@@ -15511,10 +14674,10 @@
       </c>
     </row>
     <row r="79" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A79" s="200" t="s">
+      <c r="A79" s="211" t="s">
         <v>26</v>
       </c>
-      <c r="B79" s="200"/>
+      <c r="B79" s="211"/>
       <c r="C79" s="149"/>
       <c r="D79" s="149"/>
       <c r="E79" s="149"/>
@@ -15567,10 +14730,10 @@
       </c>
     </row>
     <row r="80" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A80" s="201" t="s">
+      <c r="A80" s="206" t="s">
         <v>29</v>
       </c>
-      <c r="B80" s="201"/>
+      <c r="B80" s="206"/>
       <c r="N80" s="97">
         <v>0</v>
       </c>
@@ -15591,10 +14754,10 @@
       </c>
     </row>
     <row r="81" spans="1:34" s="136" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="206" t="s">
+      <c r="A81" s="213" t="s">
         <v>27</v>
       </c>
-      <c r="B81" s="206"/>
+      <c r="B81" s="213"/>
       <c r="C81" s="151"/>
       <c r="D81" s="151"/>
       <c r="E81" s="151"/>
@@ -15885,10 +15048,10 @@
       </c>
     </row>
     <row r="88" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A88" s="196" t="s">
+      <c r="A88" s="212" t="s">
         <v>9</v>
       </c>
-      <c r="B88" s="196"/>
+      <c r="B88" s="212"/>
       <c r="C88" s="150"/>
       <c r="D88" s="150"/>
       <c r="E88" s="150"/>
@@ -15965,10 +15128,10 @@
       </c>
     </row>
     <row r="89" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A89" s="196" t="s">
+      <c r="A89" s="212" t="s">
         <v>10</v>
       </c>
-      <c r="B89" s="196"/>
+      <c r="B89" s="212"/>
       <c r="C89" s="150"/>
       <c r="D89" s="150"/>
       <c r="E89" s="150"/>
@@ -16176,10 +15339,10 @@
       </c>
     </row>
     <row r="91" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A91" s="196" t="s">
+      <c r="A91" s="212" t="s">
         <v>12</v>
       </c>
-      <c r="B91" s="196"/>
+      <c r="B91" s="212"/>
       <c r="C91" s="150"/>
       <c r="D91" s="150"/>
       <c r="E91" s="150"/>
@@ -16256,10 +15419,10 @@
       </c>
     </row>
     <row r="92" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A92" s="196" t="s">
+      <c r="A92" s="212" t="s">
         <v>13</v>
       </c>
-      <c r="B92" s="196"/>
+      <c r="B92" s="212"/>
       <c r="C92" s="150"/>
       <c r="D92" s="150"/>
       <c r="E92" s="150"/>
@@ -16336,10 +15499,10 @@
       </c>
     </row>
     <row r="93" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A93" s="196" t="s">
+      <c r="A93" s="212" t="s">
         <v>42</v>
       </c>
-      <c r="B93" s="196"/>
+      <c r="B93" s="212"/>
       <c r="C93" s="150"/>
       <c r="D93" s="150"/>
       <c r="E93" s="150"/>
@@ -16502,10 +15665,10 @@
       </c>
     </row>
     <row r="95" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A95" s="201" t="s">
+      <c r="A95" s="206" t="s">
         <v>87</v>
       </c>
-      <c r="B95" s="201"/>
+      <c r="B95" s="206"/>
       <c r="N95" s="97">
         <v>-15067625957</v>
       </c>
@@ -16704,10 +15867,10 @@
       </c>
     </row>
     <row r="97" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A97" s="196" t="s">
+      <c r="A97" s="212" t="s">
         <v>18</v>
       </c>
-      <c r="B97" s="196"/>
+      <c r="B97" s="212"/>
       <c r="C97" s="150"/>
       <c r="D97" s="150"/>
       <c r="E97" s="150"/>
@@ -16915,10 +16078,10 @@
       </c>
     </row>
     <row r="99" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A99" s="200" t="s">
+      <c r="A99" s="211" t="s">
         <v>21</v>
       </c>
-      <c r="B99" s="200"/>
+      <c r="B99" s="211"/>
       <c r="C99" s="149"/>
       <c r="D99" s="149"/>
       <c r="E99" s="149"/>
@@ -16953,10 +16116,10 @@
       <c r="AH99" s="82"/>
     </row>
     <row r="100" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A100" s="196" t="s">
+      <c r="A100" s="212" t="s">
         <v>22</v>
       </c>
-      <c r="B100" s="196"/>
+      <c r="B100" s="212"/>
       <c r="C100" s="150"/>
       <c r="D100" s="150"/>
       <c r="E100" s="150"/>
@@ -17010,10 +16173,10 @@
       </c>
     </row>
     <row r="103" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A103" s="200" t="s">
+      <c r="A103" s="211" t="s">
         <v>25</v>
       </c>
-      <c r="B103" s="200"/>
+      <c r="B103" s="211"/>
       <c r="C103" s="149"/>
       <c r="D103" s="149"/>
       <c r="E103" s="149"/>
@@ -17063,10 +16226,10 @@
       <c r="AH103" s="82"/>
     </row>
     <row r="104" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A104" s="200" t="s">
+      <c r="A104" s="211" t="s">
         <v>26</v>
       </c>
-      <c r="B104" s="200"/>
+      <c r="B104" s="211"/>
       <c r="C104" s="149"/>
       <c r="D104" s="149"/>
       <c r="E104" s="149"/>
@@ -17116,10 +16279,10 @@
       <c r="AH104" s="82"/>
     </row>
     <row r="105" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A105" s="201" t="s">
+      <c r="A105" s="206" t="s">
         <v>29</v>
       </c>
-      <c r="B105" s="201"/>
+      <c r="B105" s="206"/>
       <c r="N105" s="97">
         <v>0</v>
       </c>
@@ -17137,10 +16300,10 @@
       </c>
     </row>
     <row r="106" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A106" s="200" t="s">
+      <c r="A106" s="211" t="s">
         <v>27</v>
       </c>
-      <c r="B106" s="200"/>
+      <c r="B106" s="211"/>
       <c r="C106" s="149"/>
       <c r="D106" s="149"/>
       <c r="E106" s="149"/>
@@ -17218,6 +16381,49 @@
     </row>
   </sheetData>
   <mergeCells count="59">
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A78:B78"/>
     <mergeCell ref="A95:B95"/>
     <mergeCell ref="O1:R1"/>
     <mergeCell ref="S1:V1"/>
@@ -17234,49 +16440,6 @@
     <mergeCell ref="A79:B79"/>
     <mergeCell ref="A80:B80"/>
     <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -17307,54 +16470,54 @@
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B3" s="207" t="s">
+      <c r="B3" s="217" t="s">
         <v>141</v>
       </c>
-      <c r="C3" s="207"/>
-      <c r="D3" s="207"/>
-      <c r="E3" s="207"/>
-      <c r="F3" s="207" t="s">
+      <c r="C3" s="217"/>
+      <c r="D3" s="217"/>
+      <c r="E3" s="217"/>
+      <c r="F3" s="217" t="s">
         <v>140</v>
       </c>
-      <c r="G3" s="207"/>
-      <c r="H3" s="207"/>
-      <c r="I3" s="207"/>
-      <c r="J3" s="207" t="s">
+      <c r="G3" s="217"/>
+      <c r="H3" s="217"/>
+      <c r="I3" s="217"/>
+      <c r="J3" s="217" t="s">
         <v>139</v>
       </c>
-      <c r="K3" s="207"/>
-      <c r="L3" s="207"/>
-      <c r="M3" s="207"/>
-      <c r="N3" s="207" t="s">
+      <c r="K3" s="217"/>
+      <c r="L3" s="217"/>
+      <c r="M3" s="217"/>
+      <c r="N3" s="217" t="s">
         <v>94</v>
       </c>
-      <c r="O3" s="207"/>
-      <c r="P3" s="207"/>
-      <c r="Q3" s="207"/>
-      <c r="R3" s="207" t="s">
+      <c r="O3" s="217"/>
+      <c r="P3" s="217"/>
+      <c r="Q3" s="217"/>
+      <c r="R3" s="217" t="s">
         <v>98</v>
       </c>
-      <c r="S3" s="207"/>
-      <c r="T3" s="207"/>
-      <c r="U3" s="207"/>
-      <c r="V3" s="207" t="s">
+      <c r="S3" s="217"/>
+      <c r="T3" s="217"/>
+      <c r="U3" s="217"/>
+      <c r="V3" s="217" t="s">
         <v>97</v>
       </c>
-      <c r="W3" s="207"/>
-      <c r="X3" s="207"/>
-      <c r="Y3" s="207"/>
-      <c r="Z3" s="207" t="s">
+      <c r="W3" s="217"/>
+      <c r="X3" s="217"/>
+      <c r="Y3" s="217"/>
+      <c r="Z3" s="217" t="s">
         <v>96</v>
       </c>
-      <c r="AA3" s="207"/>
-      <c r="AB3" s="207"/>
-      <c r="AC3" s="207"/>
-      <c r="AD3" s="207" t="s">
+      <c r="AA3" s="217"/>
+      <c r="AB3" s="217"/>
+      <c r="AC3" s="217"/>
+      <c r="AD3" s="217" t="s">
         <v>95</v>
       </c>
-      <c r="AE3" s="207"/>
-      <c r="AF3" s="207"/>
-      <c r="AG3" s="207"/>
+      <c r="AE3" s="217"/>
+      <c r="AF3" s="217"/>
+      <c r="AG3" s="217"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="137" t="s">
@@ -17764,18 +16927,18 @@
       <c r="A8" s="143" t="s">
         <v>100</v>
       </c>
-      <c r="B8" s="213"/>
-      <c r="C8" s="213"/>
-      <c r="D8" s="213"/>
-      <c r="E8" s="213"/>
-      <c r="F8" s="213"/>
-      <c r="G8" s="213"/>
-      <c r="H8" s="213"/>
-      <c r="I8" s="213"/>
-      <c r="J8" s="213"/>
-      <c r="K8" s="213"/>
-      <c r="L8" s="213"/>
-      <c r="M8" s="213"/>
+      <c r="B8" s="193"/>
+      <c r="C8" s="193"/>
+      <c r="D8" s="193"/>
+      <c r="E8" s="193"/>
+      <c r="F8" s="193"/>
+      <c r="G8" s="193"/>
+      <c r="H8" s="193"/>
+      <c r="I8" s="193"/>
+      <c r="J8" s="193"/>
+      <c r="K8" s="193"/>
+      <c r="L8" s="193"/>
+      <c r="M8" s="193"/>
       <c r="N8" s="144">
         <f>BALANCE_SHEET!Q12/BALANCE_SHEET!Q8</f>
         <v>0.57094670291948157</v>
@@ -19902,14 +19065,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="V3:Y3"/>
+    <mergeCell ref="Z3:AC3"/>
+    <mergeCell ref="AD3:AG3"/>
     <mergeCell ref="J3:M3"/>
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="N3:Q3"/>
     <mergeCell ref="R3:U3"/>
-    <mergeCell ref="V3:Y3"/>
-    <mergeCell ref="Z3:AC3"/>
-    <mergeCell ref="AD3:AG3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -19920,7 +19083,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F3" sqref="F3:N35"/>
     </sheetView>
   </sheetViews>
@@ -19928,13 +19091,13 @@
   <cols>
     <col min="1" max="3" width="9.140625" style="158"/>
     <col min="4" max="5" width="9.140625" style="171"/>
-    <col min="6" max="6" width="11.5703125" style="223" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="223" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" style="225"/>
+    <col min="6" max="6" width="11.5703125" style="199" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="199" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" style="201"/>
     <col min="10" max="11" width="9.140625" style="173"/>
-    <col min="12" max="12" width="10.5703125" style="217" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="217" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="9.140625" style="214"/>
+    <col min="12" max="12" width="10.5703125" style="197" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="197" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="9.140625" style="194"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -19958,28 +19121,28 @@
       <c r="E3" s="172" t="s">
         <v>103</v>
       </c>
-      <c r="F3" s="224" t="s">
+      <c r="F3" s="200" t="s">
         <v>145</v>
       </c>
-      <c r="G3" s="224" t="s">
+      <c r="G3" s="200" t="s">
         <v>146</v>
       </c>
-      <c r="H3" s="226" t="s">
+      <c r="H3" s="202" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="226"/>
+      <c r="I3" s="202"/>
       <c r="J3" s="174"/>
       <c r="K3" s="174"/>
-      <c r="L3" s="218" t="s">
+      <c r="L3" s="198" t="s">
         <v>142</v>
       </c>
-      <c r="M3" s="218" t="s">
+      <c r="M3" s="198" t="s">
         <v>143</v>
       </c>
-      <c r="N3" s="215" t="s">
+      <c r="N3" s="195" t="s">
         <v>49</v>
       </c>
-      <c r="P3" s="215" t="s">
+      <c r="P3" s="195" t="s">
         <v>102</v>
       </c>
     </row>
@@ -19990,121 +19153,121 @@
       <c r="B4" s="158" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="223">
+      <c r="F4" s="199">
         <f>(BALANCE_SHEET!E$12)</f>
         <v>7151813</v>
       </c>
-      <c r="G4" s="223">
+      <c r="G4" s="199">
         <f>(BALANCE_SHEET!E$14)</f>
         <v>4843623</v>
       </c>
-      <c r="H4" s="225">
+      <c r="H4" s="201">
         <f>((BALANCE_SHEET!E$12)/(BALANCE_SHEET!E$14))</f>
         <v>1.476542043012018</v>
       </c>
-      <c r="L4" s="217">
+      <c r="L4" s="197">
         <f>INCOME_STATEMENT!C18</f>
         <v>1162686</v>
       </c>
-      <c r="M4" s="217">
+      <c r="M4" s="197">
         <f>BALANCE_SHEET!E8</f>
         <v>11995436</v>
       </c>
-      <c r="N4" s="214">
+      <c r="N4" s="194">
         <f>INCOME_STATEMENT!C18/BALANCE_SHEET!E8</f>
         <v>9.6927364707710503E-2</v>
       </c>
-      <c r="P4" s="216"/>
+      <c r="P4" s="196"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B5" s="158" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="223">
+      <c r="F5" s="199">
         <f>(BALANCE_SHEET!F$12)</f>
         <v>10182580</v>
       </c>
-      <c r="G5" s="223">
+      <c r="G5" s="199">
         <f>(BALANCE_SHEET!F$14)</f>
         <v>3752158</v>
       </c>
-      <c r="H5" s="225">
+      <c r="H5" s="201">
         <f>((BALANCE_SHEET!F$12)/(BALANCE_SHEET!F$14))</f>
         <v>2.7137929692726157</v>
       </c>
-      <c r="L5" s="217">
+      <c r="L5" s="197">
         <f>INCOME_STATEMENT!D18</f>
         <v>2329701</v>
       </c>
-      <c r="M5" s="217">
+      <c r="M5" s="197">
         <f>BALANCE_SHEET!F8</f>
         <v>13934738</v>
       </c>
-      <c r="N5" s="214">
+      <c r="N5" s="194">
         <f>INCOME_STATEMENT!D18/BALANCE_SHEET!F8</f>
         <v>0.16718656640691773</v>
       </c>
-      <c r="P5" s="216"/>
+      <c r="P5" s="196"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B6" s="158" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="223">
+      <c r="F6" s="199">
         <f>(BALANCE_SHEET!G$12)</f>
         <v>7316284</v>
       </c>
-      <c r="G6" s="223">
+      <c r="G6" s="199">
         <f>(BALANCE_SHEET!G$14)</f>
         <v>5105626</v>
       </c>
-      <c r="H6" s="225">
+      <c r="H6" s="201">
         <f>((BALANCE_SHEET!G$12)/(BALANCE_SHEET!G$14))</f>
         <v>1.4329847113752554</v>
       </c>
-      <c r="L6" s="217">
+      <c r="L6" s="197">
         <f>INCOME_STATEMENT!E18</f>
         <v>3653568</v>
       </c>
-      <c r="M6" s="217">
+      <c r="M6" s="197">
         <f>BALANCE_SHEET!G8</f>
         <v>12421910</v>
       </c>
-      <c r="N6" s="214">
+      <c r="N6" s="194">
         <f>INCOME_STATEMENT!E18/BALANCE_SHEET!G8</f>
         <v>0.29412288448394813</v>
       </c>
-      <c r="P6" s="216"/>
+      <c r="P6" s="196"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" s="158" t="s">
         <v>93</v>
       </c>
-      <c r="F7" s="223">
+      <c r="F7" s="199">
         <f>(BALANCE_SHEET!H$12)</f>
         <v>8016614</v>
       </c>
-      <c r="G7" s="223">
+      <c r="G7" s="199">
         <f>(BALANCE_SHEET!H$14)</f>
         <v>3968365</v>
       </c>
-      <c r="H7" s="225">
+      <c r="H7" s="201">
         <f>((BALANCE_SHEET!H$12)/(BALANCE_SHEET!H$14))</f>
         <v>2.020130204756871</v>
       </c>
-      <c r="L7" s="217">
+      <c r="L7" s="197">
         <f>INCOME_STATEMENT!F18</f>
         <v>4839145</v>
       </c>
-      <c r="M7" s="217">
+      <c r="M7" s="197">
         <f>BALANCE_SHEET!H8</f>
         <v>11984979</v>
       </c>
-      <c r="N7" s="214">
+      <c r="N7" s="194">
         <f>INCOME_STATEMENT!F18/BALANCE_SHEET!H8</f>
         <v>0.40376749930058281</v>
       </c>
-      <c r="P7" s="216"/>
+      <c r="P7" s="196"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="170" t="s">
@@ -20113,121 +19276,121 @@
       <c r="B8" s="158" t="s">
         <v>62</v>
       </c>
-      <c r="F8" s="223">
+      <c r="F8" s="199">
         <f>(BALANCE_SHEET!I$12)</f>
         <v>7505909</v>
       </c>
-      <c r="G8" s="223">
+      <c r="G8" s="199">
         <f>(BALANCE_SHEET!I$14)</f>
         <v>5400348</v>
       </c>
-      <c r="H8" s="225">
+      <c r="H8" s="201">
         <f>((BALANCE_SHEET!I$12)/(BALANCE_SHEET!I$14))</f>
         <v>1.3898935772287266</v>
       </c>
-      <c r="L8" s="217">
+      <c r="L8" s="197">
         <f>INCOME_STATEMENT!G18</f>
         <v>9822451</v>
       </c>
-      <c r="M8" s="217">
+      <c r="M8" s="197">
         <f>BALANCE_SHEET!I8</f>
         <v>12906257</v>
       </c>
-      <c r="N8" s="214">
+      <c r="N8" s="194">
         <f>INCOME_STATEMENT!G18/BALANCE_SHEET!I8</f>
         <v>0.76106116591355655</v>
       </c>
-      <c r="P8" s="216"/>
+      <c r="P8" s="196"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B9" s="158" t="s">
         <v>63</v>
       </c>
-      <c r="F9" s="223">
+      <c r="F9" s="199">
         <f>(BALANCE_SHEET!J$12)</f>
         <v>9949299</v>
       </c>
-      <c r="G9" s="223">
+      <c r="G9" s="199">
         <f>(BALANCE_SHEET!J$14)</f>
         <v>4243835</v>
       </c>
-      <c r="H9" s="225">
+      <c r="H9" s="201">
         <f>((BALANCE_SHEET!J$12)/(BALANCE_SHEET!J$14))</f>
         <v>2.3444123063219942</v>
       </c>
-      <c r="L9" s="217">
+      <c r="L9" s="197">
         <f>INCOME_STATEMENT!H18</f>
         <v>2823890</v>
       </c>
-      <c r="M9" s="217">
+      <c r="M9" s="197">
         <f>BALANCE_SHEET!J8</f>
         <v>14193134</v>
       </c>
-      <c r="N9" s="214">
+      <c r="N9" s="194">
         <f>INCOME_STATEMENT!H18/BALANCE_SHEET!J8</f>
         <v>0.19896169514076315</v>
       </c>
-      <c r="P9" s="216"/>
+      <c r="P9" s="196"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B10" s="158" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="223">
+      <c r="F10" s="199">
         <f>(BALANCE_SHEET!K$12)</f>
         <v>7829734</v>
       </c>
-      <c r="G10" s="223">
+      <c r="G10" s="199">
         <f>(BALANCE_SHEET!K$14)</f>
         <v>5510444</v>
       </c>
-      <c r="H10" s="225">
+      <c r="H10" s="201">
         <f>((BALANCE_SHEET!K$12)/(BALANCE_SHEET!K$14))</f>
         <v>1.4208898593289396</v>
       </c>
-      <c r="L10" s="217">
+      <c r="L10" s="197">
         <f>INCOME_STATEMENT!I18</f>
         <v>4090499</v>
       </c>
-      <c r="M10" s="217">
+      <c r="M10" s="197">
         <f>BALANCE_SHEET!K8</f>
         <v>13340178</v>
       </c>
-      <c r="N10" s="214">
+      <c r="N10" s="194">
         <f>INCOME_STATEMENT!I18/BALANCE_SHEET!K8</f>
         <v>0.30663001648103944</v>
       </c>
-      <c r="P10" s="216"/>
+      <c r="P10" s="196"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B11" s="158" t="s">
         <v>93</v>
       </c>
-      <c r="F11" s="223">
+      <c r="F11" s="199">
         <f>(BALANCE_SHEET!L$12)</f>
         <v>9093518</v>
       </c>
-      <c r="G11" s="223">
+      <c r="G11" s="199">
         <f>(BALANCE_SHEET!L$14)</f>
         <v>4254670</v>
       </c>
-      <c r="H11" s="225">
+      <c r="H11" s="201">
         <f>((BALANCE_SHEET!L$12)/(BALANCE_SHEET!L$14))</f>
         <v>2.1373027755384082</v>
       </c>
-      <c r="L11" s="217">
+      <c r="L11" s="197">
         <f>INCOME_STATEMENT!J18</f>
         <v>5352625</v>
       </c>
-      <c r="M11" s="217">
+      <c r="M11" s="197">
         <f>BALANCE_SHEET!L8</f>
         <v>13348188</v>
       </c>
-      <c r="N11" s="214">
+      <c r="N11" s="194">
         <f>INCOME_STATEMENT!J18/BALANCE_SHEET!L8</f>
         <v>0.40100012076545521</v>
       </c>
-      <c r="P11" s="216"/>
+      <c r="P11" s="196"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="170" t="s">
@@ -20236,121 +19399,121 @@
       <c r="B12" s="158" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="223">
+      <c r="F12" s="199">
         <f>(BALANCE_SHEET!M$12)</f>
         <v>8698529</v>
       </c>
-      <c r="G12" s="223">
+      <c r="G12" s="199">
         <f>(BALANCE_SHEET!M$14)</f>
         <v>5615651</v>
       </c>
-      <c r="H12" s="225">
+      <c r="H12" s="201">
         <f>((BALANCE_SHEET!M12)/(BALANCE_SHEET!M$14))</f>
         <v>1.548979628541731</v>
       </c>
-      <c r="L12" s="217">
+      <c r="L12" s="197">
         <f>INCOME_STATEMENT!K18</f>
         <v>1360981</v>
       </c>
-      <c r="M12" s="217">
+      <c r="M12" s="197">
         <f>BALANCE_SHEET!M8</f>
         <v>14314180</v>
       </c>
-      <c r="N12" s="214">
+      <c r="N12" s="194">
         <f>INCOME_STATEMENT!K18/BALANCE_SHEET!M8</f>
         <v>9.5079215155880387E-2</v>
       </c>
-      <c r="P12" s="216"/>
+      <c r="P12" s="196"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B13" s="158" t="s">
         <v>63</v>
       </c>
-      <c r="F13" s="223">
+      <c r="F13" s="199">
         <f>(BALANCE_SHEET!N$12)</f>
         <v>11685025</v>
       </c>
-      <c r="G13" s="223">
+      <c r="G13" s="199">
         <f>(BALANCE_SHEET!N$14)</f>
         <v>4271931</v>
       </c>
-      <c r="H13" s="225">
+      <c r="H13" s="201">
         <f>((BALANCE_SHEET!N$12)/(BALANCE_SHEET!N$14))</f>
         <v>2.7353028407996289</v>
       </c>
-      <c r="L13" s="217">
+      <c r="L13" s="197">
         <f>INCOME_STATEMENT!L18</f>
         <v>2847991</v>
       </c>
-      <c r="M13" s="217">
+      <c r="M13" s="197">
         <f>BALANCE_SHEET!N8</f>
         <v>15956956</v>
       </c>
-      <c r="N13" s="214">
+      <c r="N13" s="194">
         <f>INCOME_STATEMENT!L18/BALANCE_SHEET!N8</f>
         <v>0.17847959222297788</v>
       </c>
-      <c r="P13" s="216"/>
+      <c r="P13" s="196"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B14" s="158" t="s">
         <v>64</v>
       </c>
-      <c r="F14" s="223">
+      <c r="F14" s="199">
         <f>(BALANCE_SHEET!O$12)</f>
         <v>9697242</v>
       </c>
-      <c r="G14" s="223">
+      <c r="G14" s="199">
         <f>(BALANCE_SHEET!O$14)</f>
         <v>5472869</v>
       </c>
-      <c r="H14" s="225">
+      <c r="H14" s="201">
         <f>((BALANCE_SHEET!O$12)/(BALANCE_SHEET!O$14))</f>
         <v>1.7718754094059259</v>
       </c>
-      <c r="L14" s="217">
+      <c r="L14" s="197">
         <f>INCOME_STATEMENT!M18</f>
         <v>4048929</v>
       </c>
-      <c r="M14" s="217">
+      <c r="M14" s="197">
         <f>BALANCE_SHEET!O8</f>
         <v>15170111</v>
       </c>
-      <c r="N14" s="214">
+      <c r="N14" s="194">
         <f>INCOME_STATEMENT!M18/BALANCE_SHEET!O8</f>
         <v>0.26690173855682403</v>
       </c>
-      <c r="P14" s="216"/>
+      <c r="P14" s="196"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B15" s="158" t="s">
         <v>93</v>
       </c>
-      <c r="F15" s="223">
+      <c r="F15" s="199">
         <f>(BALANCE_SHEET!P$12)</f>
         <v>9681888</v>
       </c>
-      <c r="G15" s="223">
+      <c r="G15" s="199">
         <f>(BALANCE_SHEET!P$14)</f>
         <v>4598782</v>
       </c>
-      <c r="H15" s="225">
+      <c r="H15" s="201">
         <f>((BALANCE_SHEET!P$12)/(BALANCE_SHEET!P$14))</f>
         <v>2.1053157118558783</v>
       </c>
-      <c r="L15" s="217">
+      <c r="L15" s="197">
         <f>INCOME_STATEMENT!N18</f>
         <v>5738523</v>
       </c>
-      <c r="M15" s="217">
+      <c r="M15" s="197">
         <f>BALANCE_SHEET!P8</f>
         <v>14280670</v>
       </c>
-      <c r="N15" s="214">
+      <c r="N15" s="194">
         <f>INCOME_STATEMENT!N18/BALANCE_SHEET!P8</f>
         <v>0.40183849917405834</v>
       </c>
-      <c r="P15" s="216"/>
+      <c r="P15" s="196"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="170" t="s">
@@ -20359,27 +19522,27 @@
       <c r="B16" s="158" t="s">
         <v>62</v>
       </c>
-      <c r="F16" s="223">
+      <c r="F16" s="199">
         <f>(BALANCE_SHEET!Q$12)</f>
         <v>8434341</v>
       </c>
-      <c r="G16" s="223">
+      <c r="G16" s="199">
         <f>(BALANCE_SHEET!Q$14)</f>
         <v>6338213</v>
       </c>
-      <c r="H16" s="225">
+      <c r="H16" s="201">
         <f>((BALANCE_SHEET!Q$12)/(BALANCE_SHEET!Q$14))</f>
         <v>1.3307127734583866</v>
       </c>
-      <c r="L16" s="217">
+      <c r="L16" s="197">
         <f>INCOME_STATEMENT!O18</f>
         <v>1591699</v>
       </c>
-      <c r="M16" s="217">
+      <c r="M16" s="197">
         <f>BALANCE_SHEET!Q8</f>
         <v>14772554</v>
       </c>
-      <c r="N16" s="214">
+      <c r="N16" s="194">
         <f>INCOME_STATEMENT!O18/BALANCE_SHEET!Q8</f>
         <v>0.10774704225146173</v>
       </c>
@@ -20388,27 +19551,27 @@
       <c r="B17" s="158" t="s">
         <v>63</v>
       </c>
-      <c r="F17" s="223">
+      <c r="F17" s="199">
         <f>(BALANCE_SHEET!R$12)</f>
         <v>11983104</v>
       </c>
-      <c r="G17" s="223">
+      <c r="G17" s="199">
         <f>(BALANCE_SHEET!R$14)</f>
         <v>4503074</v>
       </c>
-      <c r="H17" s="225">
+      <c r="H17" s="201">
         <f>((BALANCE_SHEET!R$12)/(BALANCE_SHEET!R$14))</f>
         <v>2.6610941769999781</v>
       </c>
-      <c r="L17" s="217">
+      <c r="L17" s="197">
         <f>INCOME_STATEMENT!P18</f>
         <v>2930640</v>
       </c>
-      <c r="M17" s="217">
+      <c r="M17" s="197">
         <f>BALANCE_SHEET!R8</f>
         <v>16486178</v>
       </c>
-      <c r="N17" s="214">
+      <c r="N17" s="194">
         <f>INCOME_STATEMENT!P18/BALANCE_SHEET!R8</f>
         <v>0.17776345736410221</v>
       </c>
@@ -20417,27 +19580,27 @@
       <c r="B18" s="158" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="223">
+      <c r="F18" s="199">
         <f>(BALANCE_SHEET!S$12)</f>
         <v>10229164</v>
       </c>
-      <c r="G18" s="223">
+      <c r="G18" s="199">
         <f>(BALANCE_SHEET!S$14)</f>
         <v>5755607</v>
       </c>
-      <c r="H18" s="225">
+      <c r="H18" s="201">
         <f>((BALANCE_SHEET!S$12)/(BALANCE_SHEET!S$14))</f>
         <v>1.7772519909715865</v>
       </c>
-      <c r="L18" s="217">
+      <c r="L18" s="197">
         <f>INCOME_STATEMENT!Q18</f>
         <v>4183173</v>
       </c>
-      <c r="M18" s="217">
+      <c r="M18" s="197">
         <f>BALANCE_SHEET!S8</f>
         <v>15984771</v>
       </c>
-      <c r="N18" s="214">
+      <c r="N18" s="194">
         <f>INCOME_STATEMENT!Q18/BALANCE_SHEET!S8</f>
         <v>0.26169739935592445</v>
       </c>
@@ -20446,27 +19609,27 @@
       <c r="B19" s="158" t="s">
         <v>93</v>
       </c>
-      <c r="F19" s="223">
+      <c r="F19" s="199">
         <f>(BALANCE_SHEET!T$12)</f>
         <v>10902585</v>
       </c>
-      <c r="G19" s="223">
+      <c r="G19" s="199">
         <f>(BALANCE_SHEET!T$14)</f>
         <v>4827360</v>
       </c>
-      <c r="H19" s="225">
+      <c r="H19" s="201">
         <f>((BALANCE_SHEET!T$12)/(BALANCE_SHEET!T$14))</f>
         <v>2.2584984339266181</v>
       </c>
-      <c r="L19" s="217">
+      <c r="L19" s="197">
         <f>INCOME_STATEMENT!R18</f>
         <v>5851805</v>
       </c>
-      <c r="M19" s="217">
+      <c r="M19" s="197">
         <f>BALANCE_SHEET!T8</f>
         <v>15729945</v>
       </c>
-      <c r="N19" s="214">
+      <c r="N19" s="194">
         <f>INCOME_STATEMENT!R18/BALANCE_SHEET!T8</f>
         <v>0.37201687609206519</v>
       </c>
@@ -20478,27 +19641,27 @@
       <c r="B20" s="158" t="s">
         <v>62</v>
       </c>
-      <c r="F20" s="223">
+      <c r="F20" s="199">
         <f>(BALANCE_SHEET!U$12)</f>
         <v>10255900</v>
       </c>
-      <c r="G20" s="223">
+      <c r="G20" s="199">
         <f>(BALANCE_SHEET!U$14)</f>
         <v>6397400</v>
       </c>
-      <c r="H20" s="225">
+      <c r="H20" s="201">
         <f>((BALANCE_SHEET!U$12)/(BALANCE_SHEET!U$14))</f>
         <v>1.6031356488573483</v>
       </c>
-      <c r="L20" s="217">
+      <c r="L20" s="197">
         <f>INCOME_STATEMENT!S18</f>
         <v>1570040</v>
       </c>
-      <c r="M20" s="217">
+      <c r="M20" s="197">
         <f>BALANCE_SHEET!U8</f>
         <v>16653300</v>
       </c>
-      <c r="N20" s="214">
+      <c r="N20" s="194">
         <f>INCOME_STATEMENT!S18/BALANCE_SHEET!U8</f>
         <v>9.4278010964793768E-2</v>
       </c>
@@ -20507,27 +19670,27 @@
       <c r="B21" s="158" t="s">
         <v>63</v>
       </c>
-      <c r="F21" s="223">
+      <c r="F21" s="199">
         <f>(BALANCE_SHEET!V$12)</f>
         <v>14029689</v>
       </c>
-      <c r="G21" s="223">
+      <c r="G21" s="199">
         <f>(BALANCE_SHEET!V$14)</f>
         <v>4890447</v>
       </c>
-      <c r="H21" s="225">
+      <c r="H21" s="201">
         <f>((BALANCE_SHEET!V$12)/(BALANCE_SHEET!V$14))</f>
         <v>2.8687948156886272</v>
       </c>
-      <c r="L21" s="217">
+      <c r="L21" s="197">
         <f>INCOME_STATEMENT!T18</f>
         <v>3298307</v>
       </c>
-      <c r="M21" s="217">
+      <c r="M21" s="197">
         <f>BALANCE_SHEET!V8</f>
         <v>18920136</v>
       </c>
-      <c r="N21" s="214">
+      <c r="N21" s="194">
         <f>INCOME_STATEMENT!T18/BALANCE_SHEET!V8</f>
         <v>0.17432786952482793</v>
       </c>
@@ -20536,27 +19699,27 @@
       <c r="B22" s="158" t="s">
         <v>64</v>
       </c>
-      <c r="F22" s="223">
+      <c r="F22" s="199">
         <f>(BALANCE_SHEET!W$12)</f>
         <v>10405882</v>
       </c>
-      <c r="G22" s="223">
+      <c r="G22" s="199">
         <f>(BALANCE_SHEET!W$14)</f>
         <v>6342791</v>
       </c>
-      <c r="H22" s="225">
+      <c r="H22" s="201">
         <f>((BALANCE_SHEET!W$12)/(BALANCE_SHEET!W$14))</f>
         <v>1.6405840898746309</v>
       </c>
-      <c r="L22" s="217">
+      <c r="L22" s="197">
         <f>INCOME_STATEMENT!U18</f>
         <v>4750551</v>
       </c>
-      <c r="M22" s="217">
+      <c r="M22" s="197">
         <f>BALANCE_SHEET!W8</f>
         <v>16748673</v>
       </c>
-      <c r="N22" s="214">
+      <c r="N22" s="194">
         <f>INCOME_STATEMENT!U18/BALANCE_SHEET!W8</f>
         <v>0.28363745593456868</v>
       </c>
@@ -20565,27 +19728,27 @@
       <c r="B23" s="158" t="s">
         <v>93</v>
       </c>
-      <c r="F23" s="223">
+      <c r="F23" s="199">
         <f>(BALANCE_SHEET!X$12)</f>
         <v>12041437</v>
       </c>
-      <c r="G23" s="223">
+      <c r="G23" s="199">
         <f>(BALANCE_SHEET!X$14)</f>
         <v>4704258</v>
       </c>
-      <c r="H23" s="225">
+      <c r="H23" s="201">
         <f>((BALANCE_SHEET!X$12)/(BALANCE_SHEET!X$14))</f>
         <v>2.5596889031171335</v>
       </c>
-      <c r="L23" s="217">
+      <c r="L23" s="197">
         <f>INCOME_STATEMENT!V18</f>
         <v>6390672</v>
       </c>
-      <c r="M23" s="217">
+      <c r="M23" s="197">
         <f>BALANCE_SHEET!X8</f>
         <v>16745695</v>
       </c>
-      <c r="N23" s="214">
+      <c r="N23" s="194">
         <f>INCOME_STATEMENT!V18/BALANCE_SHEET!X8</f>
         <v>0.38163074151296794</v>
       </c>
@@ -20597,27 +19760,27 @@
       <c r="B24" s="158" t="s">
         <v>62</v>
       </c>
-      <c r="F24" s="223">
+      <c r="F24" s="199">
         <f>(BALANCE_SHEET!Y$12)</f>
         <v>11921305</v>
       </c>
-      <c r="G24" s="223">
+      <c r="G24" s="199">
         <f>(BALANCE_SHEET!Y$14)</f>
         <v>6665099</v>
       </c>
-      <c r="H24" s="225">
+      <c r="H24" s="201">
         <f>((BALANCE_SHEET!Y$12)/(BALANCE_SHEET!Y$14))</f>
         <v>1.7886163431330877</v>
       </c>
-      <c r="L24" s="217">
+      <c r="L24" s="197">
         <f>INCOME_STATEMENT!W18</f>
         <v>1960841</v>
       </c>
-      <c r="M24" s="217">
+      <c r="M24" s="197">
         <f>BALANCE_SHEET!Y8</f>
         <v>18586404</v>
       </c>
-      <c r="N24" s="214">
+      <c r="N24" s="194">
         <f>INCOME_STATEMENT!W18/BALANCE_SHEET!Y8</f>
         <v>0.10549867526822294</v>
       </c>
@@ -20626,27 +19789,27 @@
       <c r="B25" s="158" t="s">
         <v>63</v>
       </c>
-      <c r="F25" s="223">
+      <c r="F25" s="199">
         <f>(BALANCE_SHEET!Z$12)</f>
         <v>14380273</v>
       </c>
-      <c r="G25" s="223">
+      <c r="G25" s="199">
         <f>(BALANCE_SHEET!Z$14)</f>
         <v>4906114</v>
       </c>
-      <c r="H25" s="225">
+      <c r="H25" s="201">
         <f>((BALANCE_SHEET!Z$12)/(BALANCE_SHEET!Z$14))</f>
         <v>2.9310923064568009</v>
       </c>
-      <c r="L25" s="217">
+      <c r="L25" s="197">
         <f>INCOME_STATEMENT!X18</f>
         <v>3623958</v>
       </c>
-      <c r="M25" s="217">
+      <c r="M25" s="197">
         <f>BALANCE_SHEET!Z8</f>
         <v>19286387</v>
       </c>
-      <c r="N25" s="214">
+      <c r="N25" s="194">
         <f>INCOME_STATEMENT!X18/BALANCE_SHEET!Z8</f>
         <v>0.18790237901997922</v>
       </c>
@@ -20655,27 +19818,27 @@
       <c r="B26" s="158" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="223">
+      <c r="F26" s="199">
         <f>(BALANCE_SHEET!AA$12)</f>
         <v>12391366</v>
       </c>
-      <c r="G26" s="223">
+      <c r="G26" s="199">
         <f>(BALANCE_SHEET!AA$14)</f>
         <v>6423858</v>
       </c>
-      <c r="H26" s="225">
+      <c r="H26" s="201">
         <f>((BALANCE_SHEET!AA$12)/(BALANCE_SHEET!AA$14))</f>
         <v>1.9289601357937862</v>
       </c>
-      <c r="L26" s="217">
+      <c r="L26" s="197">
         <f>INCOME_STATEMENT!Y18</f>
         <v>5229400</v>
       </c>
-      <c r="M26" s="217">
+      <c r="M26" s="197">
         <f>BALANCE_SHEET!AA8</f>
         <v>18815224</v>
       </c>
-      <c r="N26" s="214">
+      <c r="N26" s="194">
         <f>INCOME_STATEMENT!Y18/BALANCE_SHEET!AA8</f>
         <v>0.27793450665269781</v>
       </c>
@@ -20684,27 +19847,27 @@
       <c r="B27" s="158" t="s">
         <v>93</v>
       </c>
-      <c r="F27" s="223">
+      <c r="F27" s="199">
         <f>(BALANCE_SHEET!AB$12)</f>
         <v>12041437</v>
       </c>
-      <c r="G27" s="223">
+      <c r="G27" s="199">
         <f>(BALANCE_SHEET!AB$14)</f>
         <v>4704258</v>
       </c>
-      <c r="H27" s="225">
+      <c r="H27" s="201">
         <f>((BALANCE_SHEET!AB$12)/(BALANCE_SHEET!AB$14))</f>
         <v>2.5596889031171335</v>
       </c>
-      <c r="L27" s="217">
+      <c r="L27" s="197">
         <f>INCOME_STATEMENT!Z18</f>
         <v>7004562</v>
       </c>
-      <c r="M27" s="217">
+      <c r="M27" s="197">
         <f>BALANCE_SHEET!AB8</f>
         <v>16745695</v>
       </c>
-      <c r="N27" s="214">
+      <c r="N27" s="194">
         <f>INCOME_STATEMENT!Z18/BALANCE_SHEET!AB8</f>
         <v>0.41829031282368395</v>
       </c>
@@ -20716,27 +19879,27 @@
       <c r="B28" s="158" t="s">
         <v>62</v>
       </c>
-      <c r="F28" s="223">
+      <c r="F28" s="199">
         <f>(BALANCE_SHEET!AC$12)</f>
         <v>13229294</v>
       </c>
-      <c r="G28" s="223">
+      <c r="G28" s="199">
         <f>(BALANCE_SHEET!AC$14)</f>
         <v>7012519</v>
       </c>
-      <c r="H28" s="225">
+      <c r="H28" s="201">
         <f>((BALANCE_SHEET!AC$12)/(BALANCE_SHEET!AC$14))</f>
         <v>1.8865252272400259</v>
       </c>
-      <c r="L28" s="217">
+      <c r="L28" s="197">
         <f>INCOME_STATEMENT!AA18</f>
         <v>1839131</v>
       </c>
-      <c r="M28" s="217">
+      <c r="M28" s="197">
         <f>BALANCE_SHEET!AC8</f>
         <v>20241813</v>
       </c>
-      <c r="N28" s="214">
+      <c r="N28" s="194">
         <f>INCOME_STATEMENT!AA18/BALANCE_SHEET!AC8</f>
         <v>9.0858017510585642E-2</v>
       </c>
@@ -20745,27 +19908,27 @@
       <c r="B29" s="158" t="s">
         <v>63</v>
       </c>
-      <c r="F29" s="223">
+      <c r="F29" s="199">
         <f>(BALANCE_SHEET!AD$12)</f>
         <v>15514356</v>
       </c>
-      <c r="G29" s="223">
+      <c r="G29" s="199">
         <f>(BALANCE_SHEET!AD$14)</f>
         <v>5011769</v>
       </c>
-      <c r="H29" s="225">
+      <c r="H29" s="201">
         <f>((BALANCE_SHEET!AD$12)/(BALANCE_SHEET!AD$14))</f>
         <v>3.0955848124684118</v>
       </c>
-      <c r="L29" s="217">
+      <c r="L29" s="197">
         <f>INCOME_STATEMENT!AB18</f>
         <v>3529869</v>
       </c>
-      <c r="M29" s="217">
+      <c r="M29" s="197">
         <f>BALANCE_SHEET!AD8</f>
         <v>20526125</v>
       </c>
-      <c r="N29" s="214">
+      <c r="N29" s="194">
         <f>INCOME_STATEMENT!AB18/BALANCE_SHEET!AD8</f>
         <v>0.17196957535823248</v>
       </c>
@@ -20774,27 +19937,27 @@
       <c r="B30" s="158" t="s">
         <v>64</v>
       </c>
-      <c r="F30" s="223">
+      <c r="F30" s="199">
         <f>(BALANCE_SHEET!AE$12)</f>
         <v>11027987</v>
       </c>
-      <c r="G30" s="223">
+      <c r="G30" s="199">
         <f>(BALANCE_SHEET!AE$14)</f>
         <v>8970149</v>
       </c>
-      <c r="H30" s="225">
+      <c r="H30" s="201">
         <f>((BALANCE_SHEET!AE$12)/(BALANCE_SHEET!AE$14))</f>
         <v>1.2294095672212357</v>
       </c>
-      <c r="L30" s="217">
+      <c r="L30" s="197">
         <f>INCOME_STATEMENT!AC18</f>
         <v>7303493</v>
       </c>
-      <c r="M30" s="217">
+      <c r="M30" s="197">
         <f>BALANCE_SHEET!AE8</f>
         <v>19998136</v>
       </c>
-      <c r="N30" s="214">
+      <c r="N30" s="194">
         <f>INCOME_STATEMENT!AC18/BALANCE_SHEET!AE8</f>
         <v>0.36520868744967033</v>
       </c>
@@ -20803,27 +19966,27 @@
       <c r="B31" s="158" t="s">
         <v>93</v>
       </c>
-      <c r="F31" s="223">
+      <c r="F31" s="199">
         <f>(BALANCE_SHEET!AF$12)</f>
         <v>13733025</v>
       </c>
-      <c r="G31" s="223">
+      <c r="G31" s="199">
         <f>(BALANCE_SHEET!AF$14)</f>
         <v>5173388</v>
       </c>
-      <c r="H31" s="225">
+      <c r="H31" s="201">
         <f>((BALANCE_SHEET!AF$12)/(BALANCE_SHEET!AF$14))</f>
         <v>2.6545515240689466</v>
       </c>
-      <c r="L31" s="217">
+      <c r="L31" s="197">
         <f>INCOME_STATEMENT!AD18</f>
         <v>9109445</v>
       </c>
-      <c r="M31" s="217">
+      <c r="M31" s="197">
         <f>BALANCE_SHEET!AF8</f>
         <v>18906413</v>
       </c>
-      <c r="N31" s="214">
+      <c r="N31" s="194">
         <f>INCOME_STATEMENT!AD18/BALANCE_SHEET!AF8</f>
         <v>0.4818177303119317</v>
       </c>
@@ -20835,27 +19998,27 @@
       <c r="B32" s="158" t="s">
         <v>62</v>
       </c>
-      <c r="F32" s="223">
+      <c r="F32" s="199">
         <f>(BALANCE_SHEET!AG$12)</f>
         <v>16752108</v>
       </c>
-      <c r="G32" s="223">
+      <c r="G32" s="199">
         <f>(BALANCE_SHEET!AG$14)</f>
         <v>5075213</v>
       </c>
-      <c r="H32" s="225">
+      <c r="H32" s="201">
         <f>((BALANCE_SHEET!AG$12)/(BALANCE_SHEET!AG$14))</f>
         <v>3.3007694455385419</v>
       </c>
-      <c r="L32" s="217">
+      <c r="L32" s="197">
         <f>INCOME_STATEMENT!AE18</f>
         <v>1748520</v>
       </c>
-      <c r="M32" s="217">
+      <c r="M32" s="197">
         <f>BALANCE_SHEET!AG8</f>
         <v>21827321</v>
       </c>
-      <c r="N32" s="214">
+      <c r="N32" s="194">
         <f>INCOME_STATEMENT!AE18/BALANCE_SHEET!AG8</f>
         <v>8.0106944869688779E-2</v>
       </c>
@@ -20864,27 +20027,27 @@
       <c r="B33" s="158" t="s">
         <v>63</v>
       </c>
-      <c r="F33" s="223">
+      <c r="F33" s="199">
         <f>(BALANCE_SHEET!AH$12)</f>
         <v>12977603</v>
       </c>
-      <c r="G33" s="223">
+      <c r="G33" s="199">
         <f>(BALANCE_SHEET!AH$14)</f>
         <v>9062375</v>
       </c>
-      <c r="H33" s="225">
+      <c r="H33" s="201">
         <f>((BALANCE_SHEET!AH$12)/(BALANCE_SHEET!AH$14))</f>
         <v>1.4320311176705887</v>
       </c>
-      <c r="L33" s="217">
+      <c r="L33" s="197">
         <f>INCOME_STATEMENT!AF18</f>
         <v>3697232</v>
       </c>
-      <c r="M33" s="217">
+      <c r="M33" s="197">
         <f>BALANCE_SHEET!AH8</f>
         <v>22039978</v>
       </c>
-      <c r="N33" s="214">
+      <c r="N33" s="194">
         <f>INCOME_STATEMENT!AF18/BALANCE_SHEET!AH8</f>
         <v>0.16775116563183504</v>
       </c>
@@ -20893,27 +20056,27 @@
       <c r="B34" s="158" t="s">
         <v>64</v>
       </c>
-      <c r="F34" s="223">
+      <c r="F34" s="199">
         <f>(BALANCE_SHEET!AI$12)</f>
         <v>13926354</v>
       </c>
-      <c r="G34" s="223">
+      <c r="G34" s="199">
         <f>(BALANCE_SHEET!AI$14)</f>
         <v>6887584</v>
       </c>
-      <c r="H34" s="225">
+      <c r="H34" s="201">
         <f>((BALANCE_SHEET!AI$12)/(BALANCE_SHEET!AI$14))</f>
         <v>2.0219505126906618</v>
       </c>
-      <c r="L34" s="217">
+      <c r="L34" s="197">
         <f>INCOME_STATEMENT!AG18</f>
         <v>5509603</v>
       </c>
-      <c r="M34" s="217">
+      <c r="M34" s="197">
         <f>BALANCE_SHEET!AI8</f>
         <v>20813938</v>
       </c>
-      <c r="N34" s="214">
+      <c r="N34" s="194">
         <f>INCOME_STATEMENT!AG18/BALANCE_SHEET!AI8</f>
         <v>0.26470738021800583</v>
       </c>
@@ -20922,27 +20085,27 @@
       <c r="B35" s="158" t="s">
         <v>93</v>
       </c>
-      <c r="F35" s="223">
+      <c r="F35" s="199">
         <f>(BALANCE_SHEET!AJ$12)</f>
         <v>15367509</v>
       </c>
-      <c r="G35" s="223">
+      <c r="G35" s="199">
         <f>(BALANCE_SHEET!AJ$14)</f>
         <v>5281862</v>
       </c>
-      <c r="H35" s="225">
+      <c r="H35" s="201">
         <f>((BALANCE_SHEET!AJ$12)/(BALANCE_SHEET!AJ$14))</f>
         <v>2.9094870331712568</v>
       </c>
-      <c r="L35" s="217">
+      <c r="L35" s="197">
         <f>INCOME_STATEMENT!AH18</f>
         <v>7392837</v>
       </c>
-      <c r="M35" s="217">
+      <c r="M35" s="197">
         <f>BALANCE_SHEET!AJ8</f>
         <v>20649371</v>
       </c>
-      <c r="N35" s="214">
+      <c r="N35" s="194">
         <f>INCOME_STATEMENT!AH18/BALANCE_SHEET!AJ8</f>
         <v>0.35801753961416066</v>
       </c>
@@ -20955,394 +20118,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F1:H33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F1" s="219" t="s">
-        <v>142</v>
-      </c>
-      <c r="G1" s="219" t="s">
-        <v>143</v>
-      </c>
-      <c r="H1" s="220" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="2" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F2" s="221">
-        <v>1162686</v>
-      </c>
-      <c r="G2" s="221">
-        <v>11995436</v>
-      </c>
-      <c r="H2" s="222">
-        <v>9.69E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F3" s="221">
-        <v>2329701</v>
-      </c>
-      <c r="G3" s="221">
-        <v>13934738</v>
-      </c>
-      <c r="H3" s="222">
-        <v>0.16719999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F4" s="221">
-        <v>3653568</v>
-      </c>
-      <c r="G4" s="221">
-        <v>12421910</v>
-      </c>
-      <c r="H4" s="222">
-        <v>0.29409999999999997</v>
-      </c>
-    </row>
-    <row r="5" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F5" s="221">
-        <v>4839145</v>
-      </c>
-      <c r="G5" s="221">
-        <v>11984979</v>
-      </c>
-      <c r="H5" s="222">
-        <v>0.40379999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F6" s="221">
-        <v>9822451</v>
-      </c>
-      <c r="G6" s="221">
-        <v>12906257</v>
-      </c>
-      <c r="H6" s="222">
-        <v>0.7611</v>
-      </c>
-    </row>
-    <row r="7" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F7" s="221">
-        <v>2823890</v>
-      </c>
-      <c r="G7" s="221">
-        <v>14193134</v>
-      </c>
-      <c r="H7" s="222">
-        <v>0.19900000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F8" s="221">
-        <v>4090499</v>
-      </c>
-      <c r="G8" s="221">
-        <v>13340178</v>
-      </c>
-      <c r="H8" s="222">
-        <v>0.30659999999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F9" s="221">
-        <v>5352625</v>
-      </c>
-      <c r="G9" s="221">
-        <v>13348188</v>
-      </c>
-      <c r="H9" s="222">
-        <v>0.40100000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F10" s="221">
-        <v>1360981</v>
-      </c>
-      <c r="G10" s="221">
-        <v>14314180</v>
-      </c>
-      <c r="H10" s="222">
-        <v>9.5100000000000004E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F11" s="221">
-        <v>2847991</v>
-      </c>
-      <c r="G11" s="221">
-        <v>15956956</v>
-      </c>
-      <c r="H11" s="222">
-        <v>0.17849999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F12" s="221">
-        <v>4048929</v>
-      </c>
-      <c r="G12" s="221">
-        <v>15170111</v>
-      </c>
-      <c r="H12" s="222">
-        <v>0.26690000000000003</v>
-      </c>
-    </row>
-    <row r="13" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F13" s="221">
-        <v>5738523</v>
-      </c>
-      <c r="G13" s="221">
-        <v>14280670</v>
-      </c>
-      <c r="H13" s="222">
-        <v>0.40179999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F14" s="221">
-        <v>1591699</v>
-      </c>
-      <c r="G14" s="221">
-        <v>14772554</v>
-      </c>
-      <c r="H14" s="222">
-        <v>0.1077</v>
-      </c>
-    </row>
-    <row r="15" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F15" s="221">
-        <v>2930640</v>
-      </c>
-      <c r="G15" s="221">
-        <v>16486178</v>
-      </c>
-      <c r="H15" s="222">
-        <v>0.17780000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F16" s="221">
-        <v>4183173</v>
-      </c>
-      <c r="G16" s="221">
-        <v>15984771</v>
-      </c>
-      <c r="H16" s="222">
-        <v>0.26169999999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F17" s="221">
-        <v>5851805</v>
-      </c>
-      <c r="G17" s="221">
-        <v>15729945</v>
-      </c>
-      <c r="H17" s="222">
-        <v>0.372</v>
-      </c>
-    </row>
-    <row r="18" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F18" s="221">
-        <v>1570040</v>
-      </c>
-      <c r="G18" s="221">
-        <v>16653300</v>
-      </c>
-      <c r="H18" s="222">
-        <v>9.4299999999999995E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F19" s="221">
-        <v>3298307</v>
-      </c>
-      <c r="G19" s="221">
-        <v>18920136</v>
-      </c>
-      <c r="H19" s="222">
-        <v>0.17430000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F20" s="221">
-        <v>4750551</v>
-      </c>
-      <c r="G20" s="221">
-        <v>16748673</v>
-      </c>
-      <c r="H20" s="222">
-        <v>0.28360000000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F21" s="221">
-        <v>6390672</v>
-      </c>
-      <c r="G21" s="221">
-        <v>16745695</v>
-      </c>
-      <c r="H21" s="222">
-        <v>0.38159999999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F22" s="221">
-        <v>1960841</v>
-      </c>
-      <c r="G22" s="221">
-        <v>18586404</v>
-      </c>
-      <c r="H22" s="222">
-        <v>0.1055</v>
-      </c>
-    </row>
-    <row r="23" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F23" s="221">
-        <v>3623958</v>
-      </c>
-      <c r="G23" s="221">
-        <v>19286387</v>
-      </c>
-      <c r="H23" s="222">
-        <v>0.18790000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F24" s="221">
-        <v>5229400</v>
-      </c>
-      <c r="G24" s="221">
-        <v>18815224</v>
-      </c>
-      <c r="H24" s="222">
-        <v>0.27789999999999998</v>
-      </c>
-    </row>
-    <row r="25" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F25" s="221">
-        <v>7004562</v>
-      </c>
-      <c r="G25" s="221">
-        <v>16745695</v>
-      </c>
-      <c r="H25" s="222">
-        <v>0.41830000000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F26" s="221">
-        <v>1839131</v>
-      </c>
-      <c r="G26" s="221">
-        <v>20241813</v>
-      </c>
-      <c r="H26" s="222">
-        <v>9.0899999999999995E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F27" s="221">
-        <v>3529869</v>
-      </c>
-      <c r="G27" s="221">
-        <v>20526125</v>
-      </c>
-      <c r="H27" s="222">
-        <v>0.17199999999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F28" s="221">
-        <v>7303493</v>
-      </c>
-      <c r="G28" s="221">
-        <v>19998136</v>
-      </c>
-      <c r="H28" s="222">
-        <v>0.36520000000000002</v>
-      </c>
-    </row>
-    <row r="29" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F29" s="221">
-        <v>9109445</v>
-      </c>
-      <c r="G29" s="221">
-        <v>18906413</v>
-      </c>
-      <c r="H29" s="222">
-        <v>0.48180000000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F30" s="221">
-        <v>1748520</v>
-      </c>
-      <c r="G30" s="221">
-        <v>21827321</v>
-      </c>
-      <c r="H30" s="222">
-        <v>8.0100000000000005E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F31" s="221">
-        <v>3697232</v>
-      </c>
-      <c r="G31" s="221">
-        <v>22039978</v>
-      </c>
-      <c r="H31" s="222">
-        <v>0.1678</v>
-      </c>
-    </row>
-    <row r="32" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F32" s="221">
-        <v>5509603</v>
-      </c>
-      <c r="G32" s="221">
-        <v>20813938</v>
-      </c>
-      <c r="H32" s="222">
-        <v>0.26469999999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F33" s="221">
-        <v>7392837</v>
-      </c>
-      <c r="G33" s="221">
-        <v>20649371</v>
-      </c>
-      <c r="H33" s="222">
-        <v>0.35799999999999998</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R34"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23527,6 +22306,685 @@
       <c r="R34" s="188">
         <f t="shared" si="7"/>
         <v>1.3996649287694378</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="8" width="15.140625" style="225"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="223" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="223" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" s="224" t="s">
+        <v>147</v>
+      </c>
+      <c r="F1" s="224" t="s">
+        <v>142</v>
+      </c>
+      <c r="G1" s="224" t="s">
+        <v>143</v>
+      </c>
+      <c r="H1" s="226" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="227">
+        <v>7151813</v>
+      </c>
+      <c r="B2" s="227">
+        <v>4843623</v>
+      </c>
+      <c r="C2" s="228">
+        <v>1.47654</v>
+      </c>
+      <c r="F2" s="228">
+        <v>1162686</v>
+      </c>
+      <c r="G2" s="228">
+        <v>11995436</v>
+      </c>
+      <c r="H2" s="229">
+        <v>9.6930000000000002E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="227">
+        <v>10182580</v>
+      </c>
+      <c r="B3" s="227">
+        <v>3752158</v>
+      </c>
+      <c r="C3" s="228">
+        <v>2.7137899999999999</v>
+      </c>
+      <c r="F3" s="228">
+        <v>2329701</v>
+      </c>
+      <c r="G3" s="228">
+        <v>13934738</v>
+      </c>
+      <c r="H3" s="229">
+        <v>0.16719000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="227">
+        <v>7316284</v>
+      </c>
+      <c r="B4" s="227">
+        <v>5105626</v>
+      </c>
+      <c r="C4" s="228">
+        <v>1.4329799999999999</v>
+      </c>
+      <c r="F4" s="228">
+        <v>3653568</v>
+      </c>
+      <c r="G4" s="228">
+        <v>12421910</v>
+      </c>
+      <c r="H4" s="229">
+        <v>0.29411999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="227">
+        <v>8016614</v>
+      </c>
+      <c r="B5" s="227">
+        <v>3968365</v>
+      </c>
+      <c r="C5" s="228">
+        <v>2.02013</v>
+      </c>
+      <c r="F5" s="228">
+        <v>4839145</v>
+      </c>
+      <c r="G5" s="228">
+        <v>11984979</v>
+      </c>
+      <c r="H5" s="229">
+        <v>0.40377000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="227">
+        <v>7505909</v>
+      </c>
+      <c r="B6" s="227">
+        <v>5400348</v>
+      </c>
+      <c r="C6" s="228">
+        <v>1.3898900000000001</v>
+      </c>
+      <c r="F6" s="228">
+        <v>9822451</v>
+      </c>
+      <c r="G6" s="228">
+        <v>12906257</v>
+      </c>
+      <c r="H6" s="229">
+        <v>0.76105999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="227">
+        <v>9949299</v>
+      </c>
+      <c r="B7" s="227">
+        <v>4243835</v>
+      </c>
+      <c r="C7" s="228">
+        <v>2.3444099999999999</v>
+      </c>
+      <c r="F7" s="228">
+        <v>2823890</v>
+      </c>
+      <c r="G7" s="228">
+        <v>14193134</v>
+      </c>
+      <c r="H7" s="229">
+        <v>0.19896</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="227">
+        <v>7829734</v>
+      </c>
+      <c r="B8" s="227">
+        <v>5510444</v>
+      </c>
+      <c r="C8" s="228">
+        <v>1.42089</v>
+      </c>
+      <c r="F8" s="228">
+        <v>4090499</v>
+      </c>
+      <c r="G8" s="228">
+        <v>13340178</v>
+      </c>
+      <c r="H8" s="229">
+        <v>0.30663000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="227">
+        <v>9093518</v>
+      </c>
+      <c r="B9" s="227">
+        <v>4254670</v>
+      </c>
+      <c r="C9" s="228">
+        <v>2.1373000000000002</v>
+      </c>
+      <c r="F9" s="228">
+        <v>5352625</v>
+      </c>
+      <c r="G9" s="228">
+        <v>13348188</v>
+      </c>
+      <c r="H9" s="229">
+        <v>0.40100000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="227">
+        <v>8698529</v>
+      </c>
+      <c r="B10" s="227">
+        <v>5615651</v>
+      </c>
+      <c r="C10" s="228">
+        <v>1.54898</v>
+      </c>
+      <c r="F10" s="228">
+        <v>1360981</v>
+      </c>
+      <c r="G10" s="228">
+        <v>14314180</v>
+      </c>
+      <c r="H10" s="229">
+        <v>9.5079999999999998E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="227">
+        <v>11685025</v>
+      </c>
+      <c r="B11" s="227">
+        <v>4271931</v>
+      </c>
+      <c r="C11" s="228">
+        <v>2.7353000000000001</v>
+      </c>
+      <c r="F11" s="228">
+        <v>2847991</v>
+      </c>
+      <c r="G11" s="228">
+        <v>15956956</v>
+      </c>
+      <c r="H11" s="229">
+        <v>0.17848</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="227">
+        <v>9697242</v>
+      </c>
+      <c r="B12" s="227">
+        <v>5472869</v>
+      </c>
+      <c r="C12" s="228">
+        <v>1.7718799999999999</v>
+      </c>
+      <c r="F12" s="228">
+        <v>4048929</v>
+      </c>
+      <c r="G12" s="228">
+        <v>15170111</v>
+      </c>
+      <c r="H12" s="229">
+        <v>0.26690000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="227">
+        <v>9681888</v>
+      </c>
+      <c r="B13" s="227">
+        <v>4598782</v>
+      </c>
+      <c r="C13" s="228">
+        <v>2.1053199999999999</v>
+      </c>
+      <c r="F13" s="228">
+        <v>5738523</v>
+      </c>
+      <c r="G13" s="228">
+        <v>14280670</v>
+      </c>
+      <c r="H13" s="229">
+        <v>0.40183999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="227">
+        <v>8434341</v>
+      </c>
+      <c r="B14" s="227">
+        <v>6338213</v>
+      </c>
+      <c r="C14" s="228">
+        <v>1.3307100000000001</v>
+      </c>
+      <c r="F14" s="228">
+        <v>1591699</v>
+      </c>
+      <c r="G14" s="228">
+        <v>14772554</v>
+      </c>
+      <c r="H14" s="229">
+        <v>0.10775</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="227">
+        <v>11983104</v>
+      </c>
+      <c r="B15" s="227">
+        <v>4503074</v>
+      </c>
+      <c r="C15" s="228">
+        <v>2.6610900000000002</v>
+      </c>
+      <c r="F15" s="228">
+        <v>2930640</v>
+      </c>
+      <c r="G15" s="228">
+        <v>16486178</v>
+      </c>
+      <c r="H15" s="229">
+        <v>0.17776</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="227">
+        <v>10229164</v>
+      </c>
+      <c r="B16" s="227">
+        <v>5755607</v>
+      </c>
+      <c r="C16" s="228">
+        <v>1.77725</v>
+      </c>
+      <c r="F16" s="228">
+        <v>4183173</v>
+      </c>
+      <c r="G16" s="228">
+        <v>15984771</v>
+      </c>
+      <c r="H16" s="229">
+        <v>0.26169999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="227">
+        <v>10902585</v>
+      </c>
+      <c r="B17" s="227">
+        <v>4827360</v>
+      </c>
+      <c r="C17" s="228">
+        <v>2.2585000000000002</v>
+      </c>
+      <c r="F17" s="228">
+        <v>5851805</v>
+      </c>
+      <c r="G17" s="228">
+        <v>15729945</v>
+      </c>
+      <c r="H17" s="229">
+        <v>0.37202000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="227">
+        <v>10255900</v>
+      </c>
+      <c r="B18" s="227">
+        <v>6397400</v>
+      </c>
+      <c r="C18" s="228">
+        <v>1.60314</v>
+      </c>
+      <c r="F18" s="228">
+        <v>1570040</v>
+      </c>
+      <c r="G18" s="228">
+        <v>16653300</v>
+      </c>
+      <c r="H18" s="229">
+        <v>9.4280000000000003E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="227">
+        <v>14029689</v>
+      </c>
+      <c r="B19" s="227">
+        <v>4890447</v>
+      </c>
+      <c r="C19" s="228">
+        <v>2.8687900000000002</v>
+      </c>
+      <c r="F19" s="228">
+        <v>3298307</v>
+      </c>
+      <c r="G19" s="228">
+        <v>18920136</v>
+      </c>
+      <c r="H19" s="229">
+        <v>0.17433000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="227">
+        <v>10405882</v>
+      </c>
+      <c r="B20" s="227">
+        <v>6342791</v>
+      </c>
+      <c r="C20" s="228">
+        <v>1.6405799999999999</v>
+      </c>
+      <c r="F20" s="228">
+        <v>4750551</v>
+      </c>
+      <c r="G20" s="228">
+        <v>16748673</v>
+      </c>
+      <c r="H20" s="229">
+        <v>0.28364</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="227">
+        <v>12041437</v>
+      </c>
+      <c r="B21" s="227">
+        <v>4704258</v>
+      </c>
+      <c r="C21" s="228">
+        <v>2.5596899999999998</v>
+      </c>
+      <c r="F21" s="228">
+        <v>6390672</v>
+      </c>
+      <c r="G21" s="228">
+        <v>16745695</v>
+      </c>
+      <c r="H21" s="229">
+        <v>0.38163000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="227">
+        <v>11921305</v>
+      </c>
+      <c r="B22" s="227">
+        <v>6665099</v>
+      </c>
+      <c r="C22" s="228">
+        <v>1.7886200000000001</v>
+      </c>
+      <c r="F22" s="228">
+        <v>1960841</v>
+      </c>
+      <c r="G22" s="228">
+        <v>18586404</v>
+      </c>
+      <c r="H22" s="229">
+        <v>0.1055</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="227">
+        <v>14380273</v>
+      </c>
+      <c r="B23" s="227">
+        <v>4906114</v>
+      </c>
+      <c r="C23" s="228">
+        <v>2.9310900000000002</v>
+      </c>
+      <c r="F23" s="228">
+        <v>3623958</v>
+      </c>
+      <c r="G23" s="228">
+        <v>19286387</v>
+      </c>
+      <c r="H23" s="229">
+        <v>0.18790000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="227">
+        <v>12391366</v>
+      </c>
+      <c r="B24" s="227">
+        <v>6423858</v>
+      </c>
+      <c r="C24" s="228">
+        <v>1.92896</v>
+      </c>
+      <c r="F24" s="228">
+        <v>5229400</v>
+      </c>
+      <c r="G24" s="228">
+        <v>18815224</v>
+      </c>
+      <c r="H24" s="229">
+        <v>0.27793000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="227">
+        <v>12041437</v>
+      </c>
+      <c r="B25" s="227">
+        <v>4704258</v>
+      </c>
+      <c r="C25" s="228">
+        <v>2.5596899999999998</v>
+      </c>
+      <c r="F25" s="228">
+        <v>7004562</v>
+      </c>
+      <c r="G25" s="228">
+        <v>16745695</v>
+      </c>
+      <c r="H25" s="229">
+        <v>0.41829</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="227">
+        <v>13229294</v>
+      </c>
+      <c r="B26" s="227">
+        <v>7012519</v>
+      </c>
+      <c r="C26" s="228">
+        <v>1.88653</v>
+      </c>
+      <c r="F26" s="228">
+        <v>1839131</v>
+      </c>
+      <c r="G26" s="228">
+        <v>20241813</v>
+      </c>
+      <c r="H26" s="229">
+        <v>9.0859999999999996E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="227">
+        <v>15514356</v>
+      </c>
+      <c r="B27" s="227">
+        <v>5011769</v>
+      </c>
+      <c r="C27" s="228">
+        <v>3.09558</v>
+      </c>
+      <c r="F27" s="228">
+        <v>3529869</v>
+      </c>
+      <c r="G27" s="228">
+        <v>20526125</v>
+      </c>
+      <c r="H27" s="229">
+        <v>0.17197000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="227">
+        <v>11027987</v>
+      </c>
+      <c r="B28" s="227">
+        <v>8970149</v>
+      </c>
+      <c r="C28" s="228">
+        <v>1.2294099999999999</v>
+      </c>
+      <c r="F28" s="228">
+        <v>7303493</v>
+      </c>
+      <c r="G28" s="228">
+        <v>19998136</v>
+      </c>
+      <c r="H28" s="229">
+        <v>0.36520999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="227">
+        <v>13733025</v>
+      </c>
+      <c r="B29" s="227">
+        <v>5173388</v>
+      </c>
+      <c r="C29" s="228">
+        <v>2.65455</v>
+      </c>
+      <c r="F29" s="228">
+        <v>9109445</v>
+      </c>
+      <c r="G29" s="228">
+        <v>18906413</v>
+      </c>
+      <c r="H29" s="229">
+        <v>0.48182000000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="227">
+        <v>16752108</v>
+      </c>
+      <c r="B30" s="227">
+        <v>5075213</v>
+      </c>
+      <c r="C30" s="228">
+        <v>3.30077</v>
+      </c>
+      <c r="F30" s="228">
+        <v>1748520</v>
+      </c>
+      <c r="G30" s="228">
+        <v>21827321</v>
+      </c>
+      <c r="H30" s="229">
+        <v>8.0110000000000001E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="227">
+        <v>12977603</v>
+      </c>
+      <c r="B31" s="227">
+        <v>9062375</v>
+      </c>
+      <c r="C31" s="228">
+        <v>1.4320299999999999</v>
+      </c>
+      <c r="F31" s="228">
+        <v>3697232</v>
+      </c>
+      <c r="G31" s="228">
+        <v>22039978</v>
+      </c>
+      <c r="H31" s="229">
+        <v>0.16775000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="227">
+        <v>13926354</v>
+      </c>
+      <c r="B32" s="227">
+        <v>6887584</v>
+      </c>
+      <c r="C32" s="228">
+        <v>2.0219499999999999</v>
+      </c>
+      <c r="F32" s="228">
+        <v>5509603</v>
+      </c>
+      <c r="G32" s="228">
+        <v>20813938</v>
+      </c>
+      <c r="H32" s="229">
+        <v>0.26471</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="227">
+        <v>15367509</v>
+      </c>
+      <c r="B33" s="227">
+        <v>5281862</v>
+      </c>
+      <c r="C33" s="228">
+        <v>2.9094899999999999</v>
+      </c>
+      <c r="F33" s="228">
+        <v>7392837</v>
+      </c>
+      <c r="G33" s="228">
+        <v>20649371</v>
+      </c>
+      <c r="H33" s="229">
+        <v>0.35802</v>
       </c>
     </row>
   </sheetData>
@@ -23581,29 +23039,29 @@
       <c r="A3" s="27"/>
       <c r="B3" s="31"/>
       <c r="C3" s="61"/>
-      <c r="D3" s="209" t="s">
+      <c r="D3" s="221" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="210"/>
-      <c r="F3" s="210"/>
-      <c r="G3" s="210"/>
-      <c r="H3" s="211"/>
+      <c r="E3" s="218"/>
+      <c r="F3" s="218"/>
+      <c r="G3" s="218"/>
+      <c r="H3" s="219"/>
       <c r="I3" s="55"/>
-      <c r="J3" s="210" t="s">
+      <c r="J3" s="218" t="s">
         <v>50</v>
       </c>
-      <c r="K3" s="210"/>
-      <c r="L3" s="210"/>
-      <c r="M3" s="210"/>
-      <c r="N3" s="211"/>
+      <c r="K3" s="218"/>
+      <c r="L3" s="218"/>
+      <c r="M3" s="218"/>
+      <c r="N3" s="219"/>
       <c r="O3" s="34"/>
-      <c r="P3" s="210" t="s">
+      <c r="P3" s="218" t="s">
         <v>51</v>
       </c>
-      <c r="Q3" s="210"/>
-      <c r="R3" s="210"/>
-      <c r="S3" s="210"/>
-      <c r="T3" s="210"/>
+      <c r="Q3" s="218"/>
+      <c r="R3" s="218"/>
+      <c r="S3" s="218"/>
+      <c r="T3" s="218"/>
       <c r="U3" s="29"/>
     </row>
     <row r="4" spans="1:21" s="26" customFormat="1" x14ac:dyDescent="0.25">
@@ -24050,29 +23508,29 @@
       <c r="A11" s="75"/>
       <c r="B11" s="30"/>
       <c r="C11" s="61"/>
-      <c r="D11" s="210" t="s">
+      <c r="D11" s="218" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="210"/>
-      <c r="F11" s="210"/>
-      <c r="G11" s="210"/>
-      <c r="H11" s="210"/>
+      <c r="E11" s="218"/>
+      <c r="F11" s="218"/>
+      <c r="G11" s="218"/>
+      <c r="H11" s="218"/>
       <c r="I11" s="54"/>
-      <c r="J11" s="210" t="s">
+      <c r="J11" s="218" t="s">
         <v>50</v>
       </c>
-      <c r="K11" s="210"/>
-      <c r="L11" s="210"/>
-      <c r="M11" s="210"/>
-      <c r="N11" s="210"/>
+      <c r="K11" s="218"/>
+      <c r="L11" s="218"/>
+      <c r="M11" s="218"/>
+      <c r="N11" s="218"/>
       <c r="O11" s="34"/>
-      <c r="P11" s="210" t="s">
+      <c r="P11" s="218" t="s">
         <v>51</v>
       </c>
-      <c r="Q11" s="210"/>
-      <c r="R11" s="210"/>
-      <c r="S11" s="210"/>
-      <c r="T11" s="210"/>
+      <c r="Q11" s="218"/>
+      <c r="R11" s="218"/>
+      <c r="S11" s="218"/>
+      <c r="T11" s="218"/>
     </row>
     <row r="12" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="75"/>
@@ -24128,7 +23586,7 @@
     </row>
     <row r="13" spans="1:21" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="68"/>
-      <c r="B13" s="208" t="s">
+      <c r="B13" s="220" t="s">
         <v>46</v>
       </c>
       <c r="C13" s="69" t="s">
@@ -24204,7 +23662,7 @@
     </row>
     <row r="14" spans="1:21" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="68"/>
-      <c r="B14" s="208"/>
+      <c r="B14" s="220"/>
       <c r="C14" s="69" t="s">
         <v>55</v>
       </c>
@@ -24277,7 +23735,7 @@
       <c r="U14" s="72"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B15" s="208"/>
+      <c r="B15" s="220"/>
       <c r="C15" s="61" t="s">
         <v>56</v>
       </c>
@@ -24349,7 +23807,7 @@
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B16" s="208"/>
+      <c r="B16" s="220"/>
       <c r="C16" s="61"/>
       <c r="D16" s="24" t="str">
         <f>IF(D15=D$30,"S",IF(D15&lt;D$30,"B",IF(D15&gt;D$30,"A")))</f>
@@ -24416,7 +23874,7 @@
     </row>
     <row r="17" spans="1:20" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="68"/>
-      <c r="B17" s="208" t="s">
+      <c r="B17" s="220" t="s">
         <v>47</v>
       </c>
       <c r="C17" s="69" t="s">
@@ -24491,7 +23949,7 @@
     </row>
     <row r="18" spans="1:20" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="68"/>
-      <c r="B18" s="208"/>
+      <c r="B18" s="220"/>
       <c r="C18" s="69" t="s">
         <v>55</v>
       </c>
@@ -24563,7 +24021,7 @@
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B19" s="208"/>
+      <c r="B19" s="220"/>
       <c r="C19" s="61" t="s">
         <v>56</v>
       </c>
@@ -24635,7 +24093,7 @@
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B20" s="208"/>
+      <c r="B20" s="220"/>
       <c r="C20" s="61"/>
       <c r="D20" s="24" t="str">
         <f>IF(D19=D$30,"S",IF(D19&lt;D$30,"B",IF(D19&gt;D$30,"A")))</f>
@@ -24702,7 +24160,7 @@
     </row>
     <row r="21" spans="1:20" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="68"/>
-      <c r="B21" s="208" t="s">
+      <c r="B21" s="220" t="s">
         <v>48</v>
       </c>
       <c r="C21" s="69" t="s">
@@ -24777,7 +24235,7 @@
     </row>
     <row r="22" spans="1:20" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="68"/>
-      <c r="B22" s="208"/>
+      <c r="B22" s="220"/>
       <c r="C22" s="69" t="s">
         <v>55</v>
       </c>
@@ -24849,7 +24307,7 @@
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B23" s="208"/>
+      <c r="B23" s="220"/>
       <c r="C23" s="61" t="s">
         <v>56</v>
       </c>
@@ -24921,7 +24379,7 @@
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B24" s="208"/>
+      <c r="B24" s="220"/>
       <c r="C24" s="61"/>
       <c r="D24" s="24" t="str">
         <f>IF(D23=D$30,"S",IF(D23&lt;D$30,"B",IF(D23&gt;D$30,"A")))</f>
@@ -24988,7 +24446,7 @@
     </row>
     <row r="25" spans="1:20" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="68"/>
-      <c r="B25" s="208" t="s">
+      <c r="B25" s="220" t="s">
         <v>52</v>
       </c>
       <c r="C25" s="69" t="s">
@@ -25063,7 +24521,7 @@
     </row>
     <row r="26" spans="1:20" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="68"/>
-      <c r="B26" s="208"/>
+      <c r="B26" s="220"/>
       <c r="C26" s="69" t="s">
         <v>55</v>
       </c>
@@ -25135,7 +24593,7 @@
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B27" s="208"/>
+      <c r="B27" s="220"/>
       <c r="C27" s="61" t="s">
         <v>56</v>
       </c>
@@ -25207,7 +24665,7 @@
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B28" s="208"/>
+      <c r="B28" s="220"/>
       <c r="C28" s="61"/>
       <c r="D28" s="24" t="str">
         <f>IF(D27=D$30,"S",IF(D27&lt;D$30,"B",IF(D27&gt;D$30,"A")))</f>
@@ -25622,16 +25080,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="D3:H3"/>
     <mergeCell ref="J3:N3"/>
     <mergeCell ref="P3:T3"/>
     <mergeCell ref="D11:H11"/>
     <mergeCell ref="J11:N11"/>
     <mergeCell ref="P11:T11"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="D3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -25641,676 +25099,836 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="227" t="s">
-        <v>145</v>
-      </c>
-      <c r="B1" s="227" t="s">
-        <v>146</v>
-      </c>
-      <c r="C1" s="219" t="s">
-        <v>147</v>
-      </c>
-      <c r="F1" s="219" t="s">
-        <v>142</v>
-      </c>
-      <c r="G1" s="219" t="s">
-        <v>143</v>
-      </c>
-      <c r="H1" s="220" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="228">
-        <v>7151813</v>
-      </c>
-      <c r="B2" s="228">
-        <v>4843623</v>
-      </c>
-      <c r="C2" s="229">
-        <v>1.47654</v>
-      </c>
-      <c r="F2" s="221">
-        <v>1162686</v>
-      </c>
-      <c r="G2" s="221">
-        <v>11995436</v>
-      </c>
-      <c r="H2" s="222">
-        <v>9.6930000000000002E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="228">
-        <v>10182580</v>
-      </c>
-      <c r="B3" s="228">
-        <v>3752158</v>
-      </c>
-      <c r="C3" s="229">
-        <v>2.7137899999999999</v>
-      </c>
-      <c r="F3" s="221">
-        <v>2329701</v>
-      </c>
-      <c r="G3" s="221">
-        <v>13934738</v>
-      </c>
-      <c r="H3" s="222">
-        <v>0.16719000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="228">
-        <v>7316284</v>
-      </c>
-      <c r="B4" s="228">
-        <v>5105626</v>
-      </c>
-      <c r="C4" s="229">
-        <v>1.4329799999999999</v>
-      </c>
-      <c r="F4" s="221">
-        <v>3653568</v>
-      </c>
-      <c r="G4" s="221">
-        <v>12421910</v>
-      </c>
-      <c r="H4" s="222">
-        <v>0.29411999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="228">
-        <v>8016614</v>
-      </c>
-      <c r="B5" s="228">
-        <v>3968365</v>
-      </c>
-      <c r="C5" s="229">
-        <v>2.02013</v>
-      </c>
-      <c r="F5" s="221">
-        <v>4839145</v>
-      </c>
-      <c r="G5" s="221">
-        <v>11984979</v>
-      </c>
-      <c r="H5" s="222">
-        <v>0.40377000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="228">
-        <v>7505909</v>
-      </c>
-      <c r="B6" s="228">
-        <v>5400348</v>
-      </c>
-      <c r="C6" s="229">
-        <v>1.3898900000000001</v>
-      </c>
-      <c r="F6" s="221">
-        <v>9822451</v>
-      </c>
-      <c r="G6" s="221">
-        <v>12906257</v>
-      </c>
-      <c r="H6" s="222">
-        <v>0.76105999999999996</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="228">
-        <v>9949299</v>
-      </c>
-      <c r="B7" s="228">
-        <v>4243835</v>
-      </c>
-      <c r="C7" s="229">
-        <v>2.3444099999999999</v>
-      </c>
-      <c r="F7" s="221">
-        <v>2823890</v>
-      </c>
-      <c r="G7" s="221">
-        <v>14193134</v>
-      </c>
-      <c r="H7" s="222">
-        <v>0.19896</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="228">
-        <v>7829734</v>
-      </c>
-      <c r="B8" s="228">
-        <v>5510444</v>
-      </c>
-      <c r="C8" s="229">
-        <v>1.42089</v>
-      </c>
-      <c r="F8" s="221">
-        <v>4090499</v>
-      </c>
-      <c r="G8" s="221">
-        <v>13340178</v>
-      </c>
-      <c r="H8" s="222">
-        <v>0.30663000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="228">
-        <v>9093518</v>
-      </c>
-      <c r="B9" s="228">
-        <v>4254670</v>
-      </c>
-      <c r="C9" s="229">
-        <v>2.1373000000000002</v>
-      </c>
-      <c r="F9" s="221">
-        <v>5352625</v>
-      </c>
-      <c r="G9" s="221">
-        <v>13348188</v>
-      </c>
-      <c r="H9" s="222">
-        <v>0.40100000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="228">
-        <v>8698529</v>
-      </c>
-      <c r="B10" s="228">
-        <v>5615651</v>
-      </c>
-      <c r="C10" s="229">
-        <v>1.54898</v>
-      </c>
-      <c r="F10" s="221">
-        <v>1360981</v>
-      </c>
-      <c r="G10" s="221">
-        <v>14314180</v>
-      </c>
-      <c r="H10" s="222">
-        <v>9.5079999999999998E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="228">
-        <v>11685025</v>
-      </c>
-      <c r="B11" s="228">
-        <v>4271931</v>
-      </c>
-      <c r="C11" s="229">
-        <v>2.7353000000000001</v>
-      </c>
-      <c r="F11" s="221">
-        <v>2847991</v>
-      </c>
-      <c r="G11" s="221">
-        <v>15956956</v>
-      </c>
-      <c r="H11" s="222">
-        <v>0.17848</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="228">
-        <v>9697242</v>
-      </c>
-      <c r="B12" s="228">
-        <v>5472869</v>
-      </c>
-      <c r="C12" s="229">
-        <v>1.7718799999999999</v>
-      </c>
-      <c r="F12" s="221">
-        <v>4048929</v>
-      </c>
-      <c r="G12" s="221">
-        <v>15170111</v>
-      </c>
-      <c r="H12" s="222">
-        <v>0.26690000000000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="228">
-        <v>9681888</v>
-      </c>
-      <c r="B13" s="228">
-        <v>4598782</v>
-      </c>
-      <c r="C13" s="229">
-        <v>2.1053199999999999</v>
-      </c>
-      <c r="F13" s="221">
-        <v>5738523</v>
-      </c>
-      <c r="G13" s="221">
-        <v>14280670</v>
-      </c>
-      <c r="H13" s="222">
-        <v>0.40183999999999997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="228">
-        <v>8434341</v>
-      </c>
-      <c r="B14" s="228">
-        <v>6338213</v>
-      </c>
-      <c r="C14" s="229">
-        <v>1.3307100000000001</v>
-      </c>
-      <c r="F14" s="221">
-        <v>1591699</v>
-      </c>
-      <c r="G14" s="221">
-        <v>14772554</v>
-      </c>
-      <c r="H14" s="222">
-        <v>0.10775</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="228">
-        <v>11983104</v>
-      </c>
-      <c r="B15" s="228">
-        <v>4503074</v>
-      </c>
-      <c r="C15" s="229">
-        <v>2.6610900000000002</v>
-      </c>
-      <c r="F15" s="221">
-        <v>2930640</v>
-      </c>
-      <c r="G15" s="221">
-        <v>16486178</v>
-      </c>
-      <c r="H15" s="222">
-        <v>0.17776</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="228">
-        <v>10229164</v>
-      </c>
-      <c r="B16" s="228">
-        <v>5755607</v>
-      </c>
-      <c r="C16" s="229">
-        <v>1.77725</v>
-      </c>
-      <c r="F16" s="221">
-        <v>4183173</v>
-      </c>
-      <c r="G16" s="221">
-        <v>15984771</v>
-      </c>
-      <c r="H16" s="222">
-        <v>0.26169999999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="228">
-        <v>10902585</v>
-      </c>
-      <c r="B17" s="228">
-        <v>4827360</v>
-      </c>
-      <c r="C17" s="229">
-        <v>2.2585000000000002</v>
-      </c>
-      <c r="F17" s="221">
-        <v>5851805</v>
-      </c>
-      <c r="G17" s="221">
-        <v>15729945</v>
-      </c>
-      <c r="H17" s="222">
-        <v>0.37202000000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="228">
-        <v>10255900</v>
-      </c>
-      <c r="B18" s="228">
-        <v>6397400</v>
-      </c>
-      <c r="C18" s="229">
-        <v>1.60314</v>
-      </c>
-      <c r="F18" s="221">
-        <v>1570040</v>
-      </c>
-      <c r="G18" s="221">
-        <v>16653300</v>
-      </c>
-      <c r="H18" s="222">
-        <v>9.4280000000000003E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="228">
-        <v>14029689</v>
-      </c>
-      <c r="B19" s="228">
-        <v>4890447</v>
-      </c>
-      <c r="C19" s="229">
-        <v>2.8687900000000002</v>
-      </c>
-      <c r="F19" s="221">
-        <v>3298307</v>
-      </c>
-      <c r="G19" s="221">
-        <v>18920136</v>
-      </c>
-      <c r="H19" s="222">
-        <v>0.17433000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="228">
-        <v>10405882</v>
-      </c>
-      <c r="B20" s="228">
-        <v>6342791</v>
-      </c>
-      <c r="C20" s="229">
-        <v>1.6405799999999999</v>
-      </c>
-      <c r="F20" s="221">
-        <v>4750551</v>
-      </c>
-      <c r="G20" s="221">
-        <v>16748673</v>
-      </c>
-      <c r="H20" s="222">
-        <v>0.28364</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="228">
-        <v>12041437</v>
-      </c>
-      <c r="B21" s="228">
-        <v>4704258</v>
-      </c>
-      <c r="C21" s="229">
-        <v>2.5596899999999998</v>
-      </c>
-      <c r="F21" s="221">
-        <v>6390672</v>
-      </c>
-      <c r="G21" s="221">
-        <v>16745695</v>
-      </c>
-      <c r="H21" s="222">
-        <v>0.38163000000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="228">
-        <v>11921305</v>
-      </c>
-      <c r="B22" s="228">
-        <v>6665099</v>
-      </c>
-      <c r="C22" s="229">
-        <v>1.7886200000000001</v>
-      </c>
-      <c r="F22" s="221">
-        <v>1960841</v>
-      </c>
-      <c r="G22" s="221">
-        <v>18586404</v>
-      </c>
-      <c r="H22" s="222">
-        <v>0.1055</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="228">
-        <v>14380273</v>
-      </c>
-      <c r="B23" s="228">
-        <v>4906114</v>
-      </c>
-      <c r="C23" s="229">
-        <v>2.9310900000000002</v>
-      </c>
-      <c r="F23" s="221">
-        <v>3623958</v>
-      </c>
-      <c r="G23" s="221">
-        <v>19286387</v>
-      </c>
-      <c r="H23" s="222">
-        <v>0.18790000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="228">
-        <v>12391366</v>
-      </c>
-      <c r="B24" s="228">
-        <v>6423858</v>
-      </c>
-      <c r="C24" s="229">
-        <v>1.92896</v>
-      </c>
-      <c r="F24" s="221">
-        <v>5229400</v>
-      </c>
-      <c r="G24" s="221">
-        <v>18815224</v>
-      </c>
-      <c r="H24" s="222">
-        <v>0.27793000000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="228">
-        <v>12041437</v>
-      </c>
-      <c r="B25" s="228">
-        <v>4704258</v>
-      </c>
-      <c r="C25" s="229">
-        <v>2.5596899999999998</v>
-      </c>
-      <c r="F25" s="221">
-        <v>7004562</v>
-      </c>
-      <c r="G25" s="221">
-        <v>16745695</v>
-      </c>
-      <c r="H25" s="222">
-        <v>0.41829</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="228">
-        <v>13229294</v>
-      </c>
-      <c r="B26" s="228">
-        <v>7012519</v>
-      </c>
-      <c r="C26" s="229">
-        <v>1.88653</v>
-      </c>
-      <c r="F26" s="221">
-        <v>1839131</v>
-      </c>
-      <c r="G26" s="221">
-        <v>20241813</v>
-      </c>
-      <c r="H26" s="222">
-        <v>9.0859999999999996E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="228">
-        <v>15514356</v>
-      </c>
-      <c r="B27" s="228">
-        <v>5011769</v>
-      </c>
-      <c r="C27" s="229">
-        <v>3.09558</v>
-      </c>
-      <c r="F27" s="221">
-        <v>3529869</v>
-      </c>
-      <c r="G27" s="221">
-        <v>20526125</v>
-      </c>
-      <c r="H27" s="222">
-        <v>0.17197000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="228">
-        <v>11027987</v>
-      </c>
-      <c r="B28" s="228">
-        <v>8970149</v>
-      </c>
-      <c r="C28" s="229">
-        <v>1.2294099999999999</v>
-      </c>
-      <c r="F28" s="221">
-        <v>7303493</v>
-      </c>
-      <c r="G28" s="221">
-        <v>19998136</v>
-      </c>
-      <c r="H28" s="222">
-        <v>0.36520999999999998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="228">
-        <v>13733025</v>
-      </c>
-      <c r="B29" s="228">
-        <v>5173388</v>
-      </c>
-      <c r="C29" s="229">
-        <v>2.65455</v>
-      </c>
-      <c r="F29" s="221">
-        <v>9109445</v>
-      </c>
-      <c r="G29" s="221">
-        <v>18906413</v>
-      </c>
-      <c r="H29" s="222">
-        <v>0.48182000000000003</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="228">
-        <v>16752108</v>
-      </c>
-      <c r="B30" s="228">
-        <v>5075213</v>
-      </c>
-      <c r="C30" s="229">
-        <v>3.30077</v>
-      </c>
-      <c r="F30" s="221">
-        <v>1748520</v>
-      </c>
-      <c r="G30" s="221">
-        <v>21827321</v>
-      </c>
-      <c r="H30" s="222">
-        <v>8.0110000000000001E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="228">
-        <v>12977603</v>
-      </c>
-      <c r="B31" s="228">
-        <v>9062375</v>
-      </c>
-      <c r="C31" s="229">
-        <v>1.4320299999999999</v>
-      </c>
-      <c r="F31" s="221">
-        <v>3697232</v>
-      </c>
-      <c r="G31" s="221">
-        <v>22039978</v>
-      </c>
-      <c r="H31" s="222">
-        <v>0.16775000000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="228">
-        <v>13926354</v>
-      </c>
-      <c r="B32" s="228">
-        <v>6887584</v>
-      </c>
-      <c r="C32" s="229">
-        <v>2.0219499999999999</v>
-      </c>
-      <c r="F32" s="221">
-        <v>5509603</v>
-      </c>
-      <c r="G32" s="221">
-        <v>20813938</v>
-      </c>
-      <c r="H32" s="222">
-        <v>0.26471</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="228">
-        <v>15367509</v>
-      </c>
-      <c r="B33" s="228">
-        <v>5281862</v>
-      </c>
-      <c r="C33" s="229">
-        <v>2.9094899999999999</v>
-      </c>
-      <c r="F33" s="221">
-        <v>7392837</v>
-      </c>
-      <c r="G33" s="221">
-        <v>20649371</v>
-      </c>
-      <c r="H33" s="222">
-        <v>0.35802</v>
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="222" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="222"/>
+      <c r="C1" s="222"/>
+      <c r="D1" s="222"/>
+      <c r="E1" s="222"/>
+      <c r="F1" s="222"/>
+      <c r="G1" s="222"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="157"/>
+      <c r="B2" s="157"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="158"/>
+      <c r="G2" s="158"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="159" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="159" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="159" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="160" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="161" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="159" t="s">
+        <v>109</v>
+      </c>
+      <c r="G3" s="159" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="162">
+        <v>1</v>
+      </c>
+      <c r="B4" s="163" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="162">
+        <v>2019</v>
+      </c>
+      <c r="D4" s="164">
+        <v>0.56236375615469714</v>
+      </c>
+      <c r="E4" s="164">
+        <v>3.5824845393217997</v>
+      </c>
+      <c r="F4" s="165">
+        <v>3403</v>
+      </c>
+      <c r="G4" s="166">
+        <v>8.1300000000000008</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="162">
+        <f>A4+1</f>
+        <v>2</v>
+      </c>
+      <c r="B5" s="163" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="162">
+        <v>2019</v>
+      </c>
+      <c r="D5" s="164">
+        <v>0.50151623074757401</v>
+      </c>
+      <c r="E5" s="164">
+        <v>3.9284559689259466</v>
+      </c>
+      <c r="F5" s="167">
+        <v>3730</v>
+      </c>
+      <c r="G5" s="166">
+        <v>8.2200000000000006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="162">
+        <f t="shared" ref="A6:A35" si="0">A5+1</f>
+        <v>3</v>
+      </c>
+      <c r="B6" s="163" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="162">
+        <v>2019</v>
+      </c>
+      <c r="D6" s="164">
+        <v>0.37826785737207713</v>
+      </c>
+      <c r="E6" s="164">
+        <v>3.7440864678600678</v>
+      </c>
+      <c r="F6" s="167">
+        <v>2750</v>
+      </c>
+      <c r="G6" s="166">
+        <v>7.92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="162">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B7" s="163" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="162">
+        <v>2019</v>
+      </c>
+      <c r="D7" s="164">
+        <v>0.40982540033609954</v>
+      </c>
+      <c r="E7" s="164">
+        <v>3.6905987868493928</v>
+      </c>
+      <c r="F7" s="167">
+        <v>3467</v>
+      </c>
+      <c r="G7" s="166">
+        <v>8.15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="162">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B8" s="163" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" s="162">
+        <v>2018</v>
+      </c>
+      <c r="D8" s="164">
+        <v>0.37577888976735907</v>
+      </c>
+      <c r="E8" s="164">
+        <v>3.3785848293957761</v>
+      </c>
+      <c r="F8" s="168">
+        <v>2027</v>
+      </c>
+      <c r="G8" s="166">
+        <v>7.61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="162">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B9" s="163" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" s="162">
+        <v>2018</v>
+      </c>
+      <c r="D9" s="164">
+        <v>0.49175197547588506</v>
+      </c>
+      <c r="E9" s="164">
+        <v>2.8211224573767049</v>
+      </c>
+      <c r="F9" s="168">
+        <v>3267</v>
+      </c>
+      <c r="G9" s="166">
+        <v>8.09</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="162">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B10" s="163" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="162">
+        <v>2018</v>
+      </c>
+      <c r="D10" s="164">
+        <v>0.47640887736441084</v>
+      </c>
+      <c r="E10" s="164">
+        <v>2.667162462466858</v>
+      </c>
+      <c r="F10" s="168">
+        <v>3420</v>
+      </c>
+      <c r="G10" s="166">
+        <v>8.14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="162">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B11" s="163" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="162">
+        <v>2018</v>
+      </c>
+      <c r="D11" s="164">
+        <v>0.57657207273621747</v>
+      </c>
+      <c r="E11" s="164">
+        <v>2.4006092668988188</v>
+      </c>
+      <c r="F11" s="168">
+        <v>5292</v>
+      </c>
+      <c r="G11" s="166">
+        <v>8.57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="162">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B12" s="163" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="162">
+        <v>2017</v>
+      </c>
+      <c r="D12" s="164">
+        <v>0.58512367891844042</v>
+      </c>
+      <c r="E12" s="164">
+        <v>2.4194542025957348</v>
+      </c>
+      <c r="F12" s="168">
+        <v>5383</v>
+      </c>
+      <c r="G12" s="166">
+        <v>8.59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="162">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B13" s="163" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13" s="162">
+        <v>2017</v>
+      </c>
+      <c r="D13" s="164">
+        <v>0.61406183772263079</v>
+      </c>
+      <c r="E13" s="164">
+        <v>2.1939163997897655</v>
+      </c>
+      <c r="F13" s="168">
+        <v>6400</v>
+      </c>
+      <c r="G13" s="166">
+        <v>8.76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="162">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B14" s="163" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" s="162">
+        <v>2017</v>
+      </c>
+      <c r="D14" s="164">
+        <v>0.57624492143213768</v>
+      </c>
+      <c r="E14" s="164">
+        <v>2.4119216543529212</v>
+      </c>
+      <c r="F14" s="168">
+        <v>6817</v>
+      </c>
+      <c r="G14" s="166">
+        <v>8.83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="162">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B15" s="163" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="162">
+        <v>2017</v>
+      </c>
+      <c r="D15" s="164">
+        <v>0.47699463760246241</v>
+      </c>
+      <c r="E15" s="164">
+        <v>2.4491289264526634</v>
+      </c>
+      <c r="F15" s="168">
+        <v>6850</v>
+      </c>
+      <c r="G15" s="166">
+        <v>8.83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="162">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B16" s="163" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="162">
+        <v>2016</v>
+      </c>
+      <c r="D16" s="164">
+        <v>0.42299227646297466</v>
+      </c>
+      <c r="E16" s="164">
+        <v>2.5859686301568039</v>
+      </c>
+      <c r="F16" s="168">
+        <v>6483</v>
+      </c>
+      <c r="G16" s="166">
+        <v>8.7799999999999994</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="162">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B17" s="163" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" s="162">
+        <v>2016</v>
+      </c>
+      <c r="D17" s="164">
+        <v>0.44067908198136363</v>
+      </c>
+      <c r="E17" s="164">
+        <v>2.4419613993570755</v>
+      </c>
+      <c r="F17" s="168">
+        <v>6358</v>
+      </c>
+      <c r="G17" s="166">
+        <v>8.76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="162">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B18" s="163" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" s="162">
+        <v>2016</v>
+      </c>
+      <c r="D18" s="164">
+        <v>0.38916361811772476</v>
+      </c>
+      <c r="E18" s="164">
+        <v>2.6587155794261541</v>
+      </c>
+      <c r="F18" s="168">
+        <v>6550</v>
+      </c>
+      <c r="G18" s="166">
+        <v>8.7899999999999991</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="162">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B19" s="163" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" s="162">
+        <v>2016</v>
+      </c>
+      <c r="D19" s="164">
+        <v>0.44100586770137112</v>
+      </c>
+      <c r="E19" s="164">
+        <v>2.8520801689590525</v>
+      </c>
+      <c r="F19" s="168">
+        <v>5608</v>
+      </c>
+      <c r="G19" s="166">
+        <v>8.6300000000000008</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="162">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B20" s="163" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="162">
+        <v>2015</v>
+      </c>
+      <c r="D20" s="164">
+        <v>0.49463296530125767</v>
+      </c>
+      <c r="E20" s="164">
+        <v>3.1759032696486638</v>
+      </c>
+      <c r="F20" s="168">
+        <v>5097</v>
+      </c>
+      <c r="G20" s="166">
+        <v>8.5399999999999991</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="162">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B21" s="163" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" s="162">
+        <v>2015</v>
+      </c>
+      <c r="D21" s="164">
+        <v>0.58592780791533983</v>
+      </c>
+      <c r="E21" s="164">
+        <v>2.9733963285008977</v>
+      </c>
+      <c r="F21" s="168">
+        <v>4032</v>
+      </c>
+      <c r="G21" s="166">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="162">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B22" s="163" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" s="162">
+        <v>2015</v>
+      </c>
+      <c r="D22" s="164">
+        <v>0.65789451161662615</v>
+      </c>
+      <c r="E22" s="164">
+        <v>3.3179447651703931</v>
+      </c>
+      <c r="F22" s="168">
+        <v>3913</v>
+      </c>
+      <c r="G22" s="166">
+        <v>8.27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="162">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B23" s="163" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" s="162">
+        <v>2015</v>
+      </c>
+      <c r="D23" s="164">
+        <v>0.42301844668184579</v>
+      </c>
+      <c r="E23" s="164">
+        <v>2.8085655783373791</v>
+      </c>
+      <c r="F23" s="168">
+        <v>4162</v>
+      </c>
+      <c r="G23" s="166">
+        <v>8.33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="162">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B24" s="163" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" s="162">
+        <v>2014</v>
+      </c>
+      <c r="D24" s="164">
+        <v>0.40626751212380985</v>
+      </c>
+      <c r="E24" s="164">
+        <v>2.7514071605140731</v>
+      </c>
+      <c r="F24" s="168">
+        <v>4015</v>
+      </c>
+      <c r="G24" s="166">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="162">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B25" s="163" t="s">
+        <v>112</v>
+      </c>
+      <c r="C25" s="162">
+        <v>2014</v>
+      </c>
+      <c r="D25" s="164">
+        <v>0.48252575857425067</v>
+      </c>
+      <c r="E25" s="164">
+        <v>2.4963505515673163</v>
+      </c>
+      <c r="F25" s="168">
+        <v>4103</v>
+      </c>
+      <c r="G25" s="166">
+        <v>8.32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="162">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B26" s="163" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" s="162">
+        <v>2014</v>
+      </c>
+      <c r="D26" s="164">
+        <v>0.53370088639232971</v>
+      </c>
+      <c r="E26" s="164">
+        <v>2.1953947128922771</v>
+      </c>
+      <c r="F26" s="168">
+        <v>4083</v>
+      </c>
+      <c r="G26" s="166">
+        <v>8.31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="162">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B27" s="163" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" s="162">
+        <v>2014</v>
+      </c>
+      <c r="D27" s="164">
+        <v>0.61719720364230546</v>
+      </c>
+      <c r="E27" s="164">
+        <v>2.1849121926562849</v>
+      </c>
+      <c r="F27" s="168">
+        <v>4205</v>
+      </c>
+      <c r="G27" s="166">
+        <v>8.34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="162">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B28" s="163" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" s="162">
+        <v>2013</v>
+      </c>
+      <c r="D28" s="164">
+        <v>0.53125721362069422</v>
+      </c>
+      <c r="E28" s="164">
+        <v>2.3007759966067707</v>
+      </c>
+      <c r="F28" s="168">
+        <v>4408</v>
+      </c>
+      <c r="G28" s="166">
+        <v>8.39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="162">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B29" s="163" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29" s="162">
+        <v>2013</v>
+      </c>
+      <c r="D29" s="164">
+        <v>0.49802604338901746</v>
+      </c>
+      <c r="E29" s="164">
+        <v>2.1021847281782926</v>
+      </c>
+      <c r="F29" s="168">
+        <v>4950</v>
+      </c>
+      <c r="G29" s="166">
+        <v>8.51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="162">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B30" s="163" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30" s="162">
+        <v>2013</v>
+      </c>
+      <c r="D30" s="164">
+        <v>0.52719350647103458</v>
+      </c>
+      <c r="E30" s="164">
+        <v>1.8414044862046106</v>
+      </c>
+      <c r="F30" s="168">
+        <v>6167</v>
+      </c>
+      <c r="G30" s="166">
+        <v>8.73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="162">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B31" s="163" t="s">
+        <v>114</v>
+      </c>
+      <c r="C31" s="162">
+        <v>2013</v>
+      </c>
+      <c r="D31" s="164">
+        <v>0.70113130772084231</v>
+      </c>
+      <c r="E31" s="164">
+        <v>1.7687476944206253</v>
+      </c>
+      <c r="F31" s="168">
+        <v>7083</v>
+      </c>
+      <c r="G31" s="166">
+        <v>8.8699999999999992</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="162">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B32" s="163" t="s">
+        <v>111</v>
+      </c>
+      <c r="C32" s="162">
+        <v>2012</v>
+      </c>
+      <c r="D32" s="164">
+        <v>0.75426632283173434</v>
+      </c>
+      <c r="E32" s="164">
+        <v>1.8473301173103869</v>
+      </c>
+      <c r="F32" s="168">
+        <v>6767</v>
+      </c>
+      <c r="G32" s="166">
+        <v>8.82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="162">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B33" s="163" t="s">
+        <v>112</v>
+      </c>
+      <c r="C33" s="162">
+        <v>2012</v>
+      </c>
+      <c r="D33" s="164">
+        <v>0.72355321658651661</v>
+      </c>
+      <c r="E33" s="164">
+        <v>1.5520432874641843</v>
+      </c>
+      <c r="F33" s="168">
+        <v>5683</v>
+      </c>
+      <c r="G33" s="166">
+        <v>8.65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="162">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B34" s="163" t="s">
+        <v>113</v>
+      </c>
+      <c r="C34" s="162">
+        <v>2012</v>
+      </c>
+      <c r="D34" s="164">
+        <v>0.62523076109725118</v>
+      </c>
+      <c r="E34" s="164">
+        <v>1.947059670544244</v>
+      </c>
+      <c r="F34" s="168">
+        <v>4950</v>
+      </c>
+      <c r="G34" s="166">
+        <v>8.51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="162">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B35" s="163" t="s">
+        <v>114</v>
+      </c>
+      <c r="C35" s="162">
+        <v>2012</v>
+      </c>
+      <c r="D35" s="164">
+        <v>0.54277080093543162</v>
+      </c>
+      <c r="E35" s="164">
+        <v>1.7393545846003335</v>
+      </c>
+      <c r="F35" s="168">
+        <v>5750</v>
+      </c>
+      <c r="G35" s="166">
+        <v>8.66</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SKRIPSI/Analisa_LK_MBTO_MRAT_TCID_UNVR_2014_2018.xlsx
+++ b/SKRIPSI/Analisa_LK_MBTO_MRAT_TCID_UNVR_2014_2018.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9735" tabRatio="706" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9735" tabRatio="706" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="LK_2015_2019" sheetId="5" r:id="rId1"/>
@@ -17,9 +17,9 @@
     <sheet name="INCOME_STATEMENT" sheetId="2" r:id="rId3"/>
     <sheet name="RASIO" sheetId="6" r:id="rId4"/>
     <sheet name="TRANSFORMING" sheetId="8" r:id="rId5"/>
-    <sheet name="DATA_READY" sheetId="4" r:id="rId6"/>
-    <sheet name="DATA_DER_ROA" sheetId="10" r:id="rId7"/>
-    <sheet name="ANALISA_RASIO" sheetId="3" r:id="rId8"/>
+    <sheet name="DATA_DER_ROA_READY" sheetId="10" r:id="rId6"/>
+    <sheet name="DATA_OBSOLETE" sheetId="4" r:id="rId7"/>
+    <sheet name="RAW_ANALISA_RASIO" sheetId="3" r:id="rId8"/>
     <sheet name="Transformasi" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="183">
   <si>
     <t>Aset Lancar</t>
   </si>
@@ -477,6 +477,111 @@
   <si>
     <t xml:space="preserve"> DER </t>
   </si>
+  <si>
+    <t>2012Q1</t>
+  </si>
+  <si>
+    <t>2012Q2</t>
+  </si>
+  <si>
+    <t>2012Q3</t>
+  </si>
+  <si>
+    <t>2012Q4</t>
+  </si>
+  <si>
+    <t>2013Q1</t>
+  </si>
+  <si>
+    <t>2013Q2</t>
+  </si>
+  <si>
+    <t>2013Q3</t>
+  </si>
+  <si>
+    <t>2013Q4</t>
+  </si>
+  <si>
+    <t>2014Q1</t>
+  </si>
+  <si>
+    <t>2014Q2</t>
+  </si>
+  <si>
+    <t>2014Q3</t>
+  </si>
+  <si>
+    <t>2014Q4</t>
+  </si>
+  <si>
+    <t>2015Q1</t>
+  </si>
+  <si>
+    <t>2015Q2</t>
+  </si>
+  <si>
+    <t>2015Q3</t>
+  </si>
+  <si>
+    <t>2015Q4</t>
+  </si>
+  <si>
+    <t>2016Q1</t>
+  </si>
+  <si>
+    <t>2016Q2</t>
+  </si>
+  <si>
+    <t>2016Q3</t>
+  </si>
+  <si>
+    <t>2016Q4</t>
+  </si>
+  <si>
+    <t>2017Q1</t>
+  </si>
+  <si>
+    <t>2017Q2</t>
+  </si>
+  <si>
+    <t>2017Q3</t>
+  </si>
+  <si>
+    <t>2017Q4</t>
+  </si>
+  <si>
+    <t>2018Q1</t>
+  </si>
+  <si>
+    <t>2018Q2</t>
+  </si>
+  <si>
+    <t>2018Q3</t>
+  </si>
+  <si>
+    <t>2018Q4</t>
+  </si>
+  <si>
+    <t>2019Q1</t>
+  </si>
+  <si>
+    <t>2019Q2</t>
+  </si>
+  <si>
+    <t>2019Q3</t>
+  </si>
+  <si>
+    <t>2019Q4</t>
+  </si>
+  <si>
+    <t>PERIODE</t>
+  </si>
+  <si>
+    <t>HARGA SAHAM</t>
+  </si>
+  <si>
+    <t>TAHUN</t>
+  </si>
 </sst>
 </file>
 
@@ -492,7 +597,7 @@
     <numFmt numFmtId="168" formatCode="0.000"/>
     <numFmt numFmtId="169" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -665,33 +770,42 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <color rgb="FF4472C4"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF4472C4"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF4472C4"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="9">
@@ -888,7 +1002,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="230">
+  <cellXfs count="240">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1340,6 +1454,21 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1354,26 +1483,17 @@
     <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="167" fontId="8" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="167" fontId="13" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="43" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1381,35 +1501,53 @@
     <xf numFmtId="43" fontId="13" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1501,7 +1639,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1522,7 +1659,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>ANALISA_RASIO!$B$5:$C$5</c:f>
+              <c:f>RAW_ANALISA_RASIO!$B$5:$C$5</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="1">
@@ -1557,7 +1694,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>ANALISA_RASIO!$D$4:$H$4</c:f>
+              <c:f>RAW_ANALISA_RASIO!$D$4:$H$4</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1580,7 +1717,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ANALISA_RASIO!$D$5:$H$5</c:f>
+              <c:f>RAW_ANALISA_RASIO!$D$5:$H$5</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0.000_);_(* \(#,##0.000\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1614,11 +1751,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-991083200"/>
-        <c:axId val="-346961392"/>
+        <c:axId val="525817888"/>
+        <c:axId val="663975360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-991083200"/>
+        <c:axId val="525817888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1661,7 +1798,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-346961392"/>
+        <c:crossAx val="663975360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1669,7 +1806,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-346961392"/>
+        <c:axId val="663975360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1720,7 +1857,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-991083200"/>
+        <c:crossAx val="525817888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1832,7 +1969,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1853,7 +1989,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>ANALISA_RASIO!$I$5</c:f>
+              <c:f>RAW_ANALISA_RASIO!$I$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1888,7 +2024,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>ANALISA_RASIO!$J$4:$N$4</c:f>
+              <c:f>RAW_ANALISA_RASIO!$J$4:$N$4</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1911,7 +2047,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ANALISA_RASIO!$J$5:$N$5</c:f>
+              <c:f>RAW_ANALISA_RASIO!$J$5:$N$5</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0.000_);_(* \(#,##0.000\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1945,11 +2081,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-346960848"/>
-        <c:axId val="-346959216"/>
+        <c:axId val="663989504"/>
+        <c:axId val="663977536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-346960848"/>
+        <c:axId val="663989504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1992,7 +2128,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-346959216"/>
+        <c:crossAx val="663977536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2000,7 +2136,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-346959216"/>
+        <c:axId val="663977536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2051,7 +2187,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-346960848"/>
+        <c:crossAx val="663989504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2163,7 +2299,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2184,7 +2319,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>ANALISA_RASIO!$O$5</c:f>
+              <c:f>RAW_ANALISA_RASIO!$O$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2219,7 +2354,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>ANALISA_RASIO!$P$4:$T$4</c:f>
+              <c:f>RAW_ANALISA_RASIO!$P$4:$T$4</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2242,7 +2377,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ANALISA_RASIO!$P$5:$T$5</c:f>
+              <c:f>RAW_ANALISA_RASIO!$P$5:$T$5</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0.000_);_(* \(#,##0.000\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2276,11 +2411,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-346958672"/>
-        <c:axId val="-346965200"/>
+        <c:axId val="663982432"/>
+        <c:axId val="663979712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-346958672"/>
+        <c:axId val="663982432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2323,7 +2458,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-346965200"/>
+        <c:crossAx val="663979712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2331,7 +2466,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-346965200"/>
+        <c:axId val="663979712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2382,7 +2517,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-346958672"/>
+        <c:crossAx val="663982432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4545,6 +4680,9 @@
     <row r="61" spans="2:25" ht="13.5" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="V3:Y3"/>
+    <mergeCell ref="C51:D51"/>
     <mergeCell ref="C52:D52"/>
     <mergeCell ref="C55:D55"/>
     <mergeCell ref="C56:D56"/>
@@ -4561,9 +4699,6 @@
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="V3:Y3"/>
-    <mergeCell ref="C51:D51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9234,22 +9369,22 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="Q49:T49"/>
-    <mergeCell ref="Q34:T34"/>
-    <mergeCell ref="U34:X34"/>
-    <mergeCell ref="Y34:AB34"/>
-    <mergeCell ref="Q19:T19"/>
-    <mergeCell ref="U19:X19"/>
-    <mergeCell ref="AC34:AF34"/>
-    <mergeCell ref="Q4:T4"/>
-    <mergeCell ref="U4:X4"/>
-    <mergeCell ref="Y4:AB4"/>
-    <mergeCell ref="AC4:AF4"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C51:D51"/>
     <mergeCell ref="C70:D70"/>
     <mergeCell ref="C71:D71"/>
     <mergeCell ref="Q64:T64"/>
@@ -9266,22 +9401,22 @@
     <mergeCell ref="U49:X49"/>
     <mergeCell ref="AC19:AF19"/>
     <mergeCell ref="Y19:AB19"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="AC34:AF34"/>
+    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="U4:X4"/>
+    <mergeCell ref="Y4:AB4"/>
+    <mergeCell ref="AC4:AF4"/>
+    <mergeCell ref="Q49:T49"/>
+    <mergeCell ref="Q34:T34"/>
+    <mergeCell ref="U34:X34"/>
+    <mergeCell ref="Y34:AB34"/>
+    <mergeCell ref="Q19:T19"/>
+    <mergeCell ref="U19:X19"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9330,18 +9465,18 @@
       <c r="L1" s="110"/>
       <c r="M1" s="110"/>
       <c r="N1" s="94"/>
-      <c r="O1" s="207" t="s">
+      <c r="O1" s="212" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="208"/>
-      <c r="Q1" s="208"/>
-      <c r="R1" s="208"/>
-      <c r="S1" s="209" t="s">
+      <c r="P1" s="213"/>
+      <c r="Q1" s="213"/>
+      <c r="R1" s="213"/>
+      <c r="S1" s="214" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="210"/>
-      <c r="U1" s="210"/>
-      <c r="V1" s="210"/>
+      <c r="T1" s="215"/>
+      <c r="U1" s="215"/>
+      <c r="V1" s="215"/>
       <c r="W1" s="99"/>
       <c r="X1" s="99"/>
       <c r="Y1" s="99"/>
@@ -9622,10 +9757,10 @@
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A7" s="212" t="s">
+      <c r="A7" s="206" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="212"/>
+      <c r="B7" s="206"/>
       <c r="C7" s="150">
         <v>6604058</v>
       </c>
@@ -9724,10 +9859,10 @@
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A8" s="214" t="s">
+      <c r="A8" s="207" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="214"/>
+      <c r="B8" s="207"/>
       <c r="C8" s="152">
         <v>-3288189</v>
       </c>
@@ -9960,10 +10095,10 @@
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A10" s="214" t="s">
+      <c r="A10" s="207" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="214"/>
+      <c r="B10" s="207"/>
       <c r="C10" s="152">
         <v>-1394600</v>
       </c>
@@ -10062,10 +10197,10 @@
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A11" s="214" t="s">
+      <c r="A11" s="207" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="214"/>
+      <c r="B11" s="207"/>
       <c r="C11" s="152">
         <v>-351614</v>
       </c>
@@ -10164,10 +10299,10 @@
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A12" s="214" t="s">
+      <c r="A12" s="207" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="214"/>
+      <c r="B12" s="207"/>
       <c r="C12" s="152">
         <f>2326+3538</f>
         <v>5864</v>
@@ -10403,10 +10538,10 @@
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A14" s="214" t="s">
+      <c r="A14" s="207" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="214"/>
+      <c r="B14" s="207"/>
       <c r="C14" s="152">
         <v>3930</v>
       </c>
@@ -10505,10 +10640,10 @@
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A15" s="214" t="s">
+      <c r="A15" s="207" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="214"/>
+      <c r="B15" s="207"/>
       <c r="C15" s="152">
         <v>-25454</v>
       </c>
@@ -10741,10 +10876,10 @@
       </c>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A17" s="214" t="s">
+      <c r="A17" s="207" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="214"/>
+      <c r="B17" s="207"/>
       <c r="C17" s="152">
         <v>-391309</v>
       </c>
@@ -10977,10 +11112,10 @@
       </c>
     </row>
     <row r="19" spans="1:34" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="215" t="s">
+      <c r="A19" s="208" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="215"/>
+      <c r="B19" s="208"/>
       <c r="C19" s="153"/>
       <c r="D19" s="153"/>
       <c r="E19" s="153"/>
@@ -11015,10 +11150,10 @@
       <c r="AH19" s="102"/>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A20" s="214" t="s">
+      <c r="A20" s="207" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="214"/>
+      <c r="B20" s="207"/>
       <c r="C20" s="152"/>
       <c r="D20" s="152"/>
       <c r="E20" s="152"/>
@@ -11177,10 +11312,10 @@
       </c>
     </row>
     <row r="23" spans="1:34" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="215" t="s">
+      <c r="A23" s="208" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="215"/>
+      <c r="B23" s="208"/>
       <c r="C23" s="153"/>
       <c r="D23" s="153"/>
       <c r="E23" s="153"/>
@@ -11278,10 +11413,10 @@
       </c>
     </row>
     <row r="24" spans="1:34" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="215" t="s">
+      <c r="A24" s="208" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="215"/>
+      <c r="B24" s="208"/>
       <c r="C24" s="153"/>
       <c r="D24" s="153"/>
       <c r="E24" s="153"/>
@@ -11379,10 +11514,10 @@
       </c>
     </row>
     <row r="25" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="216" t="s">
+      <c r="A25" s="209" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="216"/>
+      <c r="B25" s="209"/>
       <c r="C25" s="154"/>
       <c r="D25" s="154"/>
       <c r="E25" s="154"/>
@@ -11439,10 +11574,10 @@
       </c>
     </row>
     <row r="26" spans="1:34" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="215" t="s">
+      <c r="A26" s="208" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="215"/>
+      <c r="B26" s="208"/>
       <c r="C26" s="153"/>
       <c r="D26" s="153"/>
       <c r="E26" s="153"/>
@@ -11769,10 +11904,10 @@
       </c>
     </row>
     <row r="34" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A34" s="212" t="s">
+      <c r="A34" s="206" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="212"/>
+      <c r="B34" s="206"/>
       <c r="C34" s="150"/>
       <c r="D34" s="150"/>
       <c r="E34" s="150"/>
@@ -11849,10 +11984,10 @@
       </c>
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A35" s="212" t="s">
+      <c r="A35" s="206" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="212"/>
+      <c r="B35" s="206"/>
       <c r="C35" s="150"/>
       <c r="D35" s="150"/>
       <c r="E35" s="150"/>
@@ -12030,10 +12165,10 @@
       </c>
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A37" s="212" t="s">
+      <c r="A37" s="206" t="s">
         <v>12</v>
       </c>
-      <c r="B37" s="212"/>
+      <c r="B37" s="206"/>
       <c r="C37" s="150"/>
       <c r="D37" s="150"/>
       <c r="E37" s="150"/>
@@ -12110,10 +12245,10 @@
       </c>
     </row>
     <row r="38" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A38" s="212" t="s">
+      <c r="A38" s="206" t="s">
         <v>13</v>
       </c>
-      <c r="B38" s="212"/>
+      <c r="B38" s="206"/>
       <c r="C38" s="150"/>
       <c r="D38" s="150"/>
       <c r="E38" s="150"/>
@@ -12190,10 +12325,10 @@
       </c>
     </row>
     <row r="39" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A39" s="212" t="s">
+      <c r="A39" s="206" t="s">
         <v>89</v>
       </c>
-      <c r="B39" s="212"/>
+      <c r="B39" s="206"/>
       <c r="C39" s="150"/>
       <c r="D39" s="150"/>
       <c r="E39" s="150"/>
@@ -12264,10 +12399,10 @@
       </c>
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A40" s="212" t="s">
+      <c r="A40" s="206" t="s">
         <v>90</v>
       </c>
-      <c r="B40" s="212"/>
+      <c r="B40" s="206"/>
       <c r="C40" s="150"/>
       <c r="D40" s="150"/>
       <c r="E40" s="150"/>
@@ -12449,10 +12584,10 @@
       </c>
     </row>
     <row r="42" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A42" s="212" t="s">
+      <c r="A42" s="206" t="s">
         <v>15</v>
       </c>
-      <c r="B42" s="212"/>
+      <c r="B42" s="206"/>
       <c r="C42" s="150"/>
       <c r="D42" s="150"/>
       <c r="E42" s="150"/>
@@ -12529,10 +12664,10 @@
       </c>
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A43" s="212" t="s">
+      <c r="A43" s="206" t="s">
         <v>16</v>
       </c>
-      <c r="B43" s="212"/>
+      <c r="B43" s="206"/>
       <c r="C43" s="150"/>
       <c r="D43" s="150"/>
       <c r="E43" s="150"/>
@@ -12711,10 +12846,10 @@
       </c>
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A45" s="212" t="s">
+      <c r="A45" s="206" t="s">
         <v>18</v>
       </c>
-      <c r="B45" s="212"/>
+      <c r="B45" s="206"/>
       <c r="C45" s="150"/>
       <c r="D45" s="150"/>
       <c r="E45" s="150"/>
@@ -12892,10 +13027,10 @@
       </c>
     </row>
     <row r="47" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A47" s="211" t="s">
+      <c r="A47" s="210" t="s">
         <v>21</v>
       </c>
-      <c r="B47" s="211"/>
+      <c r="B47" s="210"/>
       <c r="C47" s="149"/>
       <c r="D47" s="149"/>
       <c r="E47" s="149"/>
@@ -12930,10 +13065,10 @@
       <c r="AH47" s="82"/>
     </row>
     <row r="48" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A48" s="212" t="s">
+      <c r="A48" s="206" t="s">
         <v>22</v>
       </c>
-      <c r="B48" s="212"/>
+      <c r="B48" s="206"/>
       <c r="C48" s="150"/>
       <c r="D48" s="150"/>
       <c r="E48" s="150"/>
@@ -12993,10 +13128,10 @@
       </c>
     </row>
     <row r="51" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A51" s="211" t="s">
+      <c r="A51" s="210" t="s">
         <v>25</v>
       </c>
-      <c r="B51" s="211"/>
+      <c r="B51" s="210"/>
       <c r="C51" s="149"/>
       <c r="D51" s="149"/>
       <c r="E51" s="149"/>
@@ -13049,10 +13184,10 @@
       </c>
     </row>
     <row r="52" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A52" s="211" t="s">
+      <c r="A52" s="210" t="s">
         <v>26</v>
       </c>
-      <c r="B52" s="211"/>
+      <c r="B52" s="210"/>
       <c r="C52" s="149"/>
       <c r="D52" s="149"/>
       <c r="E52" s="149"/>
@@ -13105,10 +13240,10 @@
       </c>
     </row>
     <row r="53" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A53" s="206" t="s">
+      <c r="A53" s="211" t="s">
         <v>29</v>
       </c>
-      <c r="B53" s="206"/>
+      <c r="B53" s="211"/>
       <c r="N53" s="97">
         <v>0</v>
       </c>
@@ -13129,10 +13264,10 @@
       </c>
     </row>
     <row r="54" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A54" s="211" t="s">
+      <c r="A54" s="210" t="s">
         <v>27</v>
       </c>
-      <c r="B54" s="211"/>
+      <c r="B54" s="210"/>
       <c r="C54" s="149"/>
       <c r="D54" s="149"/>
       <c r="E54" s="149"/>
@@ -13399,10 +13534,10 @@
       </c>
     </row>
     <row r="61" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A61" s="212" t="s">
+      <c r="A61" s="206" t="s">
         <v>9</v>
       </c>
-      <c r="B61" s="212"/>
+      <c r="B61" s="206"/>
       <c r="C61" s="150"/>
       <c r="D61" s="150"/>
       <c r="E61" s="150"/>
@@ -13479,10 +13614,10 @@
       </c>
     </row>
     <row r="62" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A62" s="212" t="s">
+      <c r="A62" s="206" t="s">
         <v>10</v>
       </c>
-      <c r="B62" s="212"/>
+      <c r="B62" s="206"/>
       <c r="C62" s="150"/>
       <c r="D62" s="150"/>
       <c r="E62" s="150"/>
@@ -13660,10 +13795,10 @@
       </c>
     </row>
     <row r="64" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A64" s="212" t="s">
+      <c r="A64" s="206" t="s">
         <v>12</v>
       </c>
-      <c r="B64" s="212"/>
+      <c r="B64" s="206"/>
       <c r="C64" s="150"/>
       <c r="D64" s="150"/>
       <c r="E64" s="150"/>
@@ -13740,10 +13875,10 @@
       </c>
     </row>
     <row r="65" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A65" s="212" t="s">
+      <c r="A65" s="206" t="s">
         <v>13</v>
       </c>
-      <c r="B65" s="212"/>
+      <c r="B65" s="206"/>
       <c r="C65" s="150"/>
       <c r="D65" s="150"/>
       <c r="E65" s="150"/>
@@ -13820,10 +13955,10 @@
       </c>
     </row>
     <row r="66" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A66" s="212" t="s">
+      <c r="A66" s="206" t="s">
         <v>91</v>
       </c>
-      <c r="B66" s="212"/>
+      <c r="B66" s="206"/>
       <c r="C66" s="150"/>
       <c r="D66" s="150"/>
       <c r="E66" s="150"/>
@@ -13905,10 +14040,10 @@
       </c>
     </row>
     <row r="67" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A67" s="212" t="s">
+      <c r="A67" s="206" t="s">
         <v>92</v>
       </c>
-      <c r="B67" s="212"/>
+      <c r="B67" s="206"/>
       <c r="C67" s="150"/>
       <c r="D67" s="150"/>
       <c r="E67" s="150"/>
@@ -14075,10 +14210,10 @@
       </c>
     </row>
     <row r="69" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A69" s="212" t="s">
+      <c r="A69" s="206" t="s">
         <v>15</v>
       </c>
-      <c r="B69" s="212"/>
+      <c r="B69" s="206"/>
       <c r="C69" s="150"/>
       <c r="D69" s="150"/>
       <c r="E69" s="150"/>
@@ -14155,10 +14290,10 @@
       </c>
     </row>
     <row r="70" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A70" s="212" t="s">
+      <c r="A70" s="206" t="s">
         <v>16</v>
       </c>
-      <c r="B70" s="212"/>
+      <c r="B70" s="206"/>
       <c r="C70" s="150"/>
       <c r="D70" s="150"/>
       <c r="E70" s="150"/>
@@ -14336,10 +14471,10 @@
       </c>
     </row>
     <row r="72" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A72" s="212" t="s">
+      <c r="A72" s="206" t="s">
         <v>18</v>
       </c>
-      <c r="B72" s="212"/>
+      <c r="B72" s="206"/>
       <c r="C72" s="150"/>
       <c r="D72" s="150"/>
       <c r="E72" s="150"/>
@@ -14517,10 +14652,10 @@
       </c>
     </row>
     <row r="74" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A74" s="211" t="s">
+      <c r="A74" s="210" t="s">
         <v>21</v>
       </c>
-      <c r="B74" s="211"/>
+      <c r="B74" s="210"/>
       <c r="C74" s="149"/>
       <c r="D74" s="149"/>
       <c r="E74" s="149"/>
@@ -14555,10 +14690,10 @@
       <c r="AH74" s="82"/>
     </row>
     <row r="75" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A75" s="212" t="s">
+      <c r="A75" s="206" t="s">
         <v>22</v>
       </c>
-      <c r="B75" s="212"/>
+      <c r="B75" s="206"/>
       <c r="C75" s="150"/>
       <c r="D75" s="150"/>
       <c r="E75" s="150"/>
@@ -14618,10 +14753,10 @@
       </c>
     </row>
     <row r="78" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A78" s="211" t="s">
+      <c r="A78" s="210" t="s">
         <v>25</v>
       </c>
-      <c r="B78" s="211"/>
+      <c r="B78" s="210"/>
       <c r="C78" s="149"/>
       <c r="D78" s="149"/>
       <c r="E78" s="149"/>
@@ -14674,10 +14809,10 @@
       </c>
     </row>
     <row r="79" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A79" s="211" t="s">
+      <c r="A79" s="210" t="s">
         <v>26</v>
       </c>
-      <c r="B79" s="211"/>
+      <c r="B79" s="210"/>
       <c r="C79" s="149"/>
       <c r="D79" s="149"/>
       <c r="E79" s="149"/>
@@ -14730,10 +14865,10 @@
       </c>
     </row>
     <row r="80" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A80" s="206" t="s">
+      <c r="A80" s="211" t="s">
         <v>29</v>
       </c>
-      <c r="B80" s="206"/>
+      <c r="B80" s="211"/>
       <c r="N80" s="97">
         <v>0</v>
       </c>
@@ -14754,10 +14889,10 @@
       </c>
     </row>
     <row r="81" spans="1:34" s="136" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="213" t="s">
+      <c r="A81" s="216" t="s">
         <v>27</v>
       </c>
-      <c r="B81" s="213"/>
+      <c r="B81" s="216"/>
       <c r="C81" s="151"/>
       <c r="D81" s="151"/>
       <c r="E81" s="151"/>
@@ -15048,10 +15183,10 @@
       </c>
     </row>
     <row r="88" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A88" s="212" t="s">
+      <c r="A88" s="206" t="s">
         <v>9</v>
       </c>
-      <c r="B88" s="212"/>
+      <c r="B88" s="206"/>
       <c r="C88" s="150"/>
       <c r="D88" s="150"/>
       <c r="E88" s="150"/>
@@ -15128,10 +15263,10 @@
       </c>
     </row>
     <row r="89" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A89" s="212" t="s">
+      <c r="A89" s="206" t="s">
         <v>10</v>
       </c>
-      <c r="B89" s="212"/>
+      <c r="B89" s="206"/>
       <c r="C89" s="150"/>
       <c r="D89" s="150"/>
       <c r="E89" s="150"/>
@@ -15339,10 +15474,10 @@
       </c>
     </row>
     <row r="91" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A91" s="212" t="s">
+      <c r="A91" s="206" t="s">
         <v>12</v>
       </c>
-      <c r="B91" s="212"/>
+      <c r="B91" s="206"/>
       <c r="C91" s="150"/>
       <c r="D91" s="150"/>
       <c r="E91" s="150"/>
@@ -15419,10 +15554,10 @@
       </c>
     </row>
     <row r="92" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A92" s="212" t="s">
+      <c r="A92" s="206" t="s">
         <v>13</v>
       </c>
-      <c r="B92" s="212"/>
+      <c r="B92" s="206"/>
       <c r="C92" s="150"/>
       <c r="D92" s="150"/>
       <c r="E92" s="150"/>
@@ -15499,10 +15634,10 @@
       </c>
     </row>
     <row r="93" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A93" s="212" t="s">
+      <c r="A93" s="206" t="s">
         <v>42</v>
       </c>
-      <c r="B93" s="212"/>
+      <c r="B93" s="206"/>
       <c r="C93" s="150"/>
       <c r="D93" s="150"/>
       <c r="E93" s="150"/>
@@ -15665,10 +15800,10 @@
       </c>
     </row>
     <row r="95" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A95" s="206" t="s">
+      <c r="A95" s="211" t="s">
         <v>87</v>
       </c>
-      <c r="B95" s="206"/>
+      <c r="B95" s="211"/>
       <c r="N95" s="97">
         <v>-15067625957</v>
       </c>
@@ -15867,10 +16002,10 @@
       </c>
     </row>
     <row r="97" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A97" s="212" t="s">
+      <c r="A97" s="206" t="s">
         <v>18</v>
       </c>
-      <c r="B97" s="212"/>
+      <c r="B97" s="206"/>
       <c r="C97" s="150"/>
       <c r="D97" s="150"/>
       <c r="E97" s="150"/>
@@ -16078,10 +16213,10 @@
       </c>
     </row>
     <row r="99" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A99" s="211" t="s">
+      <c r="A99" s="210" t="s">
         <v>21</v>
       </c>
-      <c r="B99" s="211"/>
+      <c r="B99" s="210"/>
       <c r="C99" s="149"/>
       <c r="D99" s="149"/>
       <c r="E99" s="149"/>
@@ -16116,10 +16251,10 @@
       <c r="AH99" s="82"/>
     </row>
     <row r="100" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A100" s="212" t="s">
+      <c r="A100" s="206" t="s">
         <v>22</v>
       </c>
-      <c r="B100" s="212"/>
+      <c r="B100" s="206"/>
       <c r="C100" s="150"/>
       <c r="D100" s="150"/>
       <c r="E100" s="150"/>
@@ -16173,10 +16308,10 @@
       </c>
     </row>
     <row r="103" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A103" s="211" t="s">
+      <c r="A103" s="210" t="s">
         <v>25</v>
       </c>
-      <c r="B103" s="211"/>
+      <c r="B103" s="210"/>
       <c r="C103" s="149"/>
       <c r="D103" s="149"/>
       <c r="E103" s="149"/>
@@ -16226,10 +16361,10 @@
       <c r="AH103" s="82"/>
     </row>
     <row r="104" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A104" s="211" t="s">
+      <c r="A104" s="210" t="s">
         <v>26</v>
       </c>
-      <c r="B104" s="211"/>
+      <c r="B104" s="210"/>
       <c r="C104" s="149"/>
       <c r="D104" s="149"/>
       <c r="E104" s="149"/>
@@ -16279,10 +16414,10 @@
       <c r="AH104" s="82"/>
     </row>
     <row r="105" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A105" s="206" t="s">
+      <c r="A105" s="211" t="s">
         <v>29</v>
       </c>
-      <c r="B105" s="206"/>
+      <c r="B105" s="211"/>
       <c r="N105" s="97">
         <v>0</v>
       </c>
@@ -16300,10 +16435,10 @@
       </c>
     </row>
     <row r="106" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A106" s="211" t="s">
+      <c r="A106" s="210" t="s">
         <v>27</v>
       </c>
-      <c r="B106" s="211"/>
+      <c r="B106" s="210"/>
       <c r="C106" s="149"/>
       <c r="D106" s="149"/>
       <c r="E106" s="149"/>
@@ -16381,49 +16516,6 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A78:B78"/>
     <mergeCell ref="A95:B95"/>
     <mergeCell ref="O1:R1"/>
     <mergeCell ref="S1:V1"/>
@@ -16440,6 +16532,49 @@
     <mergeCell ref="A79:B79"/>
     <mergeCell ref="A80:B80"/>
     <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19065,14 +19200,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="R3:U3"/>
     <mergeCell ref="V3:Y3"/>
     <mergeCell ref="Z3:AC3"/>
     <mergeCell ref="AD3:AG3"/>
     <mergeCell ref="J3:M3"/>
     <mergeCell ref="F3:I3"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="R3:U3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -19083,8 +19218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:N35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20118,10 +20253,1147 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" style="231" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="235" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="235" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="235" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="235"/>
+    <col min="6" max="6" width="10.28515625" style="227" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="235" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" style="235" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="235" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="237"/>
+    <col min="11" max="11" width="17.5703125" style="237" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" style="237" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.5703125" style="237" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="15.140625" style="237"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="231" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="227" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1" s="228" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" s="228" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" s="229" t="s">
+        <v>147</v>
+      </c>
+      <c r="E1" s="227"/>
+      <c r="F1" s="227" t="s">
+        <v>180</v>
+      </c>
+      <c r="G1" s="229" t="s">
+        <v>142</v>
+      </c>
+      <c r="H1" s="229" t="s">
+        <v>143</v>
+      </c>
+      <c r="I1" s="230" t="s">
+        <v>144</v>
+      </c>
+      <c r="K1" s="238" t="s">
+        <v>181</v>
+      </c>
+      <c r="L1" s="238" t="s">
+        <v>180</v>
+      </c>
+      <c r="M1" s="239" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="232" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" s="233">
+        <v>7151813</v>
+      </c>
+      <c r="C2" s="233">
+        <v>4843623</v>
+      </c>
+      <c r="D2" s="234">
+        <v>1.47654</v>
+      </c>
+      <c r="F2" s="232" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2" s="234">
+        <v>1162686</v>
+      </c>
+      <c r="H2" s="234">
+        <v>11995436</v>
+      </c>
+      <c r="I2" s="236">
+        <v>9.6930000000000002E-2</v>
+      </c>
+      <c r="K2" s="223">
+        <v>3907.3020000000001</v>
+      </c>
+      <c r="L2" s="224" t="s">
+        <v>62</v>
+      </c>
+      <c r="M2" s="225" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="232" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" s="233">
+        <v>10182580</v>
+      </c>
+      <c r="C3" s="233">
+        <v>3752158</v>
+      </c>
+      <c r="D3" s="234">
+        <v>2.7137899999999999</v>
+      </c>
+      <c r="F3" s="232" t="s">
+        <v>149</v>
+      </c>
+      <c r="G3" s="234">
+        <v>2329701</v>
+      </c>
+      <c r="H3" s="234">
+        <v>13934738</v>
+      </c>
+      <c r="I3" s="236">
+        <v>0.16719000000000001</v>
+      </c>
+      <c r="K3" s="223">
+        <v>4206.0159999999996</v>
+      </c>
+      <c r="L3" s="224" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="232" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4" s="233">
+        <v>7316284</v>
+      </c>
+      <c r="C4" s="233">
+        <v>5105626</v>
+      </c>
+      <c r="D4" s="234">
+        <v>1.4329799999999999</v>
+      </c>
+      <c r="F4" s="232" t="s">
+        <v>150</v>
+      </c>
+      <c r="G4" s="234">
+        <v>3653568</v>
+      </c>
+      <c r="H4" s="234">
+        <v>12421910</v>
+      </c>
+      <c r="I4" s="236">
+        <v>0.29411999999999999</v>
+      </c>
+      <c r="K4" s="223">
+        <v>5071.5410000000002</v>
+      </c>
+      <c r="L4" s="224" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="232" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="233">
+        <v>8016614</v>
+      </c>
+      <c r="C5" s="233">
+        <v>3968365</v>
+      </c>
+      <c r="D5" s="234">
+        <v>2.02013</v>
+      </c>
+      <c r="F5" s="232" t="s">
+        <v>151</v>
+      </c>
+      <c r="G5" s="234">
+        <v>4839145</v>
+      </c>
+      <c r="H5" s="234">
+        <v>11984979</v>
+      </c>
+      <c r="I5" s="236">
+        <v>0.40377000000000002</v>
+      </c>
+      <c r="K5" s="223">
+        <v>5020.8109999999997</v>
+      </c>
+      <c r="L5" s="224" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="232" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" s="233">
+        <v>7505909</v>
+      </c>
+      <c r="C6" s="233">
+        <v>5400348</v>
+      </c>
+      <c r="D6" s="234">
+        <v>1.3898900000000001</v>
+      </c>
+      <c r="F6" s="232" t="s">
+        <v>152</v>
+      </c>
+      <c r="G6" s="234">
+        <v>9822451</v>
+      </c>
+      <c r="H6" s="234">
+        <v>12906257</v>
+      </c>
+      <c r="I6" s="236">
+        <v>0.76105999999999996</v>
+      </c>
+      <c r="K6" s="223">
+        <v>4472.2139999999999</v>
+      </c>
+      <c r="L6" s="224" t="s">
+        <v>62</v>
+      </c>
+      <c r="M6" s="225" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="232" t="s">
+        <v>153</v>
+      </c>
+      <c r="B7" s="233">
+        <v>9949299</v>
+      </c>
+      <c r="C7" s="233">
+        <v>4243835</v>
+      </c>
+      <c r="D7" s="234">
+        <v>2.3444099999999999</v>
+      </c>
+      <c r="F7" s="232" t="s">
+        <v>153</v>
+      </c>
+      <c r="G7" s="234">
+        <v>2823890</v>
+      </c>
+      <c r="H7" s="234">
+        <v>14193134</v>
+      </c>
+      <c r="I7" s="236">
+        <v>0.19896</v>
+      </c>
+      <c r="K7" s="223">
+        <v>5396.9620000000004</v>
+      </c>
+      <c r="L7" s="224" t="s">
+        <v>63</v>
+      </c>
+      <c r="M7" s="226"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="232" t="s">
+        <v>154</v>
+      </c>
+      <c r="B8" s="233">
+        <v>7829734</v>
+      </c>
+      <c r="C8" s="233">
+        <v>5510444</v>
+      </c>
+      <c r="D8" s="234">
+        <v>1.42089</v>
+      </c>
+      <c r="F8" s="232" t="s">
+        <v>154</v>
+      </c>
+      <c r="G8" s="234">
+        <v>4090499</v>
+      </c>
+      <c r="H8" s="234">
+        <v>13340178</v>
+      </c>
+      <c r="I8" s="236">
+        <v>0.30663000000000001</v>
+      </c>
+      <c r="K8" s="223">
+        <v>6174.0649999999996</v>
+      </c>
+      <c r="L8" s="224" t="s">
+        <v>64</v>
+      </c>
+      <c r="M8" s="226"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="232" t="s">
+        <v>155</v>
+      </c>
+      <c r="B9" s="233">
+        <v>9093518</v>
+      </c>
+      <c r="C9" s="233">
+        <v>4254670</v>
+      </c>
+      <c r="D9" s="234">
+        <v>2.1373000000000002</v>
+      </c>
+      <c r="F9" s="232" t="s">
+        <v>155</v>
+      </c>
+      <c r="G9" s="234">
+        <v>5352625</v>
+      </c>
+      <c r="H9" s="234">
+        <v>13348188</v>
+      </c>
+      <c r="I9" s="236">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="K9" s="223">
+        <v>5719.7240000000002</v>
+      </c>
+      <c r="L9" s="224" t="s">
+        <v>93</v>
+      </c>
+      <c r="M9" s="226"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="232" t="s">
+        <v>156</v>
+      </c>
+      <c r="B10" s="233">
+        <v>8698529</v>
+      </c>
+      <c r="C10" s="233">
+        <v>5615651</v>
+      </c>
+      <c r="D10" s="234">
+        <v>1.54898</v>
+      </c>
+      <c r="F10" s="232" t="s">
+        <v>156</v>
+      </c>
+      <c r="G10" s="234">
+        <v>1360981</v>
+      </c>
+      <c r="H10" s="234">
+        <v>14314180</v>
+      </c>
+      <c r="I10" s="236">
+        <v>9.5079999999999998E-2</v>
+      </c>
+      <c r="K10" s="223">
+        <v>5623.0829999999996</v>
+      </c>
+      <c r="L10" s="224" t="s">
+        <v>62</v>
+      </c>
+      <c r="M10" s="225" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="232" t="s">
+        <v>157</v>
+      </c>
+      <c r="B11" s="233">
+        <v>11685025</v>
+      </c>
+      <c r="C11" s="233">
+        <v>4271931</v>
+      </c>
+      <c r="D11" s="234">
+        <v>2.7353000000000001</v>
+      </c>
+      <c r="F11" s="232" t="s">
+        <v>157</v>
+      </c>
+      <c r="G11" s="234">
+        <v>2847991</v>
+      </c>
+      <c r="H11" s="234">
+        <v>15956956</v>
+      </c>
+      <c r="I11" s="236">
+        <v>0.17848</v>
+      </c>
+      <c r="K11" s="223">
+        <v>5989.7619999999997</v>
+      </c>
+      <c r="L11" s="224" t="s">
+        <v>63</v>
+      </c>
+      <c r="M11" s="226"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="232" t="s">
+        <v>158</v>
+      </c>
+      <c r="B12" s="233">
+        <v>9697242</v>
+      </c>
+      <c r="C12" s="233">
+        <v>5472869</v>
+      </c>
+      <c r="D12" s="234">
+        <v>1.7718799999999999</v>
+      </c>
+      <c r="F12" s="232" t="s">
+        <v>158</v>
+      </c>
+      <c r="G12" s="234">
+        <v>4048929</v>
+      </c>
+      <c r="H12" s="234">
+        <v>15170111</v>
+      </c>
+      <c r="I12" s="236">
+        <v>0.26690000000000003</v>
+      </c>
+      <c r="K12" s="223">
+        <v>6265.0720000000001</v>
+      </c>
+      <c r="L12" s="224" t="s">
+        <v>64</v>
+      </c>
+      <c r="M12" s="226"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="232" t="s">
+        <v>159</v>
+      </c>
+      <c r="B13" s="233">
+        <v>9681888</v>
+      </c>
+      <c r="C13" s="233">
+        <v>4598782</v>
+      </c>
+      <c r="D13" s="234">
+        <v>2.1053199999999999</v>
+      </c>
+      <c r="F13" s="232" t="s">
+        <v>159</v>
+      </c>
+      <c r="G13" s="234">
+        <v>5738523</v>
+      </c>
+      <c r="H13" s="234">
+        <v>14280670</v>
+      </c>
+      <c r="I13" s="236">
+        <v>0.40183999999999997</v>
+      </c>
+      <c r="K13" s="223">
+        <v>6216.8590000000004</v>
+      </c>
+      <c r="L13" s="224" t="s">
+        <v>93</v>
+      </c>
+      <c r="M13" s="226"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="232" t="s">
+        <v>160</v>
+      </c>
+      <c r="B14" s="233">
+        <v>8434341</v>
+      </c>
+      <c r="C14" s="233">
+        <v>6338213</v>
+      </c>
+      <c r="D14" s="234">
+        <v>1.3307100000000001</v>
+      </c>
+      <c r="F14" s="232" t="s">
+        <v>160</v>
+      </c>
+      <c r="G14" s="234">
+        <v>1591699</v>
+      </c>
+      <c r="H14" s="234">
+        <v>14772554</v>
+      </c>
+      <c r="I14" s="236">
+        <v>0.10775</v>
+      </c>
+      <c r="K14" s="223">
+        <v>7218.5649999999996</v>
+      </c>
+      <c r="L14" s="224" t="s">
+        <v>62</v>
+      </c>
+      <c r="M14" s="225" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="232" t="s">
+        <v>161</v>
+      </c>
+      <c r="B15" s="233">
+        <v>11983104</v>
+      </c>
+      <c r="C15" s="233">
+        <v>4503074</v>
+      </c>
+      <c r="D15" s="234">
+        <v>2.6610900000000002</v>
+      </c>
+      <c r="F15" s="232" t="s">
+        <v>161</v>
+      </c>
+      <c r="G15" s="234">
+        <v>2930640</v>
+      </c>
+      <c r="H15" s="234">
+        <v>16486178</v>
+      </c>
+      <c r="I15" s="236">
+        <v>0.17776</v>
+      </c>
+      <c r="K15" s="223">
+        <v>8337.7150000000001</v>
+      </c>
+      <c r="L15" s="224" t="s">
+        <v>63</v>
+      </c>
+      <c r="M15" s="226"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="232" t="s">
+        <v>162</v>
+      </c>
+      <c r="B16" s="233">
+        <v>10229164</v>
+      </c>
+      <c r="C16" s="233">
+        <v>5755607</v>
+      </c>
+      <c r="D16" s="234">
+        <v>1.77725</v>
+      </c>
+      <c r="F16" s="232" t="s">
+        <v>162</v>
+      </c>
+      <c r="G16" s="234">
+        <v>4183173</v>
+      </c>
+      <c r="H16" s="234">
+        <v>15984771</v>
+      </c>
+      <c r="I16" s="236">
+        <v>0.26169999999999999</v>
+      </c>
+      <c r="K16" s="223">
+        <v>7714.5870000000004</v>
+      </c>
+      <c r="L16" s="224" t="s">
+        <v>64</v>
+      </c>
+      <c r="M16" s="226"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="232" t="s">
+        <v>163</v>
+      </c>
+      <c r="B17" s="233">
+        <v>10902585</v>
+      </c>
+      <c r="C17" s="233">
+        <v>4827360</v>
+      </c>
+      <c r="D17" s="234">
+        <v>2.2585000000000002</v>
+      </c>
+      <c r="F17" s="232" t="s">
+        <v>163</v>
+      </c>
+      <c r="G17" s="234">
+        <v>5851805</v>
+      </c>
+      <c r="H17" s="234">
+        <v>15729945</v>
+      </c>
+      <c r="I17" s="236">
+        <v>0.37202000000000002</v>
+      </c>
+      <c r="K17" s="223">
+        <v>7418.7460000000001</v>
+      </c>
+      <c r="L17" s="224" t="s">
+        <v>93</v>
+      </c>
+      <c r="M17" s="226"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="232" t="s">
+        <v>164</v>
+      </c>
+      <c r="B18" s="233">
+        <v>10255900</v>
+      </c>
+      <c r="C18" s="233">
+        <v>6397400</v>
+      </c>
+      <c r="D18" s="234">
+        <v>1.60314</v>
+      </c>
+      <c r="F18" s="232" t="s">
+        <v>164</v>
+      </c>
+      <c r="G18" s="234">
+        <v>1570040</v>
+      </c>
+      <c r="H18" s="234">
+        <v>16653300</v>
+      </c>
+      <c r="I18" s="236">
+        <v>9.4280000000000003E-2</v>
+      </c>
+      <c r="K18" s="223">
+        <v>8080.8810000000003</v>
+      </c>
+      <c r="L18" s="224" t="s">
+        <v>62</v>
+      </c>
+      <c r="M18" s="225" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="232" t="s">
+        <v>165</v>
+      </c>
+      <c r="B19" s="233">
+        <v>14029689</v>
+      </c>
+      <c r="C19" s="233">
+        <v>4890447</v>
+      </c>
+      <c r="D19" s="234">
+        <v>2.8687900000000002</v>
+      </c>
+      <c r="F19" s="232" t="s">
+        <v>165</v>
+      </c>
+      <c r="G19" s="234">
+        <v>3298307</v>
+      </c>
+      <c r="H19" s="234">
+        <v>18920136</v>
+      </c>
+      <c r="I19" s="236">
+        <v>0.17433000000000001</v>
+      </c>
+      <c r="K19" s="223">
+        <v>8744.3819999999996</v>
+      </c>
+      <c r="L19" s="224" t="s">
+        <v>63</v>
+      </c>
+      <c r="M19" s="226"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="232" t="s">
+        <v>166</v>
+      </c>
+      <c r="B20" s="233">
+        <v>10405882</v>
+      </c>
+      <c r="C20" s="233">
+        <v>6342791</v>
+      </c>
+      <c r="D20" s="234">
+        <v>1.6405799999999999</v>
+      </c>
+      <c r="F20" s="232" t="s">
+        <v>166</v>
+      </c>
+      <c r="G20" s="234">
+        <v>4750551</v>
+      </c>
+      <c r="H20" s="234">
+        <v>16748673</v>
+      </c>
+      <c r="I20" s="236">
+        <v>0.28364</v>
+      </c>
+      <c r="K20" s="223">
+        <v>9019.5139999999992</v>
+      </c>
+      <c r="L20" s="224" t="s">
+        <v>64</v>
+      </c>
+      <c r="M20" s="226"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="232" t="s">
+        <v>167</v>
+      </c>
+      <c r="B21" s="233">
+        <v>12041437</v>
+      </c>
+      <c r="C21" s="233">
+        <v>4704258</v>
+      </c>
+      <c r="D21" s="234">
+        <v>2.5596899999999998</v>
+      </c>
+      <c r="F21" s="232" t="s">
+        <v>167</v>
+      </c>
+      <c r="G21" s="234">
+        <v>6390672</v>
+      </c>
+      <c r="H21" s="234">
+        <v>16745695</v>
+      </c>
+      <c r="I21" s="236">
+        <v>0.38163000000000002</v>
+      </c>
+      <c r="K21" s="223">
+        <v>8444.1540000000005</v>
+      </c>
+      <c r="L21" s="224" t="s">
+        <v>93</v>
+      </c>
+      <c r="M21" s="226"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="232" t="s">
+        <v>168</v>
+      </c>
+      <c r="B22" s="233">
+        <v>11921305</v>
+      </c>
+      <c r="C22" s="233">
+        <v>6665099</v>
+      </c>
+      <c r="D22" s="234">
+        <v>1.7886200000000001</v>
+      </c>
+      <c r="F22" s="232" t="s">
+        <v>168</v>
+      </c>
+      <c r="G22" s="234">
+        <v>1960841</v>
+      </c>
+      <c r="H22" s="234">
+        <v>18586404</v>
+      </c>
+      <c r="I22" s="236">
+        <v>0.1055</v>
+      </c>
+      <c r="K22" s="223">
+        <v>8369.098</v>
+      </c>
+      <c r="L22" s="224" t="s">
+        <v>62</v>
+      </c>
+      <c r="M22" s="225" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="232" t="s">
+        <v>169</v>
+      </c>
+      <c r="B23" s="233">
+        <v>14380273</v>
+      </c>
+      <c r="C23" s="233">
+        <v>4906114</v>
+      </c>
+      <c r="D23" s="234">
+        <v>2.9310900000000002</v>
+      </c>
+      <c r="F23" s="232" t="s">
+        <v>169</v>
+      </c>
+      <c r="G23" s="234">
+        <v>3623958</v>
+      </c>
+      <c r="H23" s="234">
+        <v>19286387</v>
+      </c>
+      <c r="I23" s="236">
+        <v>0.18790000000000001</v>
+      </c>
+      <c r="K23" s="223">
+        <v>9331.32</v>
+      </c>
+      <c r="L23" s="224" t="s">
+        <v>63</v>
+      </c>
+      <c r="M23" s="226"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="232" t="s">
+        <v>170</v>
+      </c>
+      <c r="B24" s="233">
+        <v>12391366</v>
+      </c>
+      <c r="C24" s="233">
+        <v>6423858</v>
+      </c>
+      <c r="D24" s="234">
+        <v>1.92896</v>
+      </c>
+      <c r="F24" s="232" t="s">
+        <v>170</v>
+      </c>
+      <c r="G24" s="234">
+        <v>5229400</v>
+      </c>
+      <c r="H24" s="234">
+        <v>18815224</v>
+      </c>
+      <c r="I24" s="236">
+        <v>0.27793000000000001</v>
+      </c>
+      <c r="K24" s="223">
+        <v>9834.5650000000005</v>
+      </c>
+      <c r="L24" s="224" t="s">
+        <v>64</v>
+      </c>
+      <c r="M24" s="226"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="232" t="s">
+        <v>171</v>
+      </c>
+      <c r="B25" s="233">
+        <v>12041437</v>
+      </c>
+      <c r="C25" s="233">
+        <v>4704258</v>
+      </c>
+      <c r="D25" s="234">
+        <v>2.5596899999999998</v>
+      </c>
+      <c r="F25" s="232" t="s">
+        <v>171</v>
+      </c>
+      <c r="G25" s="234">
+        <v>7004562</v>
+      </c>
+      <c r="H25" s="234">
+        <v>16745695</v>
+      </c>
+      <c r="I25" s="236">
+        <v>0.41829</v>
+      </c>
+      <c r="K25" s="223">
+        <v>10088.42</v>
+      </c>
+      <c r="L25" s="224" t="s">
+        <v>93</v>
+      </c>
+      <c r="M25" s="226"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="232" t="s">
+        <v>172</v>
+      </c>
+      <c r="B26" s="233">
+        <v>13229294</v>
+      </c>
+      <c r="C26" s="233">
+        <v>7012519</v>
+      </c>
+      <c r="D26" s="234">
+        <v>1.88653</v>
+      </c>
+      <c r="F26" s="232" t="s">
+        <v>172</v>
+      </c>
+      <c r="G26" s="234">
+        <v>1839131</v>
+      </c>
+      <c r="H26" s="234">
+        <v>20241813</v>
+      </c>
+      <c r="I26" s="236">
+        <v>9.0859999999999996E-2</v>
+      </c>
+      <c r="K26" s="223">
+        <v>10666.732</v>
+      </c>
+      <c r="L26" s="224" t="s">
+        <v>62</v>
+      </c>
+      <c r="M26" s="225" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="232" t="s">
+        <v>173</v>
+      </c>
+      <c r="B27" s="233">
+        <v>15514356</v>
+      </c>
+      <c r="C27" s="233">
+        <v>5011769</v>
+      </c>
+      <c r="D27" s="234">
+        <v>3.09558</v>
+      </c>
+      <c r="F27" s="232" t="s">
+        <v>173</v>
+      </c>
+      <c r="G27" s="234">
+        <v>3529869</v>
+      </c>
+      <c r="H27" s="234">
+        <v>20526125</v>
+      </c>
+      <c r="I27" s="236">
+        <v>0.17197000000000001</v>
+      </c>
+      <c r="K27" s="223">
+        <v>9489.11</v>
+      </c>
+      <c r="L27" s="224" t="s">
+        <v>63</v>
+      </c>
+      <c r="M27" s="226"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="232" t="s">
+        <v>174</v>
+      </c>
+      <c r="B28" s="233">
+        <v>11027987</v>
+      </c>
+      <c r="C28" s="233">
+        <v>8970149</v>
+      </c>
+      <c r="D28" s="234">
+        <v>1.2294099999999999</v>
+      </c>
+      <c r="F28" s="232" t="s">
+        <v>174</v>
+      </c>
+      <c r="G28" s="234">
+        <v>7303493</v>
+      </c>
+      <c r="H28" s="234">
+        <v>19998136</v>
+      </c>
+      <c r="I28" s="236">
+        <v>0.36520999999999998</v>
+      </c>
+      <c r="K28" s="223">
+        <v>8949.7009999999991</v>
+      </c>
+      <c r="L28" s="224" t="s">
+        <v>64</v>
+      </c>
+      <c r="M28" s="226"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="232" t="s">
+        <v>175</v>
+      </c>
+      <c r="B29" s="233">
+        <v>13733025</v>
+      </c>
+      <c r="C29" s="233">
+        <v>5173388</v>
+      </c>
+      <c r="D29" s="234">
+        <v>2.65455</v>
+      </c>
+      <c r="F29" s="232" t="s">
+        <v>175</v>
+      </c>
+      <c r="G29" s="234">
+        <v>9109445</v>
+      </c>
+      <c r="H29" s="234">
+        <v>18906413</v>
+      </c>
+      <c r="I29" s="236">
+        <v>0.48182000000000003</v>
+      </c>
+      <c r="K29" s="223">
+        <v>8710.6720000000005</v>
+      </c>
+      <c r="L29" s="224" t="s">
+        <v>93</v>
+      </c>
+      <c r="M29" s="226"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="232" t="s">
+        <v>176</v>
+      </c>
+      <c r="B30" s="233">
+        <v>16752108</v>
+      </c>
+      <c r="C30" s="233">
+        <v>5075213</v>
+      </c>
+      <c r="D30" s="234">
+        <v>3.30077</v>
+      </c>
+      <c r="F30" s="232" t="s">
+        <v>176</v>
+      </c>
+      <c r="G30" s="234">
+        <v>1748520</v>
+      </c>
+      <c r="H30" s="234">
+        <v>21827321</v>
+      </c>
+      <c r="I30" s="236">
+        <v>8.0110000000000001E-2</v>
+      </c>
+      <c r="K30" s="223">
+        <v>9766.9030000000002</v>
+      </c>
+      <c r="L30" s="224" t="s">
+        <v>62</v>
+      </c>
+      <c r="M30" s="225" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="232" t="s">
+        <v>177</v>
+      </c>
+      <c r="B31" s="233">
+        <v>12977603</v>
+      </c>
+      <c r="C31" s="233">
+        <v>9062375</v>
+      </c>
+      <c r="D31" s="234">
+        <v>1.4320299999999999</v>
+      </c>
+      <c r="F31" s="232" t="s">
+        <v>177</v>
+      </c>
+      <c r="G31" s="234">
+        <v>3697232</v>
+      </c>
+      <c r="H31" s="234">
+        <v>22039978</v>
+      </c>
+      <c r="I31" s="236">
+        <v>0.16775000000000001</v>
+      </c>
+      <c r="K31" s="223">
+        <v>9119.0249999999996</v>
+      </c>
+      <c r="L31" s="224" t="s">
+        <v>63</v>
+      </c>
+      <c r="M31" s="226"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="232" t="s">
+        <v>178</v>
+      </c>
+      <c r="B32" s="233">
+        <v>13926354</v>
+      </c>
+      <c r="C32" s="233">
+        <v>6887584</v>
+      </c>
+      <c r="D32" s="234">
+        <v>2.0219499999999999</v>
+      </c>
+      <c r="F32" s="232" t="s">
+        <v>178</v>
+      </c>
+      <c r="G32" s="234">
+        <v>5509603</v>
+      </c>
+      <c r="H32" s="234">
+        <v>20813938</v>
+      </c>
+      <c r="I32" s="236">
+        <v>0.26471</v>
+      </c>
+      <c r="K32" s="223">
+        <v>9154.4079999999994</v>
+      </c>
+      <c r="L32" s="224" t="s">
+        <v>64</v>
+      </c>
+      <c r="M32" s="226"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="232" t="s">
+        <v>179</v>
+      </c>
+      <c r="B33" s="233">
+        <v>15367509</v>
+      </c>
+      <c r="C33" s="233">
+        <v>5281862</v>
+      </c>
+      <c r="D33" s="234">
+        <v>2.9094899999999999</v>
+      </c>
+      <c r="F33" s="232" t="s">
+        <v>179</v>
+      </c>
+      <c r="G33" s="234">
+        <v>7392837</v>
+      </c>
+      <c r="H33" s="234">
+        <v>20649371</v>
+      </c>
+      <c r="I33" s="236">
+        <v>0.35802</v>
+      </c>
+      <c r="K33" s="223">
+        <v>8581.8040000000001</v>
+      </c>
+      <c r="L33" s="224" t="s">
+        <v>93</v>
+      </c>
+      <c r="M33" s="226"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22306,685 +23578,6 @@
       <c r="R34" s="188">
         <f t="shared" si="7"/>
         <v>1.3996649287694378</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H33"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="8" width="15.140625" style="225"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="223" t="s">
-        <v>145</v>
-      </c>
-      <c r="B1" s="223" t="s">
-        <v>146</v>
-      </c>
-      <c r="C1" s="224" t="s">
-        <v>147</v>
-      </c>
-      <c r="F1" s="224" t="s">
-        <v>142</v>
-      </c>
-      <c r="G1" s="224" t="s">
-        <v>143</v>
-      </c>
-      <c r="H1" s="226" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="227">
-        <v>7151813</v>
-      </c>
-      <c r="B2" s="227">
-        <v>4843623</v>
-      </c>
-      <c r="C2" s="228">
-        <v>1.47654</v>
-      </c>
-      <c r="F2" s="228">
-        <v>1162686</v>
-      </c>
-      <c r="G2" s="228">
-        <v>11995436</v>
-      </c>
-      <c r="H2" s="229">
-        <v>9.6930000000000002E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="227">
-        <v>10182580</v>
-      </c>
-      <c r="B3" s="227">
-        <v>3752158</v>
-      </c>
-      <c r="C3" s="228">
-        <v>2.7137899999999999</v>
-      </c>
-      <c r="F3" s="228">
-        <v>2329701</v>
-      </c>
-      <c r="G3" s="228">
-        <v>13934738</v>
-      </c>
-      <c r="H3" s="229">
-        <v>0.16719000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="227">
-        <v>7316284</v>
-      </c>
-      <c r="B4" s="227">
-        <v>5105626</v>
-      </c>
-      <c r="C4" s="228">
-        <v>1.4329799999999999</v>
-      </c>
-      <c r="F4" s="228">
-        <v>3653568</v>
-      </c>
-      <c r="G4" s="228">
-        <v>12421910</v>
-      </c>
-      <c r="H4" s="229">
-        <v>0.29411999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="227">
-        <v>8016614</v>
-      </c>
-      <c r="B5" s="227">
-        <v>3968365</v>
-      </c>
-      <c r="C5" s="228">
-        <v>2.02013</v>
-      </c>
-      <c r="F5" s="228">
-        <v>4839145</v>
-      </c>
-      <c r="G5" s="228">
-        <v>11984979</v>
-      </c>
-      <c r="H5" s="229">
-        <v>0.40377000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="227">
-        <v>7505909</v>
-      </c>
-      <c r="B6" s="227">
-        <v>5400348</v>
-      </c>
-      <c r="C6" s="228">
-        <v>1.3898900000000001</v>
-      </c>
-      <c r="F6" s="228">
-        <v>9822451</v>
-      </c>
-      <c r="G6" s="228">
-        <v>12906257</v>
-      </c>
-      <c r="H6" s="229">
-        <v>0.76105999999999996</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="227">
-        <v>9949299</v>
-      </c>
-      <c r="B7" s="227">
-        <v>4243835</v>
-      </c>
-      <c r="C7" s="228">
-        <v>2.3444099999999999</v>
-      </c>
-      <c r="F7" s="228">
-        <v>2823890</v>
-      </c>
-      <c r="G7" s="228">
-        <v>14193134</v>
-      </c>
-      <c r="H7" s="229">
-        <v>0.19896</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="227">
-        <v>7829734</v>
-      </c>
-      <c r="B8" s="227">
-        <v>5510444</v>
-      </c>
-      <c r="C8" s="228">
-        <v>1.42089</v>
-      </c>
-      <c r="F8" s="228">
-        <v>4090499</v>
-      </c>
-      <c r="G8" s="228">
-        <v>13340178</v>
-      </c>
-      <c r="H8" s="229">
-        <v>0.30663000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="227">
-        <v>9093518</v>
-      </c>
-      <c r="B9" s="227">
-        <v>4254670</v>
-      </c>
-      <c r="C9" s="228">
-        <v>2.1373000000000002</v>
-      </c>
-      <c r="F9" s="228">
-        <v>5352625</v>
-      </c>
-      <c r="G9" s="228">
-        <v>13348188</v>
-      </c>
-      <c r="H9" s="229">
-        <v>0.40100000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="227">
-        <v>8698529</v>
-      </c>
-      <c r="B10" s="227">
-        <v>5615651</v>
-      </c>
-      <c r="C10" s="228">
-        <v>1.54898</v>
-      </c>
-      <c r="F10" s="228">
-        <v>1360981</v>
-      </c>
-      <c r="G10" s="228">
-        <v>14314180</v>
-      </c>
-      <c r="H10" s="229">
-        <v>9.5079999999999998E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="227">
-        <v>11685025</v>
-      </c>
-      <c r="B11" s="227">
-        <v>4271931</v>
-      </c>
-      <c r="C11" s="228">
-        <v>2.7353000000000001</v>
-      </c>
-      <c r="F11" s="228">
-        <v>2847991</v>
-      </c>
-      <c r="G11" s="228">
-        <v>15956956</v>
-      </c>
-      <c r="H11" s="229">
-        <v>0.17848</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="227">
-        <v>9697242</v>
-      </c>
-      <c r="B12" s="227">
-        <v>5472869</v>
-      </c>
-      <c r="C12" s="228">
-        <v>1.7718799999999999</v>
-      </c>
-      <c r="F12" s="228">
-        <v>4048929</v>
-      </c>
-      <c r="G12" s="228">
-        <v>15170111</v>
-      </c>
-      <c r="H12" s="229">
-        <v>0.26690000000000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="227">
-        <v>9681888</v>
-      </c>
-      <c r="B13" s="227">
-        <v>4598782</v>
-      </c>
-      <c r="C13" s="228">
-        <v>2.1053199999999999</v>
-      </c>
-      <c r="F13" s="228">
-        <v>5738523</v>
-      </c>
-      <c r="G13" s="228">
-        <v>14280670</v>
-      </c>
-      <c r="H13" s="229">
-        <v>0.40183999999999997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="227">
-        <v>8434341</v>
-      </c>
-      <c r="B14" s="227">
-        <v>6338213</v>
-      </c>
-      <c r="C14" s="228">
-        <v>1.3307100000000001</v>
-      </c>
-      <c r="F14" s="228">
-        <v>1591699</v>
-      </c>
-      <c r="G14" s="228">
-        <v>14772554</v>
-      </c>
-      <c r="H14" s="229">
-        <v>0.10775</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="227">
-        <v>11983104</v>
-      </c>
-      <c r="B15" s="227">
-        <v>4503074</v>
-      </c>
-      <c r="C15" s="228">
-        <v>2.6610900000000002</v>
-      </c>
-      <c r="F15" s="228">
-        <v>2930640</v>
-      </c>
-      <c r="G15" s="228">
-        <v>16486178</v>
-      </c>
-      <c r="H15" s="229">
-        <v>0.17776</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="227">
-        <v>10229164</v>
-      </c>
-      <c r="B16" s="227">
-        <v>5755607</v>
-      </c>
-      <c r="C16" s="228">
-        <v>1.77725</v>
-      </c>
-      <c r="F16" s="228">
-        <v>4183173</v>
-      </c>
-      <c r="G16" s="228">
-        <v>15984771</v>
-      </c>
-      <c r="H16" s="229">
-        <v>0.26169999999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="227">
-        <v>10902585</v>
-      </c>
-      <c r="B17" s="227">
-        <v>4827360</v>
-      </c>
-      <c r="C17" s="228">
-        <v>2.2585000000000002</v>
-      </c>
-      <c r="F17" s="228">
-        <v>5851805</v>
-      </c>
-      <c r="G17" s="228">
-        <v>15729945</v>
-      </c>
-      <c r="H17" s="229">
-        <v>0.37202000000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="227">
-        <v>10255900</v>
-      </c>
-      <c r="B18" s="227">
-        <v>6397400</v>
-      </c>
-      <c r="C18" s="228">
-        <v>1.60314</v>
-      </c>
-      <c r="F18" s="228">
-        <v>1570040</v>
-      </c>
-      <c r="G18" s="228">
-        <v>16653300</v>
-      </c>
-      <c r="H18" s="229">
-        <v>9.4280000000000003E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="227">
-        <v>14029689</v>
-      </c>
-      <c r="B19" s="227">
-        <v>4890447</v>
-      </c>
-      <c r="C19" s="228">
-        <v>2.8687900000000002</v>
-      </c>
-      <c r="F19" s="228">
-        <v>3298307</v>
-      </c>
-      <c r="G19" s="228">
-        <v>18920136</v>
-      </c>
-      <c r="H19" s="229">
-        <v>0.17433000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="227">
-        <v>10405882</v>
-      </c>
-      <c r="B20" s="227">
-        <v>6342791</v>
-      </c>
-      <c r="C20" s="228">
-        <v>1.6405799999999999</v>
-      </c>
-      <c r="F20" s="228">
-        <v>4750551</v>
-      </c>
-      <c r="G20" s="228">
-        <v>16748673</v>
-      </c>
-      <c r="H20" s="229">
-        <v>0.28364</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="227">
-        <v>12041437</v>
-      </c>
-      <c r="B21" s="227">
-        <v>4704258</v>
-      </c>
-      <c r="C21" s="228">
-        <v>2.5596899999999998</v>
-      </c>
-      <c r="F21" s="228">
-        <v>6390672</v>
-      </c>
-      <c r="G21" s="228">
-        <v>16745695</v>
-      </c>
-      <c r="H21" s="229">
-        <v>0.38163000000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="227">
-        <v>11921305</v>
-      </c>
-      <c r="B22" s="227">
-        <v>6665099</v>
-      </c>
-      <c r="C22" s="228">
-        <v>1.7886200000000001</v>
-      </c>
-      <c r="F22" s="228">
-        <v>1960841</v>
-      </c>
-      <c r="G22" s="228">
-        <v>18586404</v>
-      </c>
-      <c r="H22" s="229">
-        <v>0.1055</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="227">
-        <v>14380273</v>
-      </c>
-      <c r="B23" s="227">
-        <v>4906114</v>
-      </c>
-      <c r="C23" s="228">
-        <v>2.9310900000000002</v>
-      </c>
-      <c r="F23" s="228">
-        <v>3623958</v>
-      </c>
-      <c r="G23" s="228">
-        <v>19286387</v>
-      </c>
-      <c r="H23" s="229">
-        <v>0.18790000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="227">
-        <v>12391366</v>
-      </c>
-      <c r="B24" s="227">
-        <v>6423858</v>
-      </c>
-      <c r="C24" s="228">
-        <v>1.92896</v>
-      </c>
-      <c r="F24" s="228">
-        <v>5229400</v>
-      </c>
-      <c r="G24" s="228">
-        <v>18815224</v>
-      </c>
-      <c r="H24" s="229">
-        <v>0.27793000000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="227">
-        <v>12041437</v>
-      </c>
-      <c r="B25" s="227">
-        <v>4704258</v>
-      </c>
-      <c r="C25" s="228">
-        <v>2.5596899999999998</v>
-      </c>
-      <c r="F25" s="228">
-        <v>7004562</v>
-      </c>
-      <c r="G25" s="228">
-        <v>16745695</v>
-      </c>
-      <c r="H25" s="229">
-        <v>0.41829</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="227">
-        <v>13229294</v>
-      </c>
-      <c r="B26" s="227">
-        <v>7012519</v>
-      </c>
-      <c r="C26" s="228">
-        <v>1.88653</v>
-      </c>
-      <c r="F26" s="228">
-        <v>1839131</v>
-      </c>
-      <c r="G26" s="228">
-        <v>20241813</v>
-      </c>
-      <c r="H26" s="229">
-        <v>9.0859999999999996E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="227">
-        <v>15514356</v>
-      </c>
-      <c r="B27" s="227">
-        <v>5011769</v>
-      </c>
-      <c r="C27" s="228">
-        <v>3.09558</v>
-      </c>
-      <c r="F27" s="228">
-        <v>3529869</v>
-      </c>
-      <c r="G27" s="228">
-        <v>20526125</v>
-      </c>
-      <c r="H27" s="229">
-        <v>0.17197000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="227">
-        <v>11027987</v>
-      </c>
-      <c r="B28" s="227">
-        <v>8970149</v>
-      </c>
-      <c r="C28" s="228">
-        <v>1.2294099999999999</v>
-      </c>
-      <c r="F28" s="228">
-        <v>7303493</v>
-      </c>
-      <c r="G28" s="228">
-        <v>19998136</v>
-      </c>
-      <c r="H28" s="229">
-        <v>0.36520999999999998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="227">
-        <v>13733025</v>
-      </c>
-      <c r="B29" s="227">
-        <v>5173388</v>
-      </c>
-      <c r="C29" s="228">
-        <v>2.65455</v>
-      </c>
-      <c r="F29" s="228">
-        <v>9109445</v>
-      </c>
-      <c r="G29" s="228">
-        <v>18906413</v>
-      </c>
-      <c r="H29" s="229">
-        <v>0.48182000000000003</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="227">
-        <v>16752108</v>
-      </c>
-      <c r="B30" s="227">
-        <v>5075213</v>
-      </c>
-      <c r="C30" s="228">
-        <v>3.30077</v>
-      </c>
-      <c r="F30" s="228">
-        <v>1748520</v>
-      </c>
-      <c r="G30" s="228">
-        <v>21827321</v>
-      </c>
-      <c r="H30" s="229">
-        <v>8.0110000000000001E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="227">
-        <v>12977603</v>
-      </c>
-      <c r="B31" s="227">
-        <v>9062375</v>
-      </c>
-      <c r="C31" s="228">
-        <v>1.4320299999999999</v>
-      </c>
-      <c r="F31" s="228">
-        <v>3697232</v>
-      </c>
-      <c r="G31" s="228">
-        <v>22039978</v>
-      </c>
-      <c r="H31" s="229">
-        <v>0.16775000000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="227">
-        <v>13926354</v>
-      </c>
-      <c r="B32" s="227">
-        <v>6887584</v>
-      </c>
-      <c r="C32" s="228">
-        <v>2.0219499999999999</v>
-      </c>
-      <c r="F32" s="228">
-        <v>5509603</v>
-      </c>
-      <c r="G32" s="228">
-        <v>20813938</v>
-      </c>
-      <c r="H32" s="229">
-        <v>0.26471</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="227">
-        <v>15367509</v>
-      </c>
-      <c r="B33" s="227">
-        <v>5281862</v>
-      </c>
-      <c r="C33" s="228">
-        <v>2.9094899999999999</v>
-      </c>
-      <c r="F33" s="228">
-        <v>7392837</v>
-      </c>
-      <c r="G33" s="228">
-        <v>20649371</v>
-      </c>
-      <c r="H33" s="229">
-        <v>0.35802</v>
       </c>
     </row>
   </sheetData>
@@ -23039,29 +23632,29 @@
       <c r="A3" s="27"/>
       <c r="B3" s="31"/>
       <c r="C3" s="61"/>
-      <c r="D3" s="221" t="s">
+      <c r="D3" s="219" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="218"/>
-      <c r="F3" s="218"/>
-      <c r="G3" s="218"/>
-      <c r="H3" s="219"/>
+      <c r="E3" s="220"/>
+      <c r="F3" s="220"/>
+      <c r="G3" s="220"/>
+      <c r="H3" s="221"/>
       <c r="I3" s="55"/>
-      <c r="J3" s="218" t="s">
+      <c r="J3" s="220" t="s">
         <v>50</v>
       </c>
-      <c r="K3" s="218"/>
-      <c r="L3" s="218"/>
-      <c r="M3" s="218"/>
-      <c r="N3" s="219"/>
+      <c r="K3" s="220"/>
+      <c r="L3" s="220"/>
+      <c r="M3" s="220"/>
+      <c r="N3" s="221"/>
       <c r="O3" s="34"/>
-      <c r="P3" s="218" t="s">
+      <c r="P3" s="220" t="s">
         <v>51</v>
       </c>
-      <c r="Q3" s="218"/>
-      <c r="R3" s="218"/>
-      <c r="S3" s="218"/>
-      <c r="T3" s="218"/>
+      <c r="Q3" s="220"/>
+      <c r="R3" s="220"/>
+      <c r="S3" s="220"/>
+      <c r="T3" s="220"/>
       <c r="U3" s="29"/>
     </row>
     <row r="4" spans="1:21" s="26" customFormat="1" x14ac:dyDescent="0.25">
@@ -23508,29 +24101,29 @@
       <c r="A11" s="75"/>
       <c r="B11" s="30"/>
       <c r="C11" s="61"/>
-      <c r="D11" s="218" t="s">
+      <c r="D11" s="220" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="218"/>
-      <c r="F11" s="218"/>
-      <c r="G11" s="218"/>
-      <c r="H11" s="218"/>
+      <c r="E11" s="220"/>
+      <c r="F11" s="220"/>
+      <c r="G11" s="220"/>
+      <c r="H11" s="220"/>
       <c r="I11" s="54"/>
-      <c r="J11" s="218" t="s">
+      <c r="J11" s="220" t="s">
         <v>50</v>
       </c>
-      <c r="K11" s="218"/>
-      <c r="L11" s="218"/>
-      <c r="M11" s="218"/>
-      <c r="N11" s="218"/>
+      <c r="K11" s="220"/>
+      <c r="L11" s="220"/>
+      <c r="M11" s="220"/>
+      <c r="N11" s="220"/>
       <c r="O11" s="34"/>
-      <c r="P11" s="218" t="s">
+      <c r="P11" s="220" t="s">
         <v>51</v>
       </c>
-      <c r="Q11" s="218"/>
-      <c r="R11" s="218"/>
-      <c r="S11" s="218"/>
-      <c r="T11" s="218"/>
+      <c r="Q11" s="220"/>
+      <c r="R11" s="220"/>
+      <c r="S11" s="220"/>
+      <c r="T11" s="220"/>
     </row>
     <row r="12" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="75"/>
@@ -23586,7 +24179,7 @@
     </row>
     <row r="13" spans="1:21" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="68"/>
-      <c r="B13" s="220" t="s">
+      <c r="B13" s="218" t="s">
         <v>46</v>
       </c>
       <c r="C13" s="69" t="s">
@@ -23662,7 +24255,7 @@
     </row>
     <row r="14" spans="1:21" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="68"/>
-      <c r="B14" s="220"/>
+      <c r="B14" s="218"/>
       <c r="C14" s="69" t="s">
         <v>55</v>
       </c>
@@ -23735,7 +24328,7 @@
       <c r="U14" s="72"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B15" s="220"/>
+      <c r="B15" s="218"/>
       <c r="C15" s="61" t="s">
         <v>56</v>
       </c>
@@ -23807,7 +24400,7 @@
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B16" s="220"/>
+      <c r="B16" s="218"/>
       <c r="C16" s="61"/>
       <c r="D16" s="24" t="str">
         <f>IF(D15=D$30,"S",IF(D15&lt;D$30,"B",IF(D15&gt;D$30,"A")))</f>
@@ -23874,7 +24467,7 @@
     </row>
     <row r="17" spans="1:20" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="68"/>
-      <c r="B17" s="220" t="s">
+      <c r="B17" s="218" t="s">
         <v>47</v>
       </c>
       <c r="C17" s="69" t="s">
@@ -23949,7 +24542,7 @@
     </row>
     <row r="18" spans="1:20" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="68"/>
-      <c r="B18" s="220"/>
+      <c r="B18" s="218"/>
       <c r="C18" s="69" t="s">
         <v>55</v>
       </c>
@@ -24021,7 +24614,7 @@
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B19" s="220"/>
+      <c r="B19" s="218"/>
       <c r="C19" s="61" t="s">
         <v>56</v>
       </c>
@@ -24093,7 +24686,7 @@
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B20" s="220"/>
+      <c r="B20" s="218"/>
       <c r="C20" s="61"/>
       <c r="D20" s="24" t="str">
         <f>IF(D19=D$30,"S",IF(D19&lt;D$30,"B",IF(D19&gt;D$30,"A")))</f>
@@ -24160,7 +24753,7 @@
     </row>
     <row r="21" spans="1:20" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="68"/>
-      <c r="B21" s="220" t="s">
+      <c r="B21" s="218" t="s">
         <v>48</v>
       </c>
       <c r="C21" s="69" t="s">
@@ -24235,7 +24828,7 @@
     </row>
     <row r="22" spans="1:20" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="68"/>
-      <c r="B22" s="220"/>
+      <c r="B22" s="218"/>
       <c r="C22" s="69" t="s">
         <v>55</v>
       </c>
@@ -24307,7 +24900,7 @@
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B23" s="220"/>
+      <c r="B23" s="218"/>
       <c r="C23" s="61" t="s">
         <v>56</v>
       </c>
@@ -24379,7 +24972,7 @@
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B24" s="220"/>
+      <c r="B24" s="218"/>
       <c r="C24" s="61"/>
       <c r="D24" s="24" t="str">
         <f>IF(D23=D$30,"S",IF(D23&lt;D$30,"B",IF(D23&gt;D$30,"A")))</f>
@@ -24446,7 +25039,7 @@
     </row>
     <row r="25" spans="1:20" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="68"/>
-      <c r="B25" s="220" t="s">
+      <c r="B25" s="218" t="s">
         <v>52</v>
       </c>
       <c r="C25" s="69" t="s">
@@ -24521,7 +25114,7 @@
     </row>
     <row r="26" spans="1:20" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="68"/>
-      <c r="B26" s="220"/>
+      <c r="B26" s="218"/>
       <c r="C26" s="69" t="s">
         <v>55</v>
       </c>
@@ -24593,7 +25186,7 @@
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B27" s="220"/>
+      <c r="B27" s="218"/>
       <c r="C27" s="61" t="s">
         <v>56</v>
       </c>
@@ -24665,7 +25258,7 @@
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B28" s="220"/>
+      <c r="B28" s="218"/>
       <c r="C28" s="61"/>
       <c r="D28" s="24" t="str">
         <f>IF(D27=D$30,"S",IF(D27&lt;D$30,"B",IF(D27&gt;D$30,"A")))</f>
@@ -25080,16 +25673,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="P3:T3"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="J11:N11"/>
+    <mergeCell ref="P11:T11"/>
     <mergeCell ref="B17:B20"/>
     <mergeCell ref="B21:B24"/>
     <mergeCell ref="B25:B28"/>
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="D3:H3"/>
-    <mergeCell ref="J3:N3"/>
-    <mergeCell ref="P3:T3"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="J11:N11"/>
-    <mergeCell ref="P11:T11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -25102,7 +25695,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SKRIPSI/Analisa_LK_MBTO_MRAT_TCID_UNVR_2014_2018.xlsx
+++ b/SKRIPSI/Analisa_LK_MBTO_MRAT_TCID_UNVR_2014_2018.xlsx
@@ -9,18 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9735" tabRatio="706" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9735" tabRatio="706" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="LK_2015_2019" sheetId="5" r:id="rId1"/>
     <sheet name="BALANCE_SHEET" sheetId="1" r:id="rId2"/>
     <sheet name="INCOME_STATEMENT" sheetId="2" r:id="rId3"/>
-    <sheet name="RASIO" sheetId="6" r:id="rId4"/>
-    <sheet name="TRANSFORMING" sheetId="8" r:id="rId5"/>
+    <sheet name="Rasio" sheetId="6" r:id="rId4"/>
+    <sheet name="Transformed" sheetId="8" r:id="rId5"/>
     <sheet name="DATA_DER_ROA_READY" sheetId="10" r:id="rId6"/>
-    <sheet name="DATA_OBSOLETE" sheetId="4" r:id="rId7"/>
+    <sheet name="Data_obsolete" sheetId="4" r:id="rId7"/>
     <sheet name="RAW_ANALISA_RASIO" sheetId="3" r:id="rId8"/>
-    <sheet name="Transformasi" sheetId="7" r:id="rId9"/>
+    <sheet name="CthTransformasi" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="182">
   <si>
     <t>Aset Lancar</t>
   </si>
@@ -392,9 +392,6 @@
   </si>
   <si>
     <t>2012</t>
-  </si>
-  <si>
-    <t>SP</t>
   </si>
   <si>
     <t>Q1 2012</t>
@@ -1368,22 +1365,6 @@
     <xf numFmtId="164" fontId="20" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1425,82 +1406,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="23" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1543,10 +1448,112 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="169" fontId="23" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="169" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="169" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1751,11 +1758,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="525817888"/>
-        <c:axId val="663975360"/>
+        <c:axId val="1000984960"/>
+        <c:axId val="1000978976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="525817888"/>
+        <c:axId val="1000984960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1798,7 +1805,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="663975360"/>
+        <c:crossAx val="1000978976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1806,7 +1813,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="663975360"/>
+        <c:axId val="1000978976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1857,7 +1864,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="525817888"/>
+        <c:crossAx val="1000984960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2081,11 +2088,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="663989504"/>
-        <c:axId val="663977536"/>
+        <c:axId val="1000981696"/>
+        <c:axId val="1000982784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="663989504"/>
+        <c:axId val="1000981696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2128,7 +2135,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="663977536"/>
+        <c:crossAx val="1000982784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2136,7 +2143,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="663977536"/>
+        <c:axId val="1000982784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2187,7 +2194,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="663989504"/>
+        <c:crossAx val="1000981696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2411,11 +2418,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="663982432"/>
-        <c:axId val="663979712"/>
+        <c:axId val="1000985504"/>
+        <c:axId val="1000986048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="663982432"/>
+        <c:axId val="1000985504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2458,7 +2465,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="663979712"/>
+        <c:crossAx val="1000986048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2466,7 +2473,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="663979712"/>
+        <c:axId val="1000986048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2517,7 +2524,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="663982432"/>
+        <c:crossAx val="1000985504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3000,18 +3007,18 @@
       <c r="E3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="204" t="s">
+      <c r="F3" s="205" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="204"/>
-      <c r="H3" s="204"/>
-      <c r="I3" s="204"/>
-      <c r="J3" s="204" t="s">
+      <c r="G3" s="205"/>
+      <c r="H3" s="205"/>
+      <c r="I3" s="205"/>
+      <c r="J3" s="205" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="204"/>
-      <c r="L3" s="204"/>
-      <c r="M3" s="204"/>
+      <c r="K3" s="205"/>
+      <c r="L3" s="205"/>
+      <c r="M3" s="205"/>
       <c r="N3" s="10"/>
       <c r="O3" s="10"/>
       <c r="P3" s="10"/>
@@ -3024,12 +3031,12 @@
       <c r="U3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="V3" s="204" t="s">
+      <c r="V3" s="205" t="s">
         <v>65</v>
       </c>
-      <c r="W3" s="204"/>
-      <c r="X3" s="204"/>
-      <c r="Y3" s="204"/>
+      <c r="W3" s="205"/>
+      <c r="X3" s="205"/>
+      <c r="Y3" s="205"/>
     </row>
     <row r="4" spans="2:25" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8"/>
@@ -3137,10 +3144,10 @@
     </row>
     <row r="6" spans="2:25" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
-      <c r="C6" s="203" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="203"/>
+      <c r="C6" s="204" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="204"/>
       <c r="E6" s="3">
         <v>6337170</v>
       </c>
@@ -3177,10 +3184,10 @@
     </row>
     <row r="7" spans="2:25" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
-      <c r="C7" s="203" t="s">
+      <c r="C7" s="204" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="203"/>
+      <c r="D7" s="204"/>
       <c r="E7" s="3">
         <v>7943500</v>
       </c>
@@ -3286,10 +3293,10 @@
     </row>
     <row r="10" spans="2:25" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
-      <c r="C10" s="203" t="s">
+      <c r="C10" s="204" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="203"/>
+      <c r="D10" s="204"/>
       <c r="E10" s="3">
         <v>8864832</v>
       </c>
@@ -3326,10 +3333,10 @@
     </row>
     <row r="11" spans="2:25" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
-      <c r="C11" s="203" t="s">
+      <c r="C11" s="204" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="203"/>
+      <c r="D11" s="204"/>
       <c r="E11" s="3">
         <v>817056</v>
       </c>
@@ -3730,10 +3737,10 @@
       </c>
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="C21" s="203" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" s="203"/>
+      <c r="C21" s="204" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="204"/>
       <c r="E21" s="3">
         <v>376694285634</v>
       </c>
@@ -3751,10 +3758,10 @@
       </c>
     </row>
     <row r="22" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="C22" s="203" t="s">
+      <c r="C22" s="204" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="203"/>
+      <c r="D22" s="204"/>
       <c r="E22" s="3">
         <v>122092091111</v>
       </c>
@@ -3799,10 +3806,10 @@
       </c>
     </row>
     <row r="25" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="C25" s="203" t="s">
+      <c r="C25" s="204" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="203"/>
+      <c r="D25" s="204"/>
       <c r="E25" s="3">
         <v>104267201912</v>
       </c>
@@ -3820,10 +3827,10 @@
       </c>
     </row>
     <row r="26" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="203" t="s">
+      <c r="C26" s="204" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="203"/>
+      <c r="D26" s="204"/>
       <c r="E26" s="3">
         <v>10574595944</v>
       </c>
@@ -4066,10 +4073,10 @@
       </c>
     </row>
     <row r="36" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="C36" s="203" t="s">
-        <v>0</v>
-      </c>
-      <c r="D36" s="203"/>
+      <c r="C36" s="204" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" s="204"/>
       <c r="E36" s="3">
         <v>441621631299</v>
       </c>
@@ -4087,10 +4094,10 @@
       </c>
     </row>
     <row r="37" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="C37" s="203" t="s">
+      <c r="C37" s="204" t="s">
         <v>1</v>
       </c>
-      <c r="D37" s="203"/>
+      <c r="D37" s="204"/>
       <c r="E37" s="3">
         <v>177761450767</v>
       </c>
@@ -4147,10 +4154,10 @@
       </c>
     </row>
     <row r="40" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="C40" s="203" t="s">
+      <c r="C40" s="204" t="s">
         <v>7</v>
       </c>
-      <c r="D40" s="203"/>
+      <c r="D40" s="204"/>
       <c r="E40" s="3">
         <v>111683722179</v>
       </c>
@@ -4168,10 +4175,10 @@
       </c>
     </row>
     <row r="41" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="C41" s="203" t="s">
+      <c r="C41" s="204" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="203"/>
+      <c r="D41" s="204"/>
       <c r="E41" s="3">
         <v>53950225983</v>
       </c>
@@ -4439,10 +4446,10 @@
       </c>
     </row>
     <row r="51" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="C51" s="203" t="s">
-        <v>0</v>
-      </c>
-      <c r="D51" s="203"/>
+      <c r="C51" s="204" t="s">
+        <v>0</v>
+      </c>
+      <c r="D51" s="204"/>
       <c r="E51" s="3">
         <v>874017297803</v>
       </c>
@@ -4460,10 +4467,10 @@
       </c>
     </row>
     <row r="52" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="C52" s="203" t="s">
+      <c r="C52" s="204" t="s">
         <v>1</v>
       </c>
-      <c r="D52" s="203"/>
+      <c r="D52" s="204"/>
       <c r="E52" s="3">
         <v>979218045833</v>
       </c>
@@ -4520,10 +4527,10 @@
       </c>
     </row>
     <row r="55" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="C55" s="203" t="s">
+      <c r="C55" s="204" t="s">
         <v>7</v>
       </c>
-      <c r="D55" s="203"/>
+      <c r="D55" s="204"/>
       <c r="E55" s="3">
         <v>486053837459</v>
       </c>
@@ -4541,10 +4548,10 @@
       </c>
     </row>
     <row r="56" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="C56" s="203" t="s">
+      <c r="C56" s="204" t="s">
         <v>8</v>
       </c>
-      <c r="D56" s="203"/>
+      <c r="D56" s="204"/>
       <c r="E56" s="3">
         <v>83677063909</v>
       </c>
@@ -4680,11 +4687,6 @@
     <row r="61" spans="2:25" ht="13.5" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="V3:Y3"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C55:D55"/>
     <mergeCell ref="C56:D56"/>
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="J3:M3"/>
@@ -4699,6 +4701,11 @@
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="V3:Y3"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C55:D55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4848,54 +4855,54 @@
       <c r="B4" s="8"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
-      <c r="E4" s="205" t="s">
+      <c r="E4" s="206" t="s">
         <v>119</v>
       </c>
-      <c r="F4" s="205"/>
-      <c r="G4" s="205"/>
-      <c r="H4" s="205"/>
-      <c r="I4" s="204" t="s">
+      <c r="F4" s="206"/>
+      <c r="G4" s="206"/>
+      <c r="H4" s="206"/>
+      <c r="I4" s="205" t="s">
         <v>118</v>
       </c>
-      <c r="J4" s="204"/>
-      <c r="K4" s="204"/>
-      <c r="L4" s="204"/>
-      <c r="M4" s="204" t="s">
+      <c r="J4" s="205"/>
+      <c r="K4" s="205"/>
+      <c r="L4" s="205"/>
+      <c r="M4" s="205" t="s">
         <v>2</v>
       </c>
-      <c r="N4" s="204"/>
-      <c r="O4" s="204"/>
-      <c r="P4" s="204"/>
-      <c r="Q4" s="204" t="s">
+      <c r="N4" s="205"/>
+      <c r="O4" s="205"/>
+      <c r="P4" s="205"/>
+      <c r="Q4" s="205" t="s">
         <v>3</v>
       </c>
-      <c r="R4" s="204"/>
-      <c r="S4" s="204"/>
-      <c r="T4" s="204"/>
-      <c r="U4" s="204" t="s">
+      <c r="R4" s="205"/>
+      <c r="S4" s="205"/>
+      <c r="T4" s="205"/>
+      <c r="U4" s="205" t="s">
         <v>4</v>
       </c>
-      <c r="V4" s="204"/>
-      <c r="W4" s="204"/>
-      <c r="X4" s="204"/>
-      <c r="Y4" s="204" t="s">
+      <c r="V4" s="205"/>
+      <c r="W4" s="205"/>
+      <c r="X4" s="205"/>
+      <c r="Y4" s="205" t="s">
         <v>5</v>
       </c>
-      <c r="Z4" s="204"/>
-      <c r="AA4" s="204"/>
-      <c r="AB4" s="204"/>
-      <c r="AC4" s="204" t="s">
+      <c r="Z4" s="205"/>
+      <c r="AA4" s="205"/>
+      <c r="AB4" s="205"/>
+      <c r="AC4" s="205" t="s">
         <v>6</v>
       </c>
-      <c r="AD4" s="204"/>
-      <c r="AE4" s="204"/>
-      <c r="AF4" s="204"/>
-      <c r="AG4" s="204" t="s">
+      <c r="AD4" s="205"/>
+      <c r="AE4" s="205"/>
+      <c r="AF4" s="205"/>
+      <c r="AG4" s="205" t="s">
         <v>65</v>
       </c>
-      <c r="AH4" s="204"/>
-      <c r="AI4" s="204"/>
-      <c r="AJ4" s="204"/>
+      <c r="AH4" s="205"/>
+      <c r="AI4" s="205"/>
+      <c r="AJ4" s="205"/>
     </row>
     <row r="5" spans="2:36" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
@@ -5002,41 +5009,41 @@
     </row>
     <row r="6" spans="2:36" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
-      <c r="C6" s="203" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="203"/>
-      <c r="E6" s="175">
+      <c r="C6" s="204" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="204"/>
+      <c r="E6" s="169">
         <v>5698982</v>
       </c>
-      <c r="F6" s="175">
+      <c r="F6" s="169">
         <v>7474079</v>
       </c>
-      <c r="G6" s="175">
+      <c r="G6" s="169">
         <v>5771516</v>
       </c>
-      <c r="H6" s="175">
+      <c r="H6" s="169">
         <v>5035962</v>
       </c>
-      <c r="I6" s="175">
+      <c r="I6" s="169">
         <v>5828057</v>
       </c>
-      <c r="J6" s="175">
+      <c r="J6" s="169">
         <v>7071858</v>
       </c>
-      <c r="K6" s="175">
+      <c r="K6" s="169">
         <v>6118018</v>
       </c>
-      <c r="L6" s="175">
+      <c r="L6" s="169">
         <v>5862939</v>
       </c>
-      <c r="M6" s="175">
+      <c r="M6" s="169">
         <v>6956716</v>
       </c>
-      <c r="N6" s="175">
+      <c r="N6" s="169">
         <v>8505223</v>
       </c>
-      <c r="O6" s="175">
+      <c r="O6" s="169">
         <v>7520219</v>
       </c>
       <c r="P6" s="3">
@@ -5105,41 +5112,41 @@
     </row>
     <row r="7" spans="2:36" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
-      <c r="C7" s="203" t="s">
+      <c r="C7" s="204" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="203"/>
-      <c r="E7" s="175">
+      <c r="D7" s="204"/>
+      <c r="E7" s="169">
         <v>6296454</v>
       </c>
-      <c r="F7" s="175">
+      <c r="F7" s="169">
         <v>6460659</v>
       </c>
-      <c r="G7" s="175">
+      <c r="G7" s="169">
         <v>6650394</v>
       </c>
-      <c r="H7" s="175">
+      <c r="H7" s="169">
         <v>6949017</v>
       </c>
-      <c r="I7" s="175">
+      <c r="I7" s="169">
         <v>7078200</v>
       </c>
-      <c r="J7" s="175">
+      <c r="J7" s="169">
         <v>7121276</v>
       </c>
-      <c r="K7" s="175">
+      <c r="K7" s="169">
         <v>7222160</v>
       </c>
-      <c r="L7" s="175">
+      <c r="L7" s="169">
         <v>7485249</v>
       </c>
-      <c r="M7" s="175">
+      <c r="M7" s="169">
         <v>7357464</v>
       </c>
-      <c r="N7" s="175">
+      <c r="N7" s="169">
         <v>7451733</v>
       </c>
-      <c r="O7" s="175">
+      <c r="O7" s="169">
         <v>7649892</v>
       </c>
       <c r="P7" s="3">
@@ -5212,47 +5219,47 @@
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="176">
+      <c r="E8" s="170">
         <f>E6+E7</f>
         <v>11995436</v>
       </c>
-      <c r="F8" s="176">
+      <c r="F8" s="170">
         <f t="shared" ref="F8:M8" si="0">F6+F7</f>
         <v>13934738</v>
       </c>
-      <c r="G8" s="176">
+      <c r="G8" s="170">
         <f t="shared" si="0"/>
         <v>12421910</v>
       </c>
-      <c r="H8" s="176">
+      <c r="H8" s="170">
         <f t="shared" si="0"/>
         <v>11984979</v>
       </c>
-      <c r="I8" s="176">
+      <c r="I8" s="170">
         <f t="shared" si="0"/>
         <v>12906257</v>
       </c>
-      <c r="J8" s="176">
+      <c r="J8" s="170">
         <f t="shared" si="0"/>
         <v>14193134</v>
       </c>
-      <c r="K8" s="176">
+      <c r="K8" s="170">
         <f t="shared" si="0"/>
         <v>13340178</v>
       </c>
-      <c r="L8" s="176">
+      <c r="L8" s="170">
         <f t="shared" ref="L8" si="1">L6+L7</f>
         <v>13348188</v>
       </c>
-      <c r="M8" s="176">
+      <c r="M8" s="170">
         <f t="shared" si="0"/>
         <v>14314180</v>
       </c>
-      <c r="N8" s="176">
+      <c r="N8" s="170">
         <f t="shared" ref="N8" si="2">N6+N7</f>
         <v>15956956</v>
       </c>
-      <c r="O8" s="176">
+      <c r="O8" s="170">
         <f t="shared" ref="O8" si="3">O6+O7</f>
         <v>15170111</v>
       </c>
@@ -5345,17 +5352,17 @@
       <c r="B9" s="3"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="175"/>
-      <c r="F9" s="175"/>
-      <c r="G9" s="175"/>
-      <c r="H9" s="175"/>
-      <c r="I9" s="175"/>
-      <c r="J9" s="175"/>
-      <c r="K9" s="175"/>
-      <c r="L9" s="175"/>
-      <c r="M9" s="175"/>
-      <c r="N9" s="175"/>
-      <c r="O9" s="175"/>
+      <c r="E9" s="169"/>
+      <c r="F9" s="169"/>
+      <c r="G9" s="169"/>
+      <c r="H9" s="169"/>
+      <c r="I9" s="169"/>
+      <c r="J9" s="169"/>
+      <c r="K9" s="169"/>
+      <c r="L9" s="169"/>
+      <c r="M9" s="169"/>
+      <c r="N9" s="169"/>
+      <c r="O9" s="169"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
@@ -5380,41 +5387,41 @@
     </row>
     <row r="10" spans="2:36" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
-      <c r="C10" s="203" t="s">
+      <c r="C10" s="204" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="203"/>
-      <c r="E10" s="175">
+      <c r="D10" s="204"/>
+      <c r="E10" s="169">
         <v>6765866</v>
       </c>
-      <c r="F10" s="175">
+      <c r="F10" s="169">
         <v>9784421</v>
       </c>
-      <c r="G10" s="175">
+      <c r="G10" s="169">
         <v>6874980</v>
       </c>
-      <c r="H10" s="175">
+      <c r="H10" s="169">
         <v>7535896</v>
       </c>
-      <c r="I10" s="175">
+      <c r="I10" s="169">
         <v>6938544</v>
       </c>
-      <c r="J10" s="175">
+      <c r="J10" s="169">
         <v>9323573</v>
       </c>
-      <c r="K10" s="175">
+      <c r="K10" s="169">
         <v>7166964</v>
       </c>
-      <c r="L10" s="175">
+      <c r="L10" s="169">
         <v>8419442</v>
       </c>
-      <c r="M10" s="175">
+      <c r="M10" s="169">
         <v>7976721</v>
       </c>
-      <c r="N10" s="175">
+      <c r="N10" s="169">
         <v>10921740</v>
       </c>
-      <c r="O10" s="175">
+      <c r="O10" s="169">
         <v>8892043</v>
       </c>
       <c r="P10" s="3">
@@ -5483,41 +5490,41 @@
     </row>
     <row r="11" spans="2:36" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
-      <c r="C11" s="203" t="s">
+      <c r="C11" s="204" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="203"/>
-      <c r="E11" s="175">
+      <c r="D11" s="204"/>
+      <c r="E11" s="169">
         <v>385947</v>
       </c>
-      <c r="F11" s="175">
+      <c r="F11" s="169">
         <v>398159</v>
       </c>
-      <c r="G11" s="175">
+      <c r="G11" s="169">
         <v>441304</v>
       </c>
-      <c r="H11" s="175">
+      <c r="H11" s="169">
         <v>480718</v>
       </c>
-      <c r="I11" s="175">
+      <c r="I11" s="169">
         <v>567365</v>
       </c>
-      <c r="J11" s="175">
+      <c r="J11" s="169">
         <v>625726</v>
       </c>
-      <c r="K11" s="175">
+      <c r="K11" s="169">
         <v>662770</v>
       </c>
-      <c r="L11" s="175">
+      <c r="L11" s="169">
         <v>674076</v>
       </c>
-      <c r="M11" s="175">
+      <c r="M11" s="169">
         <v>721808</v>
       </c>
-      <c r="N11" s="175">
+      <c r="N11" s="169">
         <v>763285</v>
       </c>
-      <c r="O11" s="175">
+      <c r="O11" s="169">
         <v>805199</v>
       </c>
       <c r="P11" s="3">
@@ -5590,47 +5597,47 @@
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="176">
+      <c r="E12" s="170">
         <f>E10+E11</f>
         <v>7151813</v>
       </c>
-      <c r="F12" s="176">
+      <c r="F12" s="170">
         <f t="shared" ref="F12:M12" si="10">F10+F11</f>
         <v>10182580</v>
       </c>
-      <c r="G12" s="176">
+      <c r="G12" s="170">
         <f t="shared" si="10"/>
         <v>7316284</v>
       </c>
-      <c r="H12" s="176">
+      <c r="H12" s="170">
         <f t="shared" si="10"/>
         <v>8016614</v>
       </c>
-      <c r="I12" s="176">
+      <c r="I12" s="170">
         <f t="shared" si="10"/>
         <v>7505909</v>
       </c>
-      <c r="J12" s="176">
+      <c r="J12" s="170">
         <f t="shared" si="10"/>
         <v>9949299</v>
       </c>
-      <c r="K12" s="176">
+      <c r="K12" s="170">
         <f t="shared" si="10"/>
         <v>7829734</v>
       </c>
-      <c r="L12" s="176">
+      <c r="L12" s="170">
         <f t="shared" ref="L12" si="11">L10+L11</f>
         <v>9093518</v>
       </c>
-      <c r="M12" s="176">
+      <c r="M12" s="170">
         <f t="shared" si="10"/>
         <v>8698529</v>
       </c>
-      <c r="N12" s="176">
+      <c r="N12" s="170">
         <f t="shared" ref="N12:O12" si="12">N10+N11</f>
         <v>11685025</v>
       </c>
-      <c r="O12" s="176">
+      <c r="O12" s="170">
         <f t="shared" si="12"/>
         <v>9697242</v>
       </c>
@@ -5723,17 +5730,17 @@
       <c r="B13" s="3"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="175"/>
-      <c r="F13" s="175"/>
-      <c r="G13" s="175"/>
-      <c r="H13" s="175"/>
-      <c r="I13" s="175"/>
-      <c r="J13" s="175"/>
-      <c r="K13" s="175"/>
-      <c r="L13" s="175"/>
-      <c r="M13" s="175"/>
-      <c r="N13" s="175"/>
-      <c r="O13" s="175"/>
+      <c r="E13" s="169"/>
+      <c r="F13" s="169"/>
+      <c r="G13" s="169"/>
+      <c r="H13" s="169"/>
+      <c r="I13" s="169"/>
+      <c r="J13" s="169"/>
+      <c r="K13" s="169"/>
+      <c r="L13" s="169"/>
+      <c r="M13" s="169"/>
+      <c r="N13" s="169"/>
+      <c r="O13" s="169"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
@@ -5762,37 +5769,37 @@
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="176">
+      <c r="E14" s="170">
         <v>4843623</v>
       </c>
-      <c r="F14" s="176">
+      <c r="F14" s="170">
         <v>3752158</v>
       </c>
-      <c r="G14" s="176">
+      <c r="G14" s="170">
         <v>5105626</v>
       </c>
-      <c r="H14" s="176">
+      <c r="H14" s="170">
         <v>3968365</v>
       </c>
-      <c r="I14" s="176">
+      <c r="I14" s="170">
         <v>5400348</v>
       </c>
-      <c r="J14" s="176">
+      <c r="J14" s="170">
         <v>4243835</v>
       </c>
-      <c r="K14" s="176">
+      <c r="K14" s="170">
         <v>5510444</v>
       </c>
-      <c r="L14" s="176">
+      <c r="L14" s="170">
         <v>4254670</v>
       </c>
-      <c r="M14" s="176">
+      <c r="M14" s="170">
         <v>5615651</v>
       </c>
-      <c r="N14" s="176">
+      <c r="N14" s="170">
         <v>4271931</v>
       </c>
-      <c r="O14" s="176">
+      <c r="O14" s="170">
         <v>5472869</v>
       </c>
       <c r="P14" s="4">
@@ -5865,47 +5872,47 @@
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
-      <c r="E15" s="177">
+      <c r="E15" s="171">
         <f>E12+E14</f>
         <v>11995436</v>
       </c>
-      <c r="F15" s="177">
+      <c r="F15" s="171">
         <f t="shared" ref="F15:M15" si="18">F12+F14</f>
         <v>13934738</v>
       </c>
-      <c r="G15" s="177">
+      <c r="G15" s="171">
         <f t="shared" si="18"/>
         <v>12421910</v>
       </c>
-      <c r="H15" s="177">
+      <c r="H15" s="171">
         <f t="shared" si="18"/>
         <v>11984979</v>
       </c>
-      <c r="I15" s="177">
+      <c r="I15" s="171">
         <f t="shared" si="18"/>
         <v>12906257</v>
       </c>
-      <c r="J15" s="177">
+      <c r="J15" s="171">
         <f t="shared" si="18"/>
         <v>14193134</v>
       </c>
-      <c r="K15" s="177">
+      <c r="K15" s="171">
         <f t="shared" si="18"/>
         <v>13340178</v>
       </c>
-      <c r="L15" s="177">
+      <c r="L15" s="171">
         <f t="shared" ref="L15" si="19">L12+L14</f>
         <v>13348188</v>
       </c>
-      <c r="M15" s="177">
+      <c r="M15" s="171">
         <f t="shared" si="18"/>
         <v>14314180</v>
       </c>
-      <c r="N15" s="177">
+      <c r="N15" s="171">
         <f t="shared" ref="N15" si="20">N12+N14</f>
         <v>15956956</v>
       </c>
-      <c r="O15" s="177">
+      <c r="O15" s="171">
         <f t="shared" ref="O15" si="21">O12+O14</f>
         <v>15170111</v>
       </c>
@@ -6277,36 +6284,36 @@
       <c r="P19" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="Q19" s="204" t="s">
+      <c r="Q19" s="205" t="s">
         <v>3</v>
       </c>
-      <c r="R19" s="204"/>
-      <c r="S19" s="204"/>
-      <c r="T19" s="204"/>
-      <c r="U19" s="204" t="s">
+      <c r="R19" s="205"/>
+      <c r="S19" s="205"/>
+      <c r="T19" s="205"/>
+      <c r="U19" s="205" t="s">
         <v>4</v>
       </c>
-      <c r="V19" s="204"/>
-      <c r="W19" s="204"/>
-      <c r="X19" s="204"/>
-      <c r="Y19" s="204" t="s">
+      <c r="V19" s="205"/>
+      <c r="W19" s="205"/>
+      <c r="X19" s="205"/>
+      <c r="Y19" s="205" t="s">
         <v>5</v>
       </c>
-      <c r="Z19" s="204"/>
-      <c r="AA19" s="204"/>
-      <c r="AB19" s="204"/>
-      <c r="AC19" s="204" t="s">
+      <c r="Z19" s="205"/>
+      <c r="AA19" s="205"/>
+      <c r="AB19" s="205"/>
+      <c r="AC19" s="205" t="s">
         <v>6</v>
       </c>
-      <c r="AD19" s="204"/>
-      <c r="AE19" s="204"/>
-      <c r="AF19" s="204"/>
-      <c r="AG19" s="204" t="s">
+      <c r="AD19" s="205"/>
+      <c r="AE19" s="205"/>
+      <c r="AF19" s="205"/>
+      <c r="AG19" s="205" t="s">
         <v>65</v>
       </c>
-      <c r="AH19" s="204"/>
-      <c r="AI19" s="204"/>
-      <c r="AJ19" s="204"/>
+      <c r="AH19" s="205"/>
+      <c r="AI19" s="205"/>
+      <c r="AJ19" s="205"/>
     </row>
     <row r="20" spans="2:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
@@ -6391,10 +6398,10 @@
       </c>
     </row>
     <row r="21" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="C21" s="203" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" s="203"/>
+      <c r="C21" s="204" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="204"/>
       <c r="P21" s="3">
         <v>376694285634</v>
       </c>
@@ -6460,10 +6467,10 @@
       </c>
     </row>
     <row r="22" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="C22" s="203" t="s">
+      <c r="C22" s="204" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="203"/>
+      <c r="D22" s="204"/>
       <c r="P22" s="3">
         <v>122092091111</v>
       </c>
@@ -6631,10 +6638,10 @@
       </c>
     </row>
     <row r="25" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="C25" s="203" t="s">
+      <c r="C25" s="204" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="203"/>
+      <c r="D25" s="204"/>
       <c r="P25" s="3">
         <v>104267201912</v>
       </c>
@@ -6700,10 +6707,10 @@
       </c>
     </row>
     <row r="26" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="203" t="s">
+      <c r="C26" s="204" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="203"/>
+      <c r="D26" s="204"/>
       <c r="P26" s="3">
         <v>10574595944</v>
       </c>
@@ -7255,36 +7262,36 @@
       <c r="P34" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="Q34" s="204" t="s">
+      <c r="Q34" s="205" t="s">
         <v>3</v>
       </c>
-      <c r="R34" s="204"/>
-      <c r="S34" s="204"/>
-      <c r="T34" s="204"/>
-      <c r="U34" s="204" t="s">
+      <c r="R34" s="205"/>
+      <c r="S34" s="205"/>
+      <c r="T34" s="205"/>
+      <c r="U34" s="205" t="s">
         <v>4</v>
       </c>
-      <c r="V34" s="204"/>
-      <c r="W34" s="204"/>
-      <c r="X34" s="204"/>
-      <c r="Y34" s="204" t="s">
+      <c r="V34" s="205"/>
+      <c r="W34" s="205"/>
+      <c r="X34" s="205"/>
+      <c r="Y34" s="205" t="s">
         <v>5</v>
       </c>
-      <c r="Z34" s="204"/>
-      <c r="AA34" s="204"/>
-      <c r="AB34" s="204"/>
-      <c r="AC34" s="204" t="s">
+      <c r="Z34" s="205"/>
+      <c r="AA34" s="205"/>
+      <c r="AB34" s="205"/>
+      <c r="AC34" s="205" t="s">
         <v>6</v>
       </c>
-      <c r="AD34" s="204"/>
-      <c r="AE34" s="204"/>
-      <c r="AF34" s="204"/>
-      <c r="AG34" s="204" t="s">
+      <c r="AD34" s="205"/>
+      <c r="AE34" s="205"/>
+      <c r="AF34" s="205"/>
+      <c r="AG34" s="205" t="s">
         <v>65</v>
       </c>
-      <c r="AH34" s="204"/>
-      <c r="AI34" s="204"/>
-      <c r="AJ34" s="204"/>
+      <c r="AH34" s="205"/>
+      <c r="AI34" s="205"/>
+      <c r="AJ34" s="205"/>
     </row>
     <row r="35" spans="2:36" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="12" t="s">
@@ -7362,10 +7369,10 @@
       </c>
     </row>
     <row r="36" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="C36" s="203" t="s">
-        <v>0</v>
-      </c>
-      <c r="D36" s="203"/>
+      <c r="C36" s="204" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" s="204"/>
       <c r="P36" s="3">
         <v>441621631299</v>
       </c>
@@ -7431,10 +7438,10 @@
       </c>
     </row>
     <row r="37" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="C37" s="203" t="s">
+      <c r="C37" s="204" t="s">
         <v>1</v>
       </c>
-      <c r="D37" s="203"/>
+      <c r="D37" s="204"/>
       <c r="P37" s="3">
         <v>177761450767</v>
       </c>
@@ -7602,10 +7609,10 @@
       </c>
     </row>
     <row r="40" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="C40" s="203" t="s">
+      <c r="C40" s="204" t="s">
         <v>7</v>
       </c>
-      <c r="D40" s="203"/>
+      <c r="D40" s="204"/>
       <c r="P40" s="3">
         <v>111683722179</v>
       </c>
@@ -7671,10 +7678,10 @@
       </c>
     </row>
     <row r="41" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="C41" s="203" t="s">
+      <c r="C41" s="204" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="203"/>
+      <c r="D41" s="204"/>
       <c r="P41" s="3">
         <v>53950225983</v>
       </c>
@@ -8215,36 +8222,36 @@
       <c r="P49" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="Q49" s="204" t="s">
+      <c r="Q49" s="205" t="s">
         <v>3</v>
       </c>
-      <c r="R49" s="204"/>
-      <c r="S49" s="204"/>
-      <c r="T49" s="204"/>
-      <c r="U49" s="204" t="s">
+      <c r="R49" s="205"/>
+      <c r="S49" s="205"/>
+      <c r="T49" s="205"/>
+      <c r="U49" s="205" t="s">
         <v>4</v>
       </c>
-      <c r="V49" s="204"/>
-      <c r="W49" s="204"/>
-      <c r="X49" s="204"/>
-      <c r="Y49" s="204" t="s">
+      <c r="V49" s="205"/>
+      <c r="W49" s="205"/>
+      <c r="X49" s="205"/>
+      <c r="Y49" s="205" t="s">
         <v>5</v>
       </c>
-      <c r="Z49" s="204"/>
-      <c r="AA49" s="204"/>
-      <c r="AB49" s="204"/>
-      <c r="AC49" s="204" t="s">
+      <c r="Z49" s="205"/>
+      <c r="AA49" s="205"/>
+      <c r="AB49" s="205"/>
+      <c r="AC49" s="205" t="s">
         <v>6</v>
       </c>
-      <c r="AD49" s="204"/>
-      <c r="AE49" s="204"/>
-      <c r="AF49" s="204"/>
-      <c r="AG49" s="204" t="s">
+      <c r="AD49" s="205"/>
+      <c r="AE49" s="205"/>
+      <c r="AF49" s="205"/>
+      <c r="AG49" s="205" t="s">
         <v>65</v>
       </c>
-      <c r="AH49" s="204"/>
-      <c r="AI49" s="204"/>
-      <c r="AJ49" s="204"/>
+      <c r="AH49" s="205"/>
+      <c r="AI49" s="205"/>
+      <c r="AJ49" s="205"/>
     </row>
     <row r="50" spans="2:36" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="12" t="s">
@@ -8329,10 +8336,10 @@
       </c>
     </row>
     <row r="51" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="C51" s="203" t="s">
-        <v>0</v>
-      </c>
-      <c r="D51" s="203"/>
+      <c r="C51" s="204" t="s">
+        <v>0</v>
+      </c>
+      <c r="D51" s="204"/>
       <c r="P51" s="3">
         <v>874017297803</v>
       </c>
@@ -8398,10 +8405,10 @@
       </c>
     </row>
     <row r="52" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="C52" s="203" t="s">
+      <c r="C52" s="204" t="s">
         <v>1</v>
       </c>
-      <c r="D52" s="203"/>
+      <c r="D52" s="204"/>
       <c r="P52" s="3">
         <v>979218045833</v>
       </c>
@@ -8569,10 +8576,10 @@
       </c>
     </row>
     <row r="55" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="C55" s="203" t="s">
+      <c r="C55" s="204" t="s">
         <v>7</v>
       </c>
-      <c r="D55" s="203"/>
+      <c r="D55" s="204"/>
       <c r="P55" s="3">
         <v>486053837459</v>
       </c>
@@ -8638,10 +8645,10 @@
       </c>
     </row>
     <row r="56" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="C56" s="203" t="s">
+      <c r="C56" s="204" t="s">
         <v>8</v>
       </c>
-      <c r="D56" s="203"/>
+      <c r="D56" s="204"/>
       <c r="P56" s="3">
         <v>83677063909</v>
       </c>
@@ -9010,36 +9017,36 @@
       <c r="P64" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="Q64" s="204" t="s">
+      <c r="Q64" s="205" t="s">
         <v>3</v>
       </c>
-      <c r="R64" s="204"/>
-      <c r="S64" s="204"/>
-      <c r="T64" s="204"/>
-      <c r="U64" s="204" t="s">
+      <c r="R64" s="205"/>
+      <c r="S64" s="205"/>
+      <c r="T64" s="205"/>
+      <c r="U64" s="205" t="s">
         <v>4</v>
       </c>
-      <c r="V64" s="204"/>
-      <c r="W64" s="204"/>
-      <c r="X64" s="204"/>
-      <c r="Y64" s="204" t="s">
+      <c r="V64" s="205"/>
+      <c r="W64" s="205"/>
+      <c r="X64" s="205"/>
+      <c r="Y64" s="205" t="s">
         <v>5</v>
       </c>
-      <c r="Z64" s="204"/>
-      <c r="AA64" s="204"/>
-      <c r="AB64" s="204"/>
-      <c r="AC64" s="204" t="s">
+      <c r="Z64" s="205"/>
+      <c r="AA64" s="205"/>
+      <c r="AB64" s="205"/>
+      <c r="AC64" s="205" t="s">
         <v>6</v>
       </c>
-      <c r="AD64" s="204"/>
-      <c r="AE64" s="204"/>
-      <c r="AF64" s="204"/>
-      <c r="AG64" s="204" t="s">
+      <c r="AD64" s="205"/>
+      <c r="AE64" s="205"/>
+      <c r="AF64" s="205"/>
+      <c r="AG64" s="205" t="s">
         <v>65</v>
       </c>
-      <c r="AH64" s="204"/>
-      <c r="AI64" s="204"/>
-      <c r="AJ64" s="204"/>
+      <c r="AH64" s="205"/>
+      <c r="AI64" s="205"/>
+      <c r="AJ64" s="205"/>
     </row>
     <row r="65" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B65" s="12" t="s">
@@ -9124,19 +9131,19 @@
       </c>
     </row>
     <row r="66" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="C66" s="203" t="s">
-        <v>0</v>
-      </c>
-      <c r="D66" s="203"/>
+      <c r="C66" s="204" t="s">
+        <v>0</v>
+      </c>
+      <c r="D66" s="204"/>
       <c r="T66" s="3">
         <v>2089896826583</v>
       </c>
     </row>
     <row r="67" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="C67" s="203" t="s">
+      <c r="C67" s="204" t="s">
         <v>1</v>
       </c>
-      <c r="D67" s="203"/>
+      <c r="D67" s="204"/>
       <c r="T67" s="3">
         <v>1121337831987</v>
       </c>
@@ -9164,19 +9171,19 @@
       </c>
     </row>
     <row r="70" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="C70" s="203" t="s">
+      <c r="C70" s="204" t="s">
         <v>7</v>
       </c>
-      <c r="D70" s="203"/>
+      <c r="D70" s="204"/>
       <c r="T70" s="3">
         <v>1291021571370</v>
       </c>
     </row>
     <row r="71" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="C71" s="203" t="s">
+      <c r="C71" s="204" t="s">
         <v>8</v>
       </c>
-      <c r="D71" s="203"/>
+      <c r="D71" s="204"/>
       <c r="T71" s="3">
         <v>143583834900</v>
       </c>
@@ -9369,6 +9376,38 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="Q49:T49"/>
+    <mergeCell ref="Q34:T34"/>
+    <mergeCell ref="U34:X34"/>
+    <mergeCell ref="Y34:AB34"/>
+    <mergeCell ref="Q19:T19"/>
+    <mergeCell ref="U19:X19"/>
+    <mergeCell ref="AC34:AF34"/>
+    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="U4:X4"/>
+    <mergeCell ref="Y4:AB4"/>
+    <mergeCell ref="AC4:AF4"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="Q64:T64"/>
+    <mergeCell ref="AG4:AJ4"/>
+    <mergeCell ref="U64:X64"/>
+    <mergeCell ref="Y64:AB64"/>
+    <mergeCell ref="AC64:AF64"/>
+    <mergeCell ref="AG64:AJ64"/>
+    <mergeCell ref="AG19:AJ19"/>
+    <mergeCell ref="AG34:AJ34"/>
+    <mergeCell ref="AG49:AJ49"/>
+    <mergeCell ref="AC49:AF49"/>
+    <mergeCell ref="Y49:AB49"/>
+    <mergeCell ref="U49:X49"/>
+    <mergeCell ref="AC19:AF19"/>
+    <mergeCell ref="Y19:AB19"/>
     <mergeCell ref="M4:P4"/>
     <mergeCell ref="I4:L4"/>
     <mergeCell ref="E4:H4"/>
@@ -9385,38 +9424,6 @@
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="Q64:T64"/>
-    <mergeCell ref="AG4:AJ4"/>
-    <mergeCell ref="U64:X64"/>
-    <mergeCell ref="Y64:AB64"/>
-    <mergeCell ref="AC64:AF64"/>
-    <mergeCell ref="AG64:AJ64"/>
-    <mergeCell ref="AG19:AJ19"/>
-    <mergeCell ref="AG34:AJ34"/>
-    <mergeCell ref="AG49:AJ49"/>
-    <mergeCell ref="AC49:AF49"/>
-    <mergeCell ref="Y49:AB49"/>
-    <mergeCell ref="U49:X49"/>
-    <mergeCell ref="AC19:AF19"/>
-    <mergeCell ref="Y19:AB19"/>
-    <mergeCell ref="AC34:AF34"/>
-    <mergeCell ref="Q4:T4"/>
-    <mergeCell ref="U4:X4"/>
-    <mergeCell ref="Y4:AB4"/>
-    <mergeCell ref="AC4:AF4"/>
-    <mergeCell ref="Q49:T49"/>
-    <mergeCell ref="Q34:T34"/>
-    <mergeCell ref="U34:X34"/>
-    <mergeCell ref="Y34:AB34"/>
-    <mergeCell ref="Q19:T19"/>
-    <mergeCell ref="U19:X19"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9465,18 +9472,18 @@
       <c r="L1" s="110"/>
       <c r="M1" s="110"/>
       <c r="N1" s="94"/>
-      <c r="O1" s="212" t="s">
+      <c r="O1" s="208" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="213"/>
-      <c r="Q1" s="213"/>
-      <c r="R1" s="213"/>
-      <c r="S1" s="214" t="s">
+      <c r="P1" s="209"/>
+      <c r="Q1" s="209"/>
+      <c r="R1" s="209"/>
+      <c r="S1" s="210" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="215"/>
-      <c r="U1" s="215"/>
-      <c r="V1" s="215"/>
+      <c r="T1" s="211"/>
+      <c r="U1" s="211"/>
+      <c r="V1" s="211"/>
       <c r="W1" s="99"/>
       <c r="X1" s="99"/>
       <c r="Y1" s="99"/>
@@ -9660,40 +9667,40 @@
       <c r="A6" s="113"/>
       <c r="B6" s="114"/>
       <c r="C6" s="114" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="114" t="s">
         <v>121</v>
       </c>
-      <c r="D6" s="114" t="s">
+      <c r="E6" s="114" t="s">
         <v>122</v>
       </c>
-      <c r="E6" s="114" t="s">
+      <c r="F6" s="114" t="s">
         <v>123</v>
       </c>
-      <c r="F6" s="114" t="s">
+      <c r="G6" s="114" t="s">
         <v>124</v>
       </c>
-      <c r="G6" s="114" t="s">
+      <c r="H6" s="114" t="s">
         <v>125</v>
       </c>
-      <c r="H6" s="114" t="s">
+      <c r="I6" s="114" t="s">
         <v>126</v>
       </c>
-      <c r="I6" s="114" t="s">
+      <c r="J6" s="114" t="s">
         <v>127</v>
       </c>
-      <c r="J6" s="114" t="s">
+      <c r="K6" s="114" t="s">
         <v>128</v>
       </c>
-      <c r="K6" s="114" t="s">
+      <c r="L6" s="114" t="s">
         <v>129</v>
       </c>
-      <c r="L6" s="114" t="s">
+      <c r="M6" s="114" t="s">
         <v>130</v>
       </c>
-      <c r="M6" s="114" t="s">
+      <c r="N6" s="114" t="s">
         <v>131</v>
-      </c>
-      <c r="N6" s="114" t="s">
-        <v>132</v>
       </c>
       <c r="O6" s="96" t="s">
         <v>66</v>
@@ -9757,10 +9764,10 @@
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A7" s="206" t="s">
+      <c r="A7" s="213" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="206"/>
+      <c r="B7" s="213"/>
       <c r="C7" s="150">
         <v>6604058</v>
       </c>
@@ -9859,10 +9866,10 @@
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A8" s="207" t="s">
+      <c r="A8" s="215" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="207"/>
+      <c r="B8" s="215"/>
       <c r="C8" s="152">
         <v>-3288189</v>
       </c>
@@ -10095,10 +10102,10 @@
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A10" s="207" t="s">
+      <c r="A10" s="215" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="207"/>
+      <c r="B10" s="215"/>
       <c r="C10" s="152">
         <v>-1394600</v>
       </c>
@@ -10197,10 +10204,10 @@
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A11" s="207" t="s">
+      <c r="A11" s="215" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="207"/>
+      <c r="B11" s="215"/>
       <c r="C11" s="152">
         <v>-351614</v>
       </c>
@@ -10299,10 +10306,10 @@
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A12" s="207" t="s">
+      <c r="A12" s="215" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="207"/>
+      <c r="B12" s="215"/>
       <c r="C12" s="152">
         <f>2326+3538</f>
         <v>5864</v>
@@ -10538,10 +10545,10 @@
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A14" s="207" t="s">
+      <c r="A14" s="215" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="207"/>
+      <c r="B14" s="215"/>
       <c r="C14" s="152">
         <v>3930</v>
       </c>
@@ -10640,10 +10647,10 @@
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A15" s="207" t="s">
+      <c r="A15" s="215" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="207"/>
+      <c r="B15" s="215"/>
       <c r="C15" s="152">
         <v>-25454</v>
       </c>
@@ -10876,10 +10883,10 @@
       </c>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A17" s="207" t="s">
+      <c r="A17" s="215" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="207"/>
+      <c r="B17" s="215"/>
       <c r="C17" s="152">
         <v>-391309</v>
       </c>
@@ -11112,10 +11119,10 @@
       </c>
     </row>
     <row r="19" spans="1:34" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="208" t="s">
+      <c r="A19" s="216" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="208"/>
+      <c r="B19" s="216"/>
       <c r="C19" s="153"/>
       <c r="D19" s="153"/>
       <c r="E19" s="153"/>
@@ -11150,10 +11157,10 @@
       <c r="AH19" s="102"/>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A20" s="207" t="s">
+      <c r="A20" s="215" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="207"/>
+      <c r="B20" s="215"/>
       <c r="C20" s="152"/>
       <c r="D20" s="152"/>
       <c r="E20" s="152"/>
@@ -11312,10 +11319,10 @@
       </c>
     </row>
     <row r="23" spans="1:34" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="208" t="s">
+      <c r="A23" s="216" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="208"/>
+      <c r="B23" s="216"/>
       <c r="C23" s="153"/>
       <c r="D23" s="153"/>
       <c r="E23" s="153"/>
@@ -11413,10 +11420,10 @@
       </c>
     </row>
     <row r="24" spans="1:34" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="208" t="s">
+      <c r="A24" s="216" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="208"/>
+      <c r="B24" s="216"/>
       <c r="C24" s="153"/>
       <c r="D24" s="153"/>
       <c r="E24" s="153"/>
@@ -11514,10 +11521,10 @@
       </c>
     </row>
     <row r="25" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="209" t="s">
+      <c r="A25" s="217" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="209"/>
+      <c r="B25" s="217"/>
       <c r="C25" s="154"/>
       <c r="D25" s="154"/>
       <c r="E25" s="154"/>
@@ -11574,10 +11581,10 @@
       </c>
     </row>
     <row r="26" spans="1:34" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="208" t="s">
+      <c r="A26" s="216" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="208"/>
+      <c r="B26" s="216"/>
       <c r="C26" s="153"/>
       <c r="D26" s="153"/>
       <c r="E26" s="153"/>
@@ -11611,7 +11618,7 @@
       <c r="AG26" s="102"/>
       <c r="AH26" s="102"/>
     </row>
-    <row r="27" spans="1:34" s="181" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" s="175" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A27" s="152"/>
       <c r="B27" s="154" t="s">
         <v>28</v>
@@ -11647,67 +11654,67 @@
         <v>373</v>
       </c>
       <c r="M27" s="154"/>
-      <c r="N27" s="178">
+      <c r="N27" s="172">
         <v>752</v>
       </c>
-      <c r="O27" s="178">
+      <c r="O27" s="172">
         <v>209</v>
       </c>
-      <c r="P27" s="178">
+      <c r="P27" s="172">
         <v>384</v>
       </c>
-      <c r="Q27" s="178">
+      <c r="Q27" s="172">
         <v>548</v>
       </c>
-      <c r="R27" s="178">
+      <c r="R27" s="172">
         <v>766</v>
       </c>
-      <c r="S27" s="179">
+      <c r="S27" s="173">
         <v>206</v>
       </c>
-      <c r="T27" s="179">
+      <c r="T27" s="173">
         <v>432</v>
       </c>
-      <c r="U27" s="179">
+      <c r="U27" s="173">
         <v>623</v>
       </c>
-      <c r="V27" s="179">
+      <c r="V27" s="173">
         <v>838</v>
       </c>
-      <c r="W27" s="180">
+      <c r="W27" s="174">
         <v>257</v>
       </c>
-      <c r="X27" s="180">
+      <c r="X27" s="174">
         <v>475</v>
       </c>
-      <c r="Y27" s="180">
+      <c r="Y27" s="174">
         <v>685</v>
       </c>
-      <c r="Z27" s="180">
+      <c r="Z27" s="174">
         <v>918</v>
       </c>
-      <c r="AA27" s="179">
+      <c r="AA27" s="173">
         <v>240</v>
       </c>
-      <c r="AB27" s="179">
+      <c r="AB27" s="173">
         <v>463</v>
       </c>
-      <c r="AC27" s="179">
+      <c r="AC27" s="173">
         <v>957</v>
       </c>
-      <c r="AD27" s="179">
+      <c r="AD27" s="173">
         <v>1194</v>
       </c>
-      <c r="AE27" s="180">
+      <c r="AE27" s="174">
         <v>229</v>
       </c>
-      <c r="AF27" s="180">
+      <c r="AF27" s="174">
         <v>485</v>
       </c>
-      <c r="AG27" s="180">
+      <c r="AG27" s="174">
         <v>722</v>
       </c>
-      <c r="AH27" s="180">
+      <c r="AH27" s="174">
         <v>1194</v>
       </c>
     </row>
@@ -11904,10 +11911,10 @@
       </c>
     </row>
     <row r="34" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A34" s="206" t="s">
+      <c r="A34" s="213" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="206"/>
+      <c r="B34" s="213"/>
       <c r="C34" s="150"/>
       <c r="D34" s="150"/>
       <c r="E34" s="150"/>
@@ -11984,10 +11991,10 @@
       </c>
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A35" s="206" t="s">
+      <c r="A35" s="213" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="206"/>
+      <c r="B35" s="213"/>
       <c r="C35" s="150"/>
       <c r="D35" s="150"/>
       <c r="E35" s="150"/>
@@ -12165,10 +12172,10 @@
       </c>
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A37" s="206" t="s">
+      <c r="A37" s="213" t="s">
         <v>12</v>
       </c>
-      <c r="B37" s="206"/>
+      <c r="B37" s="213"/>
       <c r="C37" s="150"/>
       <c r="D37" s="150"/>
       <c r="E37" s="150"/>
@@ -12245,10 +12252,10 @@
       </c>
     </row>
     <row r="38" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A38" s="206" t="s">
+      <c r="A38" s="213" t="s">
         <v>13</v>
       </c>
-      <c r="B38" s="206"/>
+      <c r="B38" s="213"/>
       <c r="C38" s="150"/>
       <c r="D38" s="150"/>
       <c r="E38" s="150"/>
@@ -12325,10 +12332,10 @@
       </c>
     </row>
     <row r="39" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A39" s="206" t="s">
+      <c r="A39" s="213" t="s">
         <v>89</v>
       </c>
-      <c r="B39" s="206"/>
+      <c r="B39" s="213"/>
       <c r="C39" s="150"/>
       <c r="D39" s="150"/>
       <c r="E39" s="150"/>
@@ -12399,10 +12406,10 @@
       </c>
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A40" s="206" t="s">
+      <c r="A40" s="213" t="s">
         <v>90</v>
       </c>
-      <c r="B40" s="206"/>
+      <c r="B40" s="213"/>
       <c r="C40" s="150"/>
       <c r="D40" s="150"/>
       <c r="E40" s="150"/>
@@ -12584,10 +12591,10 @@
       </c>
     </row>
     <row r="42" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A42" s="206" t="s">
+      <c r="A42" s="213" t="s">
         <v>15</v>
       </c>
-      <c r="B42" s="206"/>
+      <c r="B42" s="213"/>
       <c r="C42" s="150"/>
       <c r="D42" s="150"/>
       <c r="E42" s="150"/>
@@ -12664,10 +12671,10 @@
       </c>
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A43" s="206" t="s">
+      <c r="A43" s="213" t="s">
         <v>16</v>
       </c>
-      <c r="B43" s="206"/>
+      <c r="B43" s="213"/>
       <c r="C43" s="150"/>
       <c r="D43" s="150"/>
       <c r="E43" s="150"/>
@@ -12846,10 +12853,10 @@
       </c>
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A45" s="206" t="s">
+      <c r="A45" s="213" t="s">
         <v>18</v>
       </c>
-      <c r="B45" s="206"/>
+      <c r="B45" s="213"/>
       <c r="C45" s="150"/>
       <c r="D45" s="150"/>
       <c r="E45" s="150"/>
@@ -13027,10 +13034,10 @@
       </c>
     </row>
     <row r="47" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A47" s="210" t="s">
+      <c r="A47" s="212" t="s">
         <v>21</v>
       </c>
-      <c r="B47" s="210"/>
+      <c r="B47" s="212"/>
       <c r="C47" s="149"/>
       <c r="D47" s="149"/>
       <c r="E47" s="149"/>
@@ -13065,10 +13072,10 @@
       <c r="AH47" s="82"/>
     </row>
     <row r="48" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A48" s="206" t="s">
+      <c r="A48" s="213" t="s">
         <v>22</v>
       </c>
-      <c r="B48" s="206"/>
+      <c r="B48" s="213"/>
       <c r="C48" s="150"/>
       <c r="D48" s="150"/>
       <c r="E48" s="150"/>
@@ -13128,10 +13135,10 @@
       </c>
     </row>
     <row r="51" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A51" s="210" t="s">
+      <c r="A51" s="212" t="s">
         <v>25</v>
       </c>
-      <c r="B51" s="210"/>
+      <c r="B51" s="212"/>
       <c r="C51" s="149"/>
       <c r="D51" s="149"/>
       <c r="E51" s="149"/>
@@ -13184,10 +13191,10 @@
       </c>
     </row>
     <row r="52" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A52" s="210" t="s">
+      <c r="A52" s="212" t="s">
         <v>26</v>
       </c>
-      <c r="B52" s="210"/>
+      <c r="B52" s="212"/>
       <c r="C52" s="149"/>
       <c r="D52" s="149"/>
       <c r="E52" s="149"/>
@@ -13240,10 +13247,10 @@
       </c>
     </row>
     <row r="53" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A53" s="211" t="s">
+      <c r="A53" s="207" t="s">
         <v>29</v>
       </c>
-      <c r="B53" s="211"/>
+      <c r="B53" s="207"/>
       <c r="N53" s="97">
         <v>0</v>
       </c>
@@ -13264,10 +13271,10 @@
       </c>
     </row>
     <row r="54" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A54" s="210" t="s">
+      <c r="A54" s="212" t="s">
         <v>27</v>
       </c>
-      <c r="B54" s="210"/>
+      <c r="B54" s="212"/>
       <c r="C54" s="149"/>
       <c r="D54" s="149"/>
       <c r="E54" s="149"/>
@@ -13534,10 +13541,10 @@
       </c>
     </row>
     <row r="61" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A61" s="206" t="s">
+      <c r="A61" s="213" t="s">
         <v>9</v>
       </c>
-      <c r="B61" s="206"/>
+      <c r="B61" s="213"/>
       <c r="C61" s="150"/>
       <c r="D61" s="150"/>
       <c r="E61" s="150"/>
@@ -13614,10 +13621,10 @@
       </c>
     </row>
     <row r="62" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A62" s="206" t="s">
+      <c r="A62" s="213" t="s">
         <v>10</v>
       </c>
-      <c r="B62" s="206"/>
+      <c r="B62" s="213"/>
       <c r="C62" s="150"/>
       <c r="D62" s="150"/>
       <c r="E62" s="150"/>
@@ -13795,10 +13802,10 @@
       </c>
     </row>
     <row r="64" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A64" s="206" t="s">
+      <c r="A64" s="213" t="s">
         <v>12</v>
       </c>
-      <c r="B64" s="206"/>
+      <c r="B64" s="213"/>
       <c r="C64" s="150"/>
       <c r="D64" s="150"/>
       <c r="E64" s="150"/>
@@ -13875,10 +13882,10 @@
       </c>
     </row>
     <row r="65" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A65" s="206" t="s">
+      <c r="A65" s="213" t="s">
         <v>13</v>
       </c>
-      <c r="B65" s="206"/>
+      <c r="B65" s="213"/>
       <c r="C65" s="150"/>
       <c r="D65" s="150"/>
       <c r="E65" s="150"/>
@@ -13955,10 +13962,10 @@
       </c>
     </row>
     <row r="66" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A66" s="206" t="s">
+      <c r="A66" s="213" t="s">
         <v>91</v>
       </c>
-      <c r="B66" s="206"/>
+      <c r="B66" s="213"/>
       <c r="C66" s="150"/>
       <c r="D66" s="150"/>
       <c r="E66" s="150"/>
@@ -14040,10 +14047,10 @@
       </c>
     </row>
     <row r="67" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A67" s="206" t="s">
+      <c r="A67" s="213" t="s">
         <v>92</v>
       </c>
-      <c r="B67" s="206"/>
+      <c r="B67" s="213"/>
       <c r="C67" s="150"/>
       <c r="D67" s="150"/>
       <c r="E67" s="150"/>
@@ -14210,10 +14217,10 @@
       </c>
     </row>
     <row r="69" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A69" s="206" t="s">
+      <c r="A69" s="213" t="s">
         <v>15</v>
       </c>
-      <c r="B69" s="206"/>
+      <c r="B69" s="213"/>
       <c r="C69" s="150"/>
       <c r="D69" s="150"/>
       <c r="E69" s="150"/>
@@ -14290,10 +14297,10 @@
       </c>
     </row>
     <row r="70" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A70" s="206" t="s">
+      <c r="A70" s="213" t="s">
         <v>16</v>
       </c>
-      <c r="B70" s="206"/>
+      <c r="B70" s="213"/>
       <c r="C70" s="150"/>
       <c r="D70" s="150"/>
       <c r="E70" s="150"/>
@@ -14471,10 +14478,10 @@
       </c>
     </row>
     <row r="72" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A72" s="206" t="s">
+      <c r="A72" s="213" t="s">
         <v>18</v>
       </c>
-      <c r="B72" s="206"/>
+      <c r="B72" s="213"/>
       <c r="C72" s="150"/>
       <c r="D72" s="150"/>
       <c r="E72" s="150"/>
@@ -14652,10 +14659,10 @@
       </c>
     </row>
     <row r="74" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A74" s="210" t="s">
+      <c r="A74" s="212" t="s">
         <v>21</v>
       </c>
-      <c r="B74" s="210"/>
+      <c r="B74" s="212"/>
       <c r="C74" s="149"/>
       <c r="D74" s="149"/>
       <c r="E74" s="149"/>
@@ -14690,10 +14697,10 @@
       <c r="AH74" s="82"/>
     </row>
     <row r="75" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A75" s="206" t="s">
+      <c r="A75" s="213" t="s">
         <v>22</v>
       </c>
-      <c r="B75" s="206"/>
+      <c r="B75" s="213"/>
       <c r="C75" s="150"/>
       <c r="D75" s="150"/>
       <c r="E75" s="150"/>
@@ -14753,10 +14760,10 @@
       </c>
     </row>
     <row r="78" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A78" s="210" t="s">
+      <c r="A78" s="212" t="s">
         <v>25</v>
       </c>
-      <c r="B78" s="210"/>
+      <c r="B78" s="212"/>
       <c r="C78" s="149"/>
       <c r="D78" s="149"/>
       <c r="E78" s="149"/>
@@ -14809,10 +14816,10 @@
       </c>
     </row>
     <row r="79" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A79" s="210" t="s">
+      <c r="A79" s="212" t="s">
         <v>26</v>
       </c>
-      <c r="B79" s="210"/>
+      <c r="B79" s="212"/>
       <c r="C79" s="149"/>
       <c r="D79" s="149"/>
       <c r="E79" s="149"/>
@@ -14865,10 +14872,10 @@
       </c>
     </row>
     <row r="80" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A80" s="211" t="s">
+      <c r="A80" s="207" t="s">
         <v>29</v>
       </c>
-      <c r="B80" s="211"/>
+      <c r="B80" s="207"/>
       <c r="N80" s="97">
         <v>0</v>
       </c>
@@ -14889,10 +14896,10 @@
       </c>
     </row>
     <row r="81" spans="1:34" s="136" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="216" t="s">
+      <c r="A81" s="214" t="s">
         <v>27</v>
       </c>
-      <c r="B81" s="216"/>
+      <c r="B81" s="214"/>
       <c r="C81" s="151"/>
       <c r="D81" s="151"/>
       <c r="E81" s="151"/>
@@ -15183,10 +15190,10 @@
       </c>
     </row>
     <row r="88" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A88" s="206" t="s">
+      <c r="A88" s="213" t="s">
         <v>9</v>
       </c>
-      <c r="B88" s="206"/>
+      <c r="B88" s="213"/>
       <c r="C88" s="150"/>
       <c r="D88" s="150"/>
       <c r="E88" s="150"/>
@@ -15263,10 +15270,10 @@
       </c>
     </row>
     <row r="89" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A89" s="206" t="s">
+      <c r="A89" s="213" t="s">
         <v>10</v>
       </c>
-      <c r="B89" s="206"/>
+      <c r="B89" s="213"/>
       <c r="C89" s="150"/>
       <c r="D89" s="150"/>
       <c r="E89" s="150"/>
@@ -15474,10 +15481,10 @@
       </c>
     </row>
     <row r="91" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A91" s="206" t="s">
+      <c r="A91" s="213" t="s">
         <v>12</v>
       </c>
-      <c r="B91" s="206"/>
+      <c r="B91" s="213"/>
       <c r="C91" s="150"/>
       <c r="D91" s="150"/>
       <c r="E91" s="150"/>
@@ -15554,10 +15561,10 @@
       </c>
     </row>
     <row r="92" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A92" s="206" t="s">
+      <c r="A92" s="213" t="s">
         <v>13</v>
       </c>
-      <c r="B92" s="206"/>
+      <c r="B92" s="213"/>
       <c r="C92" s="150"/>
       <c r="D92" s="150"/>
       <c r="E92" s="150"/>
@@ -15634,10 +15641,10 @@
       </c>
     </row>
     <row r="93" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A93" s="206" t="s">
+      <c r="A93" s="213" t="s">
         <v>42</v>
       </c>
-      <c r="B93" s="206"/>
+      <c r="B93" s="213"/>
       <c r="C93" s="150"/>
       <c r="D93" s="150"/>
       <c r="E93" s="150"/>
@@ -15800,10 +15807,10 @@
       </c>
     </row>
     <row r="95" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A95" s="211" t="s">
+      <c r="A95" s="207" t="s">
         <v>87</v>
       </c>
-      <c r="B95" s="211"/>
+      <c r="B95" s="207"/>
       <c r="N95" s="97">
         <v>-15067625957</v>
       </c>
@@ -16002,10 +16009,10 @@
       </c>
     </row>
     <row r="97" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A97" s="206" t="s">
+      <c r="A97" s="213" t="s">
         <v>18</v>
       </c>
-      <c r="B97" s="206"/>
+      <c r="B97" s="213"/>
       <c r="C97" s="150"/>
       <c r="D97" s="150"/>
       <c r="E97" s="150"/>
@@ -16213,10 +16220,10 @@
       </c>
     </row>
     <row r="99" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A99" s="210" t="s">
+      <c r="A99" s="212" t="s">
         <v>21</v>
       </c>
-      <c r="B99" s="210"/>
+      <c r="B99" s="212"/>
       <c r="C99" s="149"/>
       <c r="D99" s="149"/>
       <c r="E99" s="149"/>
@@ -16251,10 +16258,10 @@
       <c r="AH99" s="82"/>
     </row>
     <row r="100" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A100" s="206" t="s">
+      <c r="A100" s="213" t="s">
         <v>22</v>
       </c>
-      <c r="B100" s="206"/>
+      <c r="B100" s="213"/>
       <c r="C100" s="150"/>
       <c r="D100" s="150"/>
       <c r="E100" s="150"/>
@@ -16308,10 +16315,10 @@
       </c>
     </row>
     <row r="103" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A103" s="210" t="s">
+      <c r="A103" s="212" t="s">
         <v>25</v>
       </c>
-      <c r="B103" s="210"/>
+      <c r="B103" s="212"/>
       <c r="C103" s="149"/>
       <c r="D103" s="149"/>
       <c r="E103" s="149"/>
@@ -16361,10 +16368,10 @@
       <c r="AH103" s="82"/>
     </row>
     <row r="104" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A104" s="210" t="s">
+      <c r="A104" s="212" t="s">
         <v>26</v>
       </c>
-      <c r="B104" s="210"/>
+      <c r="B104" s="212"/>
       <c r="C104" s="149"/>
       <c r="D104" s="149"/>
       <c r="E104" s="149"/>
@@ -16414,10 +16421,10 @@
       <c r="AH104" s="82"/>
     </row>
     <row r="105" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A105" s="211" t="s">
+      <c r="A105" s="207" t="s">
         <v>29</v>
       </c>
-      <c r="B105" s="211"/>
+      <c r="B105" s="207"/>
       <c r="N105" s="97">
         <v>0</v>
       </c>
@@ -16435,10 +16442,10 @@
       </c>
     </row>
     <row r="106" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A106" s="210" t="s">
+      <c r="A106" s="212" t="s">
         <v>27</v>
       </c>
-      <c r="B106" s="210"/>
+      <c r="B106" s="212"/>
       <c r="C106" s="149"/>
       <c r="D106" s="149"/>
       <c r="E106" s="149"/>
@@ -16516,6 +16523,49 @@
     </row>
   </sheetData>
   <mergeCells count="59">
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A78:B78"/>
     <mergeCell ref="A95:B95"/>
     <mergeCell ref="O1:R1"/>
     <mergeCell ref="S1:V1"/>
@@ -16532,49 +16582,6 @@
     <mergeCell ref="A79:B79"/>
     <mergeCell ref="A80:B80"/>
     <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -16605,54 +16612,54 @@
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B3" s="217" t="s">
-        <v>141</v>
-      </c>
-      <c r="C3" s="217"/>
-      <c r="D3" s="217"/>
-      <c r="E3" s="217"/>
-      <c r="F3" s="217" t="s">
+      <c r="B3" s="218" t="s">
         <v>140</v>
       </c>
-      <c r="G3" s="217"/>
-      <c r="H3" s="217"/>
-      <c r="I3" s="217"/>
-      <c r="J3" s="217" t="s">
+      <c r="C3" s="218"/>
+      <c r="D3" s="218"/>
+      <c r="E3" s="218"/>
+      <c r="F3" s="218" t="s">
         <v>139</v>
       </c>
-      <c r="K3" s="217"/>
-      <c r="L3" s="217"/>
-      <c r="M3" s="217"/>
-      <c r="N3" s="217" t="s">
+      <c r="G3" s="218"/>
+      <c r="H3" s="218"/>
+      <c r="I3" s="218"/>
+      <c r="J3" s="218" t="s">
+        <v>138</v>
+      </c>
+      <c r="K3" s="218"/>
+      <c r="L3" s="218"/>
+      <c r="M3" s="218"/>
+      <c r="N3" s="218" t="s">
         <v>94</v>
       </c>
-      <c r="O3" s="217"/>
-      <c r="P3" s="217"/>
-      <c r="Q3" s="217"/>
-      <c r="R3" s="217" t="s">
+      <c r="O3" s="218"/>
+      <c r="P3" s="218"/>
+      <c r="Q3" s="218"/>
+      <c r="R3" s="218" t="s">
         <v>98</v>
       </c>
-      <c r="S3" s="217"/>
-      <c r="T3" s="217"/>
-      <c r="U3" s="217"/>
-      <c r="V3" s="217" t="s">
+      <c r="S3" s="218"/>
+      <c r="T3" s="218"/>
+      <c r="U3" s="218"/>
+      <c r="V3" s="218" t="s">
         <v>97</v>
       </c>
-      <c r="W3" s="217"/>
-      <c r="X3" s="217"/>
-      <c r="Y3" s="217"/>
-      <c r="Z3" s="217" t="s">
+      <c r="W3" s="218"/>
+      <c r="X3" s="218"/>
+      <c r="Y3" s="218"/>
+      <c r="Z3" s="218" t="s">
         <v>96</v>
       </c>
-      <c r="AA3" s="217"/>
-      <c r="AB3" s="217"/>
-      <c r="AC3" s="217"/>
-      <c r="AD3" s="217" t="s">
+      <c r="AA3" s="218"/>
+      <c r="AB3" s="218"/>
+      <c r="AC3" s="218"/>
+      <c r="AD3" s="218" t="s">
         <v>95</v>
       </c>
-      <c r="AE3" s="217"/>
-      <c r="AF3" s="217"/>
-      <c r="AG3" s="217"/>
+      <c r="AE3" s="218"/>
+      <c r="AF3" s="218"/>
+      <c r="AG3" s="218"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="137" t="s">
@@ -17062,18 +17069,18 @@
       <c r="A8" s="143" t="s">
         <v>100</v>
       </c>
-      <c r="B8" s="193"/>
-      <c r="C8" s="193"/>
-      <c r="D8" s="193"/>
-      <c r="E8" s="193"/>
-      <c r="F8" s="193"/>
-      <c r="G8" s="193"/>
-      <c r="H8" s="193"/>
-      <c r="I8" s="193"/>
-      <c r="J8" s="193"/>
-      <c r="K8" s="193"/>
-      <c r="L8" s="193"/>
-      <c r="M8" s="193"/>
+      <c r="B8" s="187"/>
+      <c r="C8" s="187"/>
+      <c r="D8" s="187"/>
+      <c r="E8" s="187"/>
+      <c r="F8" s="187"/>
+      <c r="G8" s="187"/>
+      <c r="H8" s="187"/>
+      <c r="I8" s="187"/>
+      <c r="J8" s="187"/>
+      <c r="K8" s="187"/>
+      <c r="L8" s="187"/>
+      <c r="M8" s="187"/>
       <c r="N8" s="144">
         <f>BALANCE_SHEET!Q12/BALANCE_SHEET!Q8</f>
         <v>0.57094670291948157</v>
@@ -19200,14 +19207,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="AD3:AG3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="F3:I3"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="N3:Q3"/>
     <mergeCell ref="R3:U3"/>
     <mergeCell ref="V3:Y3"/>
     <mergeCell ref="Z3:AC3"/>
-    <mergeCell ref="AD3:AG3"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="F3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -19216,1031 +19223,1003 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P35"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="158"/>
-    <col min="4" max="5" width="9.140625" style="171"/>
-    <col min="6" max="6" width="11.5703125" style="199" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="199" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" style="201"/>
-    <col min="10" max="11" width="9.140625" style="173"/>
-    <col min="12" max="12" width="10.5703125" style="197" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="197" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="9.140625" style="194"/>
+    <col min="1" max="3" width="9.140625" style="232"/>
+    <col min="4" max="4" width="11.5703125" style="224" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="224" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="225"/>
+    <col min="8" max="8" width="10.5703125" style="226" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="226" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="227"/>
+    <col min="11" max="11" width="9.140625" style="233"/>
+    <col min="12" max="16384" width="9.140625" style="234"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="158" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="236" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="169" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="169" t="s">
+    <row r="3" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="169" t="s">
+      <c r="B3" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="169" t="s">
-        <v>120</v>
-      </c>
-      <c r="D3" s="172" t="s">
-        <v>101</v>
-      </c>
-      <c r="E3" s="172" t="s">
-        <v>103</v>
-      </c>
-      <c r="F3" s="200" t="s">
+      <c r="D3" s="228" t="s">
+        <v>144</v>
+      </c>
+      <c r="E3" s="228" t="s">
         <v>145</v>
       </c>
-      <c r="G3" s="200" t="s">
-        <v>146</v>
-      </c>
-      <c r="H3" s="202" t="s">
+      <c r="F3" s="229" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="202"/>
-      <c r="J3" s="174"/>
-      <c r="K3" s="174"/>
-      <c r="L3" s="198" t="s">
+      <c r="G3" s="229"/>
+      <c r="H3" s="230" t="s">
+        <v>141</v>
+      </c>
+      <c r="I3" s="230" t="s">
         <v>142</v>
       </c>
-      <c r="M3" s="198" t="s">
-        <v>143</v>
-      </c>
-      <c r="N3" s="195" t="s">
+      <c r="J3" s="231" t="s">
         <v>49</v>
       </c>
-      <c r="P3" s="195" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="170" t="s">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="235" t="s">
         <v>119</v>
       </c>
-      <c r="B4" s="158" t="s">
+      <c r="B4" s="232" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="199">
+      <c r="D4" s="224">
         <f>(BALANCE_SHEET!E$12)</f>
         <v>7151813</v>
       </c>
-      <c r="G4" s="199">
+      <c r="E4" s="224">
         <f>(BALANCE_SHEET!E$14)</f>
         <v>4843623</v>
       </c>
-      <c r="H4" s="201">
+      <c r="F4" s="225">
         <f>((BALANCE_SHEET!E$12)/(BALANCE_SHEET!E$14))</f>
         <v>1.476542043012018</v>
       </c>
-      <c r="L4" s="197">
+      <c r="H4" s="226">
         <f>INCOME_STATEMENT!C18</f>
         <v>1162686</v>
       </c>
-      <c r="M4" s="197">
+      <c r="I4" s="226">
         <f>BALANCE_SHEET!E8</f>
         <v>11995436</v>
       </c>
-      <c r="N4" s="194">
+      <c r="J4" s="227">
         <f>INCOME_STATEMENT!C18/BALANCE_SHEET!E8</f>
         <v>9.6927364707710503E-2</v>
       </c>
-      <c r="P4" s="196"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="158" t="s">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="232" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="199">
+      <c r="D5" s="224">
         <f>(BALANCE_SHEET!F$12)</f>
         <v>10182580</v>
       </c>
-      <c r="G5" s="199">
+      <c r="E5" s="224">
         <f>(BALANCE_SHEET!F$14)</f>
         <v>3752158</v>
       </c>
-      <c r="H5" s="201">
+      <c r="F5" s="225">
         <f>((BALANCE_SHEET!F$12)/(BALANCE_SHEET!F$14))</f>
         <v>2.7137929692726157</v>
       </c>
-      <c r="L5" s="197">
+      <c r="H5" s="226">
         <f>INCOME_STATEMENT!D18</f>
         <v>2329701</v>
       </c>
-      <c r="M5" s="197">
+      <c r="I5" s="226">
         <f>BALANCE_SHEET!F8</f>
         <v>13934738</v>
       </c>
-      <c r="N5" s="194">
+      <c r="J5" s="227">
         <f>INCOME_STATEMENT!D18/BALANCE_SHEET!F8</f>
         <v>0.16718656640691773</v>
       </c>
-      <c r="P5" s="196"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="158" t="s">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="232" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="199">
+      <c r="D6" s="224">
         <f>(BALANCE_SHEET!G$12)</f>
         <v>7316284</v>
       </c>
-      <c r="G6" s="199">
+      <c r="E6" s="224">
         <f>(BALANCE_SHEET!G$14)</f>
         <v>5105626</v>
       </c>
-      <c r="H6" s="201">
+      <c r="F6" s="225">
         <f>((BALANCE_SHEET!G$12)/(BALANCE_SHEET!G$14))</f>
         <v>1.4329847113752554</v>
       </c>
-      <c r="L6" s="197">
+      <c r="H6" s="226">
         <f>INCOME_STATEMENT!E18</f>
         <v>3653568</v>
       </c>
-      <c r="M6" s="197">
+      <c r="I6" s="226">
         <f>BALANCE_SHEET!G8</f>
         <v>12421910</v>
       </c>
-      <c r="N6" s="194">
+      <c r="J6" s="227">
         <f>INCOME_STATEMENT!E18/BALANCE_SHEET!G8</f>
         <v>0.29412288448394813</v>
       </c>
-      <c r="P6" s="196"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="158" t="s">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="232" t="s">
         <v>93</v>
       </c>
-      <c r="F7" s="199">
+      <c r="D7" s="224">
         <f>(BALANCE_SHEET!H$12)</f>
         <v>8016614</v>
       </c>
-      <c r="G7" s="199">
+      <c r="E7" s="224">
         <f>(BALANCE_SHEET!H$14)</f>
         <v>3968365</v>
       </c>
-      <c r="H7" s="201">
+      <c r="F7" s="225">
         <f>((BALANCE_SHEET!H$12)/(BALANCE_SHEET!H$14))</f>
         <v>2.020130204756871</v>
       </c>
-      <c r="L7" s="197">
+      <c r="H7" s="226">
         <f>INCOME_STATEMENT!F18</f>
         <v>4839145</v>
       </c>
-      <c r="M7" s="197">
+      <c r="I7" s="226">
         <f>BALANCE_SHEET!H8</f>
         <v>11984979</v>
       </c>
-      <c r="N7" s="194">
+      <c r="J7" s="227">
         <f>INCOME_STATEMENT!F18/BALANCE_SHEET!H8</f>
         <v>0.40376749930058281</v>
       </c>
-      <c r="P7" s="196"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="170" t="s">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="235" t="s">
         <v>118</v>
       </c>
-      <c r="B8" s="158" t="s">
+      <c r="B8" s="232" t="s">
         <v>62</v>
       </c>
-      <c r="F8" s="199">
+      <c r="D8" s="224">
         <f>(BALANCE_SHEET!I$12)</f>
         <v>7505909</v>
       </c>
-      <c r="G8" s="199">
+      <c r="E8" s="224">
         <f>(BALANCE_SHEET!I$14)</f>
         <v>5400348</v>
       </c>
-      <c r="H8" s="201">
+      <c r="F8" s="225">
         <f>((BALANCE_SHEET!I$12)/(BALANCE_SHEET!I$14))</f>
         <v>1.3898935772287266</v>
       </c>
-      <c r="L8" s="197">
+      <c r="H8" s="226">
         <f>INCOME_STATEMENT!G18</f>
         <v>9822451</v>
       </c>
-      <c r="M8" s="197">
+      <c r="I8" s="226">
         <f>BALANCE_SHEET!I8</f>
         <v>12906257</v>
       </c>
-      <c r="N8" s="194">
+      <c r="J8" s="227">
         <f>INCOME_STATEMENT!G18/BALANCE_SHEET!I8</f>
         <v>0.76106116591355655</v>
       </c>
-      <c r="P8" s="196"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="158" t="s">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="232" t="s">
         <v>63</v>
       </c>
-      <c r="F9" s="199">
+      <c r="D9" s="224">
         <f>(BALANCE_SHEET!J$12)</f>
         <v>9949299</v>
       </c>
-      <c r="G9" s="199">
+      <c r="E9" s="224">
         <f>(BALANCE_SHEET!J$14)</f>
         <v>4243835</v>
       </c>
-      <c r="H9" s="201">
+      <c r="F9" s="225">
         <f>((BALANCE_SHEET!J$12)/(BALANCE_SHEET!J$14))</f>
         <v>2.3444123063219942</v>
       </c>
-      <c r="L9" s="197">
+      <c r="H9" s="226">
         <f>INCOME_STATEMENT!H18</f>
         <v>2823890</v>
       </c>
-      <c r="M9" s="197">
+      <c r="I9" s="226">
         <f>BALANCE_SHEET!J8</f>
         <v>14193134</v>
       </c>
-      <c r="N9" s="194">
+      <c r="J9" s="227">
         <f>INCOME_STATEMENT!H18/BALANCE_SHEET!J8</f>
         <v>0.19896169514076315</v>
       </c>
-      <c r="P9" s="196"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="158" t="s">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="232" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="199">
+      <c r="D10" s="224">
         <f>(BALANCE_SHEET!K$12)</f>
         <v>7829734</v>
       </c>
-      <c r="G10" s="199">
+      <c r="E10" s="224">
         <f>(BALANCE_SHEET!K$14)</f>
         <v>5510444</v>
       </c>
-      <c r="H10" s="201">
+      <c r="F10" s="225">
         <f>((BALANCE_SHEET!K$12)/(BALANCE_SHEET!K$14))</f>
         <v>1.4208898593289396</v>
       </c>
-      <c r="L10" s="197">
+      <c r="H10" s="226">
         <f>INCOME_STATEMENT!I18</f>
         <v>4090499</v>
       </c>
-      <c r="M10" s="197">
+      <c r="I10" s="226">
         <f>BALANCE_SHEET!K8</f>
         <v>13340178</v>
       </c>
-      <c r="N10" s="194">
+      <c r="J10" s="227">
         <f>INCOME_STATEMENT!I18/BALANCE_SHEET!K8</f>
         <v>0.30663001648103944</v>
       </c>
-      <c r="P10" s="196"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="158" t="s">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="232" t="s">
         <v>93</v>
       </c>
-      <c r="F11" s="199">
+      <c r="D11" s="224">
         <f>(BALANCE_SHEET!L$12)</f>
         <v>9093518</v>
       </c>
-      <c r="G11" s="199">
+      <c r="E11" s="224">
         <f>(BALANCE_SHEET!L$14)</f>
         <v>4254670</v>
       </c>
-      <c r="H11" s="201">
+      <c r="F11" s="225">
         <f>((BALANCE_SHEET!L$12)/(BALANCE_SHEET!L$14))</f>
         <v>2.1373027755384082</v>
       </c>
-      <c r="L11" s="197">
+      <c r="H11" s="226">
         <f>INCOME_STATEMENT!J18</f>
         <v>5352625</v>
       </c>
-      <c r="M11" s="197">
+      <c r="I11" s="226">
         <f>BALANCE_SHEET!L8</f>
         <v>13348188</v>
       </c>
-      <c r="N11" s="194">
+      <c r="J11" s="227">
         <f>INCOME_STATEMENT!J18/BALANCE_SHEET!L8</f>
         <v>0.40100012076545521</v>
       </c>
-      <c r="P11" s="196"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="170" t="s">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="235" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="158" t="s">
+      <c r="B12" s="232" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="199">
+      <c r="D12" s="224">
         <f>(BALANCE_SHEET!M$12)</f>
         <v>8698529</v>
       </c>
-      <c r="G12" s="199">
+      <c r="E12" s="224">
         <f>(BALANCE_SHEET!M$14)</f>
         <v>5615651</v>
       </c>
-      <c r="H12" s="201">
+      <c r="F12" s="225">
         <f>((BALANCE_SHEET!M12)/(BALANCE_SHEET!M$14))</f>
         <v>1.548979628541731</v>
       </c>
-      <c r="L12" s="197">
+      <c r="H12" s="226">
         <f>INCOME_STATEMENT!K18</f>
         <v>1360981</v>
       </c>
-      <c r="M12" s="197">
+      <c r="I12" s="226">
         <f>BALANCE_SHEET!M8</f>
         <v>14314180</v>
       </c>
-      <c r="N12" s="194">
+      <c r="J12" s="227">
         <f>INCOME_STATEMENT!K18/BALANCE_SHEET!M8</f>
         <v>9.5079215155880387E-2</v>
       </c>
-      <c r="P12" s="196"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="158" t="s">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="232" t="s">
         <v>63</v>
       </c>
-      <c r="F13" s="199">
+      <c r="D13" s="224">
         <f>(BALANCE_SHEET!N$12)</f>
         <v>11685025</v>
       </c>
-      <c r="G13" s="199">
+      <c r="E13" s="224">
         <f>(BALANCE_SHEET!N$14)</f>
         <v>4271931</v>
       </c>
-      <c r="H13" s="201">
+      <c r="F13" s="225">
         <f>((BALANCE_SHEET!N$12)/(BALANCE_SHEET!N$14))</f>
         <v>2.7353028407996289</v>
       </c>
-      <c r="L13" s="197">
+      <c r="H13" s="226">
         <f>INCOME_STATEMENT!L18</f>
         <v>2847991</v>
       </c>
-      <c r="M13" s="197">
+      <c r="I13" s="226">
         <f>BALANCE_SHEET!N8</f>
         <v>15956956</v>
       </c>
-      <c r="N13" s="194">
+      <c r="J13" s="227">
         <f>INCOME_STATEMENT!L18/BALANCE_SHEET!N8</f>
         <v>0.17847959222297788</v>
       </c>
-      <c r="P13" s="196"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="158" t="s">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="232" t="s">
         <v>64</v>
       </c>
-      <c r="F14" s="199">
+      <c r="D14" s="224">
         <f>(BALANCE_SHEET!O$12)</f>
         <v>9697242</v>
       </c>
-      <c r="G14" s="199">
+      <c r="E14" s="224">
         <f>(BALANCE_SHEET!O$14)</f>
         <v>5472869</v>
       </c>
-      <c r="H14" s="201">
+      <c r="F14" s="225">
         <f>((BALANCE_SHEET!O$12)/(BALANCE_SHEET!O$14))</f>
         <v>1.7718754094059259</v>
       </c>
-      <c r="L14" s="197">
+      <c r="H14" s="226">
         <f>INCOME_STATEMENT!M18</f>
         <v>4048929</v>
       </c>
-      <c r="M14" s="197">
+      <c r="I14" s="226">
         <f>BALANCE_SHEET!O8</f>
         <v>15170111</v>
       </c>
-      <c r="N14" s="194">
+      <c r="J14" s="227">
         <f>INCOME_STATEMENT!M18/BALANCE_SHEET!O8</f>
         <v>0.26690173855682403</v>
       </c>
-      <c r="P14" s="196"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="158" t="s">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="232" t="s">
         <v>93</v>
       </c>
-      <c r="F15" s="199">
+      <c r="D15" s="224">
         <f>(BALANCE_SHEET!P$12)</f>
         <v>9681888</v>
       </c>
-      <c r="G15" s="199">
+      <c r="E15" s="224">
         <f>(BALANCE_SHEET!P$14)</f>
         <v>4598782</v>
       </c>
-      <c r="H15" s="201">
+      <c r="F15" s="225">
         <f>((BALANCE_SHEET!P$12)/(BALANCE_SHEET!P$14))</f>
         <v>2.1053157118558783</v>
       </c>
-      <c r="L15" s="197">
+      <c r="H15" s="226">
         <f>INCOME_STATEMENT!N18</f>
         <v>5738523</v>
       </c>
-      <c r="M15" s="197">
+      <c r="I15" s="226">
         <f>BALANCE_SHEET!P8</f>
         <v>14280670</v>
       </c>
-      <c r="N15" s="194">
+      <c r="J15" s="227">
         <f>INCOME_STATEMENT!N18/BALANCE_SHEET!P8</f>
         <v>0.40183849917405834</v>
       </c>
-      <c r="P15" s="196"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="170" t="s">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="235" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="158" t="s">
+      <c r="B16" s="232" t="s">
         <v>62</v>
       </c>
-      <c r="F16" s="199">
+      <c r="D16" s="224">
         <f>(BALANCE_SHEET!Q$12)</f>
         <v>8434341</v>
       </c>
-      <c r="G16" s="199">
+      <c r="E16" s="224">
         <f>(BALANCE_SHEET!Q$14)</f>
         <v>6338213</v>
       </c>
-      <c r="H16" s="201">
+      <c r="F16" s="225">
         <f>((BALANCE_SHEET!Q$12)/(BALANCE_SHEET!Q$14))</f>
         <v>1.3307127734583866</v>
       </c>
-      <c r="L16" s="197">
+      <c r="H16" s="226">
         <f>INCOME_STATEMENT!O18</f>
         <v>1591699</v>
       </c>
-      <c r="M16" s="197">
+      <c r="I16" s="226">
         <f>BALANCE_SHEET!Q8</f>
         <v>14772554</v>
       </c>
-      <c r="N16" s="194">
+      <c r="J16" s="227">
         <f>INCOME_STATEMENT!O18/BALANCE_SHEET!Q8</f>
         <v>0.10774704225146173</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="158" t="s">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="232" t="s">
         <v>63</v>
       </c>
-      <c r="F17" s="199">
+      <c r="D17" s="224">
         <f>(BALANCE_SHEET!R$12)</f>
         <v>11983104</v>
       </c>
-      <c r="G17" s="199">
+      <c r="E17" s="224">
         <f>(BALANCE_SHEET!R$14)</f>
         <v>4503074</v>
       </c>
-      <c r="H17" s="201">
+      <c r="F17" s="225">
         <f>((BALANCE_SHEET!R$12)/(BALANCE_SHEET!R$14))</f>
         <v>2.6610941769999781</v>
       </c>
-      <c r="L17" s="197">
+      <c r="H17" s="226">
         <f>INCOME_STATEMENT!P18</f>
         <v>2930640</v>
       </c>
-      <c r="M17" s="197">
+      <c r="I17" s="226">
         <f>BALANCE_SHEET!R8</f>
         <v>16486178</v>
       </c>
-      <c r="N17" s="194">
+      <c r="J17" s="227">
         <f>INCOME_STATEMENT!P18/BALANCE_SHEET!R8</f>
         <v>0.17776345736410221</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="158" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="232" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="199">
+      <c r="D18" s="224">
         <f>(BALANCE_SHEET!S$12)</f>
         <v>10229164</v>
       </c>
-      <c r="G18" s="199">
+      <c r="E18" s="224">
         <f>(BALANCE_SHEET!S$14)</f>
         <v>5755607</v>
       </c>
-      <c r="H18" s="201">
+      <c r="F18" s="225">
         <f>((BALANCE_SHEET!S$12)/(BALANCE_SHEET!S$14))</f>
         <v>1.7772519909715865</v>
       </c>
-      <c r="L18" s="197">
+      <c r="H18" s="226">
         <f>INCOME_STATEMENT!Q18</f>
         <v>4183173</v>
       </c>
-      <c r="M18" s="197">
+      <c r="I18" s="226">
         <f>BALANCE_SHEET!S8</f>
         <v>15984771</v>
       </c>
-      <c r="N18" s="194">
+      <c r="J18" s="227">
         <f>INCOME_STATEMENT!Q18/BALANCE_SHEET!S8</f>
         <v>0.26169739935592445</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="158" t="s">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="232" t="s">
         <v>93</v>
       </c>
-      <c r="F19" s="199">
+      <c r="D19" s="224">
         <f>(BALANCE_SHEET!T$12)</f>
         <v>10902585</v>
       </c>
-      <c r="G19" s="199">
+      <c r="E19" s="224">
         <f>(BALANCE_SHEET!T$14)</f>
         <v>4827360</v>
       </c>
-      <c r="H19" s="201">
+      <c r="F19" s="225">
         <f>((BALANCE_SHEET!T$12)/(BALANCE_SHEET!T$14))</f>
         <v>2.2584984339266181</v>
       </c>
-      <c r="L19" s="197">
+      <c r="H19" s="226">
         <f>INCOME_STATEMENT!R18</f>
         <v>5851805</v>
       </c>
-      <c r="M19" s="197">
+      <c r="I19" s="226">
         <f>BALANCE_SHEET!T8</f>
         <v>15729945</v>
       </c>
-      <c r="N19" s="194">
+      <c r="J19" s="227">
         <f>INCOME_STATEMENT!R18/BALANCE_SHEET!T8</f>
         <v>0.37201687609206519</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="170" t="s">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="235" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="158" t="s">
+      <c r="B20" s="232" t="s">
         <v>62</v>
       </c>
-      <c r="F20" s="199">
+      <c r="D20" s="224">
         <f>(BALANCE_SHEET!U$12)</f>
         <v>10255900</v>
       </c>
-      <c r="G20" s="199">
+      <c r="E20" s="224">
         <f>(BALANCE_SHEET!U$14)</f>
         <v>6397400</v>
       </c>
-      <c r="H20" s="201">
+      <c r="F20" s="225">
         <f>((BALANCE_SHEET!U$12)/(BALANCE_SHEET!U$14))</f>
         <v>1.6031356488573483</v>
       </c>
-      <c r="L20" s="197">
+      <c r="H20" s="226">
         <f>INCOME_STATEMENT!S18</f>
         <v>1570040</v>
       </c>
-      <c r="M20" s="197">
+      <c r="I20" s="226">
         <f>BALANCE_SHEET!U8</f>
         <v>16653300</v>
       </c>
-      <c r="N20" s="194">
+      <c r="J20" s="227">
         <f>INCOME_STATEMENT!S18/BALANCE_SHEET!U8</f>
         <v>9.4278010964793768E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="158" t="s">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="232" t="s">
         <v>63</v>
       </c>
-      <c r="F21" s="199">
+      <c r="D21" s="224">
         <f>(BALANCE_SHEET!V$12)</f>
         <v>14029689</v>
       </c>
-      <c r="G21" s="199">
+      <c r="E21" s="224">
         <f>(BALANCE_SHEET!V$14)</f>
         <v>4890447</v>
       </c>
-      <c r="H21" s="201">
+      <c r="F21" s="225">
         <f>((BALANCE_SHEET!V$12)/(BALANCE_SHEET!V$14))</f>
         <v>2.8687948156886272</v>
       </c>
-      <c r="L21" s="197">
+      <c r="H21" s="226">
         <f>INCOME_STATEMENT!T18</f>
         <v>3298307</v>
       </c>
-      <c r="M21" s="197">
+      <c r="I21" s="226">
         <f>BALANCE_SHEET!V8</f>
         <v>18920136</v>
       </c>
-      <c r="N21" s="194">
+      <c r="J21" s="227">
         <f>INCOME_STATEMENT!T18/BALANCE_SHEET!V8</f>
         <v>0.17432786952482793</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="158" t="s">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="232" t="s">
         <v>64</v>
       </c>
-      <c r="F22" s="199">
+      <c r="D22" s="224">
         <f>(BALANCE_SHEET!W$12)</f>
         <v>10405882</v>
       </c>
-      <c r="G22" s="199">
+      <c r="E22" s="224">
         <f>(BALANCE_SHEET!W$14)</f>
         <v>6342791</v>
       </c>
-      <c r="H22" s="201">
+      <c r="F22" s="225">
         <f>((BALANCE_SHEET!W$12)/(BALANCE_SHEET!W$14))</f>
         <v>1.6405840898746309</v>
       </c>
-      <c r="L22" s="197">
+      <c r="H22" s="226">
         <f>INCOME_STATEMENT!U18</f>
         <v>4750551</v>
       </c>
-      <c r="M22" s="197">
+      <c r="I22" s="226">
         <f>BALANCE_SHEET!W8</f>
         <v>16748673</v>
       </c>
-      <c r="N22" s="194">
+      <c r="J22" s="227">
         <f>INCOME_STATEMENT!U18/BALANCE_SHEET!W8</f>
         <v>0.28363745593456868</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="158" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="232" t="s">
         <v>93</v>
       </c>
-      <c r="F23" s="199">
+      <c r="D23" s="224">
         <f>(BALANCE_SHEET!X$12)</f>
         <v>12041437</v>
       </c>
-      <c r="G23" s="199">
+      <c r="E23" s="224">
         <f>(BALANCE_SHEET!X$14)</f>
         <v>4704258</v>
       </c>
-      <c r="H23" s="201">
+      <c r="F23" s="225">
         <f>((BALANCE_SHEET!X$12)/(BALANCE_SHEET!X$14))</f>
         <v>2.5596889031171335</v>
       </c>
-      <c r="L23" s="197">
+      <c r="H23" s="226">
         <f>INCOME_STATEMENT!V18</f>
         <v>6390672</v>
       </c>
-      <c r="M23" s="197">
+      <c r="I23" s="226">
         <f>BALANCE_SHEET!X8</f>
         <v>16745695</v>
       </c>
-      <c r="N23" s="194">
+      <c r="J23" s="227">
         <f>INCOME_STATEMENT!V18/BALANCE_SHEET!X8</f>
         <v>0.38163074151296794</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="170" t="s">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="235" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="158" t="s">
+      <c r="B24" s="232" t="s">
         <v>62</v>
       </c>
-      <c r="F24" s="199">
+      <c r="D24" s="224">
         <f>(BALANCE_SHEET!Y$12)</f>
         <v>11921305</v>
       </c>
-      <c r="G24" s="199">
+      <c r="E24" s="224">
         <f>(BALANCE_SHEET!Y$14)</f>
         <v>6665099</v>
       </c>
-      <c r="H24" s="201">
+      <c r="F24" s="225">
         <f>((BALANCE_SHEET!Y$12)/(BALANCE_SHEET!Y$14))</f>
         <v>1.7886163431330877</v>
       </c>
-      <c r="L24" s="197">
+      <c r="H24" s="226">
         <f>INCOME_STATEMENT!W18</f>
         <v>1960841</v>
       </c>
-      <c r="M24" s="197">
+      <c r="I24" s="226">
         <f>BALANCE_SHEET!Y8</f>
         <v>18586404</v>
       </c>
-      <c r="N24" s="194">
+      <c r="J24" s="227">
         <f>INCOME_STATEMENT!W18/BALANCE_SHEET!Y8</f>
         <v>0.10549867526822294</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B25" s="158" t="s">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="232" t="s">
         <v>63</v>
       </c>
-      <c r="F25" s="199">
+      <c r="D25" s="224">
         <f>(BALANCE_SHEET!Z$12)</f>
         <v>14380273</v>
       </c>
-      <c r="G25" s="199">
+      <c r="E25" s="224">
         <f>(BALANCE_SHEET!Z$14)</f>
         <v>4906114</v>
       </c>
-      <c r="H25" s="201">
+      <c r="F25" s="225">
         <f>((BALANCE_SHEET!Z$12)/(BALANCE_SHEET!Z$14))</f>
         <v>2.9310923064568009</v>
       </c>
-      <c r="L25" s="197">
+      <c r="H25" s="226">
         <f>INCOME_STATEMENT!X18</f>
         <v>3623958</v>
       </c>
-      <c r="M25" s="197">
+      <c r="I25" s="226">
         <f>BALANCE_SHEET!Z8</f>
         <v>19286387</v>
       </c>
-      <c r="N25" s="194">
+      <c r="J25" s="227">
         <f>INCOME_STATEMENT!X18/BALANCE_SHEET!Z8</f>
         <v>0.18790237901997922</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="158" t="s">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="232" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="199">
+      <c r="D26" s="224">
         <f>(BALANCE_SHEET!AA$12)</f>
         <v>12391366</v>
       </c>
-      <c r="G26" s="199">
+      <c r="E26" s="224">
         <f>(BALANCE_SHEET!AA$14)</f>
         <v>6423858</v>
       </c>
-      <c r="H26" s="201">
+      <c r="F26" s="225">
         <f>((BALANCE_SHEET!AA$12)/(BALANCE_SHEET!AA$14))</f>
         <v>1.9289601357937862</v>
       </c>
-      <c r="L26" s="197">
+      <c r="H26" s="226">
         <f>INCOME_STATEMENT!Y18</f>
         <v>5229400</v>
       </c>
-      <c r="M26" s="197">
+      <c r="I26" s="226">
         <f>BALANCE_SHEET!AA8</f>
         <v>18815224</v>
       </c>
-      <c r="N26" s="194">
+      <c r="J26" s="227">
         <f>INCOME_STATEMENT!Y18/BALANCE_SHEET!AA8</f>
         <v>0.27793450665269781</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="158" t="s">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="232" t="s">
         <v>93</v>
       </c>
-      <c r="F27" s="199">
+      <c r="D27" s="224">
         <f>(BALANCE_SHEET!AB$12)</f>
         <v>12041437</v>
       </c>
-      <c r="G27" s="199">
+      <c r="E27" s="224">
         <f>(BALANCE_SHEET!AB$14)</f>
         <v>4704258</v>
       </c>
-      <c r="H27" s="201">
+      <c r="F27" s="225">
         <f>((BALANCE_SHEET!AB$12)/(BALANCE_SHEET!AB$14))</f>
         <v>2.5596889031171335</v>
       </c>
-      <c r="L27" s="197">
+      <c r="H27" s="226">
         <f>INCOME_STATEMENT!Z18</f>
         <v>7004562</v>
       </c>
-      <c r="M27" s="197">
+      <c r="I27" s="226">
         <f>BALANCE_SHEET!AB8</f>
         <v>16745695</v>
       </c>
-      <c r="N27" s="194">
+      <c r="J27" s="227">
         <f>INCOME_STATEMENT!Z18/BALANCE_SHEET!AB8</f>
         <v>0.41829031282368395</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="170" t="s">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="235" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="158" t="s">
+      <c r="B28" s="232" t="s">
         <v>62</v>
       </c>
-      <c r="F28" s="199">
+      <c r="D28" s="224">
         <f>(BALANCE_SHEET!AC$12)</f>
         <v>13229294</v>
       </c>
-      <c r="G28" s="199">
+      <c r="E28" s="224">
         <f>(BALANCE_SHEET!AC$14)</f>
         <v>7012519</v>
       </c>
-      <c r="H28" s="201">
+      <c r="F28" s="225">
         <f>((BALANCE_SHEET!AC$12)/(BALANCE_SHEET!AC$14))</f>
         <v>1.8865252272400259</v>
       </c>
-      <c r="L28" s="197">
+      <c r="H28" s="226">
         <f>INCOME_STATEMENT!AA18</f>
         <v>1839131</v>
       </c>
-      <c r="M28" s="197">
+      <c r="I28" s="226">
         <f>BALANCE_SHEET!AC8</f>
         <v>20241813</v>
       </c>
-      <c r="N28" s="194">
+      <c r="J28" s="227">
         <f>INCOME_STATEMENT!AA18/BALANCE_SHEET!AC8</f>
         <v>9.0858017510585642E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="158" t="s">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="232" t="s">
         <v>63</v>
       </c>
-      <c r="F29" s="199">
+      <c r="D29" s="224">
         <f>(BALANCE_SHEET!AD$12)</f>
         <v>15514356</v>
       </c>
-      <c r="G29" s="199">
+      <c r="E29" s="224">
         <f>(BALANCE_SHEET!AD$14)</f>
         <v>5011769</v>
       </c>
-      <c r="H29" s="201">
+      <c r="F29" s="225">
         <f>((BALANCE_SHEET!AD$12)/(BALANCE_SHEET!AD$14))</f>
         <v>3.0955848124684118</v>
       </c>
-      <c r="L29" s="197">
+      <c r="H29" s="226">
         <f>INCOME_STATEMENT!AB18</f>
         <v>3529869</v>
       </c>
-      <c r="M29" s="197">
+      <c r="I29" s="226">
         <f>BALANCE_SHEET!AD8</f>
         <v>20526125</v>
       </c>
-      <c r="N29" s="194">
+      <c r="J29" s="227">
         <f>INCOME_STATEMENT!AB18/BALANCE_SHEET!AD8</f>
         <v>0.17196957535823248</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="158" t="s">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="232" t="s">
         <v>64</v>
       </c>
-      <c r="F30" s="199">
+      <c r="D30" s="224">
         <f>(BALANCE_SHEET!AE$12)</f>
         <v>11027987</v>
       </c>
-      <c r="G30" s="199">
+      <c r="E30" s="224">
         <f>(BALANCE_SHEET!AE$14)</f>
         <v>8970149</v>
       </c>
-      <c r="H30" s="201">
+      <c r="F30" s="225">
         <f>((BALANCE_SHEET!AE$12)/(BALANCE_SHEET!AE$14))</f>
         <v>1.2294095672212357</v>
       </c>
-      <c r="L30" s="197">
+      <c r="H30" s="226">
         <f>INCOME_STATEMENT!AC18</f>
         <v>7303493</v>
       </c>
-      <c r="M30" s="197">
+      <c r="I30" s="226">
         <f>BALANCE_SHEET!AE8</f>
         <v>19998136</v>
       </c>
-      <c r="N30" s="194">
+      <c r="J30" s="227">
         <f>INCOME_STATEMENT!AC18/BALANCE_SHEET!AE8</f>
         <v>0.36520868744967033</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="158" t="s">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="232" t="s">
         <v>93</v>
       </c>
-      <c r="F31" s="199">
+      <c r="D31" s="224">
         <f>(BALANCE_SHEET!AF$12)</f>
         <v>13733025</v>
       </c>
-      <c r="G31" s="199">
+      <c r="E31" s="224">
         <f>(BALANCE_SHEET!AF$14)</f>
         <v>5173388</v>
       </c>
-      <c r="H31" s="201">
+      <c r="F31" s="225">
         <f>((BALANCE_SHEET!AF$12)/(BALANCE_SHEET!AF$14))</f>
         <v>2.6545515240689466</v>
       </c>
-      <c r="L31" s="197">
+      <c r="H31" s="226">
         <f>INCOME_STATEMENT!AD18</f>
         <v>9109445</v>
       </c>
-      <c r="M31" s="197">
+      <c r="I31" s="226">
         <f>BALANCE_SHEET!AF8</f>
         <v>18906413</v>
       </c>
-      <c r="N31" s="194">
+      <c r="J31" s="227">
         <f>INCOME_STATEMENT!AD18/BALANCE_SHEET!AF8</f>
         <v>0.4818177303119317</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="170" t="s">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="235" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="158" t="s">
+      <c r="B32" s="232" t="s">
         <v>62</v>
       </c>
-      <c r="F32" s="199">
+      <c r="D32" s="224">
         <f>(BALANCE_SHEET!AG$12)</f>
         <v>16752108</v>
       </c>
-      <c r="G32" s="199">
+      <c r="E32" s="224">
         <f>(BALANCE_SHEET!AG$14)</f>
         <v>5075213</v>
       </c>
-      <c r="H32" s="201">
+      <c r="F32" s="225">
         <f>((BALANCE_SHEET!AG$12)/(BALANCE_SHEET!AG$14))</f>
         <v>3.3007694455385419</v>
       </c>
-      <c r="L32" s="197">
+      <c r="H32" s="226">
         <f>INCOME_STATEMENT!AE18</f>
         <v>1748520</v>
       </c>
-      <c r="M32" s="197">
+      <c r="I32" s="226">
         <f>BALANCE_SHEET!AG8</f>
         <v>21827321</v>
       </c>
-      <c r="N32" s="194">
+      <c r="J32" s="227">
         <f>INCOME_STATEMENT!AE18/BALANCE_SHEET!AG8</f>
         <v>8.0106944869688779E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="158" t="s">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="232" t="s">
         <v>63</v>
       </c>
-      <c r="F33" s="199">
+      <c r="D33" s="224">
         <f>(BALANCE_SHEET!AH$12)</f>
         <v>12977603</v>
       </c>
-      <c r="G33" s="199">
+      <c r="E33" s="224">
         <f>(BALANCE_SHEET!AH$14)</f>
         <v>9062375</v>
       </c>
-      <c r="H33" s="201">
+      <c r="F33" s="225">
         <f>((BALANCE_SHEET!AH$12)/(BALANCE_SHEET!AH$14))</f>
         <v>1.4320311176705887</v>
       </c>
-      <c r="L33" s="197">
+      <c r="H33" s="226">
         <f>INCOME_STATEMENT!AF18</f>
         <v>3697232</v>
       </c>
-      <c r="M33" s="197">
+      <c r="I33" s="226">
         <f>BALANCE_SHEET!AH8</f>
         <v>22039978</v>
       </c>
-      <c r="N33" s="194">
+      <c r="J33" s="227">
         <f>INCOME_STATEMENT!AF18/BALANCE_SHEET!AH8</f>
         <v>0.16775116563183504</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="158" t="s">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="232" t="s">
         <v>64</v>
       </c>
-      <c r="F34" s="199">
+      <c r="D34" s="224">
         <f>(BALANCE_SHEET!AI$12)</f>
         <v>13926354</v>
       </c>
-      <c r="G34" s="199">
+      <c r="E34" s="224">
         <f>(BALANCE_SHEET!AI$14)</f>
         <v>6887584</v>
       </c>
-      <c r="H34" s="201">
+      <c r="F34" s="225">
         <f>((BALANCE_SHEET!AI$12)/(BALANCE_SHEET!AI$14))</f>
         <v>2.0219505126906618</v>
       </c>
-      <c r="L34" s="197">
+      <c r="H34" s="226">
         <f>INCOME_STATEMENT!AG18</f>
         <v>5509603</v>
       </c>
-      <c r="M34" s="197">
+      <c r="I34" s="226">
         <f>BALANCE_SHEET!AI8</f>
         <v>20813938</v>
       </c>
-      <c r="N34" s="194">
+      <c r="J34" s="227">
         <f>INCOME_STATEMENT!AG18/BALANCE_SHEET!AI8</f>
         <v>0.26470738021800583</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B35" s="158" t="s">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="232" t="s">
         <v>93</v>
       </c>
-      <c r="F35" s="199">
+      <c r="D35" s="224">
         <f>(BALANCE_SHEET!AJ$12)</f>
         <v>15367509</v>
       </c>
-      <c r="G35" s="199">
+      <c r="E35" s="224">
         <f>(BALANCE_SHEET!AJ$14)</f>
         <v>5281862</v>
       </c>
-      <c r="H35" s="201">
+      <c r="F35" s="225">
         <f>((BALANCE_SHEET!AJ$12)/(BALANCE_SHEET!AJ$14))</f>
         <v>2.9094870331712568</v>
       </c>
-      <c r="L35" s="197">
+      <c r="H35" s="226">
         <f>INCOME_STATEMENT!AH18</f>
         <v>7392837</v>
       </c>
-      <c r="M35" s="197">
+      <c r="I35" s="226">
         <f>BALANCE_SHEET!AJ8</f>
         <v>20649371</v>
       </c>
-      <c r="N35" s="194">
+      <c r="J35" s="227">
         <f>INCOME_STATEMENT!AH18/BALANCE_SHEET!AJ8</f>
         <v>0.35801753961416066</v>
       </c>
@@ -20255,1132 +20234,1129 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="231" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="235" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="235" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="235" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="235"/>
-    <col min="6" max="6" width="10.28515625" style="227" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="235" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" style="235" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="235" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="237"/>
-    <col min="11" max="11" width="17.5703125" style="237" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" style="237" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.5703125" style="237" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="15.140625" style="237"/>
+    <col min="1" max="1" width="11.140625" style="197" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="201" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="201" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9" style="201" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="193" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="201" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" style="201" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="201" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="203"/>
+    <col min="11" max="11" width="18.5703125" style="203" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" style="203" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" style="203" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="15.140625" style="203"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="231" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="227" t="s">
+    <row r="1" spans="1:13" s="188" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="237" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1" s="194" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" s="194" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" s="195" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="237"/>
+      <c r="F1" s="237" t="s">
+        <v>179</v>
+      </c>
+      <c r="G1" s="195" t="s">
+        <v>141</v>
+      </c>
+      <c r="H1" s="195" t="s">
+        <v>142</v>
+      </c>
+      <c r="I1" s="196" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1" s="238" t="s">
         <v>180</v>
       </c>
-      <c r="B1" s="228" t="s">
-        <v>145</v>
-      </c>
-      <c r="C1" s="228" t="s">
-        <v>146</v>
-      </c>
-      <c r="D1" s="229" t="s">
+      <c r="L1" s="238" t="s">
+        <v>179</v>
+      </c>
+      <c r="M1" s="239" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="198" t="s">
         <v>147</v>
       </c>
-      <c r="E1" s="227"/>
-      <c r="F1" s="227" t="s">
-        <v>180</v>
-      </c>
-      <c r="G1" s="229" t="s">
-        <v>142</v>
-      </c>
-      <c r="H1" s="229" t="s">
-        <v>143</v>
-      </c>
-      <c r="I1" s="230" t="s">
-        <v>144</v>
-      </c>
-      <c r="K1" s="238" t="s">
-        <v>181</v>
-      </c>
-      <c r="L1" s="238" t="s">
-        <v>180</v>
-      </c>
-      <c r="M1" s="239" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="232" t="s">
+      <c r="B2" s="199">
+        <v>7151813</v>
+      </c>
+      <c r="C2" s="199">
+        <v>4843623</v>
+      </c>
+      <c r="D2" s="200">
+        <v>1.47654</v>
+      </c>
+      <c r="F2" s="198" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2" s="200">
+        <v>1162686</v>
+      </c>
+      <c r="H2" s="200">
+        <v>11995436</v>
+      </c>
+      <c r="I2" s="202">
+        <v>9.6930000000000002E-2</v>
+      </c>
+      <c r="K2" s="189">
+        <v>3907.3020000000001</v>
+      </c>
+      <c r="L2" s="190" t="s">
+        <v>62</v>
+      </c>
+      <c r="M2" s="191" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="198" t="s">
         <v>148</v>
       </c>
-      <c r="B2" s="233">
-        <v>7151813</v>
-      </c>
-      <c r="C2" s="233">
-        <v>4843623</v>
-      </c>
-      <c r="D2" s="234">
-        <v>1.47654</v>
-      </c>
-      <c r="F2" s="232" t="s">
+      <c r="B3" s="199">
+        <v>10182580</v>
+      </c>
+      <c r="C3" s="199">
+        <v>3752158</v>
+      </c>
+      <c r="D3" s="200">
+        <v>2.7137899999999999</v>
+      </c>
+      <c r="F3" s="198" t="s">
         <v>148</v>
       </c>
-      <c r="G2" s="234">
-        <v>1162686</v>
-      </c>
-      <c r="H2" s="234">
-        <v>11995436</v>
-      </c>
-      <c r="I2" s="236">
-        <v>9.6930000000000002E-2</v>
-      </c>
-      <c r="K2" s="223">
-        <v>3907.3020000000001</v>
-      </c>
-      <c r="L2" s="224" t="s">
+      <c r="G3" s="200">
+        <v>2329701</v>
+      </c>
+      <c r="H3" s="200">
+        <v>13934738</v>
+      </c>
+      <c r="I3" s="202">
+        <v>0.16719000000000001</v>
+      </c>
+      <c r="K3" s="189">
+        <v>4206.0159999999996</v>
+      </c>
+      <c r="L3" s="190" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="198" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" s="199">
+        <v>7316284</v>
+      </c>
+      <c r="C4" s="199">
+        <v>5105626</v>
+      </c>
+      <c r="D4" s="200">
+        <v>1.4329799999999999</v>
+      </c>
+      <c r="F4" s="198" t="s">
+        <v>149</v>
+      </c>
+      <c r="G4" s="200">
+        <v>3653568</v>
+      </c>
+      <c r="H4" s="200">
+        <v>12421910</v>
+      </c>
+      <c r="I4" s="202">
+        <v>0.29411999999999999</v>
+      </c>
+      <c r="K4" s="189">
+        <v>5071.5410000000002</v>
+      </c>
+      <c r="L4" s="190" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="198" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" s="199">
+        <v>8016614</v>
+      </c>
+      <c r="C5" s="199">
+        <v>3968365</v>
+      </c>
+      <c r="D5" s="200">
+        <v>2.02013</v>
+      </c>
+      <c r="F5" s="198" t="s">
+        <v>150</v>
+      </c>
+      <c r="G5" s="200">
+        <v>4839145</v>
+      </c>
+      <c r="H5" s="200">
+        <v>11984979</v>
+      </c>
+      <c r="I5" s="202">
+        <v>0.40377000000000002</v>
+      </c>
+      <c r="K5" s="189">
+        <v>5020.8109999999997</v>
+      </c>
+      <c r="L5" s="190" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="198" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" s="199">
+        <v>7505909</v>
+      </c>
+      <c r="C6" s="199">
+        <v>5400348</v>
+      </c>
+      <c r="D6" s="200">
+        <v>1.3898900000000001</v>
+      </c>
+      <c r="F6" s="198" t="s">
+        <v>151</v>
+      </c>
+      <c r="G6" s="200">
+        <v>9822451</v>
+      </c>
+      <c r="H6" s="200">
+        <v>12906257</v>
+      </c>
+      <c r="I6" s="202">
+        <v>0.76105999999999996</v>
+      </c>
+      <c r="K6" s="189">
+        <v>4472.2139999999999</v>
+      </c>
+      <c r="L6" s="190" t="s">
         <v>62</v>
       </c>
-      <c r="M2" s="225" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="232" t="s">
-        <v>149</v>
-      </c>
-      <c r="B3" s="233">
-        <v>10182580</v>
-      </c>
-      <c r="C3" s="233">
-        <v>3752158</v>
-      </c>
-      <c r="D3" s="234">
-        <v>2.7137899999999999</v>
-      </c>
-      <c r="F3" s="232" t="s">
-        <v>149</v>
-      </c>
-      <c r="G3" s="234">
-        <v>2329701</v>
-      </c>
-      <c r="H3" s="234">
-        <v>13934738</v>
-      </c>
-      <c r="I3" s="236">
-        <v>0.16719000000000001</v>
-      </c>
-      <c r="K3" s="223">
-        <v>4206.0159999999996</v>
-      </c>
-      <c r="L3" s="224" t="s">
+      <c r="M6" s="191" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="198" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7" s="199">
+        <v>9949299</v>
+      </c>
+      <c r="C7" s="199">
+        <v>4243835</v>
+      </c>
+      <c r="D7" s="200">
+        <v>2.3444099999999999</v>
+      </c>
+      <c r="F7" s="198" t="s">
+        <v>152</v>
+      </c>
+      <c r="G7" s="200">
+        <v>2823890</v>
+      </c>
+      <c r="H7" s="200">
+        <v>14193134</v>
+      </c>
+      <c r="I7" s="202">
+        <v>0.19896</v>
+      </c>
+      <c r="K7" s="189">
+        <v>5396.9620000000004</v>
+      </c>
+      <c r="L7" s="190" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="232" t="s">
-        <v>150</v>
-      </c>
-      <c r="B4" s="233">
-        <v>7316284</v>
-      </c>
-      <c r="C4" s="233">
-        <v>5105626</v>
-      </c>
-      <c r="D4" s="234">
-        <v>1.4329799999999999</v>
-      </c>
-      <c r="F4" s="232" t="s">
-        <v>150</v>
-      </c>
-      <c r="G4" s="234">
-        <v>3653568</v>
-      </c>
-      <c r="H4" s="234">
-        <v>12421910</v>
-      </c>
-      <c r="I4" s="236">
-        <v>0.29411999999999999</v>
-      </c>
-      <c r="K4" s="223">
-        <v>5071.5410000000002</v>
-      </c>
-      <c r="L4" s="224" t="s">
+      <c r="M7" s="192"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="198" t="s">
+        <v>153</v>
+      </c>
+      <c r="B8" s="199">
+        <v>7829734</v>
+      </c>
+      <c r="C8" s="199">
+        <v>5510444</v>
+      </c>
+      <c r="D8" s="200">
+        <v>1.42089</v>
+      </c>
+      <c r="F8" s="198" t="s">
+        <v>153</v>
+      </c>
+      <c r="G8" s="200">
+        <v>4090499</v>
+      </c>
+      <c r="H8" s="200">
+        <v>13340178</v>
+      </c>
+      <c r="I8" s="202">
+        <v>0.30663000000000001</v>
+      </c>
+      <c r="K8" s="189">
+        <v>6174.0649999999996</v>
+      </c>
+      <c r="L8" s="190" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="232" t="s">
-        <v>151</v>
-      </c>
-      <c r="B5" s="233">
-        <v>8016614</v>
-      </c>
-      <c r="C5" s="233">
-        <v>3968365</v>
-      </c>
-      <c r="D5" s="234">
-        <v>2.02013</v>
-      </c>
-      <c r="F5" s="232" t="s">
-        <v>151</v>
-      </c>
-      <c r="G5" s="234">
-        <v>4839145</v>
-      </c>
-      <c r="H5" s="234">
-        <v>11984979</v>
-      </c>
-      <c r="I5" s="236">
-        <v>0.40377000000000002</v>
-      </c>
-      <c r="K5" s="223">
-        <v>5020.8109999999997</v>
-      </c>
-      <c r="L5" s="224" t="s">
+      <c r="M8" s="192"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="198" t="s">
+        <v>154</v>
+      </c>
+      <c r="B9" s="199">
+        <v>9093518</v>
+      </c>
+      <c r="C9" s="199">
+        <v>4254670</v>
+      </c>
+      <c r="D9" s="200">
+        <v>2.1373000000000002</v>
+      </c>
+      <c r="F9" s="198" t="s">
+        <v>154</v>
+      </c>
+      <c r="G9" s="200">
+        <v>5352625</v>
+      </c>
+      <c r="H9" s="200">
+        <v>13348188</v>
+      </c>
+      <c r="I9" s="202">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="K9" s="189">
+        <v>5719.7240000000002</v>
+      </c>
+      <c r="L9" s="190" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="232" t="s">
-        <v>152</v>
-      </c>
-      <c r="B6" s="233">
-        <v>7505909</v>
-      </c>
-      <c r="C6" s="233">
-        <v>5400348</v>
-      </c>
-      <c r="D6" s="234">
-        <v>1.3898900000000001</v>
-      </c>
-      <c r="F6" s="232" t="s">
-        <v>152</v>
-      </c>
-      <c r="G6" s="234">
-        <v>9822451</v>
-      </c>
-      <c r="H6" s="234">
-        <v>12906257</v>
-      </c>
-      <c r="I6" s="236">
-        <v>0.76105999999999996</v>
-      </c>
-      <c r="K6" s="223">
-        <v>4472.2139999999999</v>
-      </c>
-      <c r="L6" s="224" t="s">
+      <c r="M9" s="192"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="198" t="s">
+        <v>155</v>
+      </c>
+      <c r="B10" s="199">
+        <v>8698529</v>
+      </c>
+      <c r="C10" s="199">
+        <v>5615651</v>
+      </c>
+      <c r="D10" s="200">
+        <v>1.54898</v>
+      </c>
+      <c r="F10" s="198" t="s">
+        <v>155</v>
+      </c>
+      <c r="G10" s="200">
+        <v>1360981</v>
+      </c>
+      <c r="H10" s="200">
+        <v>14314180</v>
+      </c>
+      <c r="I10" s="202">
+        <v>9.5079999999999998E-2</v>
+      </c>
+      <c r="K10" s="189">
+        <v>5623.0829999999996</v>
+      </c>
+      <c r="L10" s="190" t="s">
         <v>62</v>
       </c>
-      <c r="M6" s="225" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="232" t="s">
-        <v>153</v>
-      </c>
-      <c r="B7" s="233">
-        <v>9949299</v>
-      </c>
-      <c r="C7" s="233">
-        <v>4243835</v>
-      </c>
-      <c r="D7" s="234">
-        <v>2.3444099999999999</v>
-      </c>
-      <c r="F7" s="232" t="s">
-        <v>153</v>
-      </c>
-      <c r="G7" s="234">
-        <v>2823890</v>
-      </c>
-      <c r="H7" s="234">
-        <v>14193134</v>
-      </c>
-      <c r="I7" s="236">
-        <v>0.19896</v>
-      </c>
-      <c r="K7" s="223">
-        <v>5396.9620000000004</v>
-      </c>
-      <c r="L7" s="224" t="s">
+      <c r="M10" s="191" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="198" t="s">
+        <v>156</v>
+      </c>
+      <c r="B11" s="199">
+        <v>11685025</v>
+      </c>
+      <c r="C11" s="199">
+        <v>4271931</v>
+      </c>
+      <c r="D11" s="200">
+        <v>2.7353000000000001</v>
+      </c>
+      <c r="F11" s="198" t="s">
+        <v>156</v>
+      </c>
+      <c r="G11" s="200">
+        <v>2847991</v>
+      </c>
+      <c r="H11" s="200">
+        <v>15956956</v>
+      </c>
+      <c r="I11" s="202">
+        <v>0.17848</v>
+      </c>
+      <c r="K11" s="189">
+        <v>5989.7619999999997</v>
+      </c>
+      <c r="L11" s="190" t="s">
         <v>63</v>
       </c>
-      <c r="M7" s="226"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="232" t="s">
-        <v>154</v>
-      </c>
-      <c r="B8" s="233">
-        <v>7829734</v>
-      </c>
-      <c r="C8" s="233">
-        <v>5510444</v>
-      </c>
-      <c r="D8" s="234">
-        <v>1.42089</v>
-      </c>
-      <c r="F8" s="232" t="s">
-        <v>154</v>
-      </c>
-      <c r="G8" s="234">
-        <v>4090499</v>
-      </c>
-      <c r="H8" s="234">
-        <v>13340178</v>
-      </c>
-      <c r="I8" s="236">
-        <v>0.30663000000000001</v>
-      </c>
-      <c r="K8" s="223">
-        <v>6174.0649999999996</v>
-      </c>
-      <c r="L8" s="224" t="s">
+      <c r="M11" s="192"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="198" t="s">
+        <v>157</v>
+      </c>
+      <c r="B12" s="199">
+        <v>9697242</v>
+      </c>
+      <c r="C12" s="199">
+        <v>5472869</v>
+      </c>
+      <c r="D12" s="200">
+        <v>1.7718799999999999</v>
+      </c>
+      <c r="F12" s="198" t="s">
+        <v>157</v>
+      </c>
+      <c r="G12" s="200">
+        <v>4048929</v>
+      </c>
+      <c r="H12" s="200">
+        <v>15170111</v>
+      </c>
+      <c r="I12" s="202">
+        <v>0.26690000000000003</v>
+      </c>
+      <c r="K12" s="189">
+        <v>6265.0720000000001</v>
+      </c>
+      <c r="L12" s="190" t="s">
         <v>64</v>
       </c>
-      <c r="M8" s="226"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="232" t="s">
-        <v>155</v>
-      </c>
-      <c r="B9" s="233">
-        <v>9093518</v>
-      </c>
-      <c r="C9" s="233">
-        <v>4254670</v>
-      </c>
-      <c r="D9" s="234">
-        <v>2.1373000000000002</v>
-      </c>
-      <c r="F9" s="232" t="s">
-        <v>155</v>
-      </c>
-      <c r="G9" s="234">
-        <v>5352625</v>
-      </c>
-      <c r="H9" s="234">
-        <v>13348188</v>
-      </c>
-      <c r="I9" s="236">
-        <v>0.40100000000000002</v>
-      </c>
-      <c r="K9" s="223">
-        <v>5719.7240000000002</v>
-      </c>
-      <c r="L9" s="224" t="s">
+      <c r="M12" s="192"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="198" t="s">
+        <v>158</v>
+      </c>
+      <c r="B13" s="199">
+        <v>9681888</v>
+      </c>
+      <c r="C13" s="199">
+        <v>4598782</v>
+      </c>
+      <c r="D13" s="200">
+        <v>2.1053199999999999</v>
+      </c>
+      <c r="F13" s="198" t="s">
+        <v>158</v>
+      </c>
+      <c r="G13" s="200">
+        <v>5738523</v>
+      </c>
+      <c r="H13" s="200">
+        <v>14280670</v>
+      </c>
+      <c r="I13" s="202">
+        <v>0.40183999999999997</v>
+      </c>
+      <c r="K13" s="189">
+        <v>6216.8590000000004</v>
+      </c>
+      <c r="L13" s="190" t="s">
         <v>93</v>
       </c>
-      <c r="M9" s="226"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="232" t="s">
-        <v>156</v>
-      </c>
-      <c r="B10" s="233">
-        <v>8698529</v>
-      </c>
-      <c r="C10" s="233">
-        <v>5615651</v>
-      </c>
-      <c r="D10" s="234">
-        <v>1.54898</v>
-      </c>
-      <c r="F10" s="232" t="s">
-        <v>156</v>
-      </c>
-      <c r="G10" s="234">
-        <v>1360981</v>
-      </c>
-      <c r="H10" s="234">
-        <v>14314180</v>
-      </c>
-      <c r="I10" s="236">
-        <v>9.5079999999999998E-2</v>
-      </c>
-      <c r="K10" s="223">
-        <v>5623.0829999999996</v>
-      </c>
-      <c r="L10" s="224" t="s">
+      <c r="M13" s="192"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="198" t="s">
+        <v>159</v>
+      </c>
+      <c r="B14" s="199">
+        <v>8434341</v>
+      </c>
+      <c r="C14" s="199">
+        <v>6338213</v>
+      </c>
+      <c r="D14" s="200">
+        <v>1.3307100000000001</v>
+      </c>
+      <c r="F14" s="198" t="s">
+        <v>159</v>
+      </c>
+      <c r="G14" s="200">
+        <v>1591699</v>
+      </c>
+      <c r="H14" s="200">
+        <v>14772554</v>
+      </c>
+      <c r="I14" s="202">
+        <v>0.10775</v>
+      </c>
+      <c r="K14" s="189">
+        <v>7218.5649999999996</v>
+      </c>
+      <c r="L14" s="190" t="s">
         <v>62</v>
       </c>
-      <c r="M10" s="225" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="232" t="s">
-        <v>157</v>
-      </c>
-      <c r="B11" s="233">
-        <v>11685025</v>
-      </c>
-      <c r="C11" s="233">
-        <v>4271931</v>
-      </c>
-      <c r="D11" s="234">
-        <v>2.7353000000000001</v>
-      </c>
-      <c r="F11" s="232" t="s">
-        <v>157</v>
-      </c>
-      <c r="G11" s="234">
-        <v>2847991</v>
-      </c>
-      <c r="H11" s="234">
-        <v>15956956</v>
-      </c>
-      <c r="I11" s="236">
-        <v>0.17848</v>
-      </c>
-      <c r="K11" s="223">
-        <v>5989.7619999999997</v>
-      </c>
-      <c r="L11" s="224" t="s">
+      <c r="M14" s="191" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="198" t="s">
+        <v>160</v>
+      </c>
+      <c r="B15" s="199">
+        <v>11983104</v>
+      </c>
+      <c r="C15" s="199">
+        <v>4503074</v>
+      </c>
+      <c r="D15" s="200">
+        <v>2.6610900000000002</v>
+      </c>
+      <c r="F15" s="198" t="s">
+        <v>160</v>
+      </c>
+      <c r="G15" s="200">
+        <v>2930640</v>
+      </c>
+      <c r="H15" s="200">
+        <v>16486178</v>
+      </c>
+      <c r="I15" s="202">
+        <v>0.17776</v>
+      </c>
+      <c r="K15" s="189">
+        <v>8337.7150000000001</v>
+      </c>
+      <c r="L15" s="190" t="s">
         <v>63</v>
       </c>
-      <c r="M11" s="226"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="232" t="s">
-        <v>158</v>
-      </c>
-      <c r="B12" s="233">
-        <v>9697242</v>
-      </c>
-      <c r="C12" s="233">
-        <v>5472869</v>
-      </c>
-      <c r="D12" s="234">
-        <v>1.7718799999999999</v>
-      </c>
-      <c r="F12" s="232" t="s">
-        <v>158</v>
-      </c>
-      <c r="G12" s="234">
-        <v>4048929</v>
-      </c>
-      <c r="H12" s="234">
-        <v>15170111</v>
-      </c>
-      <c r="I12" s="236">
-        <v>0.26690000000000003</v>
-      </c>
-      <c r="K12" s="223">
-        <v>6265.0720000000001</v>
-      </c>
-      <c r="L12" s="224" t="s">
+      <c r="M15" s="192"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="198" t="s">
+        <v>161</v>
+      </c>
+      <c r="B16" s="199">
+        <v>10229164</v>
+      </c>
+      <c r="C16" s="199">
+        <v>5755607</v>
+      </c>
+      <c r="D16" s="200">
+        <v>1.77725</v>
+      </c>
+      <c r="F16" s="198" t="s">
+        <v>161</v>
+      </c>
+      <c r="G16" s="200">
+        <v>4183173</v>
+      </c>
+      <c r="H16" s="200">
+        <v>15984771</v>
+      </c>
+      <c r="I16" s="202">
+        <v>0.26169999999999999</v>
+      </c>
+      <c r="K16" s="189">
+        <v>7714.5870000000004</v>
+      </c>
+      <c r="L16" s="190" t="s">
         <v>64</v>
       </c>
-      <c r="M12" s="226"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="232" t="s">
-        <v>159</v>
-      </c>
-      <c r="B13" s="233">
-        <v>9681888</v>
-      </c>
-      <c r="C13" s="233">
-        <v>4598782</v>
-      </c>
-      <c r="D13" s="234">
-        <v>2.1053199999999999</v>
-      </c>
-      <c r="F13" s="232" t="s">
-        <v>159</v>
-      </c>
-      <c r="G13" s="234">
-        <v>5738523</v>
-      </c>
-      <c r="H13" s="234">
-        <v>14280670</v>
-      </c>
-      <c r="I13" s="236">
-        <v>0.40183999999999997</v>
-      </c>
-      <c r="K13" s="223">
-        <v>6216.8590000000004</v>
-      </c>
-      <c r="L13" s="224" t="s">
+      <c r="M16" s="192"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="198" t="s">
+        <v>162</v>
+      </c>
+      <c r="B17" s="199">
+        <v>10902585</v>
+      </c>
+      <c r="C17" s="199">
+        <v>4827360</v>
+      </c>
+      <c r="D17" s="200">
+        <v>2.2585000000000002</v>
+      </c>
+      <c r="F17" s="198" t="s">
+        <v>162</v>
+      </c>
+      <c r="G17" s="200">
+        <v>5851805</v>
+      </c>
+      <c r="H17" s="200">
+        <v>15729945</v>
+      </c>
+      <c r="I17" s="202">
+        <v>0.37202000000000002</v>
+      </c>
+      <c r="K17" s="189">
+        <v>7418.7460000000001</v>
+      </c>
+      <c r="L17" s="190" t="s">
         <v>93</v>
       </c>
-      <c r="M13" s="226"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="232" t="s">
-        <v>160</v>
-      </c>
-      <c r="B14" s="233">
-        <v>8434341</v>
-      </c>
-      <c r="C14" s="233">
-        <v>6338213</v>
-      </c>
-      <c r="D14" s="234">
-        <v>1.3307100000000001</v>
-      </c>
-      <c r="F14" s="232" t="s">
-        <v>160</v>
-      </c>
-      <c r="G14" s="234">
-        <v>1591699</v>
-      </c>
-      <c r="H14" s="234">
-        <v>14772554</v>
-      </c>
-      <c r="I14" s="236">
-        <v>0.10775</v>
-      </c>
-      <c r="K14" s="223">
-        <v>7218.5649999999996</v>
-      </c>
-      <c r="L14" s="224" t="s">
+      <c r="M17" s="192"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="198" t="s">
+        <v>163</v>
+      </c>
+      <c r="B18" s="199">
+        <v>10255900</v>
+      </c>
+      <c r="C18" s="199">
+        <v>6397400</v>
+      </c>
+      <c r="D18" s="200">
+        <v>1.60314</v>
+      </c>
+      <c r="F18" s="198" t="s">
+        <v>163</v>
+      </c>
+      <c r="G18" s="200">
+        <v>1570040</v>
+      </c>
+      <c r="H18" s="200">
+        <v>16653300</v>
+      </c>
+      <c r="I18" s="202">
+        <v>9.4280000000000003E-2</v>
+      </c>
+      <c r="K18" s="189">
+        <v>8080.8810000000003</v>
+      </c>
+      <c r="L18" s="190" t="s">
         <v>62</v>
       </c>
-      <c r="M14" s="225" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="232" t="s">
-        <v>161</v>
-      </c>
-      <c r="B15" s="233">
-        <v>11983104</v>
-      </c>
-      <c r="C15" s="233">
-        <v>4503074</v>
-      </c>
-      <c r="D15" s="234">
-        <v>2.6610900000000002</v>
-      </c>
-      <c r="F15" s="232" t="s">
-        <v>161</v>
-      </c>
-      <c r="G15" s="234">
-        <v>2930640</v>
-      </c>
-      <c r="H15" s="234">
-        <v>16486178</v>
-      </c>
-      <c r="I15" s="236">
-        <v>0.17776</v>
-      </c>
-      <c r="K15" s="223">
-        <v>8337.7150000000001</v>
-      </c>
-      <c r="L15" s="224" t="s">
+      <c r="M18" s="191" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="198" t="s">
+        <v>164</v>
+      </c>
+      <c r="B19" s="199">
+        <v>14029689</v>
+      </c>
+      <c r="C19" s="199">
+        <v>4890447</v>
+      </c>
+      <c r="D19" s="200">
+        <v>2.8687900000000002</v>
+      </c>
+      <c r="F19" s="198" t="s">
+        <v>164</v>
+      </c>
+      <c r="G19" s="200">
+        <v>3298307</v>
+      </c>
+      <c r="H19" s="200">
+        <v>18920136</v>
+      </c>
+      <c r="I19" s="202">
+        <v>0.17433000000000001</v>
+      </c>
+      <c r="K19" s="189">
+        <v>8744.3819999999996</v>
+      </c>
+      <c r="L19" s="190" t="s">
         <v>63</v>
       </c>
-      <c r="M15" s="226"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="232" t="s">
-        <v>162</v>
-      </c>
-      <c r="B16" s="233">
-        <v>10229164</v>
-      </c>
-      <c r="C16" s="233">
-        <v>5755607</v>
-      </c>
-      <c r="D16" s="234">
-        <v>1.77725</v>
-      </c>
-      <c r="F16" s="232" t="s">
-        <v>162</v>
-      </c>
-      <c r="G16" s="234">
-        <v>4183173</v>
-      </c>
-      <c r="H16" s="234">
-        <v>15984771</v>
-      </c>
-      <c r="I16" s="236">
-        <v>0.26169999999999999</v>
-      </c>
-      <c r="K16" s="223">
-        <v>7714.5870000000004</v>
-      </c>
-      <c r="L16" s="224" t="s">
+      <c r="M19" s="192"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="198" t="s">
+        <v>165</v>
+      </c>
+      <c r="B20" s="199">
+        <v>10405882</v>
+      </c>
+      <c r="C20" s="199">
+        <v>6342791</v>
+      </c>
+      <c r="D20" s="200">
+        <v>1.6405799999999999</v>
+      </c>
+      <c r="F20" s="198" t="s">
+        <v>165</v>
+      </c>
+      <c r="G20" s="200">
+        <v>4750551</v>
+      </c>
+      <c r="H20" s="200">
+        <v>16748673</v>
+      </c>
+      <c r="I20" s="202">
+        <v>0.28364</v>
+      </c>
+      <c r="K20" s="189">
+        <v>9019.5139999999992</v>
+      </c>
+      <c r="L20" s="190" t="s">
         <v>64</v>
       </c>
-      <c r="M16" s="226"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="232" t="s">
-        <v>163</v>
-      </c>
-      <c r="B17" s="233">
-        <v>10902585</v>
-      </c>
-      <c r="C17" s="233">
-        <v>4827360</v>
-      </c>
-      <c r="D17" s="234">
-        <v>2.2585000000000002</v>
-      </c>
-      <c r="F17" s="232" t="s">
-        <v>163</v>
-      </c>
-      <c r="G17" s="234">
-        <v>5851805</v>
-      </c>
-      <c r="H17" s="234">
-        <v>15729945</v>
-      </c>
-      <c r="I17" s="236">
-        <v>0.37202000000000002</v>
-      </c>
-      <c r="K17" s="223">
-        <v>7418.7460000000001</v>
-      </c>
-      <c r="L17" s="224" t="s">
+      <c r="M20" s="192"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="198" t="s">
+        <v>166</v>
+      </c>
+      <c r="B21" s="199">
+        <v>12041437</v>
+      </c>
+      <c r="C21" s="199">
+        <v>4704258</v>
+      </c>
+      <c r="D21" s="200">
+        <v>2.5596899999999998</v>
+      </c>
+      <c r="F21" s="198" t="s">
+        <v>166</v>
+      </c>
+      <c r="G21" s="200">
+        <v>6390672</v>
+      </c>
+      <c r="H21" s="200">
+        <v>16745695</v>
+      </c>
+      <c r="I21" s="202">
+        <v>0.38163000000000002</v>
+      </c>
+      <c r="K21" s="189">
+        <v>8444.1540000000005</v>
+      </c>
+      <c r="L21" s="190" t="s">
         <v>93</v>
       </c>
-      <c r="M17" s="226"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="232" t="s">
-        <v>164</v>
-      </c>
-      <c r="B18" s="233">
-        <v>10255900</v>
-      </c>
-      <c r="C18" s="233">
-        <v>6397400</v>
-      </c>
-      <c r="D18" s="234">
-        <v>1.60314</v>
-      </c>
-      <c r="F18" s="232" t="s">
-        <v>164</v>
-      </c>
-      <c r="G18" s="234">
-        <v>1570040</v>
-      </c>
-      <c r="H18" s="234">
-        <v>16653300</v>
-      </c>
-      <c r="I18" s="236">
-        <v>9.4280000000000003E-2</v>
-      </c>
-      <c r="K18" s="223">
-        <v>8080.8810000000003</v>
-      </c>
-      <c r="L18" s="224" t="s">
+      <c r="M21" s="192"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="198" t="s">
+        <v>167</v>
+      </c>
+      <c r="B22" s="199">
+        <v>11921305</v>
+      </c>
+      <c r="C22" s="199">
+        <v>6665099</v>
+      </c>
+      <c r="D22" s="200">
+        <v>1.7886200000000001</v>
+      </c>
+      <c r="F22" s="198" t="s">
+        <v>167</v>
+      </c>
+      <c r="G22" s="200">
+        <v>1960841</v>
+      </c>
+      <c r="H22" s="200">
+        <v>18586404</v>
+      </c>
+      <c r="I22" s="202">
+        <v>0.1055</v>
+      </c>
+      <c r="K22" s="189">
+        <v>8369.098</v>
+      </c>
+      <c r="L22" s="190" t="s">
         <v>62</v>
       </c>
-      <c r="M18" s="225" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="232" t="s">
-        <v>165</v>
-      </c>
-      <c r="B19" s="233">
-        <v>14029689</v>
-      </c>
-      <c r="C19" s="233">
-        <v>4890447</v>
-      </c>
-      <c r="D19" s="234">
-        <v>2.8687900000000002</v>
-      </c>
-      <c r="F19" s="232" t="s">
-        <v>165</v>
-      </c>
-      <c r="G19" s="234">
-        <v>3298307</v>
-      </c>
-      <c r="H19" s="234">
-        <v>18920136</v>
-      </c>
-      <c r="I19" s="236">
-        <v>0.17433000000000001</v>
-      </c>
-      <c r="K19" s="223">
-        <v>8744.3819999999996</v>
-      </c>
-      <c r="L19" s="224" t="s">
+      <c r="M22" s="191" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="198" t="s">
+        <v>168</v>
+      </c>
+      <c r="B23" s="199">
+        <v>14380273</v>
+      </c>
+      <c r="C23" s="199">
+        <v>4906114</v>
+      </c>
+      <c r="D23" s="200">
+        <v>2.9310900000000002</v>
+      </c>
+      <c r="F23" s="198" t="s">
+        <v>168</v>
+      </c>
+      <c r="G23" s="200">
+        <v>3623958</v>
+      </c>
+      <c r="H23" s="200">
+        <v>19286387</v>
+      </c>
+      <c r="I23" s="202">
+        <v>0.18790000000000001</v>
+      </c>
+      <c r="K23" s="189">
+        <v>9331.32</v>
+      </c>
+      <c r="L23" s="190" t="s">
         <v>63</v>
       </c>
-      <c r="M19" s="226"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="232" t="s">
-        <v>166</v>
-      </c>
-      <c r="B20" s="233">
-        <v>10405882</v>
-      </c>
-      <c r="C20" s="233">
-        <v>6342791</v>
-      </c>
-      <c r="D20" s="234">
-        <v>1.6405799999999999</v>
-      </c>
-      <c r="F20" s="232" t="s">
-        <v>166</v>
-      </c>
-      <c r="G20" s="234">
-        <v>4750551</v>
-      </c>
-      <c r="H20" s="234">
-        <v>16748673</v>
-      </c>
-      <c r="I20" s="236">
-        <v>0.28364</v>
-      </c>
-      <c r="K20" s="223">
-        <v>9019.5139999999992</v>
-      </c>
-      <c r="L20" s="224" t="s">
+      <c r="M23" s="192"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="198" t="s">
+        <v>169</v>
+      </c>
+      <c r="B24" s="199">
+        <v>12391366</v>
+      </c>
+      <c r="C24" s="199">
+        <v>6423858</v>
+      </c>
+      <c r="D24" s="200">
+        <v>1.92896</v>
+      </c>
+      <c r="F24" s="198" t="s">
+        <v>169</v>
+      </c>
+      <c r="G24" s="200">
+        <v>5229400</v>
+      </c>
+      <c r="H24" s="200">
+        <v>18815224</v>
+      </c>
+      <c r="I24" s="202">
+        <v>0.27793000000000001</v>
+      </c>
+      <c r="K24" s="189">
+        <v>9834.5650000000005</v>
+      </c>
+      <c r="L24" s="190" t="s">
         <v>64</v>
       </c>
-      <c r="M20" s="226"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="232" t="s">
-        <v>167</v>
-      </c>
-      <c r="B21" s="233">
+      <c r="M24" s="192"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="198" t="s">
+        <v>170</v>
+      </c>
+      <c r="B25" s="199">
         <v>12041437</v>
       </c>
-      <c r="C21" s="233">
+      <c r="C25" s="199">
         <v>4704258</v>
       </c>
-      <c r="D21" s="234">
+      <c r="D25" s="200">
         <v>2.5596899999999998</v>
       </c>
-      <c r="F21" s="232" t="s">
-        <v>167</v>
-      </c>
-      <c r="G21" s="234">
-        <v>6390672</v>
-      </c>
-      <c r="H21" s="234">
+      <c r="F25" s="198" t="s">
+        <v>170</v>
+      </c>
+      <c r="G25" s="200">
+        <v>7004562</v>
+      </c>
+      <c r="H25" s="200">
         <v>16745695</v>
       </c>
-      <c r="I21" s="236">
-        <v>0.38163000000000002</v>
-      </c>
-      <c r="K21" s="223">
-        <v>8444.1540000000005</v>
-      </c>
-      <c r="L21" s="224" t="s">
+      <c r="I25" s="202">
+        <v>0.41829</v>
+      </c>
+      <c r="K25" s="189">
+        <v>10088.42</v>
+      </c>
+      <c r="L25" s="190" t="s">
         <v>93</v>
       </c>
-      <c r="M21" s="226"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="232" t="s">
-        <v>168</v>
-      </c>
-      <c r="B22" s="233">
-        <v>11921305</v>
-      </c>
-      <c r="C22" s="233">
-        <v>6665099</v>
-      </c>
-      <c r="D22" s="234">
-        <v>1.7886200000000001</v>
-      </c>
-      <c r="F22" s="232" t="s">
-        <v>168</v>
-      </c>
-      <c r="G22" s="234">
-        <v>1960841</v>
-      </c>
-      <c r="H22" s="234">
-        <v>18586404</v>
-      </c>
-      <c r="I22" s="236">
-        <v>0.1055</v>
-      </c>
-      <c r="K22" s="223">
-        <v>8369.098</v>
-      </c>
-      <c r="L22" s="224" t="s">
+      <c r="M25" s="192"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="198" t="s">
+        <v>171</v>
+      </c>
+      <c r="B26" s="199">
+        <v>13229294</v>
+      </c>
+      <c r="C26" s="199">
+        <v>7012519</v>
+      </c>
+      <c r="D26" s="200">
+        <v>1.88653</v>
+      </c>
+      <c r="F26" s="198" t="s">
+        <v>171</v>
+      </c>
+      <c r="G26" s="200">
+        <v>1839131</v>
+      </c>
+      <c r="H26" s="200">
+        <v>20241813</v>
+      </c>
+      <c r="I26" s="202">
+        <v>9.0859999999999996E-2</v>
+      </c>
+      <c r="K26" s="189">
+        <v>10666.732</v>
+      </c>
+      <c r="L26" s="190" t="s">
         <v>62</v>
       </c>
-      <c r="M22" s="225" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="232" t="s">
-        <v>169</v>
-      </c>
-      <c r="B23" s="233">
-        <v>14380273</v>
-      </c>
-      <c r="C23" s="233">
-        <v>4906114</v>
-      </c>
-      <c r="D23" s="234">
-        <v>2.9310900000000002</v>
-      </c>
-      <c r="F23" s="232" t="s">
-        <v>169</v>
-      </c>
-      <c r="G23" s="234">
-        <v>3623958</v>
-      </c>
-      <c r="H23" s="234">
-        <v>19286387</v>
-      </c>
-      <c r="I23" s="236">
-        <v>0.18790000000000001</v>
-      </c>
-      <c r="K23" s="223">
-        <v>9331.32</v>
-      </c>
-      <c r="L23" s="224" t="s">
+      <c r="M26" s="191" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="198" t="s">
+        <v>172</v>
+      </c>
+      <c r="B27" s="199">
+        <v>15514356</v>
+      </c>
+      <c r="C27" s="199">
+        <v>5011769</v>
+      </c>
+      <c r="D27" s="200">
+        <v>3.09558</v>
+      </c>
+      <c r="F27" s="198" t="s">
+        <v>172</v>
+      </c>
+      <c r="G27" s="200">
+        <v>3529869</v>
+      </c>
+      <c r="H27" s="200">
+        <v>20526125</v>
+      </c>
+      <c r="I27" s="202">
+        <v>0.17197000000000001</v>
+      </c>
+      <c r="K27" s="189">
+        <v>9489.11</v>
+      </c>
+      <c r="L27" s="190" t="s">
         <v>63</v>
       </c>
-      <c r="M23" s="226"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="232" t="s">
-        <v>170</v>
-      </c>
-      <c r="B24" s="233">
-        <v>12391366</v>
-      </c>
-      <c r="C24" s="233">
-        <v>6423858</v>
-      </c>
-      <c r="D24" s="234">
-        <v>1.92896</v>
-      </c>
-      <c r="F24" s="232" t="s">
-        <v>170</v>
-      </c>
-      <c r="G24" s="234">
-        <v>5229400</v>
-      </c>
-      <c r="H24" s="234">
-        <v>18815224</v>
-      </c>
-      <c r="I24" s="236">
-        <v>0.27793000000000001</v>
-      </c>
-      <c r="K24" s="223">
-        <v>9834.5650000000005</v>
-      </c>
-      <c r="L24" s="224" t="s">
+      <c r="M27" s="192"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="198" t="s">
+        <v>173</v>
+      </c>
+      <c r="B28" s="199">
+        <v>11027987</v>
+      </c>
+      <c r="C28" s="199">
+        <v>8970149</v>
+      </c>
+      <c r="D28" s="200">
+        <v>1.2294099999999999</v>
+      </c>
+      <c r="F28" s="198" t="s">
+        <v>173</v>
+      </c>
+      <c r="G28" s="200">
+        <v>7303493</v>
+      </c>
+      <c r="H28" s="200">
+        <v>19998136</v>
+      </c>
+      <c r="I28" s="202">
+        <v>0.36520999999999998</v>
+      </c>
+      <c r="K28" s="189">
+        <v>8949.7009999999991</v>
+      </c>
+      <c r="L28" s="190" t="s">
         <v>64</v>
       </c>
-      <c r="M24" s="226"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="232" t="s">
-        <v>171</v>
-      </c>
-      <c r="B25" s="233">
-        <v>12041437</v>
-      </c>
-      <c r="C25" s="233">
-        <v>4704258</v>
-      </c>
-      <c r="D25" s="234">
-        <v>2.5596899999999998</v>
-      </c>
-      <c r="F25" s="232" t="s">
-        <v>171</v>
-      </c>
-      <c r="G25" s="234">
-        <v>7004562</v>
-      </c>
-      <c r="H25" s="234">
-        <v>16745695</v>
-      </c>
-      <c r="I25" s="236">
-        <v>0.41829</v>
-      </c>
-      <c r="K25" s="223">
-        <v>10088.42</v>
-      </c>
-      <c r="L25" s="224" t="s">
+      <c r="M28" s="192"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="198" t="s">
+        <v>174</v>
+      </c>
+      <c r="B29" s="199">
+        <v>13733025</v>
+      </c>
+      <c r="C29" s="199">
+        <v>5173388</v>
+      </c>
+      <c r="D29" s="200">
+        <v>2.65455</v>
+      </c>
+      <c r="F29" s="198" t="s">
+        <v>174</v>
+      </c>
+      <c r="G29" s="200">
+        <v>9109445</v>
+      </c>
+      <c r="H29" s="200">
+        <v>18906413</v>
+      </c>
+      <c r="I29" s="202">
+        <v>0.48182000000000003</v>
+      </c>
+      <c r="K29" s="189">
+        <v>8710.6720000000005</v>
+      </c>
+      <c r="L29" s="190" t="s">
         <v>93</v>
       </c>
-      <c r="M25" s="226"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="232" t="s">
-        <v>172</v>
-      </c>
-      <c r="B26" s="233">
-        <v>13229294</v>
-      </c>
-      <c r="C26" s="233">
-        <v>7012519</v>
-      </c>
-      <c r="D26" s="234">
-        <v>1.88653</v>
-      </c>
-      <c r="F26" s="232" t="s">
-        <v>172</v>
-      </c>
-      <c r="G26" s="234">
-        <v>1839131</v>
-      </c>
-      <c r="H26" s="234">
-        <v>20241813</v>
-      </c>
-      <c r="I26" s="236">
-        <v>9.0859999999999996E-2</v>
-      </c>
-      <c r="K26" s="223">
-        <v>10666.732</v>
-      </c>
-      <c r="L26" s="224" t="s">
+      <c r="M29" s="192"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="198" t="s">
+        <v>175</v>
+      </c>
+      <c r="B30" s="199">
+        <v>16752108</v>
+      </c>
+      <c r="C30" s="199">
+        <v>5075213</v>
+      </c>
+      <c r="D30" s="200">
+        <v>3.30077</v>
+      </c>
+      <c r="F30" s="198" t="s">
+        <v>175</v>
+      </c>
+      <c r="G30" s="200">
+        <v>1748520</v>
+      </c>
+      <c r="H30" s="200">
+        <v>21827321</v>
+      </c>
+      <c r="I30" s="202">
+        <v>8.0110000000000001E-2</v>
+      </c>
+      <c r="K30" s="189">
+        <v>9766.9030000000002</v>
+      </c>
+      <c r="L30" s="190" t="s">
         <v>62</v>
       </c>
-      <c r="M26" s="225" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="232" t="s">
-        <v>173</v>
-      </c>
-      <c r="B27" s="233">
-        <v>15514356</v>
-      </c>
-      <c r="C27" s="233">
-        <v>5011769</v>
-      </c>
-      <c r="D27" s="234">
-        <v>3.09558</v>
-      </c>
-      <c r="F27" s="232" t="s">
-        <v>173</v>
-      </c>
-      <c r="G27" s="234">
-        <v>3529869</v>
-      </c>
-      <c r="H27" s="234">
-        <v>20526125</v>
-      </c>
-      <c r="I27" s="236">
-        <v>0.17197000000000001</v>
-      </c>
-      <c r="K27" s="223">
-        <v>9489.11</v>
-      </c>
-      <c r="L27" s="224" t="s">
+      <c r="M30" s="191" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="198" t="s">
+        <v>176</v>
+      </c>
+      <c r="B31" s="199">
+        <v>12977603</v>
+      </c>
+      <c r="C31" s="199">
+        <v>9062375</v>
+      </c>
+      <c r="D31" s="200">
+        <v>1.4320299999999999</v>
+      </c>
+      <c r="F31" s="198" t="s">
+        <v>176</v>
+      </c>
+      <c r="G31" s="200">
+        <v>3697232</v>
+      </c>
+      <c r="H31" s="200">
+        <v>22039978</v>
+      </c>
+      <c r="I31" s="202">
+        <v>0.16775000000000001</v>
+      </c>
+      <c r="K31" s="189">
+        <v>9119.0249999999996</v>
+      </c>
+      <c r="L31" s="190" t="s">
         <v>63</v>
       </c>
-      <c r="M27" s="226"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="232" t="s">
-        <v>174</v>
-      </c>
-      <c r="B28" s="233">
-        <v>11027987</v>
-      </c>
-      <c r="C28" s="233">
-        <v>8970149</v>
-      </c>
-      <c r="D28" s="234">
-        <v>1.2294099999999999</v>
-      </c>
-      <c r="F28" s="232" t="s">
-        <v>174</v>
-      </c>
-      <c r="G28" s="234">
-        <v>7303493</v>
-      </c>
-      <c r="H28" s="234">
-        <v>19998136</v>
-      </c>
-      <c r="I28" s="236">
-        <v>0.36520999999999998</v>
-      </c>
-      <c r="K28" s="223">
-        <v>8949.7009999999991</v>
-      </c>
-      <c r="L28" s="224" t="s">
+      <c r="M31" s="192"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="198" t="s">
+        <v>177</v>
+      </c>
+      <c r="B32" s="199">
+        <v>13926354</v>
+      </c>
+      <c r="C32" s="199">
+        <v>6887584</v>
+      </c>
+      <c r="D32" s="200">
+        <v>2.0219499999999999</v>
+      </c>
+      <c r="F32" s="198" t="s">
+        <v>177</v>
+      </c>
+      <c r="G32" s="200">
+        <v>5509603</v>
+      </c>
+      <c r="H32" s="200">
+        <v>20813938</v>
+      </c>
+      <c r="I32" s="202">
+        <v>0.26471</v>
+      </c>
+      <c r="K32" s="189">
+        <v>9154.4079999999994</v>
+      </c>
+      <c r="L32" s="190" t="s">
         <v>64</v>
       </c>
-      <c r="M28" s="226"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="232" t="s">
-        <v>175</v>
-      </c>
-      <c r="B29" s="233">
-        <v>13733025</v>
-      </c>
-      <c r="C29" s="233">
-        <v>5173388</v>
-      </c>
-      <c r="D29" s="234">
-        <v>2.65455</v>
-      </c>
-      <c r="F29" s="232" t="s">
-        <v>175</v>
-      </c>
-      <c r="G29" s="234">
-        <v>9109445</v>
-      </c>
-      <c r="H29" s="234">
-        <v>18906413</v>
-      </c>
-      <c r="I29" s="236">
-        <v>0.48182000000000003</v>
-      </c>
-      <c r="K29" s="223">
-        <v>8710.6720000000005</v>
-      </c>
-      <c r="L29" s="224" t="s">
+      <c r="M32" s="192"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="198" t="s">
+        <v>178</v>
+      </c>
+      <c r="B33" s="199">
+        <v>15367509</v>
+      </c>
+      <c r="C33" s="199">
+        <v>5281862</v>
+      </c>
+      <c r="D33" s="200">
+        <v>2.9094899999999999</v>
+      </c>
+      <c r="F33" s="198" t="s">
+        <v>178</v>
+      </c>
+      <c r="G33" s="200">
+        <v>7392837</v>
+      </c>
+      <c r="H33" s="200">
+        <v>20649371</v>
+      </c>
+      <c r="I33" s="202">
+        <v>0.35802</v>
+      </c>
+      <c r="K33" s="189">
+        <v>8581.8040000000001</v>
+      </c>
+      <c r="L33" s="190" t="s">
         <v>93</v>
       </c>
-      <c r="M29" s="226"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="232" t="s">
-        <v>176</v>
-      </c>
-      <c r="B30" s="233">
-        <v>16752108</v>
-      </c>
-      <c r="C30" s="233">
-        <v>5075213</v>
-      </c>
-      <c r="D30" s="234">
-        <v>3.30077</v>
-      </c>
-      <c r="F30" s="232" t="s">
-        <v>176</v>
-      </c>
-      <c r="G30" s="234">
-        <v>1748520</v>
-      </c>
-      <c r="H30" s="234">
-        <v>21827321</v>
-      </c>
-      <c r="I30" s="236">
-        <v>8.0110000000000001E-2</v>
-      </c>
-      <c r="K30" s="223">
-        <v>9766.9030000000002</v>
-      </c>
-      <c r="L30" s="224" t="s">
-        <v>62</v>
-      </c>
-      <c r="M30" s="225" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="232" t="s">
-        <v>177</v>
-      </c>
-      <c r="B31" s="233">
-        <v>12977603</v>
-      </c>
-      <c r="C31" s="233">
-        <v>9062375</v>
-      </c>
-      <c r="D31" s="234">
-        <v>1.4320299999999999</v>
-      </c>
-      <c r="F31" s="232" t="s">
-        <v>177</v>
-      </c>
-      <c r="G31" s="234">
-        <v>3697232</v>
-      </c>
-      <c r="H31" s="234">
-        <v>22039978</v>
-      </c>
-      <c r="I31" s="236">
-        <v>0.16775000000000001</v>
-      </c>
-      <c r="K31" s="223">
-        <v>9119.0249999999996</v>
-      </c>
-      <c r="L31" s="224" t="s">
-        <v>63</v>
-      </c>
-      <c r="M31" s="226"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="232" t="s">
-        <v>178</v>
-      </c>
-      <c r="B32" s="233">
-        <v>13926354</v>
-      </c>
-      <c r="C32" s="233">
-        <v>6887584</v>
-      </c>
-      <c r="D32" s="234">
-        <v>2.0219499999999999</v>
-      </c>
-      <c r="F32" s="232" t="s">
-        <v>178</v>
-      </c>
-      <c r="G32" s="234">
-        <v>5509603</v>
-      </c>
-      <c r="H32" s="234">
-        <v>20813938</v>
-      </c>
-      <c r="I32" s="236">
-        <v>0.26471</v>
-      </c>
-      <c r="K32" s="223">
-        <v>9154.4079999999994</v>
-      </c>
-      <c r="L32" s="224" t="s">
-        <v>64</v>
-      </c>
-      <c r="M32" s="226"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="232" t="s">
-        <v>179</v>
-      </c>
-      <c r="B33" s="233">
-        <v>15367509</v>
-      </c>
-      <c r="C33" s="233">
-        <v>5281862</v>
-      </c>
-      <c r="D33" s="234">
-        <v>2.9094899999999999</v>
-      </c>
-      <c r="F33" s="232" t="s">
-        <v>179</v>
-      </c>
-      <c r="G33" s="234">
-        <v>7392837</v>
-      </c>
-      <c r="H33" s="234">
-        <v>20649371</v>
-      </c>
-      <c r="I33" s="236">
-        <v>0.35802</v>
-      </c>
-      <c r="K33" s="223">
-        <v>8581.8040000000001</v>
-      </c>
-      <c r="L33" s="224" t="s">
-        <v>93</v>
-      </c>
-      <c r="M33" s="226"/>
+      <c r="M33" s="192"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21398,2184 +21374,2184 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="15.140625" style="182"/>
-    <col min="4" max="5" width="15.140625" style="189"/>
-    <col min="6" max="6" width="8.28515625" style="190" customWidth="1"/>
-    <col min="7" max="8" width="15.140625" style="190"/>
-    <col min="9" max="9" width="8.28515625" style="190" customWidth="1"/>
-    <col min="10" max="11" width="15.140625" style="190"/>
-    <col min="12" max="12" width="8.28515625" style="190" customWidth="1"/>
-    <col min="13" max="14" width="15.140625" style="190"/>
-    <col min="15" max="15" width="8.28515625" style="190" customWidth="1"/>
-    <col min="16" max="17" width="15.140625" style="190"/>
-    <col min="18" max="18" width="8.28515625" style="190" customWidth="1"/>
-    <col min="19" max="16384" width="15.140625" style="190"/>
+    <col min="1" max="3" width="15.140625" style="176"/>
+    <col min="4" max="5" width="15.140625" style="183"/>
+    <col min="6" max="6" width="8.28515625" style="184" customWidth="1"/>
+    <col min="7" max="8" width="15.140625" style="184"/>
+    <col min="9" max="9" width="8.28515625" style="184" customWidth="1"/>
+    <col min="10" max="11" width="15.140625" style="184"/>
+    <col min="12" max="12" width="8.28515625" style="184" customWidth="1"/>
+    <col min="13" max="14" width="15.140625" style="184"/>
+    <col min="15" max="15" width="8.28515625" style="184" customWidth="1"/>
+    <col min="16" max="17" width="15.140625" style="184"/>
+    <col min="18" max="18" width="8.28515625" style="184" customWidth="1"/>
+    <col min="19" max="16384" width="15.140625" style="184"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" s="182" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D1" s="191"/>
-      <c r="E1" s="191"/>
-      <c r="F1" s="188"/>
-      <c r="G1" s="186"/>
-      <c r="H1" s="186"/>
-      <c r="I1" s="186"/>
-      <c r="J1" s="188"/>
-      <c r="K1" s="188"/>
-      <c r="L1" s="188"/>
-      <c r="M1" s="186"/>
-      <c r="N1" s="186"/>
-      <c r="O1" s="186"/>
-      <c r="P1" s="188"/>
-      <c r="Q1" s="188"/>
-      <c r="R1" s="188"/>
-    </row>
-    <row r="2" spans="2:18" s="183" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="192" t="s">
+    <row r="1" spans="2:18" s="176" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D1" s="185"/>
+      <c r="E1" s="185"/>
+      <c r="F1" s="182"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
+      <c r="J1" s="182"/>
+      <c r="K1" s="182"/>
+      <c r="L1" s="182"/>
+      <c r="M1" s="180"/>
+      <c r="N1" s="180"/>
+      <c r="O1" s="180"/>
+      <c r="P1" s="182"/>
+      <c r="Q1" s="182"/>
+      <c r="R1" s="182"/>
+    </row>
+    <row r="2" spans="2:18" s="177" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="186" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" s="186" t="s">
         <v>133</v>
       </c>
-      <c r="E2" s="192" t="s">
+      <c r="F2" s="181" t="s">
+        <v>101</v>
+      </c>
+      <c r="G2" s="179" t="s">
         <v>134</v>
       </c>
-      <c r="F2" s="187" t="s">
-        <v>101</v>
-      </c>
-      <c r="G2" s="185" t="s">
+      <c r="H2" s="179" t="s">
         <v>135</v>
       </c>
-      <c r="H2" s="185" t="s">
+      <c r="I2" s="179" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="181" t="s">
+        <v>134</v>
+      </c>
+      <c r="K2" s="181" t="s">
         <v>136</v>
       </c>
-      <c r="I2" s="185" t="s">
-        <v>51</v>
-      </c>
-      <c r="J2" s="187" t="s">
+      <c r="L2" s="181" t="s">
+        <v>100</v>
+      </c>
+      <c r="M2" s="179" t="s">
+        <v>137</v>
+      </c>
+      <c r="N2" s="179" t="s">
+        <v>136</v>
+      </c>
+      <c r="O2" s="179" t="s">
+        <v>49</v>
+      </c>
+      <c r="P2" s="181" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q2" s="181" t="s">
         <v>135</v>
       </c>
-      <c r="K2" s="187" t="s">
-        <v>137</v>
-      </c>
-      <c r="L2" s="187" t="s">
-        <v>100</v>
-      </c>
-      <c r="M2" s="185" t="s">
-        <v>138</v>
-      </c>
-      <c r="N2" s="185" t="s">
-        <v>137</v>
-      </c>
-      <c r="O2" s="185" t="s">
-        <v>49</v>
-      </c>
-      <c r="P2" s="187" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q2" s="187" t="s">
-        <v>136</v>
-      </c>
-      <c r="R2" s="187" t="s">
+      <c r="R2" s="181" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="2:18" s="182" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="184" t="s">
+    <row r="3" spans="2:18" s="176" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="178" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="182" t="s">
+      <c r="C3" s="176" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="191">
+      <c r="D3" s="185">
         <f>BALANCE_SHEET!E6</f>
         <v>5698982</v>
       </c>
-      <c r="E3" s="191">
+      <c r="E3" s="185">
         <f>BALANCE_SHEET!E12</f>
         <v>7151813</v>
       </c>
-      <c r="F3" s="188">
+      <c r="F3" s="182">
         <f>D3/E3</f>
         <v>0.79685836304724411</v>
       </c>
-      <c r="G3" s="186">
+      <c r="G3" s="180">
         <f>BALANCE_SHEET!E$12</f>
         <v>7151813</v>
       </c>
-      <c r="H3" s="186">
+      <c r="H3" s="180">
         <f>BALANCE_SHEET!E$14</f>
         <v>4843623</v>
       </c>
-      <c r="I3" s="186">
+      <c r="I3" s="180">
         <f>G3/H3</f>
         <v>1.476542043012018</v>
       </c>
-      <c r="J3" s="188">
+      <c r="J3" s="182">
         <f>G3</f>
         <v>7151813</v>
       </c>
-      <c r="K3" s="188">
+      <c r="K3" s="182">
         <f>BALANCE_SHEET!E$8</f>
         <v>11995436</v>
       </c>
-      <c r="L3" s="188">
+      <c r="L3" s="182">
         <f>J3/K3</f>
         <v>0.59621117565047244</v>
       </c>
-      <c r="M3" s="186">
+      <c r="M3" s="180">
         <f>INCOME_STATEMENT!C$18</f>
         <v>1162686</v>
       </c>
-      <c r="N3" s="186">
+      <c r="N3" s="180">
         <f>K3</f>
         <v>11995436</v>
       </c>
-      <c r="O3" s="186">
+      <c r="O3" s="180">
         <f>M3/N3</f>
         <v>9.6927364707710503E-2</v>
       </c>
-      <c r="P3" s="188">
+      <c r="P3" s="182">
         <f>M3</f>
         <v>1162686</v>
       </c>
-      <c r="Q3" s="188">
+      <c r="Q3" s="182">
         <f>H3</f>
         <v>4843623</v>
       </c>
-      <c r="R3" s="188">
+      <c r="R3" s="182">
         <f>P3/Q3</f>
         <v>0.24004469381700433</v>
       </c>
     </row>
-    <row r="4" spans="2:18" s="182" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="182" t="s">
+    <row r="4" spans="2:18" s="176" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="176" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="191">
+      <c r="D4" s="185">
         <f>BALANCE_SHEET!F$6</f>
         <v>7474079</v>
       </c>
-      <c r="E4" s="191">
+      <c r="E4" s="185">
         <f>BALANCE_SHEET!F$12</f>
         <v>10182580</v>
       </c>
-      <c r="F4" s="188">
+      <c r="F4" s="182">
         <f>D4/E4</f>
         <v>0.73400641094889507</v>
       </c>
-      <c r="G4" s="186">
+      <c r="G4" s="180">
         <f>BALANCE_SHEET!F$12</f>
         <v>10182580</v>
       </c>
-      <c r="H4" s="186">
+      <c r="H4" s="180">
         <f>BALANCE_SHEET!F$14</f>
         <v>3752158</v>
       </c>
-      <c r="I4" s="186">
+      <c r="I4" s="180">
         <f t="shared" ref="I4:I34" si="0">G4/H4</f>
         <v>2.7137929692726157</v>
       </c>
-      <c r="J4" s="188">
+      <c r="J4" s="182">
         <f t="shared" ref="J4:J34" si="1">G4</f>
         <v>10182580</v>
       </c>
-      <c r="K4" s="188">
+      <c r="K4" s="182">
         <f>BALANCE_SHEET!F$8</f>
         <v>13934738</v>
       </c>
-      <c r="L4" s="188">
+      <c r="L4" s="182">
         <f t="shared" ref="L4:L34" si="2">J4/K4</f>
         <v>0.73073350930602354</v>
       </c>
-      <c r="M4" s="186">
+      <c r="M4" s="180">
         <f>INCOME_STATEMENT!D$18</f>
         <v>2329701</v>
       </c>
-      <c r="N4" s="186">
+      <c r="N4" s="180">
         <f t="shared" ref="N4:N34" si="3">K4</f>
         <v>13934738</v>
       </c>
-      <c r="O4" s="186">
+      <c r="O4" s="180">
         <f t="shared" ref="O4:O34" si="4">M4/N4</f>
         <v>0.16718656640691773</v>
       </c>
-      <c r="P4" s="188">
+      <c r="P4" s="182">
         <f t="shared" ref="P4:P34" si="5">M4</f>
         <v>2329701</v>
       </c>
-      <c r="Q4" s="188">
+      <c r="Q4" s="182">
         <f t="shared" ref="Q4:Q34" si="6">H4</f>
         <v>3752158</v>
       </c>
-      <c r="R4" s="188">
+      <c r="R4" s="182">
         <f t="shared" ref="R4:R34" si="7">P4/Q4</f>
         <v>0.62089629487884035</v>
       </c>
     </row>
-    <row r="5" spans="2:18" s="182" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="182" t="s">
+    <row r="5" spans="2:18" s="176" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="176" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="191">
+      <c r="D5" s="185">
         <f>BALANCE_SHEET!G$6</f>
         <v>5771516</v>
       </c>
-      <c r="E5" s="191">
+      <c r="E5" s="185">
         <f>BALANCE_SHEET!G$12</f>
         <v>7316284</v>
       </c>
-      <c r="F5" s="188">
+      <c r="F5" s="182">
         <f t="shared" ref="F5:F34" si="8">D5/E5</f>
         <v>0.78885893439893806</v>
       </c>
-      <c r="G5" s="186">
+      <c r="G5" s="180">
         <f>BALANCE_SHEET!G$12</f>
         <v>7316284</v>
       </c>
-      <c r="H5" s="186">
+      <c r="H5" s="180">
         <f>BALANCE_SHEET!G$14</f>
         <v>5105626</v>
       </c>
-      <c r="I5" s="186">
+      <c r="I5" s="180">
         <f t="shared" si="0"/>
         <v>1.4329847113752554</v>
       </c>
-      <c r="J5" s="188">
+      <c r="J5" s="182">
         <f t="shared" si="1"/>
         <v>7316284</v>
       </c>
-      <c r="K5" s="188">
+      <c r="K5" s="182">
         <f>BALANCE_SHEET!G$8</f>
         <v>12421910</v>
       </c>
-      <c r="L5" s="188">
+      <c r="L5" s="182">
         <f t="shared" si="2"/>
         <v>0.5889822096601891</v>
       </c>
-      <c r="M5" s="186">
+      <c r="M5" s="180">
         <f>INCOME_STATEMENT!E$18</f>
         <v>3653568</v>
       </c>
-      <c r="N5" s="186">
+      <c r="N5" s="180">
         <f t="shared" si="3"/>
         <v>12421910</v>
       </c>
-      <c r="O5" s="186">
+      <c r="O5" s="180">
         <f t="shared" si="4"/>
         <v>0.29412288448394813</v>
       </c>
-      <c r="P5" s="188">
+      <c r="P5" s="182">
         <f t="shared" si="5"/>
         <v>3653568</v>
       </c>
-      <c r="Q5" s="188">
+      <c r="Q5" s="182">
         <f t="shared" si="6"/>
         <v>5105626</v>
       </c>
-      <c r="R5" s="188">
+      <c r="R5" s="182">
         <f t="shared" si="7"/>
         <v>0.71559648121503616</v>
       </c>
     </row>
-    <row r="6" spans="2:18" s="182" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="182" t="s">
+    <row r="6" spans="2:18" s="176" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="176" t="s">
         <v>93</v>
       </c>
-      <c r="D6" s="191">
+      <c r="D6" s="185">
         <f>BALANCE_SHEET!H$6</f>
         <v>5035962</v>
       </c>
-      <c r="E6" s="191">
+      <c r="E6" s="185">
         <f>BALANCE_SHEET!H$12</f>
         <v>8016614</v>
       </c>
-      <c r="F6" s="188">
+      <c r="F6" s="182">
         <f t="shared" si="8"/>
         <v>0.62819065505711014</v>
       </c>
-      <c r="G6" s="186">
+      <c r="G6" s="180">
         <f>BALANCE_SHEET!H$12</f>
         <v>8016614</v>
       </c>
-      <c r="H6" s="186">
+      <c r="H6" s="180">
         <f>BALANCE_SHEET!H$14</f>
         <v>3968365</v>
       </c>
-      <c r="I6" s="186">
+      <c r="I6" s="180">
         <f t="shared" si="0"/>
         <v>2.020130204756871</v>
       </c>
-      <c r="J6" s="188">
+      <c r="J6" s="182">
         <f t="shared" si="1"/>
         <v>8016614</v>
       </c>
-      <c r="K6" s="188">
+      <c r="K6" s="182">
         <f>BALANCE_SHEET!H$8</f>
         <v>11984979</v>
       </c>
-      <c r="L6" s="188">
+      <c r="L6" s="182">
         <f t="shared" si="2"/>
         <v>0.66888844778117673</v>
       </c>
-      <c r="M6" s="186">
+      <c r="M6" s="180">
         <f>INCOME_STATEMENT!F$18</f>
         <v>4839145</v>
       </c>
-      <c r="N6" s="186">
+      <c r="N6" s="180">
         <f t="shared" si="3"/>
         <v>11984979</v>
       </c>
-      <c r="O6" s="186">
+      <c r="O6" s="180">
         <f t="shared" si="4"/>
         <v>0.40376749930058281</v>
       </c>
-      <c r="P6" s="188">
+      <c r="P6" s="182">
         <f t="shared" si="5"/>
         <v>4839145</v>
       </c>
-      <c r="Q6" s="188">
+      <c r="Q6" s="182">
         <f t="shared" si="6"/>
         <v>3968365</v>
       </c>
-      <c r="R6" s="188">
+      <c r="R6" s="182">
         <f t="shared" si="7"/>
         <v>1.2194304203368389</v>
       </c>
     </row>
-    <row r="7" spans="2:18" s="182" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="184" t="s">
+    <row r="7" spans="2:18" s="176" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="178" t="s">
         <v>118</v>
       </c>
-      <c r="C7" s="182" t="s">
+      <c r="C7" s="176" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="191">
+      <c r="D7" s="185">
         <f>BALANCE_SHEET!I$6</f>
         <v>5828057</v>
       </c>
-      <c r="E7" s="191">
+      <c r="E7" s="185">
         <f>BALANCE_SHEET!I$12</f>
         <v>7505909</v>
       </c>
-      <c r="F7" s="188">
+      <c r="F7" s="182">
         <f t="shared" si="8"/>
         <v>0.77646251773103037</v>
       </c>
-      <c r="G7" s="186">
+      <c r="G7" s="180">
         <f>BALANCE_SHEET!I$12</f>
         <v>7505909</v>
       </c>
-      <c r="H7" s="186">
+      <c r="H7" s="180">
         <f>BALANCE_SHEET!I$14</f>
         <v>5400348</v>
       </c>
-      <c r="I7" s="186">
+      <c r="I7" s="180">
         <f t="shared" si="0"/>
         <v>1.3898935772287266</v>
       </c>
-      <c r="J7" s="188">
+      <c r="J7" s="182">
         <f t="shared" si="1"/>
         <v>7505909</v>
       </c>
-      <c r="K7" s="188">
+      <c r="K7" s="182">
         <f>BALANCE_SHEET!I$8</f>
         <v>12906257</v>
       </c>
-      <c r="L7" s="188">
+      <c r="L7" s="182">
         <f t="shared" si="2"/>
         <v>0.58157132621797314</v>
       </c>
-      <c r="M7" s="186">
+      <c r="M7" s="180">
         <f>INCOME_STATEMENT!G$18</f>
         <v>9822451</v>
       </c>
-      <c r="N7" s="186">
+      <c r="N7" s="180">
         <f t="shared" si="3"/>
         <v>12906257</v>
       </c>
-      <c r="O7" s="186">
+      <c r="O7" s="180">
         <f t="shared" si="4"/>
         <v>0.76106116591355655</v>
       </c>
-      <c r="P7" s="188">
+      <c r="P7" s="182">
         <f t="shared" si="5"/>
         <v>9822451</v>
       </c>
-      <c r="Q7" s="188">
+      <c r="Q7" s="182">
         <f t="shared" si="6"/>
         <v>5400348</v>
       </c>
-      <c r="R7" s="188">
+      <c r="R7" s="182">
         <f t="shared" si="7"/>
         <v>1.8188551922950151</v>
       </c>
     </row>
-    <row r="8" spans="2:18" s="182" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="182" t="s">
+    <row r="8" spans="2:18" s="176" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="176" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="191">
+      <c r="D8" s="185">
         <f>BALANCE_SHEET!J$6</f>
         <v>7071858</v>
       </c>
-      <c r="E8" s="191">
+      <c r="E8" s="185">
         <f>BALANCE_SHEET!J$12</f>
         <v>9949299</v>
       </c>
-      <c r="F8" s="188">
+      <c r="F8" s="182">
         <f t="shared" si="8"/>
         <v>0.71078957422025413</v>
       </c>
-      <c r="G8" s="186">
+      <c r="G8" s="180">
         <f>BALANCE_SHEET!J$12</f>
         <v>9949299</v>
       </c>
-      <c r="H8" s="186">
+      <c r="H8" s="180">
         <f>BALANCE_SHEET!J$14</f>
         <v>4243835</v>
       </c>
-      <c r="I8" s="186">
+      <c r="I8" s="180">
         <f t="shared" si="0"/>
         <v>2.3444123063219942</v>
       </c>
-      <c r="J8" s="188">
+      <c r="J8" s="182">
         <f t="shared" si="1"/>
         <v>9949299</v>
       </c>
-      <c r="K8" s="188">
+      <c r="K8" s="182">
         <f>BALANCE_SHEET!J$8</f>
         <v>14193134</v>
       </c>
-      <c r="L8" s="188">
+      <c r="L8" s="182">
         <f t="shared" si="2"/>
         <v>0.70099380446911863</v>
       </c>
-      <c r="M8" s="186">
+      <c r="M8" s="180">
         <f>INCOME_STATEMENT!H$18</f>
         <v>2823890</v>
       </c>
-      <c r="N8" s="186">
+      <c r="N8" s="180">
         <f t="shared" si="3"/>
         <v>14193134</v>
       </c>
-      <c r="O8" s="186">
+      <c r="O8" s="180">
         <f t="shared" si="4"/>
         <v>0.19896169514076315</v>
       </c>
-      <c r="P8" s="188">
+      <c r="P8" s="182">
         <f t="shared" si="5"/>
         <v>2823890</v>
       </c>
-      <c r="Q8" s="188">
+      <c r="Q8" s="182">
         <f t="shared" si="6"/>
         <v>4243835</v>
       </c>
-      <c r="R8" s="188">
+      <c r="R8" s="182">
         <f t="shared" si="7"/>
         <v>0.66540994171545309</v>
       </c>
     </row>
-    <row r="9" spans="2:18" s="182" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="182" t="s">
+    <row r="9" spans="2:18" s="176" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="176" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="191">
+      <c r="D9" s="185">
         <f>BALANCE_SHEET!K$6</f>
         <v>6118018</v>
       </c>
-      <c r="E9" s="191">
+      <c r="E9" s="185">
         <f>BALANCE_SHEET!K$12</f>
         <v>7829734</v>
       </c>
-      <c r="F9" s="188">
+      <c r="F9" s="182">
         <f t="shared" si="8"/>
         <v>0.7813826114654725</v>
       </c>
-      <c r="G9" s="186">
+      <c r="G9" s="180">
         <f>BALANCE_SHEET!K$12</f>
         <v>7829734</v>
       </c>
-      <c r="H9" s="186">
+      <c r="H9" s="180">
         <f>BALANCE_SHEET!K$14</f>
         <v>5510444</v>
       </c>
-      <c r="I9" s="186">
+      <c r="I9" s="180">
         <f t="shared" si="0"/>
         <v>1.4208898593289396</v>
       </c>
-      <c r="J9" s="188">
+      <c r="J9" s="182">
         <f t="shared" si="1"/>
         <v>7829734</v>
       </c>
-      <c r="K9" s="188">
+      <c r="K9" s="182">
         <f>BALANCE_SHEET!K$8</f>
         <v>13340178</v>
       </c>
-      <c r="L9" s="188">
+      <c r="L9" s="182">
         <f t="shared" si="2"/>
         <v>0.58692875012612278</v>
       </c>
-      <c r="M9" s="186">
+      <c r="M9" s="180">
         <f>INCOME_STATEMENT!I$18</f>
         <v>4090499</v>
       </c>
-      <c r="N9" s="186">
+      <c r="N9" s="180">
         <f t="shared" si="3"/>
         <v>13340178</v>
       </c>
-      <c r="O9" s="186">
+      <c r="O9" s="180">
         <f t="shared" si="4"/>
         <v>0.30663001648103944</v>
       </c>
-      <c r="P9" s="188">
+      <c r="P9" s="182">
         <f t="shared" si="5"/>
         <v>4090499</v>
       </c>
-      <c r="Q9" s="188">
+      <c r="Q9" s="182">
         <f t="shared" si="6"/>
         <v>5510444</v>
       </c>
-      <c r="R9" s="188">
+      <c r="R9" s="182">
         <f t="shared" si="7"/>
         <v>0.74231749746481412</v>
       </c>
     </row>
-    <row r="10" spans="2:18" s="182" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="182" t="s">
+    <row r="10" spans="2:18" s="176" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="176" t="s">
         <v>93</v>
       </c>
-      <c r="D10" s="191">
+      <c r="D10" s="185">
         <f>BALANCE_SHEET!L$6</f>
         <v>5862939</v>
       </c>
-      <c r="E10" s="191">
+      <c r="E10" s="185">
         <f>BALANCE_SHEET!L$12</f>
         <v>9093518</v>
       </c>
-      <c r="F10" s="188">
+      <c r="F10" s="182">
         <f t="shared" si="8"/>
         <v>0.64473826301328041</v>
       </c>
-      <c r="G10" s="186">
+      <c r="G10" s="180">
         <f>BALANCE_SHEET!L$12</f>
         <v>9093518</v>
       </c>
-      <c r="H10" s="186">
+      <c r="H10" s="180">
         <f>BALANCE_SHEET!L$14</f>
         <v>4254670</v>
       </c>
-      <c r="I10" s="186">
+      <c r="I10" s="180">
         <f t="shared" si="0"/>
         <v>2.1373027755384082</v>
       </c>
-      <c r="J10" s="188">
+      <c r="J10" s="182">
         <f t="shared" si="1"/>
         <v>9093518</v>
       </c>
-      <c r="K10" s="188">
+      <c r="K10" s="182">
         <f>BALANCE_SHEET!L$8</f>
         <v>13348188</v>
       </c>
-      <c r="L10" s="188">
+      <c r="L10" s="182">
         <f t="shared" si="2"/>
         <v>0.68125486395606649</v>
       </c>
-      <c r="M10" s="186">
+      <c r="M10" s="180">
         <f>INCOME_STATEMENT!J$18</f>
         <v>5352625</v>
       </c>
-      <c r="N10" s="186">
+      <c r="N10" s="180">
         <f t="shared" si="3"/>
         <v>13348188</v>
       </c>
-      <c r="O10" s="186">
+      <c r="O10" s="180">
         <f t="shared" si="4"/>
         <v>0.40100012076545521</v>
       </c>
-      <c r="P10" s="188">
+      <c r="P10" s="182">
         <f t="shared" si="5"/>
         <v>5352625</v>
       </c>
-      <c r="Q10" s="188">
+      <c r="Q10" s="182">
         <f t="shared" si="6"/>
         <v>4254670</v>
       </c>
-      <c r="R10" s="188">
+      <c r="R10" s="182">
         <f t="shared" si="7"/>
         <v>1.2580587918686996</v>
       </c>
     </row>
-    <row r="11" spans="2:18" s="182" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="184" t="s">
+    <row r="11" spans="2:18" s="176" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="178" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="182" t="s">
+      <c r="C11" s="176" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="191">
+      <c r="D11" s="185">
         <f>BALANCE_SHEET!M$6</f>
         <v>6956716</v>
       </c>
-      <c r="E11" s="191">
+      <c r="E11" s="185">
         <f>BALANCE_SHEET!M$12</f>
         <v>8698529</v>
       </c>
-      <c r="F11" s="188">
+      <c r="F11" s="182">
         <f t="shared" si="8"/>
         <v>0.79975775214406941</v>
       </c>
-      <c r="G11" s="186">
+      <c r="G11" s="180">
         <f>BALANCE_SHEET!M$12</f>
         <v>8698529</v>
       </c>
-      <c r="H11" s="186">
+      <c r="H11" s="180">
         <f>BALANCE_SHEET!M$14</f>
         <v>5615651</v>
       </c>
-      <c r="I11" s="186">
+      <c r="I11" s="180">
         <f t="shared" si="0"/>
         <v>1.548979628541731</v>
       </c>
-      <c r="J11" s="188">
+      <c r="J11" s="182">
         <f t="shared" si="1"/>
         <v>8698529</v>
       </c>
-      <c r="K11" s="188">
+      <c r="K11" s="182">
         <f>BALANCE_SHEET!M$8</f>
         <v>14314180</v>
       </c>
-      <c r="L11" s="188">
+      <c r="L11" s="182">
         <f t="shared" si="2"/>
         <v>0.60768615456840702</v>
       </c>
-      <c r="M11" s="186">
+      <c r="M11" s="180">
         <f>INCOME_STATEMENT!K$18</f>
         <v>1360981</v>
       </c>
-      <c r="N11" s="186">
+      <c r="N11" s="180">
         <f t="shared" si="3"/>
         <v>14314180</v>
       </c>
-      <c r="O11" s="186">
+      <c r="O11" s="180">
         <f t="shared" si="4"/>
         <v>9.5079215155880387E-2</v>
       </c>
-      <c r="P11" s="188">
+      <c r="P11" s="182">
         <f t="shared" si="5"/>
         <v>1360981</v>
       </c>
-      <c r="Q11" s="188">
+      <c r="Q11" s="182">
         <f t="shared" si="6"/>
         <v>5615651</v>
       </c>
-      <c r="R11" s="188">
+      <c r="R11" s="182">
         <f t="shared" si="7"/>
         <v>0.24235498253007531</v>
       </c>
     </row>
-    <row r="12" spans="2:18" s="182" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="182" t="s">
+    <row r="12" spans="2:18" s="176" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="176" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="191">
+      <c r="D12" s="185">
         <f>BALANCE_SHEET!N$6</f>
         <v>8505223</v>
       </c>
-      <c r="E12" s="191">
+      <c r="E12" s="185">
         <f>BALANCE_SHEET!N$12</f>
         <v>11685025</v>
       </c>
-      <c r="F12" s="188">
+      <c r="F12" s="182">
         <f t="shared" si="8"/>
         <v>0.72787375294447376</v>
       </c>
-      <c r="G12" s="186">
+      <c r="G12" s="180">
         <f>BALANCE_SHEET!N$12</f>
         <v>11685025</v>
       </c>
-      <c r="H12" s="186">
+      <c r="H12" s="180">
         <f>BALANCE_SHEET!N$14</f>
         <v>4271931</v>
       </c>
-      <c r="I12" s="186">
+      <c r="I12" s="180">
         <f t="shared" si="0"/>
         <v>2.7353028407996289</v>
       </c>
-      <c r="J12" s="188">
+      <c r="J12" s="182">
         <f t="shared" si="1"/>
         <v>11685025</v>
       </c>
-      <c r="K12" s="188">
+      <c r="K12" s="182">
         <f>BALANCE_SHEET!N$8</f>
         <v>15956956</v>
       </c>
-      <c r="L12" s="188">
+      <c r="L12" s="182">
         <f t="shared" si="2"/>
         <v>0.73228408977251047</v>
       </c>
-      <c r="M12" s="186">
+      <c r="M12" s="180">
         <f>INCOME_STATEMENT!L$18</f>
         <v>2847991</v>
       </c>
-      <c r="N12" s="186">
+      <c r="N12" s="180">
         <f t="shared" si="3"/>
         <v>15956956</v>
       </c>
-      <c r="O12" s="186">
+      <c r="O12" s="180">
         <f t="shared" si="4"/>
         <v>0.17847959222297788</v>
       </c>
-      <c r="P12" s="188">
+      <c r="P12" s="182">
         <f t="shared" si="5"/>
         <v>2847991</v>
       </c>
-      <c r="Q12" s="188">
+      <c r="Q12" s="182">
         <f t="shared" si="6"/>
         <v>4271931</v>
       </c>
-      <c r="R12" s="188">
+      <c r="R12" s="182">
         <f t="shared" si="7"/>
         <v>0.66667532785524863</v>
       </c>
     </row>
-    <row r="13" spans="2:18" s="182" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="182" t="s">
+    <row r="13" spans="2:18" s="176" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="176" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="191">
+      <c r="D13" s="185">
         <f>BALANCE_SHEET!O$6</f>
         <v>7520219</v>
       </c>
-      <c r="E13" s="191">
+      <c r="E13" s="185">
         <f>BALANCE_SHEET!O$12</f>
         <v>9697242</v>
       </c>
-      <c r="F13" s="188">
+      <c r="F13" s="182">
         <f t="shared" si="8"/>
         <v>0.77550080734295379</v>
       </c>
-      <c r="G13" s="186">
+      <c r="G13" s="180">
         <f>BALANCE_SHEET!O$12</f>
         <v>9697242</v>
       </c>
-      <c r="H13" s="186">
+      <c r="H13" s="180">
         <f>BALANCE_SHEET!O$14</f>
         <v>5472869</v>
       </c>
-      <c r="I13" s="186">
+      <c r="I13" s="180">
         <f t="shared" si="0"/>
         <v>1.7718754094059259</v>
       </c>
-      <c r="J13" s="188">
+      <c r="J13" s="182">
         <f t="shared" si="1"/>
         <v>9697242</v>
       </c>
-      <c r="K13" s="188">
+      <c r="K13" s="182">
         <f>BALANCE_SHEET!O$8</f>
         <v>15170111</v>
       </c>
-      <c r="L13" s="188">
+      <c r="L13" s="182">
         <f t="shared" si="2"/>
         <v>0.63923342419841223</v>
       </c>
-      <c r="M13" s="186">
+      <c r="M13" s="180">
         <f>INCOME_STATEMENT!M$18</f>
         <v>4048929</v>
       </c>
-      <c r="N13" s="186">
+      <c r="N13" s="180">
         <f t="shared" si="3"/>
         <v>15170111</v>
       </c>
-      <c r="O13" s="186">
+      <c r="O13" s="180">
         <f t="shared" si="4"/>
         <v>0.26690173855682403</v>
       </c>
-      <c r="P13" s="188">
+      <c r="P13" s="182">
         <f t="shared" si="5"/>
         <v>4048929</v>
       </c>
-      <c r="Q13" s="188">
+      <c r="Q13" s="182">
         <f t="shared" si="6"/>
         <v>5472869</v>
       </c>
-      <c r="R13" s="188">
+      <c r="R13" s="182">
         <f t="shared" si="7"/>
         <v>0.73981836583334992</v>
       </c>
     </row>
-    <row r="14" spans="2:18" s="182" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="182" t="s">
+    <row r="14" spans="2:18" s="176" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="176" t="s">
         <v>93</v>
       </c>
-      <c r="D14" s="191">
+      <c r="D14" s="185">
         <f>BALANCE_SHEET!P$6</f>
         <v>6337170</v>
       </c>
-      <c r="E14" s="191">
+      <c r="E14" s="185">
         <f>BALANCE_SHEET!P$12</f>
         <v>9681888</v>
       </c>
-      <c r="F14" s="188">
+      <c r="F14" s="182">
         <f t="shared" si="8"/>
         <v>0.65453866022825302</v>
       </c>
-      <c r="G14" s="186">
+      <c r="G14" s="180">
         <f>BALANCE_SHEET!P$12</f>
         <v>9681888</v>
       </c>
-      <c r="H14" s="186">
+      <c r="H14" s="180">
         <f>BALANCE_SHEET!P$14</f>
         <v>4598782</v>
       </c>
-      <c r="I14" s="186">
+      <c r="I14" s="180">
         <f t="shared" si="0"/>
         <v>2.1053157118558783</v>
       </c>
-      <c r="J14" s="188">
+      <c r="J14" s="182">
         <f t="shared" si="1"/>
         <v>9681888</v>
       </c>
-      <c r="K14" s="188">
+      <c r="K14" s="182">
         <f>BALANCE_SHEET!P$8</f>
         <v>14280670</v>
       </c>
-      <c r="L14" s="188">
+      <c r="L14" s="182">
         <f t="shared" si="2"/>
         <v>0.67797155175492463</v>
       </c>
-      <c r="M14" s="186">
+      <c r="M14" s="180">
         <f>INCOME_STATEMENT!N$18</f>
         <v>5738523</v>
       </c>
-      <c r="N14" s="186">
+      <c r="N14" s="180">
         <f t="shared" si="3"/>
         <v>14280670</v>
       </c>
-      <c r="O14" s="186">
+      <c r="O14" s="180">
         <f t="shared" si="4"/>
         <v>0.40183849917405834</v>
       </c>
-      <c r="P14" s="188">
+      <c r="P14" s="182">
         <f t="shared" si="5"/>
         <v>5738523</v>
       </c>
-      <c r="Q14" s="188">
+      <c r="Q14" s="182">
         <f t="shared" si="6"/>
         <v>4598782</v>
       </c>
-      <c r="R14" s="188">
+      <c r="R14" s="182">
         <f t="shared" si="7"/>
         <v>1.2478354051137888</v>
       </c>
     </row>
-    <row r="15" spans="2:18" s="182" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="184" t="s">
+    <row r="15" spans="2:18" s="176" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="178" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="182" t="s">
+      <c r="C15" s="176" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="191">
+      <c r="D15" s="185">
         <f>BALANCE_SHEET!Q$6</f>
         <v>6725675</v>
       </c>
-      <c r="E15" s="191">
+      <c r="E15" s="185">
         <f>BALANCE_SHEET!Q$12</f>
         <v>8434341</v>
       </c>
-      <c r="F15" s="188">
+      <c r="F15" s="182">
         <f t="shared" si="8"/>
         <v>0.79741558943372104</v>
       </c>
-      <c r="G15" s="186">
+      <c r="G15" s="180">
         <f>BALANCE_SHEET!Q$12</f>
         <v>8434341</v>
       </c>
-      <c r="H15" s="186">
+      <c r="H15" s="180">
         <f>BALANCE_SHEET!Q$14</f>
         <v>6338213</v>
       </c>
-      <c r="I15" s="186">
+      <c r="I15" s="180">
         <f t="shared" si="0"/>
         <v>1.3307127734583866</v>
       </c>
-      <c r="J15" s="188">
+      <c r="J15" s="182">
         <f t="shared" si="1"/>
         <v>8434341</v>
       </c>
-      <c r="K15" s="188">
+      <c r="K15" s="182">
         <f>BALANCE_SHEET!Q$8</f>
         <v>14772554</v>
       </c>
-      <c r="L15" s="188">
+      <c r="L15" s="182">
         <f t="shared" si="2"/>
         <v>0.57094670291948157</v>
       </c>
-      <c r="M15" s="186">
+      <c r="M15" s="180">
         <f>INCOME_STATEMENT!O$18</f>
         <v>1591699</v>
       </c>
-      <c r="N15" s="186">
+      <c r="N15" s="180">
         <f t="shared" si="3"/>
         <v>14772554</v>
       </c>
-      <c r="O15" s="186">
+      <c r="O15" s="180">
         <f t="shared" si="4"/>
         <v>0.10774704225146173</v>
       </c>
-      <c r="P15" s="188">
+      <c r="P15" s="182">
         <f t="shared" si="5"/>
         <v>1591699</v>
       </c>
-      <c r="Q15" s="188">
+      <c r="Q15" s="182">
         <f t="shared" si="6"/>
         <v>6338213</v>
       </c>
-      <c r="R15" s="188">
+      <c r="R15" s="182">
         <f t="shared" si="7"/>
         <v>0.25112740767784231</v>
       </c>
     </row>
-    <row r="16" spans="2:18" s="182" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="182" t="s">
+    <row r="16" spans="2:18" s="176" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="176" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="191">
+      <c r="D16" s="185">
         <f>BALANCE_SHEET!R$6</f>
         <v>8189284</v>
       </c>
-      <c r="E16" s="191">
+      <c r="E16" s="185">
         <f>BALANCE_SHEET!R$12</f>
         <v>11983104</v>
       </c>
-      <c r="F16" s="188">
+      <c r="F16" s="182">
         <f t="shared" si="8"/>
         <v>0.68340256414364764</v>
       </c>
-      <c r="G16" s="186">
+      <c r="G16" s="180">
         <f>BALANCE_SHEET!R$12</f>
         <v>11983104</v>
       </c>
-      <c r="H16" s="186">
+      <c r="H16" s="180">
         <f>BALANCE_SHEET!R$14</f>
         <v>4503074</v>
       </c>
-      <c r="I16" s="186">
+      <c r="I16" s="180">
         <f t="shared" si="0"/>
         <v>2.6610941769999781</v>
       </c>
-      <c r="J16" s="188">
+      <c r="J16" s="182">
         <f t="shared" si="1"/>
         <v>11983104</v>
       </c>
-      <c r="K16" s="188">
+      <c r="K16" s="182">
         <f>BALANCE_SHEET!R$8</f>
         <v>16486178</v>
       </c>
-      <c r="L16" s="188">
+      <c r="L16" s="182">
         <f t="shared" si="2"/>
         <v>0.72685761369311919</v>
       </c>
-      <c r="M16" s="186">
+      <c r="M16" s="180">
         <f>INCOME_STATEMENT!P$18</f>
         <v>2930640</v>
       </c>
-      <c r="N16" s="186">
+      <c r="N16" s="180">
         <f t="shared" si="3"/>
         <v>16486178</v>
       </c>
-      <c r="O16" s="186">
+      <c r="O16" s="180">
         <f t="shared" si="4"/>
         <v>0.17776345736410221</v>
       </c>
-      <c r="P16" s="188">
+      <c r="P16" s="182">
         <f t="shared" si="5"/>
         <v>2930640</v>
       </c>
-      <c r="Q16" s="188">
+      <c r="Q16" s="182">
         <f t="shared" si="6"/>
         <v>4503074</v>
       </c>
-      <c r="R16" s="188">
+      <c r="R16" s="182">
         <f t="shared" si="7"/>
         <v>0.65080875863909848</v>
       </c>
     </row>
-    <row r="17" spans="2:18" s="182" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="182" t="s">
+    <row r="17" spans="2:18" s="176" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="176" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="191">
+      <c r="D17" s="185">
         <f>BALANCE_SHEET!S$6</f>
         <v>7423304</v>
       </c>
-      <c r="E17" s="191">
+      <c r="E17" s="185">
         <f>BALANCE_SHEET!S$12</f>
         <v>10229164</v>
       </c>
-      <c r="F17" s="188">
+      <c r="F17" s="182">
         <f t="shared" si="8"/>
         <v>0.7256999692252466</v>
       </c>
-      <c r="G17" s="186">
+      <c r="G17" s="180">
         <f>BALANCE_SHEET!S$12</f>
         <v>10229164</v>
       </c>
-      <c r="H17" s="186">
+      <c r="H17" s="180">
         <f>BALANCE_SHEET!S$14</f>
         <v>5755607</v>
       </c>
-      <c r="I17" s="186">
+      <c r="I17" s="180">
         <f t="shared" si="0"/>
         <v>1.7772519909715865</v>
       </c>
-      <c r="J17" s="188">
+      <c r="J17" s="182">
         <f t="shared" si="1"/>
         <v>10229164</v>
       </c>
-      <c r="K17" s="188">
+      <c r="K17" s="182">
         <f>BALANCE_SHEET!S$8</f>
         <v>15984771</v>
       </c>
-      <c r="L17" s="188">
+      <c r="L17" s="182">
         <f t="shared" si="2"/>
         <v>0.6399318451293422</v>
       </c>
-      <c r="M17" s="186">
+      <c r="M17" s="180">
         <f>INCOME_STATEMENT!Q$18</f>
         <v>4183173</v>
       </c>
-      <c r="N17" s="186">
+      <c r="N17" s="180">
         <f t="shared" si="3"/>
         <v>15984771</v>
       </c>
-      <c r="O17" s="186">
+      <c r="O17" s="180">
         <f t="shared" si="4"/>
         <v>0.26169739935592445</v>
       </c>
-      <c r="P17" s="188">
+      <c r="P17" s="182">
         <f t="shared" si="5"/>
         <v>4183173</v>
       </c>
-      <c r="Q17" s="188">
+      <c r="Q17" s="182">
         <f t="shared" si="6"/>
         <v>5755607</v>
       </c>
-      <c r="R17" s="188">
+      <c r="R17" s="182">
         <f t="shared" si="7"/>
         <v>0.7267996233933276</v>
       </c>
     </row>
-    <row r="18" spans="2:18" s="182" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="182" t="s">
+    <row r="18" spans="2:18" s="176" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="176" t="s">
         <v>93</v>
       </c>
-      <c r="D18" s="191">
+      <c r="D18" s="185">
         <f>BALANCE_SHEET!T$6</f>
         <v>6623114</v>
       </c>
-      <c r="E18" s="191">
+      <c r="E18" s="185">
         <f>BALANCE_SHEET!T$12</f>
         <v>10902585</v>
       </c>
-      <c r="F18" s="188">
+      <c r="F18" s="182">
         <f t="shared" si="8"/>
         <v>0.60748106985636896</v>
       </c>
-      <c r="G18" s="186">
+      <c r="G18" s="180">
         <f>BALANCE_SHEET!T$12</f>
         <v>10902585</v>
       </c>
-      <c r="H18" s="186">
+      <c r="H18" s="180">
         <f>BALANCE_SHEET!T$14</f>
         <v>4827360</v>
       </c>
-      <c r="I18" s="186">
+      <c r="I18" s="180">
         <f t="shared" si="0"/>
         <v>2.2584984339266181</v>
       </c>
-      <c r="J18" s="188">
+      <c r="J18" s="182">
         <f t="shared" si="1"/>
         <v>10902585</v>
       </c>
-      <c r="K18" s="188">
+      <c r="K18" s="182">
         <f>BALANCE_SHEET!T$8</f>
         <v>15729945</v>
       </c>
-      <c r="L18" s="188">
+      <c r="L18" s="182">
         <f t="shared" si="2"/>
         <v>0.69311017934264874</v>
       </c>
-      <c r="M18" s="186">
+      <c r="M18" s="180">
         <f>INCOME_STATEMENT!R$18</f>
         <v>5851805</v>
       </c>
-      <c r="N18" s="186">
+      <c r="N18" s="180">
         <f t="shared" si="3"/>
         <v>15729945</v>
       </c>
-      <c r="O18" s="186">
+      <c r="O18" s="180">
         <f t="shared" si="4"/>
         <v>0.37201687609206519</v>
       </c>
-      <c r="P18" s="188">
+      <c r="P18" s="182">
         <f t="shared" si="5"/>
         <v>5851805</v>
       </c>
-      <c r="Q18" s="188">
+      <c r="Q18" s="182">
         <f t="shared" si="6"/>
         <v>4827360</v>
       </c>
-      <c r="R18" s="188">
+      <c r="R18" s="182">
         <f t="shared" si="7"/>
         <v>1.2122164081402671</v>
       </c>
     </row>
-    <row r="19" spans="2:18" s="182" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="184" t="s">
+    <row r="19" spans="2:18" s="176" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="178" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="182" t="s">
+      <c r="C19" s="176" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="191">
+      <c r="D19" s="185">
         <f>BALANCE_SHEET!U$6</f>
         <v>7366121</v>
       </c>
-      <c r="E19" s="191">
+      <c r="E19" s="185">
         <f>BALANCE_SHEET!U$12</f>
         <v>10255900</v>
       </c>
-      <c r="F19" s="188">
+      <c r="F19" s="182">
         <f t="shared" si="8"/>
         <v>0.71823252956834605</v>
       </c>
-      <c r="G19" s="186">
+      <c r="G19" s="180">
         <f>BALANCE_SHEET!U$12</f>
         <v>10255900</v>
       </c>
-      <c r="H19" s="186">
+      <c r="H19" s="180">
         <f>BALANCE_SHEET!U$14</f>
         <v>6397400</v>
       </c>
-      <c r="I19" s="186">
+      <c r="I19" s="180">
         <f t="shared" si="0"/>
         <v>1.6031356488573483</v>
       </c>
-      <c r="J19" s="188">
+      <c r="J19" s="182">
         <f t="shared" si="1"/>
         <v>10255900</v>
       </c>
-      <c r="K19" s="188">
+      <c r="K19" s="182">
         <f>BALANCE_SHEET!U$8</f>
         <v>16653300</v>
       </c>
-      <c r="L19" s="188">
+      <c r="L19" s="182">
         <f t="shared" si="2"/>
         <v>0.6158479100238391</v>
       </c>
-      <c r="M19" s="186">
+      <c r="M19" s="180">
         <f>INCOME_STATEMENT!S$18</f>
         <v>1570040</v>
       </c>
-      <c r="N19" s="186">
+      <c r="N19" s="180">
         <f t="shared" si="3"/>
         <v>16653300</v>
       </c>
-      <c r="O19" s="186">
+      <c r="O19" s="180">
         <f t="shared" si="4"/>
         <v>9.4278010964793768E-2</v>
       </c>
-      <c r="P19" s="188">
+      <c r="P19" s="182">
         <f t="shared" si="5"/>
         <v>1570040</v>
       </c>
-      <c r="Q19" s="188">
+      <c r="Q19" s="182">
         <f t="shared" si="6"/>
         <v>6397400</v>
       </c>
-      <c r="R19" s="188">
+      <c r="R19" s="182">
         <f t="shared" si="7"/>
         <v>0.24541845124581863</v>
       </c>
     </row>
-    <row r="20" spans="2:18" s="182" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="182" t="s">
+    <row r="20" spans="2:18" s="176" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="176" t="s">
         <v>63</v>
       </c>
-      <c r="D20" s="191">
+      <c r="D20" s="185">
         <f>BALANCE_SHEET!V$6</f>
         <v>9443805</v>
       </c>
-      <c r="E20" s="191">
+      <c r="E20" s="185">
         <f>BALANCE_SHEET!V$12</f>
         <v>14029689</v>
       </c>
-      <c r="F20" s="188">
+      <c r="F20" s="182">
         <f t="shared" si="8"/>
         <v>0.67313003160654528</v>
       </c>
-      <c r="G20" s="186">
+      <c r="G20" s="180">
         <f>BALANCE_SHEET!V$12</f>
         <v>14029689</v>
       </c>
-      <c r="H20" s="186">
+      <c r="H20" s="180">
         <f>BALANCE_SHEET!V$14</f>
         <v>4890447</v>
       </c>
-      <c r="I20" s="186">
+      <c r="I20" s="180">
         <f t="shared" si="0"/>
         <v>2.8687948156886272</v>
       </c>
-      <c r="J20" s="188">
+      <c r="J20" s="182">
         <f t="shared" si="1"/>
         <v>14029689</v>
       </c>
-      <c r="K20" s="188">
+      <c r="K20" s="182">
         <f>BALANCE_SHEET!V$8</f>
         <v>18920136</v>
       </c>
-      <c r="L20" s="188">
+      <c r="L20" s="182">
         <f t="shared" si="2"/>
         <v>0.74152157257220563</v>
       </c>
-      <c r="M20" s="186">
+      <c r="M20" s="180">
         <f>INCOME_STATEMENT!T$18</f>
         <v>3298307</v>
       </c>
-      <c r="N20" s="186">
+      <c r="N20" s="180">
         <f t="shared" si="3"/>
         <v>18920136</v>
       </c>
-      <c r="O20" s="186">
+      <c r="O20" s="180">
         <f t="shared" si="4"/>
         <v>0.17432786952482793</v>
       </c>
-      <c r="P20" s="188">
+      <c r="P20" s="182">
         <f t="shared" si="5"/>
         <v>3298307</v>
       </c>
-      <c r="Q20" s="188">
+      <c r="Q20" s="182">
         <f t="shared" si="6"/>
         <v>4890447</v>
       </c>
-      <c r="R20" s="188">
+      <c r="R20" s="182">
         <f t="shared" si="7"/>
         <v>0.6744387578476978</v>
       </c>
     </row>
-    <row r="21" spans="2:18" s="182" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="182" t="s">
+    <row r="21" spans="2:18" s="176" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="176" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="191">
+      <c r="D21" s="185">
         <f>BALANCE_SHEET!W$6</f>
         <v>6878563</v>
       </c>
-      <c r="E21" s="191">
+      <c r="E21" s="185">
         <f>BALANCE_SHEET!W$12</f>
         <v>10405882</v>
       </c>
-      <c r="F21" s="188">
+      <c r="F21" s="182">
         <f t="shared" si="8"/>
         <v>0.66102642716878779</v>
       </c>
-      <c r="G21" s="186">
+      <c r="G21" s="180">
         <f>BALANCE_SHEET!W$12</f>
         <v>10405882</v>
       </c>
-      <c r="H21" s="186">
+      <c r="H21" s="180">
         <f>BALANCE_SHEET!W$14</f>
         <v>6342791</v>
       </c>
-      <c r="I21" s="186">
+      <c r="I21" s="180">
         <f t="shared" si="0"/>
         <v>1.6405840898746309</v>
       </c>
-      <c r="J21" s="188">
+      <c r="J21" s="182">
         <f t="shared" si="1"/>
         <v>10405882</v>
       </c>
-      <c r="K21" s="188">
+      <c r="K21" s="182">
         <f>BALANCE_SHEET!W$8</f>
         <v>16748673</v>
       </c>
-      <c r="L21" s="188">
+      <c r="L21" s="182">
         <f t="shared" si="2"/>
         <v>0.62129590803999812</v>
       </c>
-      <c r="M21" s="186">
+      <c r="M21" s="180">
         <f>INCOME_STATEMENT!U$18</f>
         <v>4750551</v>
       </c>
-      <c r="N21" s="186">
+      <c r="N21" s="180">
         <f t="shared" si="3"/>
         <v>16748673</v>
       </c>
-      <c r="O21" s="186">
+      <c r="O21" s="180">
         <f t="shared" si="4"/>
         <v>0.28363745593456868</v>
       </c>
-      <c r="P21" s="188">
+      <c r="P21" s="182">
         <f t="shared" si="5"/>
         <v>4750551</v>
       </c>
-      <c r="Q21" s="188">
+      <c r="Q21" s="182">
         <f t="shared" si="6"/>
         <v>6342791</v>
       </c>
-      <c r="R21" s="188">
+      <c r="R21" s="182">
         <f t="shared" si="7"/>
         <v>0.74896855343333868</v>
       </c>
     </row>
-    <row r="22" spans="2:18" s="182" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="182" t="s">
+    <row r="22" spans="2:18" s="176" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="176" t="s">
         <v>93</v>
       </c>
-      <c r="D22" s="191">
+      <c r="D22" s="185">
         <f>BALANCE_SHEET!X$6</f>
         <v>6588109</v>
       </c>
-      <c r="E22" s="191">
+      <c r="E22" s="185">
         <f>BALANCE_SHEET!X$12</f>
         <v>12041437</v>
       </c>
-      <c r="F22" s="188">
+      <c r="F22" s="182">
         <f t="shared" si="8"/>
         <v>0.54711983295681399</v>
       </c>
-      <c r="G22" s="186">
+      <c r="G22" s="180">
         <f>BALANCE_SHEET!X$12</f>
         <v>12041437</v>
       </c>
-      <c r="H22" s="186">
+      <c r="H22" s="180">
         <f>BALANCE_SHEET!X$14</f>
         <v>4704258</v>
       </c>
-      <c r="I22" s="186">
+      <c r="I22" s="180">
         <f t="shared" si="0"/>
         <v>2.5596889031171335</v>
       </c>
-      <c r="J22" s="188">
+      <c r="J22" s="182">
         <f t="shared" si="1"/>
         <v>12041437</v>
       </c>
-      <c r="K22" s="188">
+      <c r="K22" s="182">
         <f>BALANCE_SHEET!X$8</f>
         <v>16745695</v>
       </c>
-      <c r="L22" s="188">
+      <c r="L22" s="182">
         <f t="shared" si="2"/>
         <v>0.71907657460618979</v>
       </c>
-      <c r="M22" s="186">
+      <c r="M22" s="180">
         <f>INCOME_STATEMENT!V$18</f>
         <v>6390672</v>
       </c>
-      <c r="N22" s="186">
+      <c r="N22" s="180">
         <f t="shared" si="3"/>
         <v>16745695</v>
       </c>
-      <c r="O22" s="186">
+      <c r="O22" s="180">
         <f t="shared" si="4"/>
         <v>0.38163074151296794</v>
       </c>
-      <c r="P22" s="188">
+      <c r="P22" s="182">
         <f t="shared" si="5"/>
         <v>6390672</v>
       </c>
-      <c r="Q22" s="188">
+      <c r="Q22" s="182">
         <f t="shared" si="6"/>
         <v>4704258</v>
       </c>
-      <c r="R22" s="188">
+      <c r="R22" s="182">
         <f t="shared" si="7"/>
         <v>1.3584867156520752</v>
       </c>
     </row>
-    <row r="23" spans="2:18" s="182" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="184" t="s">
+    <row r="23" spans="2:18" s="176" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="178" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="182" t="s">
+      <c r="C23" s="176" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="191">
+      <c r="D23" s="185">
         <f>BALANCE_SHEET!Y$6</f>
         <v>7996530</v>
       </c>
-      <c r="E23" s="191">
+      <c r="E23" s="185">
         <f>BALANCE_SHEET!Y$12</f>
         <v>11921305</v>
       </c>
-      <c r="F23" s="188">
+      <c r="F23" s="182">
         <f t="shared" si="8"/>
         <v>0.67077639570500047</v>
       </c>
-      <c r="G23" s="186">
+      <c r="G23" s="180">
         <f>BALANCE_SHEET!Y$12</f>
         <v>11921305</v>
       </c>
-      <c r="H23" s="186">
+      <c r="H23" s="180">
         <f>BALANCE_SHEET!Y$14</f>
         <v>6665099</v>
       </c>
-      <c r="I23" s="186">
+      <c r="I23" s="180">
         <f t="shared" si="0"/>
         <v>1.7886163431330877</v>
       </c>
-      <c r="J23" s="188">
+      <c r="J23" s="182">
         <f t="shared" si="1"/>
         <v>11921305</v>
       </c>
-      <c r="K23" s="188">
+      <c r="K23" s="182">
         <f>BALANCE_SHEET!Y$8</f>
         <v>18586404</v>
       </c>
-      <c r="L23" s="188">
+      <c r="L23" s="182">
         <f t="shared" si="2"/>
         <v>0.64139921848249937</v>
       </c>
-      <c r="M23" s="186">
+      <c r="M23" s="180">
         <f>INCOME_STATEMENT!W$18</f>
         <v>1960841</v>
       </c>
-      <c r="N23" s="186">
+      <c r="N23" s="180">
         <f t="shared" si="3"/>
         <v>18586404</v>
       </c>
-      <c r="O23" s="186">
+      <c r="O23" s="180">
         <f t="shared" si="4"/>
         <v>0.10549867526822294</v>
       </c>
-      <c r="P23" s="188">
+      <c r="P23" s="182">
         <f t="shared" si="5"/>
         <v>1960841</v>
       </c>
-      <c r="Q23" s="188">
+      <c r="Q23" s="182">
         <f t="shared" si="6"/>
         <v>6665099</v>
       </c>
-      <c r="R23" s="188">
+      <c r="R23" s="182">
         <f t="shared" si="7"/>
         <v>0.29419533003185699</v>
       </c>
     </row>
-    <row r="24" spans="2:18" s="182" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="182" t="s">
+    <row r="24" spans="2:18" s="176" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="176" t="s">
         <v>63</v>
       </c>
-      <c r="D24" s="191">
+      <c r="D24" s="185">
         <f>BALANCE_SHEET!Z$6</f>
         <v>8624713</v>
       </c>
-      <c r="E24" s="191">
+      <c r="E24" s="185">
         <f>BALANCE_SHEET!Z$12</f>
         <v>14380273</v>
       </c>
-      <c r="F24" s="188">
+      <c r="F24" s="182">
         <f t="shared" si="8"/>
         <v>0.59976003237212538</v>
       </c>
-      <c r="G24" s="186">
+      <c r="G24" s="180">
         <f>BALANCE_SHEET!Z$12</f>
         <v>14380273</v>
       </c>
-      <c r="H24" s="186">
+      <c r="H24" s="180">
         <f>BALANCE_SHEET!Z$14</f>
         <v>4906114</v>
       </c>
-      <c r="I24" s="186">
+      <c r="I24" s="180">
         <f t="shared" si="0"/>
         <v>2.9310923064568009</v>
       </c>
-      <c r="J24" s="188">
+      <c r="J24" s="182">
         <f t="shared" si="1"/>
         <v>14380273</v>
       </c>
-      <c r="K24" s="188">
+      <c r="K24" s="182">
         <f>BALANCE_SHEET!Z$8</f>
         <v>19286387</v>
       </c>
-      <c r="L24" s="188">
+      <c r="L24" s="182">
         <f t="shared" si="2"/>
         <v>0.74561777693250686</v>
       </c>
-      <c r="M24" s="186">
+      <c r="M24" s="180">
         <f>INCOME_STATEMENT!X$18</f>
         <v>3623958</v>
       </c>
-      <c r="N24" s="186">
+      <c r="N24" s="180">
         <f t="shared" si="3"/>
         <v>19286387</v>
       </c>
-      <c r="O24" s="186">
+      <c r="O24" s="180">
         <f t="shared" si="4"/>
         <v>0.18790237901997922</v>
       </c>
-      <c r="P24" s="188">
+      <c r="P24" s="182">
         <f t="shared" si="5"/>
         <v>3623958</v>
       </c>
-      <c r="Q24" s="188">
+      <c r="Q24" s="182">
         <f t="shared" si="6"/>
         <v>4906114</v>
       </c>
-      <c r="R24" s="188">
+      <c r="R24" s="182">
         <f t="shared" si="7"/>
         <v>0.73866159653037011</v>
       </c>
     </row>
-    <row r="25" spans="2:18" s="182" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="182" t="s">
+    <row r="25" spans="2:18" s="176" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="176" t="s">
         <v>64</v>
       </c>
-      <c r="D25" s="191">
+      <c r="D25" s="185">
         <f>BALANCE_SHEET!AA$6</f>
         <v>7960938</v>
       </c>
-      <c r="E25" s="191">
+      <c r="E25" s="185">
         <f>BALANCE_SHEET!AA$12</f>
         <v>12391366</v>
       </c>
-      <c r="F25" s="188">
+      <c r="F25" s="182">
         <f t="shared" si="8"/>
         <v>0.6424584666452432</v>
       </c>
-      <c r="G25" s="186">
+      <c r="G25" s="180">
         <f>BALANCE_SHEET!AA$12</f>
         <v>12391366</v>
       </c>
-      <c r="H25" s="186">
+      <c r="H25" s="180">
         <f>BALANCE_SHEET!AA$14</f>
         <v>6423858</v>
       </c>
-      <c r="I25" s="186">
+      <c r="I25" s="180">
         <f t="shared" si="0"/>
         <v>1.9289601357937862</v>
       </c>
-      <c r="J25" s="188">
+      <c r="J25" s="182">
         <f t="shared" si="1"/>
         <v>12391366</v>
       </c>
-      <c r="K25" s="188">
+      <c r="K25" s="182">
         <f>BALANCE_SHEET!AA$8</f>
         <v>18815224</v>
       </c>
-      <c r="L25" s="188">
+      <c r="L25" s="182">
         <f t="shared" si="2"/>
         <v>0.65858190154951113</v>
       </c>
-      <c r="M25" s="186">
+      <c r="M25" s="180">
         <f>INCOME_STATEMENT!Y$18</f>
         <v>5229400</v>
       </c>
-      <c r="N25" s="186">
+      <c r="N25" s="180">
         <f t="shared" si="3"/>
         <v>18815224</v>
       </c>
-      <c r="O25" s="186">
+      <c r="O25" s="180">
         <f t="shared" si="4"/>
         <v>0.27793450665269781</v>
       </c>
-      <c r="P25" s="188">
+      <c r="P25" s="182">
         <f t="shared" si="5"/>
         <v>5229400</v>
       </c>
-      <c r="Q25" s="188">
+      <c r="Q25" s="182">
         <f t="shared" si="6"/>
         <v>6423858</v>
       </c>
-      <c r="R25" s="188">
+      <c r="R25" s="182">
         <f t="shared" si="7"/>
         <v>0.81405909034726487</v>
       </c>
     </row>
-    <row r="26" spans="2:18" s="182" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="182" t="s">
+    <row r="26" spans="2:18" s="176" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="176" t="s">
         <v>93</v>
       </c>
-      <c r="D26" s="191">
+      <c r="D26" s="185">
         <f>BALANCE_SHEET!AB$6</f>
         <v>6588109</v>
       </c>
-      <c r="E26" s="191">
+      <c r="E26" s="185">
         <f>BALANCE_SHEET!AB$12</f>
         <v>12041437</v>
       </c>
-      <c r="F26" s="188">
+      <c r="F26" s="182">
         <f t="shared" si="8"/>
         <v>0.54711983295681399</v>
       </c>
-      <c r="G26" s="186">
+      <c r="G26" s="180">
         <f>BALANCE_SHEET!AB$12</f>
         <v>12041437</v>
       </c>
-      <c r="H26" s="186">
+      <c r="H26" s="180">
         <f>BALANCE_SHEET!AB$14</f>
         <v>4704258</v>
       </c>
-      <c r="I26" s="186">
+      <c r="I26" s="180">
         <f t="shared" si="0"/>
         <v>2.5596889031171335</v>
       </c>
-      <c r="J26" s="188">
+      <c r="J26" s="182">
         <f t="shared" si="1"/>
         <v>12041437</v>
       </c>
-      <c r="K26" s="188">
+      <c r="K26" s="182">
         <f>BALANCE_SHEET!AB$8</f>
         <v>16745695</v>
       </c>
-      <c r="L26" s="188">
+      <c r="L26" s="182">
         <f t="shared" si="2"/>
         <v>0.71907657460618979</v>
       </c>
-      <c r="M26" s="186">
+      <c r="M26" s="180">
         <f>INCOME_STATEMENT!Z$18</f>
         <v>7004562</v>
       </c>
-      <c r="N26" s="186">
+      <c r="N26" s="180">
         <f t="shared" si="3"/>
         <v>16745695</v>
       </c>
-      <c r="O26" s="186">
+      <c r="O26" s="180">
         <f t="shared" si="4"/>
         <v>0.41829031282368395</v>
       </c>
-      <c r="P26" s="188">
+      <c r="P26" s="182">
         <f t="shared" si="5"/>
         <v>7004562</v>
       </c>
-      <c r="Q26" s="188">
+      <c r="Q26" s="182">
         <f t="shared" si="6"/>
         <v>4704258</v>
       </c>
-      <c r="R26" s="188">
+      <c r="R26" s="182">
         <f t="shared" si="7"/>
         <v>1.4889833848398621</v>
       </c>
     </row>
-    <row r="27" spans="2:18" s="182" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="184" t="s">
+    <row r="27" spans="2:18" s="176" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="178" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="182" t="s">
+      <c r="C27" s="176" t="s">
         <v>62</v>
       </c>
-      <c r="D27" s="191">
+      <c r="D27" s="185">
         <f>BALANCE_SHEET!AC$6</f>
         <v>9310953</v>
       </c>
-      <c r="E27" s="191">
+      <c r="E27" s="185">
         <f>BALANCE_SHEET!AC$12</f>
         <v>13229294</v>
       </c>
-      <c r="F27" s="188">
+      <c r="F27" s="182">
         <f t="shared" si="8"/>
         <v>0.7038132949498288</v>
       </c>
-      <c r="G27" s="186">
+      <c r="G27" s="180">
         <f>BALANCE_SHEET!AC$12</f>
         <v>13229294</v>
       </c>
-      <c r="H27" s="186">
+      <c r="H27" s="180">
         <f>BALANCE_SHEET!AC$14</f>
         <v>7012519</v>
       </c>
-      <c r="I27" s="186">
+      <c r="I27" s="180">
         <f t="shared" si="0"/>
         <v>1.8865252272400259</v>
       </c>
-      <c r="J27" s="188">
+      <c r="J27" s="182">
         <f t="shared" si="1"/>
         <v>13229294</v>
       </c>
-      <c r="K27" s="188">
+      <c r="K27" s="182">
         <f>BALANCE_SHEET!AC$8</f>
         <v>20241813</v>
       </c>
-      <c r="L27" s="188">
+      <c r="L27" s="182">
         <f t="shared" si="2"/>
         <v>0.65356270211566525</v>
       </c>
-      <c r="M27" s="186">
+      <c r="M27" s="180">
         <f>INCOME_STATEMENT!AA$18</f>
         <v>1839131</v>
       </c>
-      <c r="N27" s="186">
+      <c r="N27" s="180">
         <f t="shared" si="3"/>
         <v>20241813</v>
       </c>
-      <c r="O27" s="186">
+      <c r="O27" s="180">
         <f t="shared" si="4"/>
         <v>9.0858017510585642E-2</v>
       </c>
-      <c r="P27" s="188">
+      <c r="P27" s="182">
         <f t="shared" si="5"/>
         <v>1839131</v>
       </c>
-      <c r="Q27" s="188">
+      <c r="Q27" s="182">
         <f t="shared" si="6"/>
         <v>7012519</v>
       </c>
-      <c r="R27" s="188">
+      <c r="R27" s="182">
         <f t="shared" si="7"/>
         <v>0.26226395964132149</v>
       </c>
     </row>
-    <row r="28" spans="2:18" s="182" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="182" t="s">
+    <row r="28" spans="2:18" s="176" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="176" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="191">
+      <c r="D28" s="185">
         <f>BALANCE_SHEET!AD$6</f>
         <v>9476988</v>
       </c>
-      <c r="E28" s="191">
+      <c r="E28" s="185">
         <f>BALANCE_SHEET!AD$12</f>
         <v>15514356</v>
       </c>
-      <c r="F28" s="188">
+      <c r="F28" s="182">
         <f t="shared" si="8"/>
         <v>0.61085281271101421</v>
       </c>
-      <c r="G28" s="186">
+      <c r="G28" s="180">
         <f>BALANCE_SHEET!AD$12</f>
         <v>15514356</v>
       </c>
-      <c r="H28" s="186">
+      <c r="H28" s="180">
         <f>BALANCE_SHEET!AD$14</f>
         <v>5011769</v>
       </c>
-      <c r="I28" s="186">
+      <c r="I28" s="180">
         <f t="shared" si="0"/>
         <v>3.0955848124684118</v>
       </c>
-      <c r="J28" s="188">
+      <c r="J28" s="182">
         <f t="shared" si="1"/>
         <v>15514356</v>
       </c>
-      <c r="K28" s="188">
+      <c r="K28" s="182">
         <f>BALANCE_SHEET!AD$8</f>
         <v>20526125</v>
       </c>
-      <c r="L28" s="188">
+      <c r="L28" s="182">
         <f t="shared" si="2"/>
         <v>0.75583462538594104</v>
       </c>
-      <c r="M28" s="186">
+      <c r="M28" s="180">
         <f>INCOME_STATEMENT!AB$18</f>
         <v>3529869</v>
       </c>
-      <c r="N28" s="186">
+      <c r="N28" s="180">
         <f t="shared" si="3"/>
         <v>20526125</v>
       </c>
-      <c r="O28" s="186">
+      <c r="O28" s="180">
         <f t="shared" si="4"/>
         <v>0.17196957535823248</v>
       </c>
-      <c r="P28" s="188">
+      <c r="P28" s="182">
         <f t="shared" si="5"/>
         <v>3529869</v>
       </c>
-      <c r="Q28" s="188">
+      <c r="Q28" s="182">
         <f t="shared" si="6"/>
         <v>5011769</v>
       </c>
-      <c r="R28" s="188">
+      <c r="R28" s="182">
         <f t="shared" si="7"/>
         <v>0.70431598104381909</v>
       </c>
     </row>
-    <row r="29" spans="2:18" s="182" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="182" t="s">
+    <row r="29" spans="2:18" s="176" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="176" t="s">
         <v>64</v>
       </c>
-      <c r="D29" s="191">
+      <c r="D29" s="185">
         <f>BALANCE_SHEET!AE$6</f>
         <v>9018583</v>
       </c>
-      <c r="E29" s="191">
+      <c r="E29" s="185">
         <f>BALANCE_SHEET!AE$12</f>
         <v>11027987</v>
       </c>
-      <c r="F29" s="188">
+      <c r="F29" s="182">
         <f t="shared" si="8"/>
         <v>0.81779049975303741</v>
       </c>
-      <c r="G29" s="186">
+      <c r="G29" s="180">
         <f>BALANCE_SHEET!AE$12</f>
         <v>11027987</v>
       </c>
-      <c r="H29" s="186">
+      <c r="H29" s="180">
         <f>BALANCE_SHEET!AE$14</f>
         <v>8970149</v>
       </c>
-      <c r="I29" s="186">
+      <c r="I29" s="180">
         <f t="shared" si="0"/>
         <v>1.2294095672212357</v>
       </c>
-      <c r="J29" s="188">
+      <c r="J29" s="182">
         <f t="shared" si="1"/>
         <v>11027987</v>
       </c>
-      <c r="K29" s="188">
+      <c r="K29" s="182">
         <f>BALANCE_SHEET!AE$8</f>
         <v>19998136</v>
       </c>
-      <c r="L29" s="188">
+      <c r="L29" s="182">
         <f t="shared" si="2"/>
         <v>0.55145074520945347</v>
       </c>
-      <c r="M29" s="186">
+      <c r="M29" s="180">
         <f>INCOME_STATEMENT!AC$18</f>
         <v>7303493</v>
       </c>
-      <c r="N29" s="186">
+      <c r="N29" s="180">
         <f t="shared" si="3"/>
         <v>19998136</v>
       </c>
-      <c r="O29" s="186">
+      <c r="O29" s="180">
         <f t="shared" si="4"/>
         <v>0.36520868744967033</v>
       </c>
-      <c r="P29" s="188">
+      <c r="P29" s="182">
         <f t="shared" si="5"/>
         <v>7303493</v>
       </c>
-      <c r="Q29" s="188">
+      <c r="Q29" s="182">
         <f t="shared" si="6"/>
         <v>8970149</v>
       </c>
-      <c r="R29" s="188">
+      <c r="R29" s="182">
         <f t="shared" si="7"/>
         <v>0.81419974183260502</v>
       </c>
     </row>
-    <row r="30" spans="2:18" s="182" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="182" t="s">
+    <row r="30" spans="2:18" s="176" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="176" t="s">
         <v>93</v>
       </c>
-      <c r="D30" s="191">
+      <c r="D30" s="185">
         <f>BALANCE_SHEET!AF$6</f>
         <v>7941635</v>
       </c>
-      <c r="E30" s="191">
+      <c r="E30" s="185">
         <f>BALANCE_SHEET!AF$12</f>
         <v>13733025</v>
       </c>
-      <c r="F30" s="188">
+      <c r="F30" s="182">
         <f t="shared" si="8"/>
         <v>0.57828737659765417</v>
       </c>
-      <c r="G30" s="186">
+      <c r="G30" s="180">
         <f>BALANCE_SHEET!AF$12</f>
         <v>13733025</v>
       </c>
-      <c r="H30" s="186">
+      <c r="H30" s="180">
         <f>BALANCE_SHEET!AF$14</f>
         <v>5173388</v>
       </c>
-      <c r="I30" s="186">
+      <c r="I30" s="180">
         <f t="shared" si="0"/>
         <v>2.6545515240689466</v>
       </c>
-      <c r="J30" s="188">
+      <c r="J30" s="182">
         <f t="shared" si="1"/>
         <v>13733025</v>
       </c>
-      <c r="K30" s="188">
+      <c r="K30" s="182">
         <f>BALANCE_SHEET!AF$8</f>
         <v>18906413</v>
       </c>
-      <c r="L30" s="188">
+      <c r="L30" s="182">
         <f t="shared" si="2"/>
         <v>0.72636861365505978</v>
       </c>
-      <c r="M30" s="186">
+      <c r="M30" s="180">
         <f>INCOME_STATEMENT!AD$18</f>
         <v>9109445</v>
       </c>
-      <c r="N30" s="186">
+      <c r="N30" s="180">
         <f t="shared" si="3"/>
         <v>18906413</v>
       </c>
-      <c r="O30" s="186">
+      <c r="O30" s="180">
         <f t="shared" si="4"/>
         <v>0.4818177303119317</v>
       </c>
-      <c r="P30" s="188">
+      <c r="P30" s="182">
         <f t="shared" si="5"/>
         <v>9109445</v>
       </c>
-      <c r="Q30" s="188">
+      <c r="Q30" s="182">
         <f t="shared" si="6"/>
         <v>5173388</v>
       </c>
-      <c r="R30" s="188">
+      <c r="R30" s="182">
         <f t="shared" si="7"/>
         <v>1.7608277206349108</v>
       </c>
     </row>
-    <row r="31" spans="2:18" s="182" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="184" t="s">
+    <row r="31" spans="2:18" s="176" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="178" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="182" t="s">
+      <c r="C31" s="176" t="s">
         <v>62</v>
       </c>
-      <c r="D31" s="191">
+      <c r="D31" s="185">
         <f>BALANCE_SHEET!AG$6</f>
         <v>9787714</v>
       </c>
-      <c r="E31" s="191">
+      <c r="E31" s="185">
         <f>BALANCE_SHEET!AG$12</f>
         <v>16752108</v>
       </c>
-      <c r="F31" s="188">
+      <c r="F31" s="182">
         <f t="shared" si="8"/>
         <v>0.58426760381439757</v>
       </c>
-      <c r="G31" s="186">
+      <c r="G31" s="180">
         <f>BALANCE_SHEET!AG$12</f>
         <v>16752108</v>
       </c>
-      <c r="H31" s="186">
+      <c r="H31" s="180">
         <f>BALANCE_SHEET!AG$14</f>
         <v>5075213</v>
       </c>
-      <c r="I31" s="186">
+      <c r="I31" s="180">
         <f t="shared" si="0"/>
         <v>3.3007694455385419</v>
       </c>
-      <c r="J31" s="188">
+      <c r="J31" s="182">
         <f t="shared" si="1"/>
         <v>16752108</v>
       </c>
-      <c r="K31" s="188">
+      <c r="K31" s="182">
         <f>BALANCE_SHEET!AG$8</f>
         <v>21827321</v>
       </c>
-      <c r="L31" s="188">
+      <c r="L31" s="182">
         <f t="shared" si="2"/>
         <v>0.7674834671648435</v>
       </c>
-      <c r="M31" s="186">
+      <c r="M31" s="180">
         <f>INCOME_STATEMENT!AE$18</f>
         <v>1748520</v>
       </c>
-      <c r="N31" s="186">
+      <c r="N31" s="180">
         <f t="shared" si="3"/>
         <v>21827321</v>
       </c>
-      <c r="O31" s="186">
+      <c r="O31" s="180">
         <f t="shared" si="4"/>
         <v>8.0106944869688779E-2</v>
       </c>
-      <c r="P31" s="188">
+      <c r="P31" s="182">
         <f t="shared" si="5"/>
         <v>1748520</v>
       </c>
-      <c r="Q31" s="188">
+      <c r="Q31" s="182">
         <f t="shared" si="6"/>
         <v>5075213</v>
       </c>
-      <c r="R31" s="188">
+      <c r="R31" s="182">
         <f t="shared" si="7"/>
         <v>0.34452150087099792</v>
       </c>
     </row>
-    <row r="32" spans="2:18" s="182" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="182" t="s">
+    <row r="32" spans="2:18" s="176" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="176" t="s">
         <v>63</v>
       </c>
-      <c r="D32" s="191">
+      <c r="D32" s="185">
         <f>BALANCE_SHEET!AH$6</f>
         <v>10012444</v>
       </c>
-      <c r="E32" s="191">
+      <c r="E32" s="185">
         <f>BALANCE_SHEET!AH$12</f>
         <v>12977603</v>
       </c>
-      <c r="F32" s="188">
+      <c r="F32" s="182">
         <f t="shared" si="8"/>
         <v>0.77151720545003577</v>
       </c>
-      <c r="G32" s="186">
+      <c r="G32" s="180">
         <f>BALANCE_SHEET!AH$12</f>
         <v>12977603</v>
       </c>
-      <c r="H32" s="186">
+      <c r="H32" s="180">
         <f>BALANCE_SHEET!AH$14</f>
         <v>9062375</v>
       </c>
-      <c r="I32" s="186">
+      <c r="I32" s="180">
         <f t="shared" si="0"/>
         <v>1.4320311176705887</v>
       </c>
-      <c r="J32" s="188">
+      <c r="J32" s="182">
         <f t="shared" si="1"/>
         <v>12977603</v>
       </c>
-      <c r="K32" s="188">
+      <c r="K32" s="182">
         <f>BALANCE_SHEET!AH$8</f>
         <v>22039978</v>
       </c>
-      <c r="L32" s="188">
+      <c r="L32" s="182">
         <f t="shared" si="2"/>
         <v>0.58882105054732814</v>
       </c>
-      <c r="M32" s="186">
+      <c r="M32" s="180">
         <f>INCOME_STATEMENT!AF$18</f>
         <v>3697232</v>
       </c>
-      <c r="N32" s="186">
+      <c r="N32" s="180">
         <f t="shared" si="3"/>
         <v>22039978</v>
       </c>
-      <c r="O32" s="186">
+      <c r="O32" s="180">
         <f t="shared" si="4"/>
         <v>0.16775116563183504</v>
       </c>
-      <c r="P32" s="188">
+      <c r="P32" s="182">
         <f t="shared" si="5"/>
         <v>3697232</v>
       </c>
-      <c r="Q32" s="188">
+      <c r="Q32" s="182">
         <f t="shared" si="6"/>
         <v>9062375</v>
       </c>
-      <c r="R32" s="188">
+      <c r="R32" s="182">
         <f t="shared" si="7"/>
         <v>0.40797605484213573</v>
       </c>
     </row>
-    <row r="33" spans="3:18" s="182" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="182" t="s">
+    <row r="33" spans="3:18" s="176" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="176" t="s">
         <v>64</v>
       </c>
-      <c r="D33" s="191">
+      <c r="D33" s="185">
         <f>BALANCE_SHEET!AI$6</f>
         <v>8889091</v>
       </c>
-      <c r="E33" s="191">
+      <c r="E33" s="185">
         <f>BALANCE_SHEET!AI$12</f>
         <v>13926354</v>
       </c>
-      <c r="F33" s="188">
+      <c r="F33" s="182">
         <f t="shared" si="8"/>
         <v>0.63829276492612497</v>
       </c>
-      <c r="G33" s="186">
+      <c r="G33" s="180">
         <f>BALANCE_SHEET!AI$12</f>
         <v>13926354</v>
       </c>
-      <c r="H33" s="186">
+      <c r="H33" s="180">
         <f>BALANCE_SHEET!AI$14</f>
         <v>6887584</v>
       </c>
-      <c r="I33" s="186">
+      <c r="I33" s="180">
         <f t="shared" si="0"/>
         <v>2.0219505126906618</v>
       </c>
-      <c r="J33" s="188">
+      <c r="J33" s="182">
         <f t="shared" si="1"/>
         <v>13926354</v>
       </c>
-      <c r="K33" s="188">
+      <c r="K33" s="182">
         <f>BALANCE_SHEET!AI$8</f>
         <v>20813938</v>
       </c>
-      <c r="L33" s="188">
+      <c r="L33" s="182">
         <f t="shared" si="2"/>
         <v>0.66908789677378688</v>
       </c>
-      <c r="M33" s="186">
+      <c r="M33" s="180">
         <f>INCOME_STATEMENT!AG$18</f>
         <v>5509603</v>
       </c>
-      <c r="N33" s="186">
+      <c r="N33" s="180">
         <f t="shared" si="3"/>
         <v>20813938</v>
       </c>
-      <c r="O33" s="186">
+      <c r="O33" s="180">
         <f t="shared" si="4"/>
         <v>0.26470738021800583</v>
       </c>
-      <c r="P33" s="188">
+      <c r="P33" s="182">
         <f t="shared" si="5"/>
         <v>5509603</v>
       </c>
-      <c r="Q33" s="188">
+      <c r="Q33" s="182">
         <f t="shared" si="6"/>
         <v>6887584</v>
       </c>
-      <c r="R33" s="188">
+      <c r="R33" s="182">
         <f t="shared" si="7"/>
         <v>0.7999326033628047</v>
       </c>
     </row>
-    <row r="34" spans="3:18" s="182" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="182" t="s">
+    <row r="34" spans="3:18" s="176" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="176" t="s">
         <v>93</v>
       </c>
-      <c r="D34" s="191">
+      <c r="D34" s="185">
         <f>BALANCE_SHEET!AJ$6</f>
         <v>8530334</v>
       </c>
-      <c r="E34" s="191">
+      <c r="E34" s="185">
         <f>BALANCE_SHEET!AJ$12</f>
         <v>15367509</v>
       </c>
-      <c r="F34" s="188">
+      <c r="F34" s="182">
         <f t="shared" si="8"/>
         <v>0.55508892169837021</v>
       </c>
-      <c r="G34" s="186">
+      <c r="G34" s="180">
         <f>BALANCE_SHEET!AJ$12</f>
         <v>15367509</v>
       </c>
-      <c r="H34" s="186">
+      <c r="H34" s="180">
         <f>BALANCE_SHEET!AJ$14</f>
         <v>5281862</v>
       </c>
-      <c r="I34" s="186">
+      <c r="I34" s="180">
         <f t="shared" si="0"/>
         <v>2.9094870331712568</v>
       </c>
-      <c r="J34" s="188">
+      <c r="J34" s="182">
         <f t="shared" si="1"/>
         <v>15367509</v>
       </c>
-      <c r="K34" s="188">
+      <c r="K34" s="182">
         <f>BALANCE_SHEET!AJ$8</f>
         <v>20649371</v>
       </c>
-      <c r="L34" s="188">
+      <c r="L34" s="182">
         <f t="shared" si="2"/>
         <v>0.74421196655336375</v>
       </c>
-      <c r="M34" s="186">
+      <c r="M34" s="180">
         <f>INCOME_STATEMENT!AH$18</f>
         <v>7392837</v>
       </c>
-      <c r="N34" s="186">
+      <c r="N34" s="180">
         <f t="shared" si="3"/>
         <v>20649371</v>
       </c>
-      <c r="O34" s="186">
+      <c r="O34" s="180">
         <f t="shared" si="4"/>
         <v>0.35801753961416066</v>
       </c>
-      <c r="P34" s="188">
+      <c r="P34" s="182">
         <f t="shared" si="5"/>
         <v>7392837</v>
       </c>
-      <c r="Q34" s="188">
+      <c r="Q34" s="182">
         <f t="shared" si="6"/>
         <v>5281862</v>
       </c>
-      <c r="R34" s="188">
+      <c r="R34" s="182">
         <f t="shared" si="7"/>
         <v>1.3996649287694378</v>
       </c>
@@ -23590,9 +23566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:U35"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -23632,29 +23606,29 @@
       <c r="A3" s="27"/>
       <c r="B3" s="31"/>
       <c r="C3" s="61"/>
-      <c r="D3" s="219" t="s">
+      <c r="D3" s="222" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="220"/>
-      <c r="F3" s="220"/>
-      <c r="G3" s="220"/>
-      <c r="H3" s="221"/>
+      <c r="E3" s="219"/>
+      <c r="F3" s="219"/>
+      <c r="G3" s="219"/>
+      <c r="H3" s="220"/>
       <c r="I3" s="55"/>
-      <c r="J3" s="220" t="s">
+      <c r="J3" s="219" t="s">
         <v>50</v>
       </c>
-      <c r="K3" s="220"/>
-      <c r="L3" s="220"/>
-      <c r="M3" s="220"/>
-      <c r="N3" s="221"/>
+      <c r="K3" s="219"/>
+      <c r="L3" s="219"/>
+      <c r="M3" s="219"/>
+      <c r="N3" s="220"/>
       <c r="O3" s="34"/>
-      <c r="P3" s="220" t="s">
+      <c r="P3" s="219" t="s">
         <v>51</v>
       </c>
-      <c r="Q3" s="220"/>
-      <c r="R3" s="220"/>
-      <c r="S3" s="220"/>
-      <c r="T3" s="220"/>
+      <c r="Q3" s="219"/>
+      <c r="R3" s="219"/>
+      <c r="S3" s="219"/>
+      <c r="T3" s="219"/>
       <c r="U3" s="29"/>
     </row>
     <row r="4" spans="1:21" s="26" customFormat="1" x14ac:dyDescent="0.25">
@@ -24101,29 +24075,29 @@
       <c r="A11" s="75"/>
       <c r="B11" s="30"/>
       <c r="C11" s="61"/>
-      <c r="D11" s="220" t="s">
+      <c r="D11" s="219" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="220"/>
-      <c r="F11" s="220"/>
-      <c r="G11" s="220"/>
-      <c r="H11" s="220"/>
+      <c r="E11" s="219"/>
+      <c r="F11" s="219"/>
+      <c r="G11" s="219"/>
+      <c r="H11" s="219"/>
       <c r="I11" s="54"/>
-      <c r="J11" s="220" t="s">
+      <c r="J11" s="219" t="s">
         <v>50</v>
       </c>
-      <c r="K11" s="220"/>
-      <c r="L11" s="220"/>
-      <c r="M11" s="220"/>
-      <c r="N11" s="220"/>
+      <c r="K11" s="219"/>
+      <c r="L11" s="219"/>
+      <c r="M11" s="219"/>
+      <c r="N11" s="219"/>
       <c r="O11" s="34"/>
-      <c r="P11" s="220" t="s">
+      <c r="P11" s="219" t="s">
         <v>51</v>
       </c>
-      <c r="Q11" s="220"/>
-      <c r="R11" s="220"/>
-      <c r="S11" s="220"/>
-      <c r="T11" s="220"/>
+      <c r="Q11" s="219"/>
+      <c r="R11" s="219"/>
+      <c r="S11" s="219"/>
+      <c r="T11" s="219"/>
     </row>
     <row r="12" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="75"/>
@@ -24179,7 +24153,7 @@
     </row>
     <row r="13" spans="1:21" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="68"/>
-      <c r="B13" s="218" t="s">
+      <c r="B13" s="221" t="s">
         <v>46</v>
       </c>
       <c r="C13" s="69" t="s">
@@ -24255,7 +24229,7 @@
     </row>
     <row r="14" spans="1:21" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="68"/>
-      <c r="B14" s="218"/>
+      <c r="B14" s="221"/>
       <c r="C14" s="69" t="s">
         <v>55</v>
       </c>
@@ -24328,7 +24302,7 @@
       <c r="U14" s="72"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B15" s="218"/>
+      <c r="B15" s="221"/>
       <c r="C15" s="61" t="s">
         <v>56</v>
       </c>
@@ -24400,7 +24374,7 @@
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B16" s="218"/>
+      <c r="B16" s="221"/>
       <c r="C16" s="61"/>
       <c r="D16" s="24" t="str">
         <f>IF(D15=D$30,"S",IF(D15&lt;D$30,"B",IF(D15&gt;D$30,"A")))</f>
@@ -24467,7 +24441,7 @@
     </row>
     <row r="17" spans="1:20" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="68"/>
-      <c r="B17" s="218" t="s">
+      <c r="B17" s="221" t="s">
         <v>47</v>
       </c>
       <c r="C17" s="69" t="s">
@@ -24542,7 +24516,7 @@
     </row>
     <row r="18" spans="1:20" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="68"/>
-      <c r="B18" s="218"/>
+      <c r="B18" s="221"/>
       <c r="C18" s="69" t="s">
         <v>55</v>
       </c>
@@ -24614,7 +24588,7 @@
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B19" s="218"/>
+      <c r="B19" s="221"/>
       <c r="C19" s="61" t="s">
         <v>56</v>
       </c>
@@ -24686,7 +24660,7 @@
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B20" s="218"/>
+      <c r="B20" s="221"/>
       <c r="C20" s="61"/>
       <c r="D20" s="24" t="str">
         <f>IF(D19=D$30,"S",IF(D19&lt;D$30,"B",IF(D19&gt;D$30,"A")))</f>
@@ -24753,7 +24727,7 @@
     </row>
     <row r="21" spans="1:20" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="68"/>
-      <c r="B21" s="218" t="s">
+      <c r="B21" s="221" t="s">
         <v>48</v>
       </c>
       <c r="C21" s="69" t="s">
@@ -24828,7 +24802,7 @@
     </row>
     <row r="22" spans="1:20" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="68"/>
-      <c r="B22" s="218"/>
+      <c r="B22" s="221"/>
       <c r="C22" s="69" t="s">
         <v>55</v>
       </c>
@@ -24900,7 +24874,7 @@
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B23" s="218"/>
+      <c r="B23" s="221"/>
       <c r="C23" s="61" t="s">
         <v>56</v>
       </c>
@@ -24972,7 +24946,7 @@
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B24" s="218"/>
+      <c r="B24" s="221"/>
       <c r="C24" s="61"/>
       <c r="D24" s="24" t="str">
         <f>IF(D23=D$30,"S",IF(D23&lt;D$30,"B",IF(D23&gt;D$30,"A")))</f>
@@ -25039,7 +25013,7 @@
     </row>
     <row r="25" spans="1:20" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="68"/>
-      <c r="B25" s="218" t="s">
+      <c r="B25" s="221" t="s">
         <v>52</v>
       </c>
       <c r="C25" s="69" t="s">
@@ -25114,7 +25088,7 @@
     </row>
     <row r="26" spans="1:20" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="68"/>
-      <c r="B26" s="218"/>
+      <c r="B26" s="221"/>
       <c r="C26" s="69" t="s">
         <v>55</v>
       </c>
@@ -25186,7 +25160,7 @@
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B27" s="218"/>
+      <c r="B27" s="221"/>
       <c r="C27" s="61" t="s">
         <v>56</v>
       </c>
@@ -25258,7 +25232,7 @@
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B28" s="218"/>
+      <c r="B28" s="221"/>
       <c r="C28" s="61"/>
       <c r="D28" s="24" t="str">
         <f>IF(D27=D$30,"S",IF(D27&lt;D$30,"B",IF(D27&gt;D$30,"A")))</f>
@@ -25673,16 +25647,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="D3:H3"/>
     <mergeCell ref="J3:N3"/>
     <mergeCell ref="P3:T3"/>
     <mergeCell ref="D11:H11"/>
     <mergeCell ref="J11:N11"/>
     <mergeCell ref="P11:T11"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="D3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -25709,15 +25683,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="222" t="s">
+      <c r="A1" s="223" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="222"/>
-      <c r="C1" s="222"/>
-      <c r="D1" s="222"/>
-      <c r="E1" s="222"/>
-      <c r="F1" s="222"/>
-      <c r="G1" s="222"/>
+      <c r="B1" s="223"/>
+      <c r="C1" s="223"/>
+      <c r="D1" s="223"/>
+      <c r="E1" s="223"/>
+      <c r="F1" s="223"/>
+      <c r="G1" s="223"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="157"/>
